--- a/RICE13_pyomo/Results/coop.xlsx
+++ b/RICE13_pyomo/Results/coop.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="US" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JAP" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHI" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IND" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEST" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AFR" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAM" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OHI" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTH" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="global" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="US" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JAP" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="EUR" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CHI" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="IND" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MEST" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AFR" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="LAM" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="OHI" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="OTH" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="global" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,46 +496,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.2158897986815</v>
+        <v>187.0606993019637</v>
       </c>
       <c r="C2" t="n">
-        <v>183.2815905284512</v>
+        <v>183.1213787489736</v>
       </c>
       <c r="D2" t="n">
-        <v>173.3367271859786</v>
+        <v>173.174359303083</v>
       </c>
       <c r="E2" t="n">
-        <v>160.2420800918902</v>
+        <v>160.0664586613712</v>
       </c>
       <c r="F2" t="n">
-        <v>144.621920855703</v>
+        <v>144.4453287689574</v>
       </c>
       <c r="G2" t="n">
-        <v>128.5778594240157</v>
+        <v>128.4129450130598</v>
       </c>
       <c r="H2" t="n">
-        <v>114.0023616607323</v>
+        <v>113.8562314661879</v>
       </c>
       <c r="I2" t="n">
-        <v>100.8782414610065</v>
+        <v>100.7538791709019</v>
       </c>
       <c r="J2" t="n">
-        <v>89.13141332457647</v>
+        <v>89.02877020622721</v>
       </c>
       <c r="K2" t="n">
-        <v>78.4221885043838</v>
+        <v>78.33968184409989</v>
       </c>
       <c r="L2" t="n">
-        <v>68.73778116658019</v>
+        <v>68.67235436860078</v>
       </c>
       <c r="M2" t="n">
-        <v>60.26848344465866</v>
+        <v>60.21615845214381</v>
       </c>
       <c r="N2" t="n">
-        <v>52.96886745220832</v>
+        <v>52.92880837506712</v>
       </c>
       <c r="O2" t="n">
-        <v>46.37359109949689</v>
+        <v>46.34318919506368</v>
       </c>
     </row>
     <row r="3">
@@ -548,43 +548,43 @@
         <v>30.15992716991271</v>
       </c>
       <c r="C3" t="n">
-        <v>49.14972338058229</v>
+        <v>49.1240325911378</v>
       </c>
       <c r="D3" t="n">
-        <v>67.50867545247542</v>
+        <v>67.3110584607852</v>
       </c>
       <c r="E3" t="n">
-        <v>85.84510042727426</v>
+        <v>85.55685169207882</v>
       </c>
       <c r="F3" t="n">
-        <v>104.1141245087256</v>
+        <v>103.5934753225934</v>
       </c>
       <c r="G3" t="n">
-        <v>122.4699184607998</v>
+        <v>121.6367698134404</v>
       </c>
       <c r="H3" t="n">
-        <v>141.4619910903631</v>
+        <v>140.2840587656009</v>
       </c>
       <c r="I3" t="n">
-        <v>161.1353395919341</v>
+        <v>159.6237555191515</v>
       </c>
       <c r="J3" t="n">
-        <v>181.3849659823458</v>
+        <v>179.5823178570446</v>
       </c>
       <c r="K3" t="n">
-        <v>201.3964562860509</v>
+        <v>199.3774373653693</v>
       </c>
       <c r="L3" t="n">
-        <v>219.8354197609539</v>
+        <v>217.7209593843096</v>
       </c>
       <c r="M3" t="n">
-        <v>232.6378940998392</v>
+        <v>230.6205096493455</v>
       </c>
       <c r="N3" t="n">
-        <v>229.6073714649217</v>
+        <v>227.510581995318</v>
       </c>
       <c r="O3" t="n">
-        <v>178.2089380532403</v>
+        <v>176.6946460730225</v>
       </c>
     </row>
     <row r="4">
@@ -594,46 +594,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2476406926314604</v>
+        <v>0.2481345910690242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2415054835565569</v>
+        <v>0.2415709350134909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2373728924035248</v>
+        <v>0.2376371923791286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2335755546279693</v>
+        <v>0.2337164183951775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2319953080416284</v>
+        <v>0.2320450339420811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2325642643184581</v>
+        <v>0.2325474521949553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2328256340634128</v>
+        <v>0.2327676050035744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2325191778420986</v>
+        <v>0.2324422465100872</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2306453501593432</v>
+        <v>0.2305758449879077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2267062748894465</v>
+        <v>0.2266935830832234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2170249204628785</v>
+        <v>0.217151788442174</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1917657119080751</v>
+        <v>0.1916532209729439</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1201709657202089</v>
+        <v>0.1201904944654044</v>
       </c>
       <c r="O4" t="n">
-        <v>2.618861685483052e-09</v>
+        <v>2.605983876690264e-09</v>
       </c>
     </row>
     <row r="5">
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.863360702144751</v>
+        <v>3.860791623200302</v>
       </c>
       <c r="C5" t="n">
-        <v>5.037122657278747</v>
+        <v>5.01825674054857</v>
       </c>
       <c r="D5" t="n">
-        <v>6.230628077728796</v>
+        <v>6.208693682649233</v>
       </c>
       <c r="E5" t="n">
-        <v>7.418178880151576</v>
+        <v>7.37616457347323</v>
       </c>
       <c r="F5" t="n">
-        <v>8.616756793472021</v>
+        <v>8.551595843342069</v>
       </c>
       <c r="G5" t="n">
-        <v>9.875937096227723</v>
+        <v>9.787193960824773</v>
       </c>
       <c r="H5" t="n">
-        <v>11.18105932051062</v>
+        <v>11.07097287378651</v>
       </c>
       <c r="I5" t="n">
-        <v>12.52005471284464</v>
+        <v>12.39249557797231</v>
       </c>
       <c r="J5" t="n">
-        <v>13.8151429289735</v>
+        <v>13.67609549054326</v>
       </c>
       <c r="K5" t="n">
-        <v>14.96128175414658</v>
+        <v>14.82023455326172</v>
       </c>
       <c r="L5" t="n">
-        <v>15.59860228588611</v>
+        <v>15.47059051541489</v>
       </c>
       <c r="M5" t="n">
-        <v>14.84915534420407</v>
+        <v>14.70981824357172</v>
       </c>
       <c r="N5" t="n">
-        <v>9.814979793539012</v>
+        <v>9.736661123665183</v>
       </c>
       <c r="O5" t="n">
-        <v>2.088458686838254e-07</v>
+        <v>2.062611665893323e-07</v>
       </c>
     </row>
     <row r="6">
@@ -695,43 +695,43 @@
         <v>15.99182389482275</v>
       </c>
       <c r="C6" t="n">
-        <v>21.54420157949611</v>
+        <v>21.54082258488249</v>
       </c>
       <c r="D6" t="n">
-        <v>27.02175226259496</v>
+        <v>26.99799781549058</v>
       </c>
       <c r="E6" t="n">
-        <v>32.55577267552856</v>
+        <v>32.52293955020875</v>
       </c>
       <c r="F6" t="n">
-        <v>37.94275745071928</v>
+        <v>37.88573481207644</v>
       </c>
       <c r="G6" t="n">
-        <v>43.25937519610257</v>
+        <v>43.17087761763162</v>
       </c>
       <c r="H6" t="n">
-        <v>48.80758185114809</v>
+        <v>48.68530085349845</v>
       </c>
       <c r="I6" t="n">
-        <v>54.61844988685562</v>
+        <v>54.46423250820764</v>
       </c>
       <c r="J6" t="n">
-        <v>60.6613552355313</v>
+        <v>60.47986235466692</v>
       </c>
       <c r="K6" t="n">
-        <v>66.74957711952811</v>
+        <v>66.54811741106221</v>
       </c>
       <c r="L6" t="n">
-        <v>72.62412005910161</v>
+        <v>72.41385283380239</v>
       </c>
       <c r="M6" t="n">
-        <v>78.12782670218293</v>
+        <v>77.92395457889882</v>
       </c>
       <c r="N6" t="n">
-        <v>82.06245284485244</v>
+        <v>81.8369106296521</v>
       </c>
       <c r="O6" t="n">
-        <v>80.03982696969969</v>
+        <v>79.83518087144911</v>
       </c>
     </row>
     <row r="7">
@@ -741,46 +741,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.60066991047475</v>
+        <v>15.55926405329895</v>
       </c>
       <c r="C7" t="n">
-        <v>20.85717716674177</v>
+        <v>20.77342930459874</v>
       </c>
       <c r="D7" t="n">
-        <v>26.24827129433536</v>
+        <v>26.12677594988509</v>
       </c>
       <c r="E7" t="n">
-        <v>31.75922622539411</v>
+        <v>31.56031837267548</v>
       </c>
       <c r="F7" t="n">
-        <v>37.14194423244913</v>
+        <v>36.85317327444535</v>
       </c>
       <c r="G7" t="n">
-        <v>42.46541112053342</v>
+        <v>42.08686815721256</v>
       </c>
       <c r="H7" t="n">
-        <v>48.02331738723119</v>
+        <v>47.56234388207285</v>
       </c>
       <c r="I7" t="n">
-        <v>53.84525624525855</v>
+        <v>53.31429963371361</v>
       </c>
       <c r="J7" t="n">
-        <v>59.89777344060568</v>
+        <v>59.3127848724158</v>
       </c>
       <c r="K7" t="n">
-        <v>65.99412284217743</v>
+        <v>65.37562445171169</v>
       </c>
       <c r="L7" t="n">
-        <v>71.87470569101859</v>
+        <v>71.24321022819761</v>
       </c>
       <c r="M7" t="n">
-        <v>77.43383943070161</v>
+        <v>76.75226207467881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.67513454448711</v>
+        <v>81.01024267329041</v>
       </c>
       <c r="O7" t="n">
-        <v>79.74681131176408</v>
+        <v>79.14905707371251</v>
       </c>
     </row>
     <row r="8">
@@ -790,46 +790,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8279953438177714</v>
+        <v>0.8600230746840193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9776648624109663</v>
+        <v>0.9999999301353707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999617244398</v>
+        <v>0.9999999840375329</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999754269646</v>
+        <v>0.9999999876320013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999758014402</v>
+        <v>0.9999999867659214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999717035873</v>
+        <v>0.9999999835982611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999636256729</v>
+        <v>0.9999999779709704</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999494183374</v>
+        <v>0.9999999683447697</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999226191753</v>
+        <v>0.9999999505713323</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999998614515535</v>
+        <v>0.9999999117420462</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999996366264853</v>
+        <v>0.9999997886470262</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9628605507689589</v>
+        <v>0.999997142892208</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6476051341997746</v>
+        <v>0.6790931987326645</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005634593359512535</v>
+        <v>0.005615658362408474</v>
       </c>
     </row>
     <row r="9">
@@ -839,46 +839,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3693118372016638</v>
+        <v>0.410717694377468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6449156719976733</v>
+        <v>0.6869145360097662</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7111346859977812</v>
+        <v>0.7105095817626559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7159076599258937</v>
+        <v>0.7151856776691692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7050472766502063</v>
+        <v>0.7039877111696211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.686166501254852</v>
+        <v>0.6847628035144964</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6669196536513498</v>
+        <v>0.6652488006132912</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6482759288977459</v>
+        <v>0.6464455301314397</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6301198427307679</v>
+        <v>0.6282346345546854</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6109418577089443</v>
+        <v>0.6090980341403189</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5893143895813531</v>
+        <v>0.5876084090244279</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5083848259971555</v>
+        <v>0.5637373944272823</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1576054716675873</v>
+        <v>0.1795186183765258</v>
       </c>
       <c r="O9" t="n">
-        <v>2.354131685607326e-07</v>
+        <v>2.325962283201415e-07</v>
       </c>
     </row>
     <row r="10">
@@ -891,43 +891,43 @@
         <v>0.001365832145850479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001954527792607865</v>
+        <v>0.003736103575285992</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002307262743583144</v>
+        <v>0.005952748234930961</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002476942906938632</v>
+        <v>0.007608030002396286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002523958406141853</v>
+        <v>0.008672758443020359</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002491889303200556</v>
+        <v>0.009248055145895656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002404233232111966</v>
+        <v>0.009401362686237088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002287097362852605</v>
+        <v>0.009244366828940745</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002200114911324577</v>
+        <v>0.008909458896194898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002164993785398106</v>
+        <v>0.008465978409729579</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002204501457248446</v>
+        <v>0.00805141797824919</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002375625347824823</v>
+        <v>0.007801902676501768</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002799243999348266</v>
+        <v>0.007907792865175284</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003660870264416749</v>
+        <v>0.008594250775797264</v>
       </c>
     </row>
     <row r="11">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.73730920833</v>
+        <v>11.69847243009865</v>
       </c>
       <c r="C11" t="n">
-        <v>15.82005450946302</v>
+        <v>15.75517256405017</v>
       </c>
       <c r="D11" t="n">
-        <v>20.01764321660657</v>
+        <v>19.91808226723586</v>
       </c>
       <c r="E11" t="n">
-        <v>24.34104734524253</v>
+        <v>24.18415379920224</v>
       </c>
       <c r="F11" t="n">
-        <v>28.52518743897711</v>
+        <v>28.30157743110329</v>
       </c>
       <c r="G11" t="n">
-        <v>32.58947402430569</v>
+        <v>32.29967419638778</v>
       </c>
       <c r="H11" t="n">
-        <v>36.84225806672058</v>
+        <v>36.49137100828635</v>
       </c>
       <c r="I11" t="n">
-        <v>41.32520153241391</v>
+        <v>40.9218040557413</v>
       </c>
       <c r="J11" t="n">
-        <v>46.08263051163217</v>
+        <v>45.63668938187254</v>
       </c>
       <c r="K11" t="n">
-        <v>51.03284108803086</v>
+        <v>50.55538989844997</v>
       </c>
       <c r="L11" t="n">
-        <v>56.27610340513247</v>
+        <v>55.77261971278271</v>
       </c>
       <c r="M11" t="n">
-        <v>62.58468408649753</v>
+        <v>62.04244383110709</v>
       </c>
       <c r="N11" t="n">
-        <v>71.8601547509481</v>
+        <v>71.27358154962523</v>
       </c>
       <c r="O11" t="n">
-        <v>79.74681110291822</v>
+        <v>79.14905686745135</v>
       </c>
     </row>
     <row r="12">
@@ -986,46 +986,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2786101485255843</v>
+        <v>0.2267321874770816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04153274625009945</v>
+        <v>1.298946473592272e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>7.710499867664821e-08</v>
+        <v>3.212765623777157e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>5.214189629410708e-08</v>
+        <v>2.621737651986781e-08</v>
       </c>
       <c r="F12" t="n">
-        <v>5.289565067906241e-08</v>
+        <v>2.888490729870505e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>6.294899953834239e-08</v>
+        <v>3.641312725386799e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>8.222082365840302e-08</v>
+        <v>4.966984316448929e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>1.161492518051266e-07</v>
+        <v>7.248377645835009e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>1.804386696916203e-07</v>
+        <v>1.14914240938844e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>3.271438675861421e-07</v>
+        <v>2.077677962693953e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>8.640741784078916e-07</v>
+        <v>5.011259493585992e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08840112319682476</v>
+        <v>6.782880887749492e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8236347208004002</v>
+        <v>0.7479778339189751</v>
       </c>
       <c r="O12" t="n">
-        <v>2.128122344184669</v>
+        <v>2.122721574547791</v>
       </c>
     </row>
     <row r="13">
@@ -1035,46 +1035,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2786101485255843</v>
+        <v>0.2267321874770816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04153274625009945</v>
+        <v>1.298946473592272e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>7.710499867664821e-08</v>
+        <v>3.212765623777157e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>5.214189629410708e-08</v>
+        <v>2.621737651986781e-08</v>
       </c>
       <c r="F13" t="n">
-        <v>5.289565067906241e-08</v>
+        <v>2.888490729870505e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>6.294899953834239e-08</v>
+        <v>3.641312725386799e-08</v>
       </c>
       <c r="H13" t="n">
-        <v>8.222082365840302e-08</v>
+        <v>4.966984316448929e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>1.161492518051266e-07</v>
+        <v>7.248377645835009e-08</v>
       </c>
       <c r="J13" t="n">
-        <v>1.804386696916203e-07</v>
+        <v>1.14914240938844e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>3.271438675861421e-07</v>
+        <v>2.077677962693953e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>8.640741784078916e-07</v>
+        <v>5.011259493585992e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08840112319682476</v>
+        <v>6.782880887749492e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8236347208004002</v>
+        <v>0.7479778339189751</v>
       </c>
       <c r="O13" t="n">
-        <v>2.128122344184669</v>
+        <v>2.122721574547791</v>
       </c>
     </row>
     <row r="14">
@@ -1245,46 +1245,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.6297787575296</v>
+        <v>174.5652369745437</v>
       </c>
       <c r="C2" t="n">
-        <v>208.3227568919775</v>
+        <v>208.0158964541958</v>
       </c>
       <c r="D2" t="n">
-        <v>221.4053999320219</v>
+        <v>220.88068656164</v>
       </c>
       <c r="E2" t="n">
-        <v>218.7226900714609</v>
+        <v>218.0912227334687</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1929098822638</v>
+        <v>203.561880038643</v>
       </c>
       <c r="G2" t="n">
-        <v>185.2813116287545</v>
+        <v>184.711102507217</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9706693892755</v>
+        <v>165.4862087459767</v>
       </c>
       <c r="I2" t="n">
-        <v>147.3124294576587</v>
+        <v>146.9190632748049</v>
       </c>
       <c r="J2" t="n">
-        <v>129.8703158572709</v>
+        <v>129.5622561052847</v>
       </c>
       <c r="K2" t="n">
-        <v>114.046126144327</v>
+        <v>113.8119853204194</v>
       </c>
       <c r="L2" t="n">
-        <v>99.90679028439803</v>
+        <v>99.73261862587374</v>
       </c>
       <c r="M2" t="n">
-        <v>87.37667574597077</v>
+        <v>87.24897923962321</v>
       </c>
       <c r="N2" t="n">
-        <v>76.54691958534943</v>
+        <v>76.45435058771851</v>
       </c>
       <c r="O2" t="n">
-        <v>66.62318853886065</v>
+        <v>66.55498550952602</v>
       </c>
     </row>
     <row r="3">
@@ -1297,43 +1297,43 @@
         <v>13.44037364302173</v>
       </c>
       <c r="C3" t="n">
-        <v>21.01391529715139</v>
+        <v>21.02918424026868</v>
       </c>
       <c r="D3" t="n">
-        <v>30.32302219972357</v>
+        <v>30.30063893801034</v>
       </c>
       <c r="E3" t="n">
-        <v>41.18703683313124</v>
+        <v>41.05061083009507</v>
       </c>
       <c r="F3" t="n">
-        <v>53.26969944691659</v>
+        <v>52.94813517101791</v>
       </c>
       <c r="G3" t="n">
-        <v>66.66301198057702</v>
+        <v>66.10325184034174</v>
       </c>
       <c r="H3" t="n">
-        <v>81.52209272040426</v>
+        <v>80.68759930773747</v>
       </c>
       <c r="I3" t="n">
-        <v>97.81910032560127</v>
+        <v>96.69274272449738</v>
       </c>
       <c r="J3" t="n">
-        <v>115.4221431487201</v>
+        <v>114.0062075296818</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0272441494243</v>
+        <v>132.3502352996029</v>
       </c>
       <c r="L3" t="n">
-        <v>152.725804906817</v>
+        <v>150.8624804237479</v>
       </c>
       <c r="M3" t="n">
-        <v>168.548592146358</v>
+        <v>166.6296894389515</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0543176908397</v>
+        <v>171.2828859400095</v>
       </c>
       <c r="O3" t="n">
-        <v>138.870313871973</v>
+        <v>137.6140316577574</v>
       </c>
     </row>
     <row r="4">
@@ -1343,46 +1343,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2297830261849638</v>
+        <v>0.2300124827764385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2245204351297546</v>
+        <v>0.2246816495190914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2195432256901066</v>
+        <v>0.2196045040059337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2154720375744315</v>
+        <v>0.2154575863603236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2152715936731804</v>
+        <v>0.2152123745055248</v>
       </c>
       <c r="G4" t="n">
-        <v>0.216734312623987</v>
+        <v>0.2166425399974487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2180240883315323</v>
+        <v>0.2179030284354459</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2189811126123659</v>
+        <v>0.2188268501926387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2192677667866528</v>
+        <v>0.2190854991227983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2175052681121483</v>
+        <v>0.2173298091285777</v>
       </c>
       <c r="L4" t="n">
-        <v>0.210110263398351</v>
+        <v>0.2099886644312646</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1878650679995779</v>
+        <v>0.1878350308184492</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196329064897478</v>
+        <v>0.1196931328370306</v>
       </c>
       <c r="O4" t="n">
-        <v>1.036207773663791e-09</v>
+        <v>1.029767634436236e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1392,46 +1392,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.632754678094142</v>
+        <v>1.634281572405871</v>
       </c>
       <c r="C5" t="n">
-        <v>2.29959229935193</v>
+        <v>2.296821578053795</v>
       </c>
       <c r="D5" t="n">
-        <v>3.061405275341396</v>
+        <v>3.04854313111563</v>
       </c>
       <c r="E5" t="n">
-        <v>3.890866769159914</v>
+        <v>3.86346722216282</v>
       </c>
       <c r="F5" t="n">
-        <v>4.808901627283032</v>
+        <v>4.764137866270726</v>
       </c>
       <c r="G5" t="n">
-        <v>5.827813769064904</v>
+        <v>5.763882057050965</v>
       </c>
       <c r="H5" t="n">
-        <v>6.939410420216314</v>
+        <v>6.855871646246163</v>
       </c>
       <c r="I5" t="n">
-        <v>8.1314731835204</v>
+        <v>8.029153282751343</v>
       </c>
       <c r="J5" t="n">
-        <v>9.378203132332967</v>
+        <v>9.259872869643658</v>
       </c>
       <c r="K5" t="n">
-        <v>10.59933944858939</v>
+        <v>10.47148068326144</v>
       </c>
       <c r="L5" t="n">
-        <v>11.52963967284321</v>
+        <v>11.40271950951822</v>
       </c>
       <c r="M5" t="n">
-        <v>11.42850575001964</v>
+        <v>11.31827057520884</v>
       </c>
       <c r="N5" t="n">
-        <v>7.853000432696113</v>
+        <v>7.789138217236859</v>
       </c>
       <c r="O5" t="n">
-        <v>6.777178019379222e-08</v>
+        <v>6.681143277958426e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1444,43 +1444,43 @@
         <v>7.122862075485028</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2770899003854</v>
+        <v>10.2793295650309</v>
       </c>
       <c r="D6" t="n">
-        <v>14.00231748644251</v>
+        <v>13.99921589707501</v>
       </c>
       <c r="E6" t="n">
-        <v>18.14269047511702</v>
+        <v>18.12464103663037</v>
       </c>
       <c r="F6" t="n">
-        <v>22.45400477157473</v>
+        <v>22.41325526426008</v>
       </c>
       <c r="G6" t="n">
-        <v>27.0361202151884</v>
+        <v>26.96781352721166</v>
       </c>
       <c r="H6" t="n">
-        <v>32.00720068329107</v>
+        <v>31.90855484193441</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3396079366182</v>
+        <v>37.21009836875074</v>
       </c>
       <c r="J6" t="n">
-        <v>42.9964496540418</v>
+        <v>42.83752841692908</v>
       </c>
       <c r="K6" t="n">
-        <v>48.96435620582211</v>
+        <v>48.77974634756164</v>
       </c>
       <c r="L6" t="n">
-        <v>55.09918570385647</v>
+        <v>54.89664797571198</v>
       </c>
       <c r="M6" t="n">
-        <v>61.04253446910997</v>
+        <v>60.83321002827601</v>
       </c>
       <c r="N6" t="n">
-        <v>65.8478868278436</v>
+        <v>65.6449469929826</v>
       </c>
       <c r="O6" t="n">
-        <v>65.64029970206722</v>
+        <v>65.46158940002942</v>
       </c>
     </row>
     <row r="7">
@@ -1490,46 +1490,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.105636587707989</v>
+        <v>7.105186434574149</v>
       </c>
       <c r="C7" t="n">
-        <v>10.24224052489009</v>
+        <v>10.22255971046106</v>
       </c>
       <c r="D7" t="n">
-        <v>13.94443060458027</v>
+        <v>13.88196997559421</v>
       </c>
       <c r="E7" t="n">
-        <v>18.05740927203083</v>
+        <v>17.93145132379648</v>
       </c>
       <c r="F7" t="n">
-        <v>22.33876539504687</v>
+        <v>22.13691418635607</v>
       </c>
       <c r="G7" t="n">
-        <v>26.88920687503504</v>
+        <v>26.60549519553659</v>
       </c>
       <c r="H7" t="n">
-        <v>31.82864092367671</v>
+        <v>31.46294797035015</v>
       </c>
       <c r="I7" t="n">
-        <v>37.13321704559288</v>
+        <v>36.69181033169869</v>
       </c>
       <c r="J7" t="n">
-        <v>42.77055068225301</v>
+        <v>42.26602356942602</v>
       </c>
       <c r="K7" t="n">
-        <v>48.73141483232602</v>
+        <v>48.18244089592997</v>
       </c>
       <c r="L7" t="n">
-        <v>54.87423358745691</v>
+        <v>54.30159547136252</v>
       </c>
       <c r="M7" t="n">
-        <v>60.83358589072727</v>
+        <v>60.25644165463709</v>
       </c>
       <c r="N7" t="n">
-        <v>65.64247800306596</v>
+        <v>65.0758989477052</v>
       </c>
       <c r="O7" t="n">
-        <v>65.4036593010366</v>
+        <v>64.88010551638801</v>
       </c>
     </row>
     <row r="8">
@@ -1539,46 +1539,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2098901664606932</v>
+        <v>0.2185460842060289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2629503508128363</v>
+        <v>0.2803900603929126</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3174450803255717</v>
+        <v>0.3442891030934329</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3722977347798387</v>
+        <v>0.4087839988772494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.425862002720068</v>
+        <v>0.4717132786568496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4760333917652492</v>
+        <v>0.5303464678941799</v>
       </c>
       <c r="H8" t="n">
-        <v>0.519729126908642</v>
+        <v>0.5808035303992727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5525716969725634</v>
+        <v>0.617567626675429</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5687744562980088</v>
+        <v>0.6335983467338572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5614718505413017</v>
+        <v>0.6209970114641605</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5220061308749598</v>
+        <v>0.5703777279855704</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4401856859304014</v>
+        <v>0.4724167075197328</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3043498697687648</v>
+        <v>0.3190041862622362</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003914670719085859</v>
+        <v>0.003899573403215911</v>
       </c>
     </row>
     <row r="9">
@@ -1588,46 +1588,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003757363863381743</v>
+        <v>0.004207516997221563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008483255343188577</v>
+        <v>0.01015654461975138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01649340145637803</v>
+        <v>0.02069793957468923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02841441171776503</v>
+        <v>0.03688044688681738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04401233868753705</v>
+        <v>0.05849669908524133</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06270872410314532</v>
+        <v>0.08464701910346761</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08287609687399115</v>
+        <v>0.1127703340194464</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1008999926942155</v>
+        <v>0.1372810773962986</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1114454450952789</v>
+        <v>0.1502108129181615</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1089037063212822</v>
+        <v>0.1438581304824798</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08936797520161174</v>
+        <v>0.1141158683063867</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05519605691131631</v>
+        <v>0.06704190735920142</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01912038449523841</v>
+        <v>0.0217440888893475</v>
       </c>
       <c r="O9" t="n">
-        <v>8.776890583960518e-08</v>
+        <v>8.658421327602311e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1640,43 +1640,43 @@
         <v>0.001890830367193471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00256552393797139</v>
+        <v>0.004534664411253704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002956187820048173</v>
+        <v>0.006896670686126856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003134418869484833</v>
+        <v>0.008624130300355306</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003172130698506454</v>
+        <v>0.00971944397412669</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003114522918969443</v>
+        <v>0.0102963969359781</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002989441772404733</v>
+        <v>0.01043094991965598</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002825174236166797</v>
+        <v>0.01023934298372392</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002661929708485837</v>
+        <v>0.009834695187932759</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002533223691401462</v>
+        <v>0.009295811378729311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002460728583661342</v>
+        <v>0.00876076506995218</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002518776830100176</v>
+        <v>0.008379082182952156</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002829072416088887</v>
+        <v>0.008337335643618771</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00360510714204233</v>
+        <v>0.008882824300274801</v>
       </c>
     </row>
     <row r="11">
@@ -1686,46 +1686,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.472881909613847</v>
+        <v>5.470904862168278</v>
       </c>
       <c r="C11" t="n">
-        <v>7.942648225538163</v>
+        <v>7.925738132407261</v>
       </c>
       <c r="D11" t="n">
-        <v>10.88302532923887</v>
+        <v>10.83342684447858</v>
       </c>
       <c r="E11" t="n">
-        <v>14.16654250287091</v>
+        <v>14.06798410163366</v>
       </c>
       <c r="F11" t="n">
-        <v>17.52986376776384</v>
+        <v>17.37277632008534</v>
       </c>
       <c r="G11" t="n">
-        <v>21.06139310597013</v>
+        <v>20.84161313848562</v>
       </c>
       <c r="H11" t="n">
-        <v>24.8892305034604</v>
+        <v>24.60707632410399</v>
       </c>
       <c r="I11" t="n">
-        <v>29.00174386207248</v>
+        <v>28.66265704894735</v>
       </c>
       <c r="J11" t="n">
-        <v>33.39234754992005</v>
+        <v>33.00615069978236</v>
       </c>
       <c r="K11" t="n">
-        <v>38.13207538373663</v>
+        <v>37.71096021266853</v>
       </c>
       <c r="L11" t="n">
-        <v>43.3445939146137</v>
+        <v>42.8988759618443</v>
       </c>
       <c r="M11" t="n">
-        <v>49.40508014070762</v>
+        <v>48.93817107942824</v>
       </c>
       <c r="N11" t="n">
-        <v>57.78947757036984</v>
+        <v>57.28676073046834</v>
       </c>
       <c r="O11" t="n">
-        <v>65.40365923326482</v>
+        <v>64.88010544957658</v>
       </c>
     </row>
     <row r="12">
@@ -1735,46 +1735,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4205654829331027</v>
+        <v>0.4159580472674951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4933362545021695</v>
+        <v>0.4817681403323843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.548635589315059</v>
+        <v>0.5269416983316417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5820621980568405</v>
+        <v>0.5476834296697883</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5920374374680225</v>
+        <v>0.5437680691015713</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5893507880170257</v>
+        <v>0.5269255024373625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5836496532651853</v>
+        <v>0.5078588696970074</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5827589088618612</v>
+        <v>0.4963764649978266</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5977323152287312</v>
+        <v>0.5060011354718487</v>
       </c>
       <c r="K12" t="n">
-        <v>0.643217721976207</v>
+        <v>0.553812365999601</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7366513365130717</v>
+        <v>0.6596705388460193</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8963505554608254</v>
+        <v>0.8418468740015266</v>
       </c>
       <c r="N12" t="n">
-        <v>1.131213262697405</v>
+        <v>1.103970629594324</v>
       </c>
       <c r="O12" t="n">
-        <v>1.525536255426769</v>
+        <v>1.521405935453036</v>
       </c>
     </row>
     <row r="13">
@@ -1784,46 +1784,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4205654829331027</v>
+        <v>0.4159580472674951</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4933362545021695</v>
+        <v>0.4817681403323843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.548635589315059</v>
+        <v>0.5269416983316417</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5820621980568405</v>
+        <v>0.5476834296697883</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5920374374680225</v>
+        <v>0.5437680691015713</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5893507880170257</v>
+        <v>0.5269255024373625</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5836496532651853</v>
+        <v>0.5078588696970074</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5827589088618612</v>
+        <v>0.4963764649978266</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5977323152287312</v>
+        <v>0.5060011354718487</v>
       </c>
       <c r="K13" t="n">
-        <v>0.643217721976207</v>
+        <v>0.553812365999601</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7366513365130717</v>
+        <v>0.6596705388460193</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8963505554608254</v>
+        <v>0.8418468740015266</v>
       </c>
       <c r="N13" t="n">
-        <v>1.131213262697405</v>
+        <v>1.103970629594324</v>
       </c>
       <c r="O13" t="n">
-        <v>1.525536255426769</v>
+        <v>1.521405935453036</v>
       </c>
     </row>
     <row r="14">
@@ -1994,46 +1994,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.20386991149061</v>
+        <v>74.13795353937429</v>
       </c>
       <c r="C2" t="n">
-        <v>71.98824141551178</v>
+        <v>71.87685761931863</v>
       </c>
       <c r="D2" t="n">
-        <v>66.9468415896992</v>
+        <v>66.80209401333931</v>
       </c>
       <c r="E2" t="n">
-        <v>60.2295542310964</v>
+        <v>60.08123411422119</v>
       </c>
       <c r="F2" t="n">
-        <v>52.60743101820385</v>
+        <v>52.48885795885587</v>
       </c>
       <c r="G2" t="n">
-        <v>45.17690222155936</v>
+        <v>45.08914670485944</v>
       </c>
       <c r="H2" t="n">
-        <v>38.6677572491136</v>
+        <v>38.59943391401192</v>
       </c>
       <c r="I2" t="n">
-        <v>33.00385325341885</v>
+        <v>32.95012903107418</v>
       </c>
       <c r="J2" t="n">
-        <v>28.10302524945399</v>
+        <v>28.06086936132222</v>
       </c>
       <c r="K2" t="n">
-        <v>24.26492432165423</v>
+        <v>24.23129167072775</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2641356977454</v>
+        <v>21.2358113914794</v>
       </c>
       <c r="M2" t="n">
-        <v>18.63748905157801</v>
+        <v>18.61586277371396</v>
       </c>
       <c r="N2" t="n">
-        <v>16.37369032255956</v>
+        <v>16.35776891994957</v>
       </c>
       <c r="O2" t="n">
-        <v>14.32036655882176</v>
+        <v>14.30847070001252</v>
       </c>
     </row>
     <row r="3">
@@ -2046,43 +2046,43 @@
         <v>9.580191347594166</v>
       </c>
       <c r="C3" t="n">
-        <v>15.05712554590143</v>
+        <v>15.0968117782394</v>
       </c>
       <c r="D3" t="n">
-        <v>20.43620366736308</v>
+        <v>20.47153772001485</v>
       </c>
       <c r="E3" t="n">
-        <v>25.51420342939188</v>
+        <v>25.45999168775127</v>
       </c>
       <c r="F3" t="n">
-        <v>30.1871160693488</v>
+        <v>29.8899473334343</v>
       </c>
       <c r="G3" t="n">
-        <v>34.51486356961492</v>
+        <v>34.06330226853933</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70444577071909</v>
+        <v>38.24464764572725</v>
       </c>
       <c r="I3" t="n">
-        <v>43.00744755399648</v>
+        <v>42.50716655133153</v>
       </c>
       <c r="J3" t="n">
-        <v>47.39975171227839</v>
+        <v>46.85703461441424</v>
       </c>
       <c r="K3" t="n">
-        <v>52.06720549443609</v>
+        <v>51.50307415853992</v>
       </c>
       <c r="L3" t="n">
-        <v>56.67121540101724</v>
+        <v>56.15077463841315</v>
       </c>
       <c r="M3" t="n">
-        <v>60.22514918072325</v>
+        <v>59.51533861424668</v>
       </c>
       <c r="N3" t="n">
-        <v>59.86434830902169</v>
+        <v>59.18285946696266</v>
       </c>
       <c r="O3" t="n">
-        <v>46.5624112773962</v>
+        <v>46.10148325138545</v>
       </c>
     </row>
     <row r="4">
@@ -2092,46 +2092,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2334873134951681</v>
+        <v>0.2346126034654506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2287253178629527</v>
+        <v>0.2300435712378813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2238629848669638</v>
+        <v>0.2249187208569284</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2197150545839266</v>
+        <v>0.2195802256011438</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2179756875945293</v>
+        <v>0.217614872529399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2183871861526776</v>
+        <v>0.2184458291261924</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2196653287491074</v>
+        <v>0.2196605317853034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2212904528863873</v>
+        <v>0.2212906776718282</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2243900952508995</v>
+        <v>0.2244988065252795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2236772674489326</v>
+        <v>0.2241244030209434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2148551981784009</v>
+        <v>0.214533162574527</v>
       </c>
       <c r="M4" t="n">
-        <v>0.190830056113371</v>
+        <v>0.1907062853175391</v>
       </c>
       <c r="N4" t="n">
-        <v>0.119544569132344</v>
+        <v>0.1196228331402742</v>
       </c>
       <c r="O4" t="n">
-        <v>9.44926710373997e-09</v>
+        <v>9.395093208515866e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2141,46 +2141,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.171671937096278</v>
+        <v>1.175640560330074</v>
       </c>
       <c r="C5" t="n">
-        <v>1.518610861962831</v>
+        <v>1.520760493869503</v>
       </c>
       <c r="D5" t="n">
-        <v>1.838853981308982</v>
+        <v>1.832200784908818</v>
       </c>
       <c r="E5" t="n">
-        <v>2.129086341719436</v>
+        <v>2.101259714679022</v>
       </c>
       <c r="F5" t="n">
-        <v>2.398926702743673</v>
+        <v>2.36413220576463</v>
       </c>
       <c r="G5" t="n">
-        <v>2.666985698100144</v>
+        <v>2.636750854607816</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95120417777271</v>
+        <v>2.917208246804521</v>
       </c>
       <c r="I5" t="n">
-        <v>3.240398198646833</v>
+        <v>3.203570208822506</v>
       </c>
       <c r="J5" t="n">
-        <v>3.553993400627155</v>
+        <v>3.516503642147425</v>
       </c>
       <c r="K5" t="n">
-        <v>3.851650340885111</v>
+        <v>3.819276308045883</v>
       </c>
       <c r="L5" t="n">
-        <v>4.046511819612546</v>
+        <v>3.993677410291813</v>
       </c>
       <c r="M5" t="n">
-        <v>3.88651372378973</v>
+        <v>3.843114403692382</v>
       </c>
       <c r="N5" t="n">
-        <v>2.568900369140344</v>
+        <v>2.546569613178739</v>
       </c>
       <c r="O5" t="n">
-        <v>1.980740735349451e-07</v>
+        <v>1.952556983590433e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2193,43 +2193,43 @@
         <v>5.097074969620485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.777978976142204</v>
+        <v>6.783333477683891</v>
       </c>
       <c r="D6" t="n">
-        <v>8.418064861832013</v>
+        <v>8.422428654594009</v>
       </c>
       <c r="E6" t="n">
-        <v>9.958427309692441</v>
+        <v>9.952074781536881</v>
       </c>
       <c r="F6" t="n">
-        <v>11.33020461140925</v>
+        <v>11.29662755236665</v>
       </c>
       <c r="G6" t="n">
-        <v>12.57516186668667</v>
+        <v>12.52557755009405</v>
       </c>
       <c r="H6" t="n">
-        <v>13.80667141985409</v>
+        <v>13.75725960547141</v>
       </c>
       <c r="I6" t="n">
-        <v>15.02681933208041</v>
+        <v>14.97416489944304</v>
       </c>
       <c r="J6" t="n">
-        <v>16.24960608179311</v>
+        <v>16.1935645769349</v>
       </c>
       <c r="K6" t="n">
-        <v>17.67404465072012</v>
+        <v>17.61637768584552</v>
       </c>
       <c r="L6" t="n">
-        <v>19.3012622490907</v>
+        <v>19.24791442461621</v>
       </c>
       <c r="M6" t="n">
-        <v>20.84411340867522</v>
+        <v>20.77010704175416</v>
       </c>
       <c r="N6" t="n">
-        <v>21.99737025888394</v>
+        <v>21.92194433098512</v>
       </c>
       <c r="O6" t="n">
-        <v>21.50296101765847</v>
+        <v>21.4388802445122</v>
       </c>
     </row>
     <row r="7">
@@ -2239,46 +2239,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.018139613484933</v>
+        <v>5.01098637909792</v>
       </c>
       <c r="C7" t="n">
-        <v>6.639452405844945</v>
+        <v>6.610749805726713</v>
       </c>
       <c r="D7" t="n">
-        <v>8.214193974058585</v>
+        <v>8.146057286508791</v>
       </c>
       <c r="E7" t="n">
-        <v>9.690216019795631</v>
+        <v>9.569439638411943</v>
       </c>
       <c r="F7" t="n">
-        <v>11.00547831373777</v>
+        <v>10.86383562982463</v>
       </c>
       <c r="G7" t="n">
-        <v>12.21218948366145</v>
+        <v>12.07050217051574</v>
       </c>
       <c r="H7" t="n">
-        <v>13.4350022125861</v>
+        <v>13.28052983890527</v>
       </c>
       <c r="I7" t="n">
-        <v>14.64319023428672</v>
+        <v>14.4767517661696</v>
       </c>
       <c r="J7" t="n">
-        <v>15.83845934310645</v>
+        <v>15.66379659907658</v>
       </c>
       <c r="K7" t="n">
-        <v>17.21967719300968</v>
+        <v>17.04087665852696</v>
       </c>
       <c r="L7" t="n">
-        <v>18.83366962456548</v>
+        <v>18.61566464767163</v>
       </c>
       <c r="M7" t="n">
-        <v>20.36636053536963</v>
+        <v>20.15200703685949</v>
       </c>
       <c r="N7" t="n">
-        <v>21.48905958493518</v>
+        <v>21.28832386198825</v>
       </c>
       <c r="O7" t="n">
-        <v>20.96184512093519</v>
+        <v>20.78273137110128</v>
       </c>
     </row>
     <row r="8">
@@ -2288,46 +2288,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5948775683693863</v>
+        <v>0.618103679386536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.708721931631823</v>
+        <v>0.7532671320893335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8043721934556817</v>
+        <v>0.8686756960669449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.886262443110139</v>
+        <v>0.9687591038792043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9562883136792081</v>
+        <v>0.9999997059712938</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999980537917061</v>
+        <v>0.9999998165324225</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999993129312605</v>
+        <v>0.9999998096523162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999992551335367</v>
+        <v>0.9999997506024059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999986695053502</v>
+        <v>0.9999995940439929</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999829073185759</v>
+        <v>0.9999990507254509</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9054404116282531</v>
+        <v>0.9885920967718594</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7415402594085334</v>
+        <v>0.7952187708764276</v>
       </c>
       <c r="N8" t="n">
-        <v>0.499541831833147</v>
+        <v>0.5232730711273511</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007536343771016836</v>
+        <v>0.007507322042463589</v>
       </c>
     </row>
     <row r="9">
@@ -2337,46 +2337,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06318930933063144</v>
+        <v>0.0703425437176448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1104818632763545</v>
+        <v>0.1311471170960681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1598552430515644</v>
+        <v>0.1983689524109558</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2054904433191571</v>
+        <v>0.2634778829312051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2425235363215274</v>
+        <v>0.2740411721092001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2585598855485907</v>
+        <v>0.2575416457382479</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2429995256262891</v>
+        <v>0.2421302069058831</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2284152463284408</v>
+        <v>0.2276151881214783</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2150538931321415</v>
+        <v>0.2143127718662767</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2051363324622999</v>
+        <v>0.2044762550850245</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1497678884204702</v>
+        <v>0.1910103950290219</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08212839335504206</v>
+        <v>0.0995253976950492</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02560833845761372</v>
+        <v>0.029062165547615</v>
       </c>
       <c r="O9" t="n">
-        <v>1.784781376924597e-07</v>
+        <v>1.760258252553262e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2389,43 +2389,43 @@
         <v>0.003089231941607784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004137620833528542</v>
+        <v>0.006108582896216261</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005228712945826072</v>
+        <v>0.009261273543910152</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006298268253322187</v>
+        <v>0.01197310739814703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007255187718955743</v>
+        <v>0.01405293302774777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008303073835831714</v>
+        <v>0.01577042919179261</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009319384645938759</v>
+        <v>0.01705278277709827</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01032912208732559</v>
+        <v>0.01801756204528007</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0120675445649251</v>
+        <v>0.0194802820894265</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01410153307709229</v>
+        <v>0.02106135431755921</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01646652597136336</v>
+        <v>0.02292400995669725</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01898015387816351</v>
+        <v>0.02496735361821294</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02194363825358632</v>
+        <v>0.02757776839140837</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02516470721407956</v>
+        <v>0.03060554888602694</v>
       </c>
     </row>
     <row r="11">
@@ -2435,46 +2435,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.846467676388655</v>
+        <v>3.835345818767845</v>
       </c>
       <c r="C11" t="n">
-        <v>5.120841543882114</v>
+        <v>5.089989311857209</v>
       </c>
       <c r="D11" t="n">
-        <v>6.375339992749602</v>
+        <v>6.313856501599973</v>
       </c>
       <c r="E11" t="n">
-        <v>7.561129678076194</v>
+        <v>7.468179923732921</v>
       </c>
       <c r="F11" t="n">
-        <v>8.606551610994101</v>
+        <v>8.499703424060002</v>
       </c>
       <c r="G11" t="n">
-        <v>9.545203785561302</v>
+        <v>9.433751315907923</v>
       </c>
       <c r="H11" t="n">
-        <v>10.48379803481339</v>
+        <v>10.36332159210075</v>
       </c>
       <c r="I11" t="n">
-        <v>11.40279203563989</v>
+        <v>11.27318155734709</v>
       </c>
       <c r="J11" t="n">
-        <v>12.2844659424793</v>
+        <v>12.14729295692916</v>
       </c>
       <c r="K11" t="n">
-        <v>13.36802685212457</v>
+        <v>13.22160035048108</v>
       </c>
       <c r="L11" t="n">
-        <v>14.78715780495294</v>
+        <v>14.62198723737982</v>
       </c>
       <c r="M11" t="n">
-        <v>16.4798468115799</v>
+        <v>16.30889263316711</v>
       </c>
       <c r="N11" t="n">
-        <v>18.92015921579484</v>
+        <v>18.74175424880952</v>
       </c>
       <c r="O11" t="n">
-        <v>20.96184492286112</v>
+        <v>20.78273117584558</v>
       </c>
     </row>
     <row r="12">
@@ -2484,46 +2484,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2318590588534209</v>
+        <v>0.2185663260378469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1868733032046548</v>
+        <v>0.1584197902446465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.133332686042071</v>
+        <v>0.0895521925670538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07947705319260091</v>
+        <v>0.02181645671831944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03047647097822057</v>
+        <v>2.043938883779504e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>1.334844150050644e-06</v>
+        <v>1.253385730689556e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>4.629878235581275e-07</v>
+        <v>1.278085536234364e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>4.930802399240354e-07</v>
+        <v>1.645155613557967e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>8.663330763253177e-07</v>
+        <v>2.634209767626911e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>1.108818512129899e-05</v>
+        <v>6.137941881385449e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06174712292088684</v>
+        <v>0.007428736424920067</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1689530535916653</v>
+        <v>0.1333885630416153</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3216624527857651</v>
+        <v>0.305358896576962</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5836249684310192</v>
+        <v>0.5819027286819414</v>
       </c>
     </row>
     <row r="13">
@@ -2533,46 +2533,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2318590588534209</v>
+        <v>0.2185663260378469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1868733032046548</v>
+        <v>0.1584197902446465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.133332686042071</v>
+        <v>0.0895521925670538</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07947705319260091</v>
+        <v>0.02181645671831944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03047647097822057</v>
+        <v>2.043938883779504e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>1.334844150050644e-06</v>
+        <v>1.253385730689556e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>4.629878235581275e-07</v>
+        <v>1.278085536234364e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>4.930802399240354e-07</v>
+        <v>1.645155613557967e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>8.663330763253177e-07</v>
+        <v>2.634209767626911e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>1.108818512129899e-05</v>
+        <v>6.137941881385449e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06174712292088684</v>
+        <v>0.007428736424920067</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1689530535916653</v>
+        <v>0.1333885630416153</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3216624527857651</v>
+        <v>0.305358896576962</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5836249684310192</v>
+        <v>0.5819027286819414</v>
       </c>
     </row>
     <row r="14">
@@ -2743,46 +2743,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-149.649363023515</v>
+        <v>-149.9595209071312</v>
       </c>
       <c r="C2" t="n">
-        <v>21.58099528949082</v>
+        <v>20.26407826578223</v>
       </c>
       <c r="D2" t="n">
-        <v>147.0573911132163</v>
+        <v>144.8376308847139</v>
       </c>
       <c r="E2" t="n">
-        <v>227.932267272453</v>
+        <v>225.2912019422415</v>
       </c>
       <c r="F2" t="n">
-        <v>266.6153924118192</v>
+        <v>264.0234866931356</v>
       </c>
       <c r="G2" t="n">
-        <v>276.0776184170725</v>
+        <v>273.7861255330595</v>
       </c>
       <c r="H2" t="n">
-        <v>270.9377186699361</v>
+        <v>269.0194487708301</v>
       </c>
       <c r="I2" t="n">
-        <v>257.4465614915181</v>
+        <v>255.8997372064532</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5605321963027</v>
+        <v>238.3476830020833</v>
       </c>
       <c r="K2" t="n">
-        <v>217.7657265672025</v>
+        <v>216.8448194809201</v>
       </c>
       <c r="L2" t="n">
-        <v>194.1981954348719</v>
+        <v>193.5159376224907</v>
       </c>
       <c r="M2" t="n">
-        <v>172.1656347010095</v>
+        <v>171.6657797079795</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5427648772826</v>
+        <v>152.1807021805208</v>
       </c>
       <c r="O2" t="n">
-        <v>133.7974076744038</v>
+        <v>133.5318796079482</v>
       </c>
     </row>
     <row r="3">
@@ -2795,43 +2795,43 @@
         <v>7.827276852851487</v>
       </c>
       <c r="C3" t="n">
-        <v>12.28066229210425</v>
+        <v>12.2986401593516</v>
       </c>
       <c r="D3" t="n">
-        <v>19.10068347143003</v>
+        <v>19.08932327830834</v>
       </c>
       <c r="E3" t="n">
-        <v>28.66997907404184</v>
+        <v>28.54609324980744</v>
       </c>
       <c r="F3" t="n">
-        <v>40.96933781870474</v>
+        <v>40.63141765562701</v>
       </c>
       <c r="G3" t="n">
-        <v>56.24069655008655</v>
+        <v>55.58698535340419</v>
       </c>
       <c r="H3" t="n">
-        <v>74.9565839693432</v>
+        <v>73.8918279898146</v>
       </c>
       <c r="I3" t="n">
-        <v>97.38115170887814</v>
+        <v>95.83106359804765</v>
       </c>
       <c r="J3" t="n">
-        <v>123.4237279428359</v>
+        <v>121.346569446181</v>
       </c>
       <c r="K3" t="n">
-        <v>152.0140244594739</v>
+        <v>149.4230851705294</v>
       </c>
       <c r="L3" t="n">
-        <v>181.7155755715902</v>
+        <v>178.7007118479395</v>
       </c>
       <c r="M3" t="n">
-        <v>209.0237981956943</v>
+        <v>205.7576383381217</v>
       </c>
       <c r="N3" t="n">
-        <v>222.8873698727903</v>
+        <v>219.6872811859155</v>
       </c>
       <c r="O3" t="n">
-        <v>185.2135964286956</v>
+        <v>182.7986103621902</v>
       </c>
     </row>
     <row r="4">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2293285965385026</v>
+        <v>0.2297626203434142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2251523308115963</v>
+        <v>0.2254664306417538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2207565288257083</v>
+        <v>0.2209018369056738</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2151247023281296</v>
+        <v>0.2151193271729594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2138272561874947</v>
+        <v>0.2137124648869603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2157605198261236</v>
+        <v>0.2155679011498101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2173455176440385</v>
+        <v>0.2171081606732258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2180392018660196</v>
+        <v>0.2177827689690466</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2163644416499262</v>
+        <v>0.2161121618171204</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2134455742172119</v>
+        <v>0.2132351002076942</v>
       </c>
       <c r="L4" t="n">
-        <v>0.206954422006576</v>
+        <v>0.2068168440321187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1862517299295004</v>
+        <v>0.186209369071703</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1203751903560724</v>
+        <v>0.1204297721777348</v>
       </c>
       <c r="O4" t="n">
-        <v>3.12201167190112e-10</v>
+        <v>3.083208152663906e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2890,46 +2890,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9551459608821159</v>
+        <v>0.9569437476068507</v>
       </c>
       <c r="C5" t="n">
-        <v>1.481868130002423</v>
+        <v>1.480105261219441</v>
       </c>
       <c r="D5" t="n">
-        <v>2.200998255637976</v>
+        <v>2.189005778656227</v>
       </c>
       <c r="E5" t="n">
-        <v>3.097273423746818</v>
+        <v>3.067801039033502</v>
       </c>
       <c r="F5" t="n">
-        <v>4.195557174753064</v>
+        <v>4.141968602618856</v>
       </c>
       <c r="G5" t="n">
-        <v>5.534666562612157</v>
+        <v>5.450984464692807</v>
       </c>
       <c r="H5" t="n">
-        <v>7.124540693522288</v>
+        <v>7.006657627842157</v>
       </c>
       <c r="I5" t="n">
-        <v>8.94690198698428</v>
+        <v>8.793234367768985</v>
       </c>
       <c r="J5" t="n">
-        <v>10.8978831529039</v>
+        <v>10.71121526245487</v>
       </c>
       <c r="K5" t="n">
-        <v>12.87115626497376</v>
+        <v>12.66001035957499</v>
       </c>
       <c r="L5" t="n">
-        <v>14.56634947635185</v>
+        <v>14.34485528862226</v>
       </c>
       <c r="M5" t="n">
-        <v>15.00052779741384</v>
+        <v>14.79440288115192</v>
       </c>
       <c r="N5" t="n">
-        <v>10.74975759834593</v>
+        <v>10.61983918484751</v>
       </c>
       <c r="O5" t="n">
-        <v>2.845354240515509e-08</v>
+        <v>2.77701435974289e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2942,43 +2942,43 @@
         <v>4.17964548697053</v>
       </c>
       <c r="C6" t="n">
-        <v>6.612367688281171</v>
+        <v>6.615270188343595</v>
       </c>
       <c r="D6" t="n">
-        <v>10.02428117092763</v>
+        <v>10.02249220641156</v>
       </c>
       <c r="E6" t="n">
-        <v>14.48261835885053</v>
+        <v>14.46381564596206</v>
       </c>
       <c r="F6" t="n">
-        <v>19.7437346903062</v>
+        <v>19.69473836241291</v>
       </c>
       <c r="G6" t="n">
-        <v>25.81898880274436</v>
+        <v>25.72858834803701</v>
       </c>
       <c r="H6" t="n">
-        <v>33.00040226201145</v>
+        <v>32.85906648819019</v>
       </c>
       <c r="I6" t="n">
-        <v>41.31666108790165</v>
+        <v>41.11825146995569</v>
       </c>
       <c r="J6" t="n">
-        <v>50.73378425673624</v>
+        <v>50.47611378637163</v>
       </c>
       <c r="K6" t="n">
-        <v>60.76912614465759</v>
+        <v>60.45652825298422</v>
       </c>
       <c r="L6" t="n">
-        <v>70.97806171921478</v>
+        <v>70.62270922497365</v>
       </c>
       <c r="M6" t="n">
-        <v>81.29792270398836</v>
+        <v>80.91471675735527</v>
       </c>
       <c r="N6" t="n">
-        <v>90.29968791329166</v>
+        <v>89.90877608993463</v>
       </c>
       <c r="O6" t="n">
-        <v>92.41921871810059</v>
+        <v>92.05604244570593</v>
       </c>
     </row>
     <row r="7">
@@ -2988,46 +2988,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.164966669221097</v>
+        <v>4.164923546643735</v>
       </c>
       <c r="C7" t="n">
-        <v>6.581624647903046</v>
+        <v>6.564636948420922</v>
       </c>
       <c r="D7" t="n">
-        <v>9.970252147675815</v>
+        <v>9.90940505212251</v>
       </c>
       <c r="E7" t="n">
-        <v>14.39757215339477</v>
+        <v>14.26092708335286</v>
       </c>
       <c r="F7" t="n">
-        <v>19.62124590456413</v>
+        <v>19.38103425464529</v>
       </c>
       <c r="G7" t="n">
-        <v>25.6518966818972</v>
+        <v>25.28662400857452</v>
       </c>
       <c r="H7" t="n">
-        <v>32.77979123172271</v>
+        <v>32.27265896461639</v>
       </c>
       <c r="I7" t="n">
-        <v>41.03345595844714</v>
+        <v>40.37617121590903</v>
       </c>
       <c r="J7" t="n">
-        <v>50.36818004751671</v>
+        <v>49.5632229690015</v>
       </c>
       <c r="K7" t="n">
-        <v>60.3018184479922</v>
+        <v>59.37113705597226</v>
       </c>
       <c r="L7" t="n">
-        <v>70.38433552238379</v>
+        <v>69.36018850763674</v>
       </c>
       <c r="M7" t="n">
-        <v>80.53899849999679</v>
+        <v>79.45036791062373</v>
       </c>
       <c r="N7" t="n">
-        <v>89.30210258897968</v>
+        <v>88.18283878486751</v>
       </c>
       <c r="O7" t="n">
-        <v>91.13848824219343</v>
+        <v>90.06898730932379</v>
       </c>
     </row>
     <row r="8">
@@ -3037,46 +3037,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0881827475196901</v>
+        <v>0.09180317433036818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1154934817700132</v>
+        <v>0.1230652965490278</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1477946081984312</v>
+        <v>0.1600602379225372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1843496969822221</v>
+        <v>0.2019871828164946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2237955099196249</v>
+        <v>0.2472368215964252</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2641153611613475</v>
+        <v>0.2933666531888171</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3029685826850013</v>
+        <v>0.337475987166847</v>
       </c>
       <c r="I8" t="n">
-        <v>0.336911265867986</v>
+        <v>0.3752686945432865</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3613254834752859</v>
+        <v>0.4011146290641996</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3700296196400957</v>
+        <v>0.4078351817992283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3550061000880264</v>
+        <v>0.3865641875225934</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3076287957826054</v>
+        <v>0.3290383101266875</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2176097953373258</v>
+        <v>0.2273404345662502</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002369162610404893</v>
+        <v>0.002354614262257849</v>
       </c>
     </row>
     <row r="9">
@@ -3086,46 +3086,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003616125660330934</v>
+        <v>0.0004047351433952743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009779310700709632</v>
+        <v>0.001168739159582636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002411064505944346</v>
+        <v>0.003013567659034808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005345631809648464</v>
+        <v>0.006895133969608835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01049427728578365</v>
+        <v>0.01383586884598283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01846350301716975</v>
+        <v>0.02468986243849376</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02961829533817048</v>
+        <v>0.03988988955992884</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04305412457351158</v>
+        <v>0.05794810414522487</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05591723386192467</v>
+        <v>0.07453668564528108</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0627182735390675</v>
+        <v>0.0819311898987068</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05752769710187005</v>
+        <v>0.07265365579034516</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03915128441817121</v>
+        <v>0.04704447534424731</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01471925048059047</v>
+        <v>0.01656519753769116</v>
       </c>
       <c r="O9" t="n">
-        <v>4.305539002520252e-08</v>
+        <v>4.215209950312829e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3138,43 +3138,43 @@
         <v>0.003425459223283617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004501429852548048</v>
+        <v>0.007477321311871396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005149292788750989</v>
+        <v>0.01098265624587868</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005503188143972971</v>
+        <v>0.0135506033426459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005672407485868299</v>
+        <v>0.01522580464912047</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005756562310224663</v>
+        <v>0.01621831992410266</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0057875880855677</v>
+        <v>0.01663217164767294</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00581244947093081</v>
+        <v>0.01663816250555615</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006104156823596025</v>
+        <v>0.01660892784402909</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006657812096280973</v>
+        <v>0.01659804219842398</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007554425786523775</v>
+        <v>0.01684822169248952</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008853521660007793</v>
+        <v>0.01751602709847534</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0108844902628587</v>
+        <v>0.01901229425945664</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01385783661251547</v>
+        <v>0.02158527611484063</v>
       </c>
     </row>
     <row r="11">
@@ -3184,46 +3184,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.209820708338981</v>
+        <v>3.207979799036884</v>
       </c>
       <c r="C11" t="n">
-        <v>5.099756517900624</v>
+        <v>5.084531687201483</v>
       </c>
       <c r="D11" t="n">
-        <v>7.769253892037838</v>
+        <v>7.720399273466283</v>
       </c>
       <c r="E11" t="n">
-        <v>11.30029872964796</v>
+        <v>11.19312604431936</v>
       </c>
       <c r="F11" t="n">
-        <v>15.42568872981106</v>
+        <v>15.23906565202643</v>
       </c>
       <c r="G11" t="n">
-        <v>20.11723011928504</v>
+        <v>19.83563954388171</v>
       </c>
       <c r="H11" t="n">
-        <v>25.65525053820043</v>
+        <v>25.26600133677423</v>
       </c>
       <c r="I11" t="n">
-        <v>32.08655397146286</v>
+        <v>31.58293684814004</v>
       </c>
       <c r="J11" t="n">
-        <v>39.47029689461281</v>
+        <v>38.85200770654663</v>
       </c>
       <c r="K11" t="n">
-        <v>47.43066218301843</v>
+        <v>46.71112669639727</v>
       </c>
       <c r="L11" t="n">
-        <v>55.81798604603194</v>
+        <v>55.01533321901448</v>
       </c>
       <c r="M11" t="n">
-        <v>65.53847070258296</v>
+        <v>64.6559650294718</v>
       </c>
       <c r="N11" t="n">
-        <v>78.55234499063374</v>
+        <v>77.56299960002001</v>
       </c>
       <c r="O11" t="n">
-        <v>91.13848821373989</v>
+        <v>90.06898728155365</v>
       </c>
     </row>
     <row r="12">
@@ -3233,46 +3233,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.573693639127108</v>
+        <v>0.5714157530413146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.74018575469516</v>
+        <v>0.7341715206121863</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9225276412476149</v>
+        <v>0.9090876092228399</v>
       </c>
       <c r="E12" t="n">
-        <v>1.10315486552935</v>
+        <v>1.077899178594301</v>
       </c>
       <c r="F12" t="n">
-        <v>1.252616969848809</v>
+        <v>1.211773405541537</v>
       </c>
       <c r="G12" t="n">
-        <v>1.374012734579218</v>
+        <v>1.314776333859759</v>
       </c>
       <c r="H12" t="n">
-        <v>1.486187841695355</v>
+        <v>1.406562263538608</v>
       </c>
       <c r="I12" t="n">
-        <v>1.595392479753737</v>
+        <v>1.495886286715722</v>
       </c>
       <c r="J12" t="n">
-        <v>1.714128927225424</v>
+        <v>1.599175964321518</v>
       </c>
       <c r="K12" t="n">
-        <v>1.852893220475544</v>
+        <v>1.732738702597723</v>
       </c>
       <c r="L12" t="n">
-        <v>2.040252158200495</v>
+        <v>1.93071247964362</v>
       </c>
       <c r="M12" t="n">
-        <v>2.323153800853794</v>
+        <v>2.240705388509704</v>
       </c>
       <c r="N12" t="n">
-        <v>2.714396621900816</v>
+        <v>2.669032877307722</v>
       </c>
       <c r="O12" t="n">
-        <v>3.313018004264903</v>
+        <v>3.300047087552558</v>
       </c>
     </row>
     <row r="13">
@@ -3282,46 +3282,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.573693639127108</v>
+        <v>0.5714157530413146</v>
       </c>
       <c r="C13" t="n">
-        <v>0.74018575469516</v>
+        <v>0.7341715206121863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9225276412476149</v>
+        <v>0.9090876092228399</v>
       </c>
       <c r="E13" t="n">
-        <v>1.10315486552935</v>
+        <v>1.077899178594301</v>
       </c>
       <c r="F13" t="n">
-        <v>1.252616969848809</v>
+        <v>1.211773405541537</v>
       </c>
       <c r="G13" t="n">
-        <v>1.374012734579218</v>
+        <v>1.314776333859759</v>
       </c>
       <c r="H13" t="n">
-        <v>1.486187841695355</v>
+        <v>1.406562263538608</v>
       </c>
       <c r="I13" t="n">
-        <v>1.595392479753737</v>
+        <v>1.495886286715722</v>
       </c>
       <c r="J13" t="n">
-        <v>1.714128927225424</v>
+        <v>1.599175964321518</v>
       </c>
       <c r="K13" t="n">
-        <v>1.852893220475544</v>
+        <v>1.732738702597723</v>
       </c>
       <c r="L13" t="n">
-        <v>2.040252158200495</v>
+        <v>1.93071247964362</v>
       </c>
       <c r="M13" t="n">
-        <v>2.323153800853794</v>
+        <v>2.240705388509704</v>
       </c>
       <c r="N13" t="n">
-        <v>2.714396621900816</v>
+        <v>2.669032877307722</v>
       </c>
       <c r="O13" t="n">
-        <v>3.313018004264903</v>
+        <v>3.300047087552558</v>
       </c>
     </row>
     <row r="14">
@@ -3495,43 +3495,43 @@
         <v>825.23</v>
       </c>
       <c r="C2" t="n">
-        <v>802.0415401777918</v>
+        <v>800.5739600674842</v>
       </c>
       <c r="D2" t="n">
-        <v>781.8389705562878</v>
+        <v>778.0138141563972</v>
       </c>
       <c r="E2" t="n">
-        <v>764.8948467440265</v>
+        <v>757.9838440203544</v>
       </c>
       <c r="F2" t="n">
-        <v>750.1718938571428</v>
+        <v>738.96461121185</v>
       </c>
       <c r="G2" t="n">
-        <v>735.8301568491828</v>
+        <v>719.6406148062865</v>
       </c>
       <c r="H2" t="n">
-        <v>721.3311668603268</v>
+        <v>699.6348754596529</v>
       </c>
       <c r="I2" t="n">
-        <v>707.4190226318752</v>
+        <v>679.6765803904583</v>
       </c>
       <c r="J2" t="n">
-        <v>695.1605565710171</v>
+        <v>661.3863556744221</v>
       </c>
       <c r="K2" t="n">
-        <v>686.5488859181303</v>
+        <v>647.0425574060148</v>
       </c>
       <c r="L2" t="n">
-        <v>684.289729051185</v>
+        <v>639.8726824562642</v>
       </c>
       <c r="M2" t="n">
-        <v>692.9887246745767</v>
+        <v>645.1163416499908</v>
       </c>
       <c r="N2" t="n">
-        <v>719.5748235710585</v>
+        <v>670.3861844006294</v>
       </c>
       <c r="O2" t="n">
-        <v>776.3613410347066</v>
+        <v>729.1953679609974</v>
       </c>
     </row>
     <row r="3">
@@ -3541,46 +3541,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>825.23</v>
+        <v>9903.01790909091</v>
       </c>
       <c r="C3" t="n">
-        <v>802.0415401777918</v>
+        <v>10822.8476782493</v>
       </c>
       <c r="D3" t="n">
-        <v>781.8389705562878</v>
+        <v>11282.67963972139</v>
       </c>
       <c r="E3" t="n">
-        <v>764.8948467440265</v>
+        <v>11402.62976331197</v>
       </c>
       <c r="F3" t="n">
-        <v>750.1718938571428</v>
+        <v>11274.21473545471</v>
       </c>
       <c r="G3" t="n">
-        <v>735.8301568491828</v>
+        <v>10968.0723148491</v>
       </c>
       <c r="H3" t="n">
-        <v>721.3311668603268</v>
+        <v>10539.15805459431</v>
       </c>
       <c r="I3" t="n">
-        <v>707.4190226318752</v>
+        <v>10030.47360856084</v>
       </c>
       <c r="J3" t="n">
-        <v>695.1605565710171</v>
+        <v>9475.683988187579</v>
       </c>
       <c r="K3" t="n">
-        <v>686.5488859181303</v>
+        <v>8901.127574222945</v>
       </c>
       <c r="L3" t="n">
-        <v>684.289729051185</v>
+        <v>8327.881585092902</v>
       </c>
       <c r="M3" t="n">
-        <v>692.9887246745767</v>
+        <v>7774.235036754715</v>
       </c>
       <c r="N3" t="n">
-        <v>719.5748235710585</v>
+        <v>7257.18592009398</v>
       </c>
       <c r="O3" t="n">
-        <v>776.3613410347066</v>
+        <v>6796.875320385905</v>
       </c>
     </row>
     <row r="4">
@@ -3691,43 +3691,43 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.172242307283427</v>
+        <v>1.6229932008153</v>
       </c>
       <c r="D6" t="n">
-        <v>1.271820963160356</v>
+        <v>2.048333108555147</v>
       </c>
       <c r="E6" t="n">
-        <v>1.314320888055014</v>
+        <v>2.314350878597995</v>
       </c>
       <c r="F6" t="n">
-        <v>1.321959439406159</v>
+        <v>2.469029302580688</v>
       </c>
       <c r="G6" t="n">
-        <v>1.305876261490918</v>
+        <v>2.54625100874012</v>
       </c>
       <c r="H6" t="n">
-        <v>1.272406600162223</v>
+        <v>2.562720132696227</v>
       </c>
       <c r="I6" t="n">
-        <v>1.227557368203554</v>
+        <v>2.535202291705057</v>
       </c>
       <c r="J6" t="n">
-        <v>1.178018333633514</v>
+        <v>2.476447522592479</v>
       </c>
       <c r="K6" t="n">
-        <v>1.133350453112658</v>
+        <v>2.395999047521016</v>
       </c>
       <c r="L6" t="n">
-        <v>1.099481614150831</v>
+        <v>2.311737945509494</v>
       </c>
       <c r="M6" t="n">
-        <v>1.099205276200162</v>
+        <v>2.246352009325503</v>
       </c>
       <c r="N6" t="n">
-        <v>1.163586697921147</v>
+        <v>2.22872149758103</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33734561613063</v>
+        <v>2.297380936939992</v>
       </c>
     </row>
     <row r="7">
@@ -3743,40 +3743,40 @@
         <v>0.09456200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1484460153641714</v>
+        <v>0.170983560040765</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2046147627539806</v>
+        <v>0.2648510374664841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2601000690190322</v>
+        <v>0.3673260295230597</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3131930375383886</v>
+        <v>0.4724111931759412</v>
       </c>
       <c r="H7" t="n">
-        <v>0.362827198736015</v>
+        <v>0.5761031839541502</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4083061688073255</v>
+        <v>0.6754340313912539</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4492687287771369</v>
+        <v>0.7684224444069441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4857062090199557</v>
+        <v>0.8538236983162207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5180884212245909</v>
+        <v>0.9309324657764605</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5471580808709029</v>
+        <v>0.9999727397631122</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5747604406373658</v>
+        <v>1.062291703241232</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6042017535015548</v>
+        <v>1.120613192958221</v>
       </c>
     </row>
     <row r="8">
@@ -3786,46 +3786,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.574408610980383</v>
+        <v>4.477605569014966</v>
       </c>
       <c r="C8" t="n">
-        <v>2.376924261939554</v>
+        <v>4.543995865458173</v>
       </c>
       <c r="D8" t="n">
-        <v>2.20486217302678</v>
+        <v>4.446021500816332</v>
       </c>
       <c r="E8" t="n">
-        <v>2.062860189563289</v>
+        <v>4.293305513193157</v>
       </c>
       <c r="F8" t="n">
-        <v>1.941488757981464</v>
+        <v>4.127282888233452</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82168026836847</v>
+        <v>3.954758514152009</v>
       </c>
       <c r="H8" t="n">
-        <v>1.697548026634718</v>
+        <v>3.745741896261995</v>
       </c>
       <c r="I8" t="n">
-        <v>1.577331144641163</v>
+        <v>3.526784099229265</v>
       </c>
       <c r="J8" t="n">
-        <v>1.473523811121665</v>
+        <v>3.304606030594256</v>
       </c>
       <c r="K8" t="n">
-        <v>1.410059723114239</v>
+        <v>3.083497692549436</v>
       </c>
       <c r="L8" t="n">
-        <v>1.383792422192771</v>
+        <v>2.91822177520622</v>
       </c>
       <c r="M8" t="n">
-        <v>1.484537758771491</v>
+        <v>2.858883046586731</v>
       </c>
       <c r="N8" t="n">
-        <v>1.785966962006038</v>
+        <v>2.969158508943794</v>
       </c>
       <c r="O8" t="n">
-        <v>2.399674758008001</v>
+        <v>3.338293473079359</v>
       </c>
     </row>
     <row r="9">
@@ -3835,46 +3835,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.583914017779186</v>
+        <v>7.437156006748426</v>
       </c>
       <c r="C9" t="n">
-        <v>7.604241519983096</v>
+        <v>7.350872929701093</v>
       </c>
       <c r="D9" t="n">
-        <v>7.687655265449314</v>
+        <v>7.333168756272483</v>
       </c>
       <c r="E9" t="n">
-        <v>7.706442872239947</v>
+        <v>7.193882847393802</v>
       </c>
       <c r="F9" t="n">
-        <v>7.56788902548971</v>
+        <v>6.935175693985859</v>
       </c>
       <c r="G9" t="n">
-        <v>7.380062883304599</v>
+        <v>6.635113443012083</v>
       </c>
       <c r="H9" t="n">
-        <v>7.26475957947877</v>
+        <v>6.399788998596369</v>
       </c>
       <c r="I9" t="n">
-        <v>7.263181665496679</v>
+        <v>6.327096493081878</v>
       </c>
       <c r="J9" t="n">
-        <v>7.48075961356352</v>
+        <v>6.50225644125234</v>
       </c>
       <c r="K9" t="n">
-        <v>8.012670944323034</v>
+        <v>7.047523193897125</v>
       </c>
       <c r="L9" t="n">
-        <v>9.081376310953399</v>
+        <v>8.202838108847827</v>
       </c>
       <c r="M9" t="n">
-        <v>10.9744745857431</v>
+        <v>10.26838037486375</v>
       </c>
       <c r="N9" t="n">
-        <v>14.31354962921751</v>
+        <v>13.92555256884435</v>
       </c>
       <c r="O9" t="n">
-        <v>19.90675937996911</v>
+        <v>19.83566338491965</v>
       </c>
     </row>
     <row r="10">
@@ -3884,46 +3884,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.583914017779186</v>
+        <v>191.0131560067484</v>
       </c>
       <c r="C10" t="n">
-        <v>7.604241519983096</v>
+        <v>154.2116729297011</v>
       </c>
       <c r="D10" t="n">
-        <v>7.687655265449314</v>
+        <v>124.8218087562725</v>
       </c>
       <c r="E10" t="n">
-        <v>7.706442872239947</v>
+        <v>101.1847948473938</v>
       </c>
       <c r="F10" t="n">
-        <v>7.56788902548971</v>
+        <v>82.12790529398588</v>
       </c>
       <c r="G10" t="n">
-        <v>7.380062883304599</v>
+        <v>66.7892971230121</v>
       </c>
       <c r="H10" t="n">
-        <v>7.26475957947877</v>
+        <v>54.52313594259638</v>
       </c>
       <c r="I10" t="n">
-        <v>7.263181665496679</v>
+        <v>44.82577404828189</v>
       </c>
       <c r="J10" t="n">
-        <v>7.48075961356352</v>
+        <v>37.30119848541236</v>
       </c>
       <c r="K10" t="n">
-        <v>8.012670944323034</v>
+        <v>31.68667682922514</v>
       </c>
       <c r="L10" t="n">
-        <v>9.081376310953399</v>
+        <v>27.91416101711024</v>
       </c>
       <c r="M10" t="n">
-        <v>10.9744745857431</v>
+        <v>26.03743870147368</v>
       </c>
       <c r="N10" t="n">
-        <v>14.31354962921751</v>
+        <v>26.54079923013229</v>
       </c>
       <c r="O10" t="n">
-        <v>19.90675937996911</v>
+        <v>29.92786071395001</v>
       </c>
     </row>
     <row r="12">
@@ -4044,46 +4044,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3659510867558</v>
+        <v>263.2602788326838</v>
       </c>
       <c r="C2" t="n">
-        <v>250.2795964376375</v>
+        <v>250.0300201449587</v>
       </c>
       <c r="D2" t="n">
-        <v>229.1020958947687</v>
+        <v>228.7312200927352</v>
       </c>
       <c r="E2" t="n">
-        <v>205.1192849096856</v>
+        <v>204.6919654624343</v>
       </c>
       <c r="F2" t="n">
-        <v>179.3804908783393</v>
+        <v>178.9586827111707</v>
       </c>
       <c r="G2" t="n">
-        <v>154.7219844039327</v>
+        <v>154.3440725592293</v>
       </c>
       <c r="H2" t="n">
-        <v>132.9158112048729</v>
+        <v>132.5985043824411</v>
       </c>
       <c r="I2" t="n">
-        <v>113.8381337933551</v>
+        <v>113.5851042179743</v>
       </c>
       <c r="J2" t="n">
-        <v>97.24189255393047</v>
+        <v>97.04838180069892</v>
       </c>
       <c r="K2" t="n">
-        <v>84.10340275016564</v>
+        <v>83.95861511721456</v>
       </c>
       <c r="L2" t="n">
-        <v>73.71361080267198</v>
+        <v>73.60651649857238</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61020629199496</v>
+        <v>64.53198439777954</v>
       </c>
       <c r="N2" t="n">
-        <v>56.75883963155741</v>
+        <v>56.701969845892</v>
       </c>
       <c r="O2" t="n">
-        <v>49.63354945831932</v>
+        <v>49.59117380707151</v>
       </c>
     </row>
     <row r="3">
@@ -4096,43 +4096,43 @@
         <v>30.92935159935833</v>
       </c>
       <c r="C3" t="n">
-        <v>47.39074076218967</v>
+        <v>47.45753247261276</v>
       </c>
       <c r="D3" t="n">
-        <v>63.52690152589215</v>
+        <v>63.5528327611927</v>
       </c>
       <c r="E3" t="n">
-        <v>79.26284977719192</v>
+        <v>79.10553493686058</v>
       </c>
       <c r="F3" t="n">
-        <v>94.39906946566335</v>
+        <v>93.94969173574346</v>
       </c>
       <c r="G3" t="n">
-        <v>109.1092318424583</v>
+        <v>108.3033812592854</v>
       </c>
       <c r="H3" t="n">
-        <v>123.9295321495863</v>
+        <v>122.7247715723705</v>
       </c>
       <c r="I3" t="n">
-        <v>138.8586148807888</v>
+        <v>137.2353939363605</v>
       </c>
       <c r="J3" t="n">
-        <v>154.3309721598282</v>
+        <v>152.2894133999182</v>
       </c>
       <c r="K3" t="n">
-        <v>170.7217138812473</v>
+        <v>168.3087693640815</v>
       </c>
       <c r="L3" t="n">
-        <v>187.4055003029398</v>
+        <v>184.7537672867231</v>
       </c>
       <c r="M3" t="n">
-        <v>200.5164686515595</v>
+        <v>197.8612120088903</v>
       </c>
       <c r="N3" t="n">
-        <v>200.4252443677998</v>
+        <v>198.0863364505914</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5525378599624</v>
+        <v>154.98805562878</v>
       </c>
     </row>
     <row r="4">
@@ -4142,46 +4142,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2249098456920533</v>
+        <v>0.2254353598448298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2220368403866163</v>
+        <v>0.2226677354837568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2199300020334113</v>
+        <v>0.2205912215178325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2174475805256313</v>
+        <v>0.2181153843417643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2168079879648317</v>
+        <v>0.2174529044964744</v>
       </c>
       <c r="G4" t="n">
-        <v>0.217917991146579</v>
+        <v>0.2184746636532413</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2189601221753356</v>
+        <v>0.2193528260282635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2206357235097542</v>
+        <v>0.2208057918689271</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2234738801260329</v>
+        <v>0.223428789313972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2232367654999495</v>
+        <v>0.223067143784276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2147246846951253</v>
+        <v>0.2145652889444982</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1909020034635867</v>
+        <v>0.1908638618633335</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1197282391655181</v>
+        <v>0.11982261546114</v>
       </c>
       <c r="O4" t="n">
-        <v>2.065645434620305e-09</v>
+        <v>2.053526376049561e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4191,46 +4191,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.660634269322097</v>
+        <v>3.667313440364405</v>
       </c>
       <c r="C5" t="n">
-        <v>4.700277196174836</v>
+        <v>4.700541436764698</v>
       </c>
       <c r="D5" t="n">
-        <v>5.711238884875753</v>
+        <v>5.694603234575172</v>
       </c>
       <c r="E5" t="n">
-        <v>6.676182264747143</v>
+        <v>6.636729721068286</v>
       </c>
       <c r="F5" t="n">
-        <v>7.619431155427923</v>
+        <v>7.554514929699052</v>
       </c>
       <c r="G5" t="n">
-        <v>8.588549539024864</v>
+        <v>8.496171753732723</v>
       </c>
       <c r="H5" t="n">
-        <v>9.564705892854828</v>
+        <v>9.444391202287751</v>
       </c>
       <c r="I5" t="n">
-        <v>10.59139669287481</v>
+        <v>10.4438390315679</v>
       </c>
       <c r="J5" t="n">
-        <v>11.69098312494419</v>
+        <v>11.5208734256054</v>
       </c>
       <c r="K5" t="n">
-        <v>12.78785194156279</v>
+        <v>12.60681281297044</v>
       </c>
       <c r="L5" t="n">
-        <v>13.51722111397704</v>
+        <v>13.34415566287572</v>
       </c>
       <c r="M5" t="n">
-        <v>13.05094748640135</v>
+        <v>12.90963976910361</v>
       </c>
       <c r="N5" t="n">
-        <v>8.666857629713663</v>
+        <v>8.591962083006404</v>
       </c>
       <c r="O5" t="n">
-        <v>1.464218809043991e-07</v>
+        <v>1.443052479430678e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4243,43 +4243,43 @@
         <v>16.39053328158728</v>
       </c>
       <c r="C6" t="n">
-        <v>21.37509164830518</v>
+        <v>21.38412490175911</v>
       </c>
       <c r="D6" t="n">
-        <v>26.28239388593183</v>
+        <v>26.28561191283245</v>
       </c>
       <c r="E6" t="n">
-        <v>31.13349050556759</v>
+        <v>31.11494020295542</v>
       </c>
       <c r="F6" t="n">
-        <v>35.68946713661183</v>
+        <v>35.63841309828106</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06996673870106</v>
+        <v>39.98095256250047</v>
       </c>
       <c r="H6" t="n">
-        <v>44.44098711458962</v>
+        <v>44.31093595765967</v>
       </c>
       <c r="I6" t="n">
-        <v>48.84300228702616</v>
+        <v>48.67100821383969</v>
       </c>
       <c r="J6" t="n">
-        <v>53.23042238121393</v>
+        <v>53.01819020783139</v>
       </c>
       <c r="K6" t="n">
-        <v>58.27153305582183</v>
+        <v>58.02322166516563</v>
       </c>
       <c r="L6" t="n">
-        <v>64.01808735360724</v>
+        <v>63.74497947508283</v>
       </c>
       <c r="M6" t="n">
-        <v>69.51427705493887</v>
+        <v>69.23683321970495</v>
       </c>
       <c r="N6" t="n">
-        <v>73.66115873062157</v>
+        <v>73.40221672954421</v>
       </c>
       <c r="O6" t="n">
-        <v>72.27228627519013</v>
+        <v>72.05485171785443</v>
       </c>
     </row>
     <row r="7">
@@ -4289,46 +4289,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.27600720661309</v>
+        <v>16.26769395399491</v>
       </c>
       <c r="C7" t="n">
-        <v>21.16890687144796</v>
+        <v>21.11011470320357</v>
       </c>
       <c r="D7" t="n">
-        <v>25.96843919461299</v>
+        <v>25.81518518911154</v>
       </c>
       <c r="E7" t="n">
-        <v>30.70249045130304</v>
+        <v>30.42760941002316</v>
       </c>
       <c r="F7" t="n">
-        <v>35.14368279024788</v>
+        <v>34.74092446450415</v>
       </c>
       <c r="G7" t="n">
-        <v>39.41184247264795</v>
+        <v>38.8885906112101</v>
       </c>
       <c r="H7" t="n">
-        <v>43.68241028471727</v>
+        <v>43.05570788985798</v>
       </c>
       <c r="I7" t="n">
-        <v>48.00399737808809</v>
+        <v>47.29875490660808</v>
       </c>
       <c r="J7" t="n">
-        <v>52.31476322132504</v>
+        <v>51.56396121099579</v>
       </c>
       <c r="K7" t="n">
-        <v>57.28380767802196</v>
+        <v>56.51577636714734</v>
       </c>
       <c r="L7" t="n">
-        <v>62.95140744143755</v>
+        <v>62.1915861997952</v>
       </c>
       <c r="M7" t="n">
-        <v>68.36464389903971</v>
+        <v>67.63794697996551</v>
       </c>
       <c r="N7" t="n">
-        <v>72.38774820476711</v>
+        <v>71.70567968275478</v>
       </c>
       <c r="O7" t="n">
-        <v>70.88432431353522</v>
+        <v>70.27192327603441</v>
       </c>
     </row>
     <row r="8">
@@ -4338,46 +4338,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4721871006105767</v>
+        <v>0.4913211493697311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5673431487954811</v>
+        <v>0.6042349893449057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6491897975534701</v>
+        <v>0.7027978876347826</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7208440416241805</v>
+        <v>0.7896009971841421</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7833256985195591</v>
+        <v>0.8652460368051035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8357482201515064</v>
+        <v>0.9283235256751536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8744752218172422</v>
+        <v>0.9743473992093504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8945385003715373</v>
+        <v>0.9970412034379531</v>
       </c>
       <c r="J8" t="n">
-        <v>0.88746702454562</v>
+        <v>0.986335856642147</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8471084556261074</v>
+        <v>0.9352189803849263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.765167329428182</v>
+        <v>0.8349544952852719</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6291802054928241</v>
+        <v>0.6746062957153234</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4253436144434994</v>
+        <v>0.44551284320381</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005042369145295838</v>
+        <v>0.005022674043755111</v>
       </c>
     </row>
     <row r="9">
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07066407905119272</v>
+        <v>0.07897733166937236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1288580894984986</v>
+        <v>0.1537812336588926</v>
       </c>
       <c r="D9" t="n">
-        <v>0.195385490915269</v>
+        <v>0.2440225800226251</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2650078946506442</v>
+        <v>0.3418108300540987</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3304171645174599</v>
+        <v>0.4359063315608566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3864270141020058</v>
+        <v>0.5174263526360884</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4258679432203625</v>
+        <v>0.5747882457662523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4394847955585178</v>
+        <v>0.5933777257847831</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4152880000539599</v>
+        <v>0.5559780408122255</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3557434870806427</v>
+        <v>0.4673157087609319</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2633479125893327</v>
+        <v>0.3348197436117701</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1487937476722008</v>
+        <v>0.1801435914647836</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04760792382135392</v>
+        <v>0.05401156270944202</v>
       </c>
       <c r="O9" t="n">
-        <v>1.713883531545641e-07</v>
+        <v>1.690017586698194e-07</v>
       </c>
     </row>
     <row r="10">
@@ -4439,43 +4439,43 @@
         <v>0.002676056670607093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003617607289410083</v>
+        <v>0.005622346738479495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004511354670285239</v>
+        <v>0.008613234664236698</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005331627033088941</v>
+        <v>0.0111046320714237</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006034474569825089</v>
+        <v>0.01295181973852598</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006780570937901053</v>
+        <v>0.01438023763329582</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007486532326433568</v>
+        <v>0.0153560245869241</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008179679681272747</v>
+        <v>0.01600286515588055</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009400097490331185</v>
+        <v>0.01694231644841567</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01084546531689526</v>
+        <v>0.01792609164757565</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01254851609582032</v>
+        <v>0.01911638440721722</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01439760939232647</v>
+        <v>0.0204911545242494</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01664109855393195</v>
+        <v>0.02237705558855255</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01920461994216764</v>
+        <v>0.0247440419390448</v>
       </c>
     </row>
     <row r="11">
@@ -4485,46 +4485,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.61537293729099</v>
+        <v>12.6003805136305</v>
       </c>
       <c r="C11" t="n">
-        <v>16.46862967527313</v>
+        <v>16.40957326643888</v>
       </c>
       <c r="D11" t="n">
-        <v>20.25720030973724</v>
+        <v>20.12058195453637</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0263081865559</v>
+        <v>23.79087968895487</v>
       </c>
       <c r="F11" t="n">
-        <v>27.52425163481996</v>
+        <v>27.18640953480509</v>
       </c>
       <c r="G11" t="n">
-        <v>30.82329293362309</v>
+        <v>30.39241885747737</v>
       </c>
       <c r="H11" t="n">
-        <v>34.11770439186245</v>
+        <v>33.61131668757022</v>
       </c>
       <c r="I11" t="n">
-        <v>37.41260068521328</v>
+        <v>36.85491587504018</v>
       </c>
       <c r="J11" t="n">
-        <v>40.62378009638086</v>
+        <v>40.04308778539039</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49595573645917</v>
+        <v>43.90896355417689</v>
       </c>
       <c r="L11" t="n">
-        <v>49.43418632746051</v>
+        <v>48.84743053691948</v>
       </c>
       <c r="M11" t="n">
-        <v>55.31369641263835</v>
+        <v>54.7283072108619</v>
       </c>
       <c r="N11" t="n">
-        <v>63.72089057505345</v>
+        <v>63.11371759974837</v>
       </c>
       <c r="O11" t="n">
-        <v>70.88432416711333</v>
+        <v>70.27192313172917</v>
       </c>
     </row>
     <row r="12">
@@ -4534,46 +4534,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.506775078750037</v>
+        <v>0.4884036841176878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4742775531053341</v>
+        <v>0.4340201354083252</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4184536390912803</v>
+        <v>0.3545522106698872</v>
       </c>
       <c r="E12" t="n">
-        <v>0.352480817286511</v>
+        <v>0.26550543682888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2827209584985902</v>
+        <v>0.1755781384488544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2186294458558733</v>
+        <v>0.09519395258182606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1695661493266227</v>
+        <v>0.03455161283569788</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1441910571153117</v>
+        <v>0.004031136274949547</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1553067888145463</v>
+        <v>0.01878270053972128</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2150516235317877</v>
+        <v>0.09073031780477089</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3394182336747139</v>
+        <v>0.237532830003821</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5466371826881282</v>
+        <v>0.4777586861417076</v>
       </c>
       <c r="N12" t="n">
-        <v>0.84631640722702</v>
+        <v>0.8137418357189221</v>
       </c>
       <c r="O12" t="n">
-        <v>1.360059712770903</v>
+        <v>1.355994750710859</v>
       </c>
     </row>
     <row r="13">
@@ -4583,46 +4583,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.506775078750037</v>
+        <v>0.4884036841176878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4742775531053341</v>
+        <v>0.4340201354083252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4184536390912803</v>
+        <v>0.3545522106698872</v>
       </c>
       <c r="E13" t="n">
-        <v>0.352480817286511</v>
+        <v>0.26550543682888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2827209584985902</v>
+        <v>0.1755781384488544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2186294458558733</v>
+        <v>0.09519395258182606</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1695661493266227</v>
+        <v>0.03455161283569788</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1441910571153117</v>
+        <v>0.004031136274949547</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1553067888145463</v>
+        <v>0.01878270053972128</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2150516235317877</v>
+        <v>0.09073031780477089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3394182336747139</v>
+        <v>0.237532830003821</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5466371826881282</v>
+        <v>0.4777586861417076</v>
       </c>
       <c r="N13" t="n">
-        <v>0.84631640722702</v>
+        <v>0.8137418357189221</v>
       </c>
       <c r="O13" t="n">
-        <v>1.360059712770903</v>
+        <v>1.355994750710859</v>
       </c>
     </row>
     <row r="14">
@@ -4793,46 +4793,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.25472390858985</v>
+        <v>67.21693483309126</v>
       </c>
       <c r="C2" t="n">
-        <v>59.45386000259803</v>
+        <v>59.38157651192831</v>
       </c>
       <c r="D2" t="n">
-        <v>50.44982425252898</v>
+        <v>50.35523882532401</v>
       </c>
       <c r="E2" t="n">
-        <v>41.78102666504255</v>
+        <v>41.68252070139274</v>
       </c>
       <c r="F2" t="n">
-        <v>34.83606292264717</v>
+        <v>34.74485940287957</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49354964344731</v>
+        <v>29.4151014796678</v>
       </c>
       <c r="H2" t="n">
-        <v>24.88977078484528</v>
+        <v>24.82774929209607</v>
       </c>
       <c r="I2" t="n">
-        <v>20.949544160129</v>
+        <v>20.90268258575272</v>
       </c>
       <c r="J2" t="n">
-        <v>17.59128910421168</v>
+        <v>17.55597672844959</v>
       </c>
       <c r="K2" t="n">
-        <v>15.08503152057615</v>
+        <v>15.0584249481265</v>
       </c>
       <c r="L2" t="n">
-        <v>13.22267175573739</v>
+        <v>13.20302195146452</v>
       </c>
       <c r="M2" t="n">
-        <v>11.5922221830141</v>
+        <v>11.57799296158905</v>
       </c>
       <c r="N2" t="n">
-        <v>10.18671546345341</v>
+        <v>10.17648119862886</v>
       </c>
       <c r="O2" t="n">
-        <v>8.912133690672055</v>
+        <v>8.904598384306917</v>
       </c>
     </row>
     <row r="3">
@@ -4845,43 +4845,43 @@
         <v>8.331421097670153</v>
       </c>
       <c r="C3" t="n">
-        <v>11.95642943289604</v>
+        <v>11.97733331549434</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9334483494155</v>
+        <v>14.94600061851079</v>
       </c>
       <c r="E3" t="n">
-        <v>17.41012296359099</v>
+        <v>17.38134623711108</v>
       </c>
       <c r="F3" t="n">
-        <v>19.74406683417959</v>
+        <v>19.65054933090475</v>
       </c>
       <c r="G3" t="n">
-        <v>22.12137347665598</v>
+        <v>21.94558600060037</v>
       </c>
       <c r="H3" t="n">
-        <v>24.48353366509639</v>
+        <v>24.20161384290162</v>
       </c>
       <c r="I3" t="n">
-        <v>26.83881161463627</v>
+        <v>26.47800072687365</v>
       </c>
       <c r="J3" t="n">
-        <v>29.27768539964943</v>
+        <v>28.88781986828147</v>
       </c>
       <c r="K3" t="n">
-        <v>32.03509507935856</v>
+        <v>31.59204345849784</v>
       </c>
       <c r="L3" t="n">
-        <v>35.00033409268045</v>
+        <v>34.48803908195534</v>
       </c>
       <c r="M3" t="n">
-        <v>37.36365611380484</v>
+        <v>36.84378851102491</v>
       </c>
       <c r="N3" t="n">
-        <v>37.29652491389932</v>
+        <v>36.8416895404531</v>
       </c>
       <c r="O3" t="n">
-        <v>29.14762080294328</v>
+        <v>28.84810368559205</v>
       </c>
     </row>
     <row r="4">
@@ -4891,46 +4891,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2067191475307117</v>
+        <v>0.2073973990880169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2032073154843006</v>
+        <v>0.2040553340092284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2028687111199701</v>
+        <v>0.2037871945975867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2076169883478914</v>
+        <v>0.2085509133353855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.212374593455378</v>
+        <v>0.2132055365108452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2136003582651642</v>
+        <v>0.2140549792302165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.21494882302814</v>
+        <v>0.2152383988566042</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2172699869587327</v>
+        <v>0.217652370859111</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2223698537850376</v>
+        <v>0.2225015466002893</v>
       </c>
       <c r="K4" t="n">
-        <v>0.22380743921873</v>
+        <v>0.2236026392821617</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2153377773199466</v>
+        <v>0.2151428532872647</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1914242398431986</v>
+        <v>0.1913767699329303</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1202131567044862</v>
+        <v>0.1203236176282638</v>
       </c>
       <c r="O4" t="n">
-        <v>1.682032491192457e-08</v>
+        <v>1.672644198669811e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4940,46 +4940,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.905144252074418</v>
+        <v>0.9072346403342485</v>
       </c>
       <c r="C5" t="n">
-        <v>1.076449918558758</v>
+        <v>1.076976272150646</v>
       </c>
       <c r="D5" t="n">
-        <v>1.220315148780287</v>
+        <v>1.21699980557151</v>
       </c>
       <c r="E5" t="n">
-        <v>1.36735323172855</v>
+        <v>1.359004863811085</v>
       </c>
       <c r="F5" t="n">
-        <v>1.523704305168409</v>
+        <v>1.509386311279241</v>
       </c>
       <c r="G5" t="n">
-        <v>1.677028766838647</v>
+        <v>1.654966114913188</v>
       </c>
       <c r="H5" t="n">
-        <v>1.830193128815462</v>
+        <v>1.803941976422814</v>
       </c>
       <c r="I5" t="n">
-        <v>1.991957043172029</v>
+        <v>1.96555118778685</v>
       </c>
       <c r="J5" t="n">
-        <v>2.182659740447024</v>
+        <v>2.151948348893567</v>
       </c>
       <c r="K5" t="n">
-        <v>2.383038711195452</v>
+        <v>2.34725746492749</v>
       </c>
       <c r="L5" t="n">
-        <v>2.515979421939016</v>
+        <v>2.481855284182088</v>
       </c>
       <c r="M5" t="n">
-        <v>2.426862358370502</v>
+        <v>2.399505483505464</v>
       </c>
       <c r="N5" t="n">
-        <v>1.614312667481407</v>
+        <v>1.600220084597838</v>
       </c>
       <c r="O5" t="n">
-        <v>2.212926869502002e-07</v>
+        <v>2.18133236598421e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4992,43 +4992,43 @@
         <v>4.422632286096618</v>
       </c>
       <c r="C6" t="n">
-        <v>5.369461341560606</v>
+        <v>5.372275910277605</v>
       </c>
       <c r="D6" t="n">
-        <v>6.112121386344817</v>
+        <v>6.11366219120115</v>
       </c>
       <c r="E6" t="n">
-        <v>6.701285617248637</v>
+        <v>6.697960780406468</v>
       </c>
       <c r="F6" t="n">
-        <v>7.304786045630677</v>
+        <v>7.294389086288004</v>
       </c>
       <c r="G6" t="n">
-        <v>7.994238751898719</v>
+        <v>7.975127643282896</v>
       </c>
       <c r="H6" t="n">
-        <v>8.664568163712858</v>
+        <v>8.634515850767805</v>
       </c>
       <c r="I6" t="n">
-        <v>9.317371458149617</v>
+        <v>9.27961551420303</v>
       </c>
       <c r="J6" t="n">
-        <v>9.954826777511251</v>
+        <v>9.914872084923299</v>
       </c>
       <c r="K6" t="n">
-        <v>10.77116281289687</v>
+        <v>10.72625459009998</v>
       </c>
       <c r="L6" t="n">
-        <v>11.78670413858778</v>
+        <v>11.73468067248718</v>
       </c>
       <c r="M6" t="n">
-        <v>12.7574624078073</v>
+        <v>12.70394987751531</v>
       </c>
       <c r="N6" t="n">
-        <v>13.49229650250156</v>
+        <v>13.44272231473812</v>
       </c>
       <c r="O6" t="n">
-        <v>13.21962983029035</v>
+        <v>13.17872944747707</v>
       </c>
     </row>
     <row r="7">
@@ -5038,46 +5038,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.378618347097931</v>
+        <v>4.37437809887495</v>
       </c>
       <c r="C7" t="n">
-        <v>5.297299046509587</v>
+        <v>5.277863856780824</v>
       </c>
       <c r="D7" t="n">
-        <v>6.015295025257156</v>
+        <v>5.971915006606221</v>
       </c>
       <c r="E7" t="n">
-        <v>6.585940980115544</v>
+        <v>6.516417703841809</v>
       </c>
       <c r="F7" t="n">
-        <v>7.174607284126738</v>
+        <v>7.079489285225302</v>
       </c>
       <c r="G7" t="n">
-        <v>7.851245103047897</v>
+        <v>7.731500200858532</v>
       </c>
       <c r="H7" t="n">
-        <v>8.514552920235637</v>
+        <v>8.381134528066406</v>
       </c>
       <c r="I7" t="n">
-        <v>9.168118758852653</v>
+        <v>9.030690453903551</v>
       </c>
       <c r="J7" t="n">
-        <v>9.81544801732422</v>
+        <v>9.671610745067825</v>
       </c>
       <c r="K7" t="n">
-        <v>10.64771894765516</v>
+        <v>10.49744972806654</v>
       </c>
       <c r="L7" t="n">
-        <v>11.68387383418006</v>
+        <v>11.53584814118016</v>
       </c>
       <c r="M7" t="n">
-        <v>12.67792605763209</v>
+        <v>12.53812301433655</v>
       </c>
       <c r="N7" t="n">
-        <v>13.42875199134641</v>
+        <v>13.29930163454418</v>
       </c>
       <c r="O7" t="n">
-        <v>13.15626708217256</v>
+        <v>13.04122160420571</v>
       </c>
     </row>
     <row r="8">
@@ -5087,46 +5087,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5179926575578689</v>
+        <v>0.5386976663296725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6184810908239259</v>
+        <v>0.6580683243892953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7020427194229545</v>
+        <v>0.7589876179581827</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7710529722322123</v>
+        <v>0.8432314294441136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8291765851800063</v>
+        <v>0.9143274259572378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8783671568151911</v>
+        <v>0.9741430041559629</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9144107220479365</v>
+        <v>0.9999967455580409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9313941554409784</v>
+        <v>0.9999977605387342</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9204976661456459</v>
+        <v>0.9999945398213278</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8758541685057457</v>
+        <v>0.9664117725523007</v>
       </c>
       <c r="L8" t="n">
-        <v>0.789691935539232</v>
+        <v>0.861312406220834</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6486085660644871</v>
+        <v>0.6952110224232444</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4384017646583651</v>
+        <v>0.4590989784278799</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008810299257535587</v>
+        <v>0.008775770136181624</v>
       </c>
     </row>
     <row r="9">
@@ -5136,46 +5136,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03655712067246627</v>
+        <v>0.04079736889544671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05935443244125762</v>
+        <v>0.07065217167186304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0795089866074648</v>
+        <v>0.09893840589691373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09470892328069692</v>
+        <v>0.1216159583815697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1069243202031212</v>
+        <v>0.1403883698145759</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1173781882238729</v>
+        <v>0.1564582565537336</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1226582584885184</v>
+        <v>0.1570320273979151</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1206301189198055</v>
+        <v>0.1465938603651399</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1091380829028832</v>
+        <v>0.1370754096690427</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09052970399944646</v>
+        <v>0.1187467576046277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06572165479943329</v>
+        <v>0.08343644334739407</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03655047878385139</v>
+        <v>0.04420207509988131</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01156789234234724</v>
+        <v>0.0131144741364986</v>
       </c>
       <c r="O9" t="n">
-        <v>1.80913628675066e-07</v>
+        <v>1.783736454313767e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5188,43 +5188,43 @@
         <v>0.00168605885451114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002385316104359657</v>
+        <v>0.004422684579446896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002833283795522239</v>
+        <v>0.007002149834124924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003079366412808906</v>
+        <v>0.008947069137579125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003183452760362163</v>
+        <v>0.01021489673318812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003204240131165083</v>
+        <v>0.01093013049691435</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003157339693312567</v>
+        <v>0.01115862162612355</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0030719587069939</v>
+        <v>0.01102752584713392</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003037790406605812</v>
+        <v>0.01070976299814283</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003055766755549708</v>
+        <v>0.01026062765006437</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00314834827208383</v>
+        <v>0.009833764648592683</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003369468787543368</v>
+        <v>0.009573777388255208</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003852318158229432</v>
+        <v>0.009693438799563031</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004793066675662259</v>
+        <v>0.0104340608437055</v>
       </c>
     </row>
     <row r="11">
@@ -5234,46 +5234,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.473474095023513</v>
+        <v>3.467143458540702</v>
       </c>
       <c r="C11" t="n">
-        <v>4.220849127950829</v>
+        <v>4.200887584630179</v>
       </c>
       <c r="D11" t="n">
-        <v>4.794979876476869</v>
+        <v>4.754915201034711</v>
       </c>
       <c r="E11" t="n">
-        <v>5.218587748386994</v>
+        <v>5.157412840030724</v>
       </c>
       <c r="F11" t="n">
-        <v>5.650902978958329</v>
+        <v>5.570102973946061</v>
       </c>
       <c r="G11" t="n">
-        <v>6.17421633620925</v>
+        <v>6.076534085945344</v>
       </c>
       <c r="H11" t="n">
-        <v>6.684359791420174</v>
+        <v>6.577192551643592</v>
       </c>
       <c r="I11" t="n">
-        <v>7.176161715680624</v>
+        <v>7.065139266116702</v>
       </c>
       <c r="J11" t="n">
-        <v>7.632788276877196</v>
+        <v>7.519662396174259</v>
       </c>
       <c r="K11" t="n">
-        <v>8.264680236459707</v>
+        <v>8.150192263139052</v>
       </c>
       <c r="L11" t="n">
-        <v>9.167894412241042</v>
+        <v>9.053992856998068</v>
       </c>
       <c r="M11" t="n">
-        <v>10.25106369926159</v>
+        <v>10.13861753083108</v>
       </c>
       <c r="N11" t="n">
-        <v>11.814439323865</v>
+        <v>11.69908154994635</v>
       </c>
       <c r="O11" t="n">
-        <v>13.15626686087987</v>
+        <v>13.04122138607248</v>
       </c>
     </row>
     <row r="12">
@@ -5283,46 +5283,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.184746246979799</v>
+        <v>0.1768103249980011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1512867207374515</v>
+        <v>0.1356599539453725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1161651486823377</v>
+        <v>0.09398762455064641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08556094147680531</v>
+        <v>0.05855770062324776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0615090277533179</v>
+        <v>0.03080453826949422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04278461138968585</v>
+        <v>0.009073510099107937</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0293865266620176</v>
+        <v>1.113516083088532e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02299433635057383</v>
+        <v>7.475493913970739e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02603035840656354</v>
+        <v>1.780576070359009e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04047303249387504</v>
+        <v>0.01090451112074116</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06944605689971528</v>
+        <v>0.04559405011595995</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1168569258111437</v>
+        <v>0.1009338915928228</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1846522483636968</v>
+        <v>0.1771935945238061</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2997801879846578</v>
+        <v>0.2988631050477263</v>
       </c>
     </row>
     <row r="13">
@@ -5332,46 +5332,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.184746246979799</v>
+        <v>0.1768103249980011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1512867207374515</v>
+        <v>0.1356599539453725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1161651486823377</v>
+        <v>0.09398762455064641</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08556094147680531</v>
+        <v>0.05855770062324776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0615090277533179</v>
+        <v>0.03080453826949422</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04278461138968585</v>
+        <v>0.009073510099107937</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0293865266620176</v>
+        <v>1.113516083088532e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02299433635057383</v>
+        <v>7.475493913970739e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02603035840656354</v>
+        <v>1.780576070359009e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04047303249387504</v>
+        <v>0.01090451112074116</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06944605689971528</v>
+        <v>0.04559405011595995</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1168569258111437</v>
+        <v>0.1009338915928228</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1846522483636968</v>
+        <v>0.1771935945238061</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2997801879846578</v>
+        <v>0.2988631050477263</v>
       </c>
     </row>
     <row r="14">
@@ -5542,46 +5542,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.70677442552965</v>
+        <v>52.67298611707714</v>
       </c>
       <c r="C2" t="n">
-        <v>50.22292618511081</v>
+        <v>50.14618658318441</v>
       </c>
       <c r="D2" t="n">
-        <v>45.03523971687618</v>
+        <v>44.92984732853721</v>
       </c>
       <c r="E2" t="n">
-        <v>39.47070364569991</v>
+        <v>39.35668743733645</v>
       </c>
       <c r="F2" t="n">
-        <v>34.11950231899453</v>
+        <v>34.0119202961635</v>
       </c>
       <c r="G2" t="n">
-        <v>29.22434186656717</v>
+        <v>29.13188145701864</v>
       </c>
       <c r="H2" t="n">
-        <v>24.8409006596498</v>
+        <v>24.76788227923796</v>
       </c>
       <c r="I2" t="n">
-        <v>20.99049082694234</v>
+        <v>20.93771475934141</v>
       </c>
       <c r="J2" t="n">
-        <v>17.64940548569653</v>
+        <v>17.61114695644303</v>
       </c>
       <c r="K2" t="n">
-        <v>15.22350879831034</v>
+        <v>15.19456128417988</v>
       </c>
       <c r="L2" t="n">
-        <v>13.49356791985945</v>
+        <v>13.47236066871852</v>
       </c>
       <c r="M2" t="n">
-        <v>11.95534345522657</v>
+        <v>11.94027901703902</v>
       </c>
       <c r="N2" t="n">
-        <v>10.61965423483399</v>
+        <v>10.60906417179608</v>
       </c>
       <c r="O2" t="n">
-        <v>9.375752323392284</v>
+        <v>9.368153430770686</v>
       </c>
     </row>
     <row r="3">
@@ -5594,43 +5594,43 @@
         <v>4.214901559230878</v>
       </c>
       <c r="C3" t="n">
-        <v>5.995782975373193</v>
+        <v>6.00095711112685</v>
       </c>
       <c r="D3" t="n">
-        <v>7.688250379230986</v>
+        <v>7.689516695076899</v>
       </c>
       <c r="E3" t="n">
-        <v>9.35082401844943</v>
+        <v>9.337334119486385</v>
       </c>
       <c r="F3" t="n">
-        <v>11.00878242409756</v>
+        <v>10.97207072424279</v>
       </c>
       <c r="G3" t="n">
-        <v>12.68156537002135</v>
+        <v>12.6140963390459</v>
       </c>
       <c r="H3" t="n">
-        <v>14.37561929267289</v>
+        <v>14.26509597571972</v>
       </c>
       <c r="I3" t="n">
-        <v>16.09194418530244</v>
+        <v>15.92218365537889</v>
       </c>
       <c r="J3" t="n">
-        <v>17.8896719736213</v>
+        <v>17.70759075348391</v>
       </c>
       <c r="K3" t="n">
-        <v>19.99064604607052</v>
+        <v>19.80229896021428</v>
       </c>
       <c r="L3" t="n">
-        <v>22.32595736264033</v>
+        <v>22.0848095019023</v>
       </c>
       <c r="M3" t="n">
-        <v>24.34820153144107</v>
+        <v>24.089050973933</v>
       </c>
       <c r="N3" t="n">
-        <v>24.81951039379478</v>
+        <v>24.58800107319987</v>
       </c>
       <c r="O3" t="n">
-        <v>19.81710156484783</v>
+        <v>19.6653622972939</v>
       </c>
     </row>
     <row r="4">
@@ -5640,46 +5640,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2026299022084609</v>
+        <v>0.202979682198318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2017195997524402</v>
+        <v>0.2022187901410832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2036715414849788</v>
+        <v>0.2043037237142071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2054745304719224</v>
+        <v>0.2062189423986246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2071979709592773</v>
+        <v>0.2079702165224762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2088173254610025</v>
+        <v>0.2094060554981191</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2106640924724069</v>
+        <v>0.2108049876828973</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2137265364162105</v>
+        <v>0.2140553799676421</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2207105469468497</v>
+        <v>0.2210815303211515</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2235108103040619</v>
+        <v>0.2233723986180088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2153345588537867</v>
+        <v>0.2151529360642054</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1919269718109581</v>
+        <v>0.1918673995311082</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1216214069487393</v>
+        <v>0.1217127984687684</v>
       </c>
       <c r="O4" t="n">
-        <v>1.085507433943859e-08</v>
+        <v>1.080507052648204e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5689,46 +5689,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4526137674525512</v>
+        <v>0.4531311810279169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5597650124199723</v>
+        <v>0.5597112330462186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6670096869120935</v>
+        <v>0.6656165433124064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7748351691694998</v>
+        <v>0.7716343628767771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8843040286986718</v>
+        <v>0.8788371834250043</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9953830861427659</v>
+        <v>0.9866832540950071</v>
       </c>
       <c r="H5" t="n">
-        <v>1.107947567486179</v>
+        <v>1.094825224268815</v>
       </c>
       <c r="I5" t="n">
-        <v>1.227875797691378</v>
+        <v>1.215586859354068</v>
       </c>
       <c r="J5" t="n">
-        <v>1.375290312840756</v>
+        <v>1.362804383836033</v>
       </c>
       <c r="K5" t="n">
-        <v>1.535565008270522</v>
+        <v>1.518017479006093</v>
       </c>
       <c r="L5" t="n">
-        <v>1.656362154449653</v>
+        <v>1.638855404690405</v>
       </c>
       <c r="M5" t="n">
-        <v>1.632981746457148</v>
+        <v>1.618866835611952</v>
       </c>
       <c r="N5" t="n">
-        <v>1.116307339669373</v>
+        <v>1.109205643791344</v>
       </c>
       <c r="O5" t="n">
-        <v>9.933402414334273e-08</v>
+        <v>9.825161445504053e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5741,43 +5741,43 @@
         <v>2.24719363913384</v>
       </c>
       <c r="C6" t="n">
-        <v>2.798846059815105</v>
+        <v>2.799570430811399</v>
       </c>
       <c r="D6" t="n">
-        <v>3.31014258976026</v>
+        <v>3.310306142357589</v>
       </c>
       <c r="E6" t="n">
-        <v>3.817900393314688</v>
+        <v>3.816247198357794</v>
       </c>
       <c r="F6" t="n">
-        <v>4.326536347952688</v>
+        <v>4.322202892117952</v>
       </c>
       <c r="G6" t="n">
-        <v>4.836194317133222</v>
+        <v>4.828460979193664</v>
       </c>
       <c r="H6" t="n">
-        <v>5.337019736686957</v>
+        <v>5.324676769264615</v>
       </c>
       <c r="I6" t="n">
-        <v>5.826560910471872</v>
+        <v>5.808052379110282</v>
       </c>
       <c r="J6" t="n">
-        <v>6.309915997211921</v>
+        <v>6.290580252570419</v>
       </c>
       <c r="K6" t="n">
-        <v>6.94092211488103</v>
+        <v>6.921238359847836</v>
       </c>
       <c r="L6" t="n">
-        <v>7.749662530645399</v>
+        <v>7.724455239478677</v>
       </c>
       <c r="M6" t="n">
-        <v>8.548285116419951</v>
+        <v>8.520887666172259</v>
       </c>
       <c r="N6" t="n">
-        <v>9.203200567494605</v>
+        <v>9.177362593246924</v>
       </c>
       <c r="O6" t="n">
-        <v>9.171445243157265</v>
+        <v>9.150320848544778</v>
       </c>
     </row>
     <row r="7">
@@ -5787,46 +5787,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.233696816311508</v>
+        <v>2.232396740995942</v>
       </c>
       <c r="C7" t="n">
-        <v>2.774965908652121</v>
+        <v>2.767849776253342</v>
       </c>
       <c r="D7" t="n">
-        <v>3.274928259730812</v>
+        <v>3.257975582684497</v>
       </c>
       <c r="E7" t="n">
-        <v>3.770954810749058</v>
+        <v>3.741820969022307</v>
       </c>
       <c r="F7" t="n">
-        <v>4.267918380689515</v>
+        <v>4.225783855593691</v>
       </c>
       <c r="G7" t="n">
-        <v>4.766764845518806</v>
+        <v>4.711818155152966</v>
       </c>
       <c r="H7" t="n">
-        <v>5.259309047322813</v>
+        <v>5.193545163721185</v>
       </c>
       <c r="I7" t="n">
-        <v>5.745078820255692</v>
+        <v>5.678842828140191</v>
       </c>
       <c r="J7" t="n">
-        <v>6.231194348731989</v>
+        <v>6.164261581943869</v>
       </c>
       <c r="K7" t="n">
-        <v>6.870204649974444</v>
+        <v>6.795904455510054</v>
       </c>
       <c r="L7" t="n">
-        <v>7.692040531099015</v>
+        <v>7.617164955635752</v>
       </c>
       <c r="M7" t="n">
-        <v>8.508349457342465</v>
+        <v>8.437425219543245</v>
       </c>
       <c r="N7" t="n">
-        <v>9.178543215997093</v>
+        <v>9.113303265933594</v>
       </c>
       <c r="O7" t="n">
-        <v>9.15092988193024</v>
+        <v>9.093102559047308</v>
       </c>
     </row>
     <row r="8">
@@ -5836,46 +5836,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.441074705118105</v>
+        <v>0.4590123335591698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.537468503897726</v>
+        <v>0.5726081884275565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6252508445830277</v>
+        <v>0.6773238791333509</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7056817236832209</v>
+        <v>0.7737360755044737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7797749679965059</v>
+        <v>0.8623684351811109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8460504220031004</v>
+        <v>0.9411296254620627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8996144347523314</v>
+        <v>0.99998990462225</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9334814174108266</v>
+        <v>0.9999985644741527</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9376069696207641</v>
+        <v>0.999997967152726</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9049211227102162</v>
+        <v>0.9998981222279986</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8269476617278398</v>
+        <v>0.9041678375754881</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6877361950092727</v>
+        <v>0.7388306252199961</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4701833556049509</v>
+        <v>0.4934387370867534</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007879656052905609</v>
+        <v>0.007855831753488706</v>
       </c>
     </row>
     <row r="9">
@@ -5885,46 +5885,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01100981364631653</v>
+        <v>0.0123098889618828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01944813785288319</v>
+        <v>0.02322753416172145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02904094293600252</v>
+        <v>0.03633373555933792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03933374242295049</v>
+        <v>0.05087826679704972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04987930989001084</v>
+        <v>0.06605583756547199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05987590888042196</v>
+        <v>0.08055009508370733</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06766969624102928</v>
+        <v>0.09078590525653071</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07123532393315263</v>
+        <v>0.0861025464635293</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06841220105882481</v>
+        <v>0.08168454712132882</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06008357590389457</v>
+        <v>0.07922978601557719</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04624531663019307</v>
+        <v>0.05918500847242497</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02715951871330287</v>
+        <v>0.03308813824607954</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009039470215789438</v>
+        <v>0.01031874196396208</v>
       </c>
       <c r="O9" t="n">
-        <v>8.651445935365043e-08</v>
+        <v>8.558329957870554e-08</v>
       </c>
     </row>
     <row r="10">
@@ -5937,43 +5937,43 @@
         <v>0.001106717789115114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001583514496825689</v>
+        <v>0.00303372271076421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001864991288454576</v>
+        <v>0.00483243042359872</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001993724130678802</v>
+        <v>0.006170450003493018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002019781337858605</v>
+        <v>0.007024936060766557</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001975429874715432</v>
+        <v>0.007474996507690129</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001881385795538828</v>
+        <v>0.007577117266494803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001758630252128713</v>
+        <v>0.007421937973838553</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001633848600466797</v>
+        <v>0.007095390522517184</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001532057099429501</v>
+        <v>0.006661252788181493</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001468023010189564</v>
+        <v>0.006227659281995803</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001494585193425695</v>
+        <v>0.005911861575516396</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001697005424056962</v>
+        <v>0.005855776624638587</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002236863893165816</v>
+        <v>0.00625313635021546</v>
       </c>
     </row>
     <row r="11">
@@ -5983,46 +5983,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.781083048858957</v>
+        <v>1.779265559968025</v>
       </c>
       <c r="C11" t="n">
-        <v>2.215200896232149</v>
+        <v>2.208138543207123</v>
       </c>
       <c r="D11" t="n">
-        <v>2.607918572818718</v>
+        <v>2.592359039372091</v>
       </c>
       <c r="E11" t="n">
-        <v>2.996119641579559</v>
+        <v>2.97018660614553</v>
       </c>
       <c r="F11" t="n">
-        <v>3.383614351990844</v>
+        <v>3.346946672168686</v>
       </c>
       <c r="G11" t="n">
-        <v>3.77138175937604</v>
+        <v>3.725134901057959</v>
       </c>
       <c r="H11" t="n">
-        <v>4.151361479836634</v>
+        <v>4.09871993945237</v>
       </c>
       <c r="I11" t="n">
-        <v>4.517203022564314</v>
+        <v>4.463255968786123</v>
       </c>
       <c r="J11" t="n">
-        <v>4.855904035891233</v>
+        <v>4.801457198107836</v>
       </c>
       <c r="K11" t="n">
-        <v>5.334639641703922</v>
+        <v>5.27788697650396</v>
       </c>
       <c r="L11" t="n">
-        <v>6.035678376649362</v>
+        <v>5.978309550945347</v>
       </c>
       <c r="M11" t="n">
-        <v>6.875367710885317</v>
+        <v>6.818558383931292</v>
       </c>
       <c r="N11" t="n">
-        <v>8.062235876327721</v>
+        <v>8.00409762214225</v>
       </c>
       <c r="O11" t="n">
-        <v>9.150929782596217</v>
+        <v>9.093102460795695</v>
       </c>
     </row>
     <row r="12">
@@ -6032,46 +6032,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2361198888601233</v>
+        <v>0.2285420768113532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2077558422586346</v>
+        <v>0.1920217912562815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1722263913394123</v>
+        <v>0.1483021080043692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1365966032470792</v>
+        <v>0.104966299995361</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1025124329658843</v>
+        <v>0.06400187536844237</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07158801104096633</v>
+        <v>0.02733150685665217</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04644212537318709</v>
+        <v>4.659698663636713e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03052791276563526</v>
+        <v>6.567247374035973e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02837759580986004</v>
+        <v>9.21746294825767e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04380847320534845</v>
+        <v>4.680800660478945e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08246094210215114</v>
+        <v>0.04551632380363476</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1528132297134583</v>
+        <v>0.127399404364457</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2611043501711192</v>
+        <v>0.2489427539976733</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4576741701358272</v>
+        <v>0.4566309840143368</v>
       </c>
     </row>
     <row r="13">
@@ -6081,46 +6081,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2361198888601233</v>
+        <v>0.2285420768113532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2077558422586346</v>
+        <v>0.1920217912562815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1722263913394123</v>
+        <v>0.1483021080043692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1365966032470792</v>
+        <v>0.104966299995361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1025124329658843</v>
+        <v>0.06400187536844237</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07158801104096633</v>
+        <v>0.02733150685665217</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04644212537318709</v>
+        <v>4.659698663636713e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03052791276563526</v>
+        <v>6.567247374035973e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02837759580986004</v>
+        <v>9.21746294825767e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04380847320534845</v>
+        <v>4.680800660478945e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08246094210215114</v>
+        <v>0.04551632380363476</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1528132297134583</v>
+        <v>0.127399404364457</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2611043501711192</v>
+        <v>0.2489427539976733</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4576741701358272</v>
+        <v>0.4566309840143368</v>
       </c>
     </row>
     <row r="14">
@@ -6291,46 +6291,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.87720482638252</v>
+        <v>19.86236843611222</v>
       </c>
       <c r="C2" t="n">
-        <v>31.82498836715137</v>
+        <v>31.74422966274495</v>
       </c>
       <c r="D2" t="n">
-        <v>36.92782555906393</v>
+        <v>36.79641980958591</v>
       </c>
       <c r="E2" t="n">
-        <v>37.82616568157989</v>
+        <v>37.67517122066369</v>
       </c>
       <c r="F2" t="n">
-        <v>36.0773522617031</v>
+        <v>35.93160602871243</v>
       </c>
       <c r="G2" t="n">
-        <v>33.0924568715877</v>
+        <v>32.9647977240743</v>
       </c>
       <c r="H2" t="n">
-        <v>29.66824840531998</v>
+        <v>29.56335254933404</v>
       </c>
       <c r="I2" t="n">
-        <v>26.17767256360171</v>
+        <v>26.09549337181153</v>
       </c>
       <c r="J2" t="n">
-        <v>22.83193159780644</v>
+        <v>22.76998036599233</v>
       </c>
       <c r="K2" t="n">
-        <v>20.08428448516801</v>
+        <v>20.03837199684183</v>
       </c>
       <c r="L2" t="n">
-        <v>17.87283704276939</v>
+        <v>17.83910956658117</v>
       </c>
       <c r="M2" t="n">
-        <v>15.8607462745243</v>
+        <v>15.83631710971692</v>
       </c>
       <c r="N2" t="n">
-        <v>14.09118090382936</v>
+        <v>14.07361180980746</v>
       </c>
       <c r="O2" t="n">
-        <v>12.41971242738522</v>
+        <v>12.40680753115983</v>
       </c>
     </row>
     <row r="3">
@@ -6343,43 +6343,43 @@
         <v>2.049368038767686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.971891796346386</v>
+        <v>2.973116491250168</v>
       </c>
       <c r="D3" t="n">
-        <v>4.112430165969493</v>
+        <v>4.108862590069534</v>
       </c>
       <c r="E3" t="n">
-        <v>5.47748056504103</v>
+        <v>5.460654099084501</v>
       </c>
       <c r="F3" t="n">
-        <v>7.047348617735836</v>
+        <v>7.009382689945521</v>
       </c>
       <c r="G3" t="n">
-        <v>8.826114883773839</v>
+        <v>8.761043412250975</v>
       </c>
       <c r="H3" t="n">
-        <v>10.80954338844521</v>
+        <v>10.7131431494341</v>
       </c>
       <c r="I3" t="n">
-        <v>13.00282248398794</v>
+        <v>12.87247365608064</v>
       </c>
       <c r="J3" t="n">
-        <v>15.40720650329756</v>
+        <v>15.24174021289004</v>
       </c>
       <c r="K3" t="n">
-        <v>18.1221082304935</v>
+        <v>17.92196081276051</v>
       </c>
       <c r="L3" t="n">
-        <v>21.05037654242135</v>
+        <v>20.82225123418473</v>
       </c>
       <c r="M3" t="n">
-        <v>23.73004415148996</v>
+        <v>23.48992640183751</v>
       </c>
       <c r="N3" t="n">
-        <v>24.90500657308044</v>
+        <v>24.68029914477316</v>
       </c>
       <c r="O3" t="n">
-        <v>20.40947474944771</v>
+        <v>20.2489502118522</v>
       </c>
     </row>
     <row r="4">
@@ -6389,46 +6389,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2068415874321311</v>
+        <v>0.2069725537061461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2050558565114545</v>
+        <v>0.2051486575345794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2048783850610499</v>
+        <v>0.2049174733425079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2046459584019728</v>
+        <v>0.2046571415672149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2059892345664784</v>
+        <v>0.205997763084304</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2078433383588244</v>
+        <v>0.2078501582698003</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2099390621426779</v>
+        <v>0.2099279822359638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2125037059956021</v>
+        <v>0.2124477259058096</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2170377049936669</v>
+        <v>0.2169250021068525</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2182850281466099</v>
+        <v>0.2181447106614437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2111822303198927</v>
+        <v>0.2110699195284749</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1893248024243075</v>
+        <v>0.1892945263743677</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1213805155588336</v>
+        <v>0.1214387968675818</v>
       </c>
       <c r="O4" t="n">
-        <v>6.038779950054541e-09</v>
+        <v>6.003309613537466e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6438,46 +6438,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2257321345398072</v>
+        <v>0.2258546040301854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3076195570273448</v>
+        <v>0.3072200969664839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4043564829750602</v>
+        <v>0.402798230059381</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5137469238639263</v>
+        <v>0.5105370336751066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6368856360900815</v>
+        <v>0.6317022789856829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7732067418627557</v>
+        <v>0.7658356198802048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9233767757111595</v>
+        <v>0.9137031614167955</v>
       </c>
       <c r="I5" t="n">
-        <v>1.087340264268343</v>
+        <v>1.07533861782595</v>
       </c>
       <c r="J5" t="n">
-        <v>1.274994750062513</v>
+        <v>1.260749461092057</v>
       </c>
       <c r="K5" t="n">
-        <v>1.47315881132895</v>
+        <v>1.457324989445806</v>
       </c>
       <c r="L5" t="n">
-        <v>1.639023169516086</v>
+        <v>1.622965632213168</v>
       </c>
       <c r="M5" t="n">
-        <v>1.663085179483479</v>
+        <v>1.648986824891664</v>
       </c>
       <c r="N5" t="n">
-        <v>1.172563590686578</v>
+        <v>1.164346200485133</v>
       </c>
       <c r="O5" t="n">
-        <v>5.921960347917263e-08</v>
+        <v>5.846427297052639e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6490,43 +6490,43 @@
         <v>1.09355370754314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.504631246421263</v>
+        <v>1.504817233862465</v>
       </c>
       <c r="D6" t="n">
-        <v>1.981054887199495</v>
+        <v>1.980539154869194</v>
       </c>
       <c r="E6" t="n">
-        <v>2.52150969368625</v>
+        <v>2.519183416459731</v>
       </c>
       <c r="F6" t="n">
-        <v>3.107233165102424</v>
+        <v>3.102201821538523</v>
       </c>
       <c r="G6" t="n">
-        <v>3.740325769667924</v>
+        <v>3.732031547872729</v>
       </c>
       <c r="H6" t="n">
-        <v>4.42339743351237</v>
+        <v>4.411525859323451</v>
       </c>
       <c r="I6" t="n">
-        <v>5.146156719667071</v>
+        <v>5.130625571761875</v>
       </c>
       <c r="J6" t="n">
-        <v>5.906608684433051</v>
+        <v>5.887506438439686</v>
       </c>
       <c r="K6" t="n">
-        <v>6.781633663668178</v>
+        <v>6.759076580547077</v>
       </c>
       <c r="L6" t="n">
-        <v>7.792437935868893</v>
+        <v>7.767006989809783</v>
       </c>
       <c r="M6" t="n">
-        <v>8.811880016672585</v>
+        <v>8.78503524240174</v>
       </c>
       <c r="N6" t="n">
-        <v>9.68519943475116</v>
+        <v>9.658900574748158</v>
       </c>
       <c r="O6" t="n">
-        <v>9.834317024828241</v>
+        <v>9.811048208458795</v>
       </c>
     </row>
     <row r="7">
@@ -6536,46 +6536,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.091328573437266</v>
+        <v>1.091229730637848</v>
       </c>
       <c r="C7" t="n">
-        <v>1.500174451297182</v>
+        <v>1.497548658902141</v>
       </c>
       <c r="D7" t="n">
-        <v>1.973641498855868</v>
+        <v>1.965660729117652</v>
       </c>
       <c r="E7" t="n">
-        <v>2.510418128340489</v>
+        <v>2.494596718030641</v>
       </c>
       <c r="F7" t="n">
-        <v>3.09183942272741</v>
+        <v>3.06654921649397</v>
       </c>
       <c r="G7" t="n">
-        <v>3.720142045293161</v>
+        <v>3.684556347010861</v>
       </c>
       <c r="H7" t="n">
-        <v>4.398308567671976</v>
+        <v>4.352460075521388</v>
       </c>
       <c r="I7" t="n">
-        <v>5.116806124269882</v>
+        <v>5.061662172381689</v>
       </c>
       <c r="J7" t="n">
-        <v>5.874531110157642</v>
+        <v>5.811914020270651</v>
       </c>
       <c r="K7" t="n">
-        <v>6.748785401532492</v>
+        <v>6.680542402458459</v>
       </c>
       <c r="L7" t="n">
-        <v>7.761179371168403</v>
+        <v>7.689232249857459</v>
       </c>
       <c r="M7" t="n">
-        <v>8.784296395335652</v>
+        <v>8.711222962836569</v>
       </c>
       <c r="N7" t="n">
-        <v>9.660229117400904</v>
+        <v>9.587926021325368</v>
       </c>
       <c r="O7" t="n">
-        <v>9.806550986948576</v>
+        <v>9.738673620745702</v>
       </c>
     </row>
     <row r="8">
@@ -6585,46 +6585,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2162288814676464</v>
+        <v>0.2251660216897172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2749563996201583</v>
+        <v>0.2932565753638528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3380597454446097</v>
+        <v>0.3667896489789619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.404083743257717</v>
+        <v>0.4439237172905397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4712654954958487</v>
+        <v>0.5223435389255189</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5368422657207607</v>
+        <v>0.598526948191951</v>
       </c>
       <c r="H8" t="n">
-        <v>0.59665875206967</v>
+        <v>0.6672937622853498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6443299237446911</v>
+        <v>0.7207170131851965</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6715212566907655</v>
+        <v>0.7487166264549806</v>
       </c>
       <c r="K8" t="n">
-        <v>0.669859074806858</v>
+        <v>0.7415674781216149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6297422544140571</v>
+        <v>0.6887656760704373</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5367978946315303</v>
+        <v>0.5766694317581282</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3747056846553903</v>
+        <v>0.3931266154641713</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007475323549499863</v>
+        <v>0.007448953823575533</v>
       </c>
     </row>
     <row r="9">
@@ -6634,46 +6634,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008231308842419265</v>
+        <v>0.0009219736836598835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001703948160087847</v>
+        <v>0.00204110361176659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003132550317574046</v>
+        <v>0.003935238794963835</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005236148423464195</v>
+        <v>0.006806982133541825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008036895085444777</v>
+        <v>0.01070331084792356</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01144568380618089</v>
+        <v>0.01548607093617835</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01514206826726914</v>
+        <v>0.0206572738441189</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01839564643337311</v>
+        <v>0.02509807954730731</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02017312490205469</v>
+        <v>0.02727017775862392</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0197632994741462</v>
+        <v>0.02618669782106532</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01655666828384265</v>
+        <v>0.02120789403680731</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01045843281143339</v>
+        <v>0.0127428537651757</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003696111544750807</v>
+        <v>0.004216210258462315</v>
       </c>
       <c r="O9" t="n">
-        <v>5.772869673579912e-08</v>
+        <v>5.702359304076706e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6686,43 +6686,43 @@
         <v>0.001282061605169162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001829582477794112</v>
+        <v>0.003473824748232184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002160888147881862</v>
+        <v>0.00552535754199754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002322186956868916</v>
+        <v>0.007057729968917452</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002367652151822618</v>
+        <v>0.008042447149442709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002336170993297706</v>
+        <v>0.008571505764446895</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002248678243959237</v>
+        <v>0.008706400275716441</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002128763183979627</v>
+        <v>0.00854970202353217</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002015445750575624</v>
+        <v>0.008207590244812889</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001929470583414297</v>
+        <v>0.007744768038020302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001886687649955363</v>
+        <v>0.007282965753697821</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001943420529228518</v>
+        <v>0.006951528834538965</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002196568686977227</v>
+        <v>0.006911588192434485</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002823376557911358</v>
+        <v>0.007376839778149314</v>
       </c>
     </row>
     <row r="11">
@@ -6732,46 +6732,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8655964388974592</v>
+        <v>0.865375126607663</v>
       </c>
       <c r="C11" t="n">
-        <v>1.192554894269837</v>
+        <v>1.190328561935657</v>
       </c>
       <c r="D11" t="n">
-        <v>1.569285015880808</v>
+        <v>1.562862499058271</v>
       </c>
       <c r="E11" t="n">
-        <v>1.996671204476563</v>
+        <v>1.984059684355534</v>
       </c>
       <c r="F11" t="n">
-        <v>2.454953786637328</v>
+        <v>2.434846937508288</v>
       </c>
       <c r="G11" t="n">
-        <v>2.946935303430406</v>
+        <v>2.918720727130657</v>
       </c>
       <c r="H11" t="n">
-        <v>3.474931791960817</v>
+        <v>3.438756914104592</v>
       </c>
       <c r="I11" t="n">
-        <v>4.029465860001539</v>
+        <v>3.986323554555739</v>
       </c>
       <c r="J11" t="n">
-        <v>4.599536360095129</v>
+        <v>4.551164559178594</v>
       </c>
       <c r="K11" t="n">
-        <v>5.275626590203542</v>
+        <v>5.223217413012653</v>
       </c>
       <c r="L11" t="n">
-        <v>6.122156201652317</v>
+        <v>6.066266617644291</v>
       </c>
       <c r="M11" t="n">
-        <v>7.121211215852173</v>
+        <v>7.062236137944904</v>
       </c>
       <c r="N11" t="n">
-        <v>8.487665526714327</v>
+        <v>8.423579820840235</v>
       </c>
       <c r="O11" t="n">
-        <v>9.806550927728972</v>
+        <v>9.738673562281429</v>
       </c>
     </row>
     <row r="12">
@@ -6781,46 +6781,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1821934049177721</v>
+        <v>0.1801159004412922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1863820716794918</v>
+        <v>0.1817002260268482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1835842795313211</v>
+        <v>0.1755705327306147</v>
       </c>
       <c r="E12" t="n">
-        <v>0.175404025534228</v>
+        <v>0.1635263871870077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1624372334845411</v>
+        <v>0.1465074781817824</v>
       </c>
       <c r="G12" t="n">
-        <v>0.147136041565435</v>
+        <v>0.1272572175916128</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1318346431120994</v>
+        <v>0.1084552853052045</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1190183036621935</v>
+        <v>0.09317474694540802</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1121701700715816</v>
+        <v>0.08553169079230843</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1161538211155592</v>
+        <v>0.09062214634186171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1354449110846501</v>
+        <v>0.1134818403893315</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1746889323569329</v>
+        <v>0.1591656797532697</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2378978929196748</v>
+        <v>0.2302625626965185</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3540718979310762</v>
+        <v>0.3532435190571638</v>
       </c>
     </row>
     <row r="13">
@@ -6830,46 +6830,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1821934049177721</v>
+        <v>0.1801159004412922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1863820716794918</v>
+        <v>0.1817002260268482</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1835842795313211</v>
+        <v>0.1755705327306147</v>
       </c>
       <c r="E13" t="n">
-        <v>0.175404025534228</v>
+        <v>0.1635263871870077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1624372334845411</v>
+        <v>0.1465074781817824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.147136041565435</v>
+        <v>0.1272572175916128</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1318346431120994</v>
+        <v>0.1084552853052045</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1190183036621935</v>
+        <v>0.09317474694540802</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1121701700715816</v>
+        <v>0.08553169079230843</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1161538211155592</v>
+        <v>0.09062214634186171</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1354449110846501</v>
+        <v>0.1134818403893315</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1746889323569329</v>
+        <v>0.1591656797532697</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2378978929196748</v>
+        <v>0.2302625626965185</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3540718979310762</v>
+        <v>0.3532435190571638</v>
       </c>
     </row>
     <row r="14">
@@ -7040,46 +7040,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.4749661374853</v>
+        <v>272.3308247110433</v>
       </c>
       <c r="C2" t="n">
-        <v>359.417878520428</v>
+        <v>358.5941058548578</v>
       </c>
       <c r="D2" t="n">
-        <v>388.9528818071786</v>
+        <v>387.6148975841559</v>
       </c>
       <c r="E2" t="n">
-        <v>382.1278225507653</v>
+        <v>380.5956466844774</v>
       </c>
       <c r="F2" t="n">
-        <v>353.4474113133921</v>
+        <v>351.973824089102</v>
       </c>
       <c r="G2" t="n">
-        <v>318.3916725501426</v>
+        <v>317.0977972470611</v>
       </c>
       <c r="H2" t="n">
-        <v>281.8304062586676</v>
+        <v>280.7624823702107</v>
       </c>
       <c r="I2" t="n">
-        <v>246.4095790199407</v>
+        <v>245.568135832578</v>
       </c>
       <c r="J2" t="n">
-        <v>213.3586107028584</v>
+        <v>212.7187087219797</v>
       </c>
       <c r="K2" t="n">
-        <v>186.7563366876664</v>
+        <v>186.2760138260049</v>
       </c>
       <c r="L2" t="n">
-        <v>165.6783981133612</v>
+        <v>165.319506382235</v>
       </c>
       <c r="M2" t="n">
-        <v>146.6972143580165</v>
+        <v>146.4323995250098</v>
       </c>
       <c r="N2" t="n">
-        <v>130.1352126871827</v>
+        <v>129.9413068512734</v>
       </c>
       <c r="O2" t="n">
-        <v>114.5249372036785</v>
+        <v>114.3801379428578</v>
       </c>
     </row>
     <row r="3">
@@ -7092,43 +7092,43 @@
         <v>22.26872927438124</v>
       </c>
       <c r="C3" t="n">
-        <v>33.33115675572064</v>
+        <v>33.34245613862517</v>
       </c>
       <c r="D3" t="n">
-        <v>46.30256977486015</v>
+        <v>46.24202950275355</v>
       </c>
       <c r="E3" t="n">
-        <v>60.86450560868031</v>
+        <v>60.62752008924056</v>
       </c>
       <c r="F3" t="n">
-        <v>76.73878439258817</v>
+        <v>76.23730920345535</v>
       </c>
       <c r="G3" t="n">
-        <v>94.11696615814995</v>
+        <v>93.29021889800228</v>
       </c>
       <c r="H3" t="n">
-        <v>112.9900602900523</v>
+        <v>111.7980408005161</v>
       </c>
       <c r="I3" t="n">
-        <v>133.2139841201316</v>
+        <v>131.6383865530652</v>
       </c>
       <c r="J3" t="n">
-        <v>155.1117575091714</v>
+        <v>153.1489259762201</v>
       </c>
       <c r="K3" t="n">
-        <v>179.1549548522174</v>
+        <v>176.8271268271344</v>
       </c>
       <c r="L3" t="n">
-        <v>204.3856175882657</v>
+        <v>201.7845825805646</v>
       </c>
       <c r="M3" t="n">
-        <v>225.9563796242736</v>
+        <v>223.2709579597115</v>
       </c>
       <c r="N3" t="n">
-        <v>232.469979926215</v>
+        <v>229.9940853974386</v>
       </c>
       <c r="O3" t="n">
-        <v>186.3538299913095</v>
+        <v>184.6061063125855</v>
       </c>
     </row>
     <row r="4">
@@ -7138,46 +7138,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2154355831083264</v>
+        <v>0.2155630655718426</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2096954444235189</v>
+        <v>0.2097697014542311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206542595869947</v>
+        <v>0.2065590709996611</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2050595318063001</v>
+        <v>0.2050495838645448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.206650313968819</v>
+        <v>0.2066381325856693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2083905158321415</v>
+        <v>0.2083702286459262</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2102132760445666</v>
+        <v>0.2101638344169209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2129058499911758</v>
+        <v>0.2127997319903894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2173587178859537</v>
+        <v>0.2171906997981519</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2184743646361193</v>
+        <v>0.2182874895089681</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2107677375681599</v>
+        <v>0.2106266638589019</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1882572302950196</v>
+        <v>0.188215175540473</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1193438805945221</v>
+        <v>0.1194023673155941</v>
       </c>
       <c r="O4" t="n">
-        <v>4.341903931208148e-10</v>
+        <v>4.3087542757582e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7187,46 +7187,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.556653096932018</v>
+        <v>2.557783035222472</v>
       </c>
       <c r="C5" t="n">
-        <v>3.46807140305469</v>
+        <v>3.461623390723505</v>
       </c>
       <c r="D5" t="n">
-        <v>4.471979780696067</v>
+        <v>4.450392137516227</v>
       </c>
       <c r="E5" t="n">
-        <v>5.551664351949581</v>
+        <v>5.509780007160754</v>
       </c>
       <c r="F5" t="n">
-        <v>6.735980652097206</v>
+        <v>6.670791284752009</v>
       </c>
       <c r="G5" t="n">
-        <v>8.017350334308402</v>
+        <v>7.926975279857309</v>
       </c>
       <c r="H5" t="n">
-        <v>9.381678615139126</v>
+        <v>9.265682008050508</v>
       </c>
       <c r="I5" t="n">
-        <v>10.86629133266577</v>
+        <v>10.72494586956165</v>
       </c>
       <c r="J5" t="n">
-        <v>12.507082920275</v>
+        <v>12.34273982147556</v>
       </c>
       <c r="K5" t="n">
-        <v>14.19181473942086</v>
+        <v>14.01287758311145</v>
       </c>
       <c r="L5" t="n">
-        <v>15.4691521304722</v>
+        <v>15.29130244692906</v>
       </c>
       <c r="M5" t="n">
-        <v>15.36838619481798</v>
+        <v>15.21443160564137</v>
       </c>
       <c r="N5" t="n">
-        <v>10.52965600205585</v>
+        <v>10.44121273839804</v>
       </c>
       <c r="O5" t="n">
-        <v>3.820401870589923e-08</v>
+        <v>3.759996297832542e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7239,43 +7239,43 @@
         <v>11.9469150777149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.68566297182914</v>
+        <v>16.68735972058326</v>
       </c>
       <c r="D6" t="n">
-        <v>21.90216094697375</v>
+        <v>21.89356593790486</v>
       </c>
       <c r="E6" t="n">
-        <v>27.46688559426697</v>
+        <v>27.43475778320466</v>
       </c>
       <c r="F6" t="n">
-        <v>33.16467289220428</v>
+        <v>33.09950594522721</v>
       </c>
       <c r="G6" t="n">
-        <v>39.26955613136452</v>
+        <v>39.16575025416274</v>
       </c>
       <c r="H6" t="n">
-        <v>45.69564612163802</v>
+        <v>45.55048528674192</v>
       </c>
       <c r="I6" t="n">
-        <v>52.41145048717831</v>
+        <v>52.22470542374459</v>
       </c>
       <c r="J6" t="n">
-        <v>59.35324698440787</v>
+        <v>59.12691958078103</v>
       </c>
       <c r="K6" t="n">
-        <v>67.33393854177332</v>
+        <v>67.07026745961959</v>
       </c>
       <c r="L6" t="n">
-        <v>76.50213234225755</v>
+        <v>76.2087494521334</v>
       </c>
       <c r="M6" t="n">
-        <v>85.58804889578948</v>
+        <v>85.2816146929153</v>
       </c>
       <c r="N6" t="n">
-        <v>93.14881691293321</v>
+        <v>92.85007954813776</v>
       </c>
       <c r="O6" t="n">
-        <v>93.59633438609683</v>
+        <v>93.33212674628027</v>
       </c>
     </row>
     <row r="7">
@@ -7285,46 +7285,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.86736684833754</v>
+        <v>11.86559037113905</v>
       </c>
       <c r="C7" t="n">
-        <v>16.53861109185699</v>
+        <v>16.5020180070132</v>
       </c>
       <c r="D7" t="n">
-        <v>21.65161022529184</v>
+        <v>21.54537254635275</v>
       </c>
       <c r="E7" t="n">
-        <v>27.07342742396243</v>
+        <v>26.87047641511187</v>
       </c>
       <c r="F7" t="n">
-        <v>32.5960339606045</v>
+        <v>32.28247952727889</v>
       </c>
       <c r="G7" t="n">
-        <v>38.47272176612096</v>
+        <v>38.04274406843046</v>
       </c>
       <c r="H7" t="n">
-        <v>44.6293345104909</v>
+        <v>44.08789948925913</v>
       </c>
       <c r="I7" t="n">
-        <v>51.03801202792756</v>
+        <v>50.39924519287467</v>
       </c>
       <c r="J7" t="n">
-        <v>57.54120672922518</v>
+        <v>56.82904393671734</v>
       </c>
       <c r="K7" t="n">
-        <v>64.9587184430452</v>
+        <v>64.19459775103483</v>
       </c>
       <c r="L7" t="n">
-        <v>73.39430744456156</v>
+        <v>72.59908202872479</v>
       </c>
       <c r="M7" t="n">
-        <v>81.63503824386477</v>
+        <v>80.83530757789363</v>
       </c>
       <c r="N7" t="n">
-        <v>88.22954264266784</v>
+        <v>87.44560910422084</v>
       </c>
       <c r="O7" t="n">
-        <v>87.98909259898997</v>
+        <v>87.26411526846483</v>
       </c>
     </row>
     <row r="8">
@@ -7334,46 +7334,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2346652492994494</v>
+        <v>0.244352896566985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.295453246131694</v>
+        <v>0.3150020016927115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3582795674473237</v>
+        <v>0.3884563267200542</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4216830292218324</v>
+        <v>0.4628045152613446</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4837783940149967</v>
+        <v>0.535575580460095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5425230661449361</v>
+        <v>0.6040580198427064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5938012215597005</v>
+        <v>0.6631696536842431</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6322161170785568</v>
+        <v>0.7061688107923716</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6492031971282509</v>
+        <v>0.7228283441988156</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6379613276685849</v>
+        <v>0.7053082781699849</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5905697655825358</v>
+        <v>0.6450910360325749</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4958134768902581</v>
+        <v>0.5319858330145166</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3409491458480099</v>
+        <v>0.3572900804308024</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003047335343646238</v>
+        <v>0.003034571798483646</v>
       </c>
     </row>
     <row r="9">
@@ -7383,46 +7383,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01481213635956183</v>
+        <v>0.01658861355804614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03002733020049592</v>
+        <v>0.03593102561404921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05256294271226444</v>
+        <v>0.0658939664757793</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08235760975148249</v>
+        <v>0.1067450009905192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1175963230966122</v>
+        <v>0.156036992987085</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1568258920262935</v>
+        <v>0.2113087476807891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1946338095324488</v>
+        <v>0.2643567669262023</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2230802311336711</v>
+        <v>0.3029920401912556</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2306629919526371</v>
+        <v>0.310421190338452</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2133611662280859</v>
+        <v>0.2814805265865585</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1687327613895991</v>
+        <v>0.2152336360539983</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1007693552841826</v>
+        <v>0.1222924482774821</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03372906394020667</v>
+        <v>0.03832984045077792</v>
       </c>
       <c r="O9" t="n">
-        <v>5.491840268742339e-08</v>
+        <v>5.412191206362117e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7435,43 +7435,43 @@
         <v>0.005418645114382654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007013479174860011</v>
+        <v>0.008953524731159897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009039645880102046</v>
+        <v>0.01289417292171549</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01132638644033225</v>
+        <v>0.01667725192683752</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01360009218149678</v>
+        <v>0.01996976710332294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01629782804461326</v>
+        <v>0.02327792604852738</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0190757298691945</v>
+        <v>0.02630551624233416</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02194860507435289</v>
+        <v>0.02915225999506457</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02664348361001171</v>
+        <v>0.03361336034105273</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03210652724790242</v>
+        <v>0.03867867656201121</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03841843418373521</v>
+        <v>0.0445412608362871</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04500910286354456</v>
+        <v>0.05070277670415507</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05244881650931209</v>
+        <v>0.05779360265045674</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05990877494262965</v>
+        <v>0.06501524860991727</v>
       </c>
     </row>
     <row r="11">
@@ -7481,46 +7481,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.310713751405517</v>
+        <v>9.307807335916578</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0705396888023</v>
+        <v>13.04039461628969</v>
       </c>
       <c r="D11" t="n">
-        <v>17.17963044459578</v>
+        <v>17.09498040883652</v>
       </c>
       <c r="E11" t="n">
-        <v>21.52176307201285</v>
+        <v>21.36069640795111</v>
       </c>
       <c r="F11" t="n">
-        <v>25.86005330850729</v>
+        <v>25.61168824252688</v>
       </c>
       <c r="G11" t="n">
-        <v>30.45537143181255</v>
+        <v>30.11576878857315</v>
       </c>
       <c r="H11" t="n">
-        <v>35.24765589535177</v>
+        <v>34.82221748120862</v>
       </c>
       <c r="I11" t="n">
-        <v>40.17172069526179</v>
+        <v>39.67429932331302</v>
       </c>
       <c r="J11" t="n">
-        <v>45.03412380895018</v>
+        <v>44.48630411524178</v>
       </c>
       <c r="K11" t="n">
-        <v>50.76690370362434</v>
+        <v>50.18172016792339</v>
       </c>
       <c r="L11" t="n">
-        <v>57.92515531408937</v>
+        <v>57.30777958179573</v>
       </c>
       <c r="M11" t="n">
-        <v>66.26665204904678</v>
+        <v>65.62087597225225</v>
       </c>
       <c r="N11" t="n">
-        <v>77.69988664061198</v>
+        <v>77.0043963658228</v>
       </c>
       <c r="O11" t="n">
-        <v>87.98909256078596</v>
+        <v>87.26411523086486</v>
       </c>
     </row>
     <row r="12">
@@ -7530,46 +7530,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.182220452134236</v>
+        <v>2.154597791617479</v>
       </c>
       <c r="C12" t="n">
-        <v>2.236833033009244</v>
+        <v>2.174989739608602</v>
       </c>
       <c r="D12" t="n">
-        <v>2.175491360780041</v>
+        <v>2.072375791535879</v>
       </c>
       <c r="E12" t="n">
-        <v>2.036685498255709</v>
+        <v>1.889653166263842</v>
       </c>
       <c r="F12" t="n">
-        <v>1.848316977805665</v>
+        <v>1.659591169723883</v>
       </c>
       <c r="G12" t="n">
-        <v>1.657251276404427</v>
+        <v>1.430543831614279</v>
       </c>
       <c r="H12" t="n">
-        <v>1.482585052912349</v>
+        <v>1.225491778094825</v>
       </c>
       <c r="I12" t="n">
-        <v>1.349081014636352</v>
+        <v>1.073972225045362</v>
       </c>
       <c r="J12" t="n">
-        <v>1.290580828647911</v>
+        <v>1.015825639310844</v>
       </c>
       <c r="K12" t="n">
-        <v>1.351225069283307</v>
+        <v>1.095561310270674</v>
       </c>
       <c r="L12" t="n">
-        <v>1.566082646404791</v>
+        <v>1.352331083343465</v>
       </c>
       <c r="M12" t="n">
-        <v>1.961462965366836</v>
+        <v>1.814220908287072</v>
       </c>
       <c r="N12" t="n">
-        <v>2.554696788881651</v>
+        <v>2.483363962936135</v>
       </c>
       <c r="O12" t="n">
-        <v>3.577596346723777</v>
+        <v>3.567543031506954</v>
       </c>
     </row>
     <row r="13">
@@ -7579,46 +7579,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.182220452134236</v>
+        <v>2.154597791617479</v>
       </c>
       <c r="C13" t="n">
-        <v>2.236833033009244</v>
+        <v>2.174989739608602</v>
       </c>
       <c r="D13" t="n">
-        <v>2.175491360780041</v>
+        <v>2.072375791535879</v>
       </c>
       <c r="E13" t="n">
-        <v>2.036685498255709</v>
+        <v>1.889653166263842</v>
       </c>
       <c r="F13" t="n">
-        <v>1.848316977805665</v>
+        <v>1.659591169723883</v>
       </c>
       <c r="G13" t="n">
-        <v>1.657251276404427</v>
+        <v>1.430543831614279</v>
       </c>
       <c r="H13" t="n">
-        <v>1.482585052912349</v>
+        <v>1.225491778094825</v>
       </c>
       <c r="I13" t="n">
-        <v>1.349081014636352</v>
+        <v>1.073972225045362</v>
       </c>
       <c r="J13" t="n">
-        <v>1.290580828647911</v>
+        <v>1.015825639310844</v>
       </c>
       <c r="K13" t="n">
-        <v>1.351225069283307</v>
+        <v>1.095561310270674</v>
       </c>
       <c r="L13" t="n">
-        <v>1.566082646404791</v>
+        <v>1.352331083343465</v>
       </c>
       <c r="M13" t="n">
-        <v>1.961462965366836</v>
+        <v>1.814220908287072</v>
       </c>
       <c r="N13" t="n">
-        <v>2.554696788881651</v>
+        <v>2.483363962936135</v>
       </c>
       <c r="O13" t="n">
-        <v>3.577596346723777</v>
+        <v>3.567543031506954</v>
       </c>
     </row>
     <row r="14">
@@ -7789,46 +7789,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-204.3321341557333</v>
+        <v>-204.858359128825</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.002278068905645</v>
+        <v>-6.122001549754582</v>
       </c>
       <c r="D2" t="n">
-        <v>137.0952920207983</v>
+        <v>133.6844555906636</v>
       </c>
       <c r="E2" t="n">
-        <v>224.3850542182567</v>
+        <v>220.4642218288289</v>
       </c>
       <c r="F2" t="n">
-        <v>264.4318573295473</v>
+        <v>260.6812898374532</v>
       </c>
       <c r="G2" t="n">
-        <v>272.9935945150703</v>
+        <v>269.7432879845409</v>
       </c>
       <c r="H2" t="n">
-        <v>265.6723769426371</v>
+        <v>262.9973118261714</v>
       </c>
       <c r="I2" t="n">
-        <v>249.6692336141262</v>
+        <v>247.5430678264026</v>
       </c>
       <c r="J2" t="n">
-        <v>229.3826720044321</v>
+        <v>227.7350969097099</v>
       </c>
       <c r="K2" t="n">
-        <v>207.3849878065195</v>
+        <v>206.1353728363222</v>
       </c>
       <c r="L2" t="n">
-        <v>185.420021629028</v>
+        <v>184.4864167370913</v>
       </c>
       <c r="M2" t="n">
-        <v>164.7699020879889</v>
+        <v>164.0800970405361</v>
       </c>
       <c r="N2" t="n">
-        <v>146.3522472829749</v>
+        <v>145.8499366593319</v>
       </c>
       <c r="O2" t="n">
-        <v>128.5692715911812</v>
+        <v>128.2019722075146</v>
       </c>
     </row>
     <row r="3">
@@ -7841,43 +7841,43 @@
         <v>8.636725107995959</v>
       </c>
       <c r="C3" t="n">
-        <v>13.34436283325897</v>
+        <v>13.37292933405672</v>
       </c>
       <c r="D3" t="n">
-        <v>20.18083655655476</v>
+        <v>20.1673397956829</v>
       </c>
       <c r="E3" t="n">
-        <v>29.3418131894988</v>
+        <v>29.18108174810978</v>
       </c>
       <c r="F3" t="n">
-        <v>40.70215798594475</v>
+        <v>40.27921295560668</v>
       </c>
       <c r="G3" t="n">
-        <v>54.31686973597689</v>
+        <v>53.52711314541251</v>
       </c>
       <c r="H3" t="n">
-        <v>70.50518199760018</v>
+        <v>69.25784386581483</v>
       </c>
       <c r="I3" t="n">
-        <v>89.30523172926524</v>
+        <v>87.53749523682575</v>
       </c>
       <c r="J3" t="n">
-        <v>110.6878070547612</v>
+        <v>108.3686063679671</v>
       </c>
       <c r="K3" t="n">
-        <v>134.2762151021182</v>
+        <v>131.4164362307523</v>
       </c>
       <c r="L3" t="n">
-        <v>158.9748483609983</v>
+        <v>155.6561596343718</v>
       </c>
       <c r="M3" t="n">
-        <v>181.6460734017345</v>
+        <v>178.0326381394151</v>
       </c>
       <c r="N3" t="n">
-        <v>192.6310355943394</v>
+        <v>189.0557309692495</v>
       </c>
       <c r="O3" t="n">
-        <v>159.238477711055</v>
+        <v>156.5197249446376</v>
       </c>
     </row>
     <row r="4">
@@ -7887,46 +7887,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2257669675736513</v>
+        <v>0.2263934092079204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2201750941447653</v>
+        <v>0.2206199025576015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2160968930963675</v>
+        <v>0.2163328693877153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2110960811998923</v>
+        <v>0.2111575010791009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2100346136591724</v>
+        <v>0.2099721668678269</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2119692634503671</v>
+        <v>0.2118171953477326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2136063931903313</v>
+        <v>0.2133987209689372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2148847794803616</v>
+        <v>0.2146471809276445</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2152763191175189</v>
+        <v>0.2150320858680828</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2137632984679018</v>
+        <v>0.2135536224536993</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2072439036970007</v>
+        <v>0.2070980340987846</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1863916478542592</v>
+        <v>0.1863347805849162</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1202019956880049</v>
+        <v>0.1202551785411076</v>
       </c>
       <c r="O4" t="n">
-        <v>2.698848942302186e-10</v>
+        <v>2.64719904896042e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7936,46 +7936,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.033292299503043</v>
+        <v>1.036148949582819</v>
       </c>
       <c r="C5" t="n">
-        <v>1.552794493972561</v>
+        <v>1.550448765591647</v>
       </c>
       <c r="D5" t="n">
-        <v>2.230519057904623</v>
+        <v>2.214916516718441</v>
       </c>
       <c r="E5" t="n">
-        <v>3.04713003333247</v>
+        <v>3.010439889124518</v>
       </c>
       <c r="F5" t="n">
-        <v>4.012490478073391</v>
+        <v>3.948262000359586</v>
       </c>
       <c r="G5" t="n">
-        <v>5.156606058694485</v>
+        <v>5.059409355121619</v>
       </c>
       <c r="H5" t="n">
-        <v>6.47215948513754</v>
+        <v>6.338877827300407</v>
       </c>
       <c r="I5" t="n">
-        <v>7.954899816263199</v>
+        <v>7.784616907852955</v>
       </c>
       <c r="J5" t="n">
-        <v>9.568176320017432</v>
+        <v>9.363063960655854</v>
       </c>
       <c r="K5" t="n">
-        <v>11.21556271366596</v>
+        <v>10.9834081645932</v>
       </c>
       <c r="L5" t="n">
-        <v>12.62149712600875</v>
+        <v>12.37586912061457</v>
       </c>
       <c r="M5" t="n">
-        <v>12.92949660703325</v>
+        <v>12.69795884159105</v>
       </c>
       <c r="N5" t="n">
-        <v>9.207218870517314</v>
+        <v>9.060006757831442</v>
       </c>
       <c r="O5" t="n">
-        <v>2.103317385581824e-08</v>
+        <v>2.031479487788743e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7988,43 +7988,43 @@
         <v>4.604494857796085</v>
       </c>
       <c r="C6" t="n">
-        <v>7.106644122983271</v>
+        <v>7.111204701144537</v>
       </c>
       <c r="D6" t="n">
-        <v>10.41082331420733</v>
+        <v>10.40873402575504</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5664217334005</v>
+        <v>14.54243768591655</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28223607561505</v>
+        <v>19.22190638401797</v>
       </c>
       <c r="G6" t="n">
-        <v>24.5547270657381</v>
+        <v>24.44707120496363</v>
       </c>
       <c r="H6" t="n">
-        <v>30.57900892827926</v>
+        <v>30.4156977922559</v>
       </c>
       <c r="I6" t="n">
-        <v>37.35175689975579</v>
+        <v>37.12839694765273</v>
       </c>
       <c r="J6" t="n">
-        <v>44.83235257671919</v>
+        <v>44.54845436882894</v>
       </c>
       <c r="K6" t="n">
-        <v>52.90847971941597</v>
+        <v>52.56787978519866</v>
       </c>
       <c r="L6" t="n">
-        <v>61.40017765970375</v>
+        <v>61.01280551138717</v>
       </c>
       <c r="M6" t="n">
-        <v>69.93749889583454</v>
+        <v>69.51718552781037</v>
       </c>
       <c r="N6" t="n">
-        <v>77.27820138283663</v>
+        <v>76.84508260184704</v>
       </c>
       <c r="O6" t="n">
-        <v>78.76705369760991</v>
+        <v>78.36117122200923</v>
       </c>
     </row>
     <row r="7">
@@ -8034,46 +8034,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.576809046106159</v>
+        <v>4.576762871357339</v>
       </c>
       <c r="C7" t="n">
-        <v>7.052543794765437</v>
+        <v>7.027692187411976</v>
       </c>
       <c r="D7" t="n">
-        <v>10.32184695459704</v>
+        <v>10.23846502377238</v>
       </c>
       <c r="E7" t="n">
-        <v>14.43480151792616</v>
+        <v>14.25684559506502</v>
       </c>
       <c r="F7" t="n">
-        <v>19.10394866907292</v>
+        <v>18.80373984445726</v>
       </c>
       <c r="G7" t="n">
-        <v>24.32714052385199</v>
+        <v>23.88573480455999</v>
       </c>
       <c r="H7" t="n">
-        <v>30.29946523824595</v>
+        <v>29.70438528646621</v>
       </c>
       <c r="I7" t="n">
-        <v>37.01937305890109</v>
+        <v>36.26703539366341</v>
       </c>
       <c r="J7" t="n">
-        <v>44.44602341418791</v>
+        <v>43.54263654587751</v>
       </c>
       <c r="K7" t="n">
-        <v>52.46720458587076</v>
+        <v>51.43161721349173</v>
       </c>
       <c r="L7" t="n">
-        <v>60.90165694071228</v>
+        <v>59.7585060354139</v>
       </c>
       <c r="M7" t="n">
-        <v>69.36736037197817</v>
+        <v>68.14594034313608</v>
       </c>
       <c r="N7" t="n">
-        <v>76.59788689711512</v>
+        <v>75.33984704645715</v>
       </c>
       <c r="O7" t="n">
-        <v>77.93386849534609</v>
+        <v>76.74071538317166</v>
       </c>
     </row>
     <row r="8">
@@ -8083,46 +8083,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08886995792306292</v>
+        <v>0.09249964689573867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1156669019743043</v>
+        <v>0.1231360618183413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1466853485287269</v>
+        <v>0.15858062799337</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1813333338225659</v>
+        <v>0.1981938398764035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2182509723722182</v>
+        <v>0.2403916289026974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2556373419167653</v>
+        <v>0.2829995917076495</v>
       </c>
       <c r="H8" t="n">
-        <v>0.291182371424892</v>
+        <v>0.3231918345760613</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3217189078655413</v>
+        <v>0.3570323190858315</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3428750448772885</v>
+        <v>0.3792282560192717</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3491297984583157</v>
+        <v>0.3833974314771644</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3336434223169762</v>
+        <v>0.3620088182011801</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2882434503412351</v>
+        <v>0.3072425203454569</v>
       </c>
       <c r="N8" t="n">
-        <v>0.203392814096635</v>
+        <v>0.2117901212095347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002512541727501054</v>
+        <v>0.002491752546494845</v>
       </c>
     </row>
     <row r="9">
@@ -8132,46 +8132,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003893024741517188</v>
+        <v>0.0004354772229717124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009814877705117667</v>
+        <v>0.001170190968997505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002223406417086599</v>
+        <v>0.002765344227217349</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004551643128443675</v>
+        <v>0.005828644287611111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008299763443484036</v>
+        <v>0.01084430203146121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01367028313654193</v>
+        <v>0.01809345398267601</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02060630300828048</v>
+        <v>0.02744740582270806</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02827737231892228</v>
+        <v>0.03762537703886207</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03480618603630512</v>
+        <v>0.04586052482910364</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03740018774494477</v>
+        <v>0.0482973551266624</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03334995711181574</v>
+        <v>0.04164559564121954</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02216381814861988</v>
+        <v>0.02634194882232464</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008160394395785234</v>
+        <v>0.009087961691083328</v>
       </c>
       <c r="O9" t="n">
-        <v>3.359328309214371e-08</v>
+        <v>3.265162109648918e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8181,46 +8181,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005928231013127825</v>
+        <v>0.005928231013127826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00747453221634293</v>
+        <v>0.01157923674315142</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008332957977955481</v>
+        <v>0.0160926062036915</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008723389633469556</v>
+        <v>0.01923772703078876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008815764024049717</v>
+        <v>0.0211905223858502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008711815781004958</v>
+        <v>0.0222211872279678</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008467814886752897</v>
+        <v>0.02248395235374479</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008141691148610242</v>
+        <v>0.02218614981174229</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007840832708777151</v>
+        <v>0.02154861064706257</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007633463443706839</v>
+        <v>0.02069638762350473</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007576049119234794</v>
+        <v>0.01987539943734808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.007835205924705957</v>
+        <v>0.01934634185260469</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008697848543289219</v>
+        <v>0.01946965951550472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01057783844333153</v>
+        <v>0.02067932090492827</v>
       </c>
     </row>
     <row r="11">
@@ -8230,46 +8230,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.543516746603116</v>
+        <v>3.54061392177452</v>
       </c>
       <c r="C11" t="n">
-        <v>5.499749300792875</v>
+        <v>5.477243421820329</v>
       </c>
       <c r="D11" t="n">
-        <v>8.091327896692416</v>
+        <v>8.023548507053938</v>
       </c>
       <c r="E11" t="n">
-        <v>11.38767148459369</v>
+        <v>11.24640570594051</v>
       </c>
       <c r="F11" t="n">
-        <v>15.09145819099953</v>
+        <v>14.85547784409767</v>
       </c>
       <c r="G11" t="n">
-        <v>19.17053446515751</v>
+        <v>18.82632544943838</v>
       </c>
       <c r="H11" t="n">
-        <v>23.82730575310841</v>
+        <v>23.3655074591658</v>
       </c>
       <c r="I11" t="n">
-        <v>29.06447324263789</v>
+        <v>28.48241848581046</v>
       </c>
       <c r="J11" t="n">
-        <v>34.87784709417048</v>
+        <v>34.17957258522166</v>
       </c>
       <c r="K11" t="n">
-        <v>41.2516418722048</v>
+        <v>40.44820904889853</v>
       </c>
       <c r="L11" t="n">
-        <v>48.28015981470352</v>
+        <v>47.38263691479933</v>
       </c>
       <c r="M11" t="n">
-        <v>56.43786376494491</v>
+        <v>55.44798150154503</v>
       </c>
       <c r="N11" t="n">
-        <v>67.39066802659779</v>
+        <v>66.27984028862572</v>
       </c>
       <c r="O11" t="n">
-        <v>77.93386847431292</v>
+        <v>76.74071536285686</v>
       </c>
     </row>
     <row r="12">
@@ -8279,46 +8279,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6587870160846251</v>
+        <v>0.6561625916257702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.806856331473804</v>
+        <v>0.8005549618281964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9490827679066799</v>
+        <v>0.9356646618129473</v>
       </c>
       <c r="E12" t="n">
-        <v>1.07710663709163</v>
+        <v>1.053186575936352</v>
       </c>
       <c r="F12" t="n">
-        <v>1.167663591196475</v>
+        <v>1.131043200486238</v>
       </c>
       <c r="G12" t="n">
-        <v>1.229962291556857</v>
+        <v>1.179555413635194</v>
       </c>
       <c r="H12" t="n">
-        <v>1.281844931006249</v>
+        <v>1.217421447708275</v>
       </c>
       <c r="I12" t="n">
-        <v>1.33053867732839</v>
+        <v>1.25372446416979</v>
       </c>
       <c r="J12" t="n">
-        <v>1.386905202039499</v>
+        <v>1.301882738969334</v>
       </c>
       <c r="K12" t="n">
-        <v>1.46551983045873</v>
+        <v>1.379424128814152</v>
       </c>
       <c r="L12" t="n">
-        <v>1.586028089336123</v>
+        <v>1.508933947128981</v>
       </c>
       <c r="M12" t="n">
-        <v>1.769728593454577</v>
+        <v>1.712136962062231</v>
       </c>
       <c r="N12" t="n">
-        <v>2.019612612602965</v>
+        <v>1.98712324848719</v>
       </c>
       <c r="O12" t="n">
-        <v>2.391799291895454</v>
+        <v>2.379524068152288</v>
       </c>
     </row>
     <row r="13">
@@ -8328,46 +8328,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6587870160846251</v>
+        <v>0.6561625916257702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.806856331473804</v>
+        <v>0.8005549618281964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9490827679066799</v>
+        <v>0.9356646618129473</v>
       </c>
       <c r="E13" t="n">
-        <v>1.07710663709163</v>
+        <v>1.053186575936352</v>
       </c>
       <c r="F13" t="n">
-        <v>1.167663591196475</v>
+        <v>1.131043200486238</v>
       </c>
       <c r="G13" t="n">
-        <v>1.229962291556857</v>
+        <v>1.179555413635194</v>
       </c>
       <c r="H13" t="n">
-        <v>1.281844931006249</v>
+        <v>1.217421447708275</v>
       </c>
       <c r="I13" t="n">
-        <v>1.33053867732839</v>
+        <v>1.25372446416979</v>
       </c>
       <c r="J13" t="n">
-        <v>1.386905202039499</v>
+        <v>1.301882738969334</v>
       </c>
       <c r="K13" t="n">
-        <v>1.46551983045873</v>
+        <v>1.379424128814152</v>
       </c>
       <c r="L13" t="n">
-        <v>1.586028089336123</v>
+        <v>1.508933947128981</v>
       </c>
       <c r="M13" t="n">
-        <v>1.769728593454577</v>
+        <v>1.712136962062231</v>
       </c>
       <c r="N13" t="n">
-        <v>2.019612612602965</v>
+        <v>1.98712324848719</v>
       </c>
       <c r="O13" t="n">
-        <v>2.391799291895454</v>
+        <v>2.379524068152288</v>
       </c>
     </row>
     <row r="14">
@@ -8538,46 +8538,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.2828222976464</v>
+        <v>136.180222332372</v>
       </c>
       <c r="C2" t="n">
-        <v>175.1691784093178</v>
+        <v>174.7037648496342</v>
       </c>
       <c r="D2" t="n">
-        <v>198.2728570276774</v>
+        <v>197.4518042537105</v>
       </c>
       <c r="E2" t="n">
-        <v>208.556311063608</v>
+        <v>207.5187164217539</v>
       </c>
       <c r="F2" t="n">
-        <v>204.9310306400509</v>
+        <v>203.8455257736462</v>
       </c>
       <c r="G2" t="n">
-        <v>194.2420500788075</v>
+        <v>193.2180866236471</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8519451700995</v>
+        <v>180.9405751417419</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8264623138004</v>
+        <v>168.0492668492171</v>
       </c>
       <c r="J2" t="n">
-        <v>155.8210686372957</v>
+        <v>155.1805198742653</v>
       </c>
       <c r="K2" t="n">
-        <v>139.9058442638681</v>
+        <v>139.4037249180506</v>
       </c>
       <c r="L2" t="n">
-        <v>122.3340118982281</v>
+        <v>121.9563772817289</v>
       </c>
       <c r="M2" t="n">
-        <v>106.7993987499268</v>
+        <v>106.5191982115215</v>
       </c>
       <c r="N2" t="n">
-        <v>93.44278927316567</v>
+        <v>93.23775190830578</v>
       </c>
       <c r="O2" t="n">
-        <v>81.14164755565028</v>
+        <v>80.99020955007678</v>
       </c>
     </row>
     <row r="3">
@@ -8590,43 +8590,43 @@
         <v>10.83233191914928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.39820496453303</v>
+        <v>18.42077174482337</v>
       </c>
       <c r="D3" t="n">
-        <v>27.95389469868606</v>
+        <v>27.91859263710069</v>
       </c>
       <c r="E3" t="n">
-        <v>39.47610273109529</v>
+        <v>39.26673569334513</v>
       </c>
       <c r="F3" t="n">
-        <v>52.59050424470446</v>
+        <v>52.09483114627191</v>
       </c>
       <c r="G3" t="n">
-        <v>67.35084777762764</v>
+        <v>66.48001567020981</v>
       </c>
       <c r="H3" t="n">
-        <v>84.17007277012421</v>
+        <v>82.85453630014801</v>
       </c>
       <c r="I3" t="n">
-        <v>103.0086589465927</v>
+        <v>101.2084100429444</v>
       </c>
       <c r="J3" t="n">
-        <v>123.5201238985411</v>
+        <v>121.2308775065677</v>
       </c>
       <c r="K3" t="n">
-        <v>143.8239171443825</v>
+        <v>141.1095838727016</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0381741947542</v>
+        <v>159.0486505852424</v>
       </c>
       <c r="M3" t="n">
-        <v>176.3602299752727</v>
+        <v>173.2993169554481</v>
       </c>
       <c r="N3" t="n">
-        <v>178.4967289922377</v>
+        <v>175.6711989965358</v>
       </c>
       <c r="O3" t="n">
-        <v>140.9418340371166</v>
+        <v>138.9395223136605</v>
       </c>
     </row>
     <row r="4">
@@ -8636,46 +8636,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2547001815135179</v>
+        <v>0.2551256618005397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2465497481196773</v>
+        <v>0.2468486309723791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2397318257313951</v>
+        <v>0.2398690798592351</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2325233451855498</v>
+        <v>0.2325376820384592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2305035224947132</v>
+        <v>0.2304390568298141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2315899354877383</v>
+        <v>0.2314642425631228</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2318024046623907</v>
+        <v>0.2316253809196216</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2303132263722951</v>
+        <v>0.2300894655374525</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2242132202951855</v>
+        <v>0.2239563009000584</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2174867716911212</v>
+        <v>0.2172466578832426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2098177232243897</v>
+        <v>0.2096513536029882</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1873358106215645</v>
+        <v>0.187287834601493</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1184666949477752</v>
+        <v>0.1185434190957294</v>
       </c>
       <c r="O4" t="n">
-        <v>6.660374986432901e-10</v>
+        <v>6.585801560520195e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8685,46 +8685,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.462120436831862</v>
+        <v>1.464377114860896</v>
       </c>
       <c r="C5" t="n">
-        <v>2.153883729101261</v>
+        <v>2.149566667967751</v>
       </c>
       <c r="D5" t="n">
-        <v>2.972918233283777</v>
+        <v>2.953212436285351</v>
       </c>
       <c r="E5" t="n">
-        <v>3.882603832319881</v>
+        <v>3.840336699689734</v>
       </c>
       <c r="F5" t="n">
-        <v>4.901367279351165</v>
+        <v>4.831567120885482</v>
       </c>
       <c r="G5" t="n">
-        <v>6.068628422760844</v>
+        <v>5.967438813843569</v>
       </c>
       <c r="H5" t="n">
-        <v>7.366036927000231</v>
+        <v>7.231881957059998</v>
       </c>
       <c r="I5" t="n">
-        <v>8.76032253802502</v>
+        <v>8.594168696779262</v>
       </c>
       <c r="J5" t="n">
-        <v>10.07551130224805</v>
+        <v>9.883899061175745</v>
       </c>
       <c r="K5" t="n">
-        <v>11.18898751157792</v>
+        <v>10.98467809973487</v>
       </c>
       <c r="L5" t="n">
-        <v>11.98610121603938</v>
+        <v>11.78424815693758</v>
       </c>
       <c r="M5" t="n">
-        <v>11.70037191087824</v>
+        <v>11.52454634901147</v>
       </c>
       <c r="N5" t="n">
-        <v>7.870387300915072</v>
+        <v>7.768676267705168</v>
       </c>
       <c r="O5" t="n">
-        <v>4.346654180261483e-08</v>
+        <v>4.244027268610608e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8737,43 +8737,43 @@
         <v>5.773373341602125</v>
       </c>
       <c r="C6" t="n">
-        <v>8.801999115552247</v>
+        <v>8.805236619968332</v>
       </c>
       <c r="D6" t="n">
-        <v>12.51188380861364</v>
+        <v>12.50714145694934</v>
       </c>
       <c r="E6" t="n">
-        <v>16.86491764369966</v>
+        <v>16.83803404730394</v>
       </c>
       <c r="F6" t="n">
-        <v>21.49350098275364</v>
+        <v>21.43252561912588</v>
       </c>
       <c r="G6" t="n">
-        <v>26.50254017232041</v>
+        <v>26.39926985362655</v>
       </c>
       <c r="H6" t="n">
-        <v>32.14939926626694</v>
+        <v>31.99782352027719</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48474205467001</v>
+        <v>38.28171985280114</v>
       </c>
       <c r="J6" t="n">
-        <v>45.46829016905494</v>
+        <v>45.21382842525104</v>
       </c>
       <c r="K6" t="n">
-        <v>52.04740109873092</v>
+        <v>51.75075236866183</v>
       </c>
       <c r="L6" t="n">
-        <v>57.77866107894602</v>
+        <v>57.45677793255687</v>
       </c>
       <c r="M6" t="n">
-        <v>63.1631168204398</v>
+        <v>62.83222089198415</v>
       </c>
       <c r="N6" t="n">
-        <v>67.22364324517497</v>
+        <v>66.90262171397468</v>
       </c>
       <c r="O6" t="n">
-        <v>66.14505418136845</v>
+        <v>65.86173108953302</v>
       </c>
     </row>
     <row r="7">
@@ -8783,46 +8783,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.740555142691414</v>
+        <v>5.739826815249041</v>
       </c>
       <c r="C7" t="n">
-        <v>8.736101924775635</v>
+        <v>8.708035606680255</v>
       </c>
       <c r="D7" t="n">
-        <v>12.40101611128908</v>
+        <v>12.31176789446316</v>
       </c>
       <c r="E7" t="n">
-        <v>16.69769471629452</v>
+        <v>16.51490057879989</v>
       </c>
       <c r="F7" t="n">
-        <v>21.26374133594241</v>
+        <v>20.96678916913696</v>
       </c>
       <c r="G7" t="n">
-        <v>26.2041975614357</v>
+        <v>25.78125566075799</v>
       </c>
       <c r="H7" t="n">
-        <v>31.77722395817471</v>
+        <v>31.22232083697942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.03655862935199</v>
+        <v>37.35142187715827</v>
       </c>
       <c r="J7" t="n">
-        <v>44.93718652710684</v>
+        <v>44.13315910940359</v>
       </c>
       <c r="K7" t="n">
-        <v>51.44674972447858</v>
+        <v>50.56316265927779</v>
       </c>
       <c r="L7" t="n">
-        <v>57.12625717142507</v>
+        <v>56.20878641810787</v>
       </c>
       <c r="M7" t="n">
-        <v>62.45667537913538</v>
+        <v>61.53387577753325</v>
       </c>
       <c r="N7" t="n">
-        <v>66.43544250461829</v>
+        <v>65.53443731390604</v>
       </c>
       <c r="O7" t="n">
-        <v>65.26140328608469</v>
+        <v>64.44207633057476</v>
       </c>
     </row>
     <row r="8">
@@ -8832,46 +8832,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2360057123371221</v>
+        <v>0.2456697174641347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2916699466624134</v>
+        <v>0.3106302242549753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3459404491895529</v>
+        <v>0.3743085866901517</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3987452169854877</v>
+        <v>0.4363501140335259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4483096539268631</v>
+        <v>0.494521966680792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4927966346324071</v>
+        <v>0.5464578429318392</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5297912728691615</v>
+        <v>0.5891026142652979</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5561492814939345</v>
+        <v>0.6184013891888287</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5674987239757037</v>
+        <v>0.6289768907114024</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5558856388177286</v>
+        <v>0.6117969402593572</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5122859386267998</v>
+        <v>0.5571303375577481</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4282228828568986</v>
+        <v>0.4575409617619344</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2934866467744965</v>
+        <v>0.3063376298730441</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003179974386849206</v>
+        <v>0.003160233174850269</v>
       </c>
     </row>
     <row r="9">
@@ -8881,46 +8881,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006124187537662668</v>
+        <v>0.00685251498003511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01373872233499985</v>
+        <v>0.01639425686180675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02596814326293555</v>
+        <v>0.03236800284359741</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04350308418197348</v>
+        <v>0.05590081069628746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06499645701767366</v>
+        <v>0.08530153851804421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08910960116462166</v>
+        <v>0.1185544658681252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1139829284139335</v>
+        <v>0.1526963328392117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1357139685599316</v>
+        <v>0.1816974465125069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1484273804043815</v>
+        <v>0.1968575707351709</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1412323433870547</v>
+        <v>0.1836508549532067</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1105456814768622</v>
+        <v>0.1390464221929931</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06520563412126845</v>
+        <v>0.07807864875218591</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0215844685608124</v>
+        <v>0.02422010691365561</v>
       </c>
       <c r="O9" t="n">
-        <v>6.01035442994573e-08</v>
+        <v>5.880965900542517e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8933,43 +8933,43 @@
         <v>0.00462364198426167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005925752520180705</v>
+        <v>0.009177124921665017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006785513305612717</v>
+        <v>0.01303299880341674</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007335929284504107</v>
+        <v>0.01587077547515427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00766572136971838</v>
+        <v>0.01775035374885467</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007894828509254492</v>
+        <v>0.01891945230946704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008031017237364336</v>
+        <v>0.01946402229713807</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008119307550878609</v>
+        <v>0.01955503911550559</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008416332791950086</v>
+        <v>0.01954737689539883</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008826935085457985</v>
+        <v>0.01939950258653211</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00937817207816064</v>
+        <v>0.01930050956838707</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01015206087764868</v>
+        <v>0.01942103029903221</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0114039679343158</v>
+        <v>0.0200883651301554</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01335928809971597</v>
+        <v>0.02155507723018557</v>
       </c>
     </row>
     <row r="11">
@@ -8979,46 +8979,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.278434705859552</v>
+        <v>4.275449700388145</v>
       </c>
       <c r="C11" t="n">
-        <v>6.582218195674375</v>
+        <v>6.558468938712504</v>
       </c>
       <c r="D11" t="n">
-        <v>9.428097878005302</v>
+        <v>9.358555458177811</v>
       </c>
       <c r="E11" t="n">
-        <v>12.81509088397464</v>
+        <v>12.67456387911015</v>
       </c>
       <c r="F11" t="n">
-        <v>16.36237405659125</v>
+        <v>16.13522204825148</v>
       </c>
       <c r="G11" t="n">
-        <v>20.13556913867485</v>
+        <v>19.81381684691442</v>
       </c>
       <c r="H11" t="n">
-        <v>24.41118703117447</v>
+        <v>23.99043887991942</v>
       </c>
       <c r="I11" t="n">
-        <v>29.27623609132697</v>
+        <v>28.75725318037901</v>
       </c>
       <c r="J11" t="n">
-        <v>34.86167522485879</v>
+        <v>34.24926004822785</v>
       </c>
       <c r="K11" t="n">
-        <v>40.25776221290065</v>
+        <v>39.57848455954292</v>
       </c>
       <c r="L11" t="n">
-        <v>45.1401559553857</v>
+        <v>44.42453826117029</v>
       </c>
       <c r="M11" t="n">
-        <v>50.75630346825715</v>
+        <v>50.00932942852179</v>
       </c>
       <c r="N11" t="n">
-        <v>58.56505520370322</v>
+        <v>57.76576104620087</v>
       </c>
       <c r="O11" t="n">
-        <v>65.26140324261814</v>
+        <v>64.4420762881345</v>
       </c>
     </row>
     <row r="12">
@@ -9028,46 +9028,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6204969710225562</v>
+        <v>0.6126481087913977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7467219522167333</v>
+        <v>0.7270013200380843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8458746388046511</v>
+        <v>0.8088803147364824</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9156820782876903</v>
+        <v>0.8570432762748691</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9458474496656186</v>
+        <v>0.8641600594652006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.956549366191365</v>
+        <v>0.852015188786816</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9682619373908892</v>
+        <v>0.8421377375538571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9927307631363073</v>
+        <v>0.8489931743369014</v>
       </c>
       <c r="J12" t="n">
-        <v>1.044516361514574</v>
+        <v>0.891028250510031</v>
       </c>
       <c r="K12" t="n">
-        <v>1.1294039261933</v>
+        <v>0.981592089192862</v>
       </c>
       <c r="L12" t="n">
-        <v>1.273987065002129</v>
+        <v>1.150401573491267</v>
       </c>
       <c r="M12" t="n">
-        <v>1.518749021717423</v>
+        <v>1.433326229886639</v>
       </c>
       <c r="N12" t="n">
-        <v>1.866635196311785</v>
+        <v>1.823930570204989</v>
       </c>
       <c r="O12" t="n">
-        <v>2.432229952442937</v>
+        <v>2.421859797510959</v>
       </c>
     </row>
     <row r="13">
@@ -9077,46 +9077,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6204969710225562</v>
+        <v>0.6126481087913977</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7467219522167333</v>
+        <v>0.7270013200380843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8458746388046511</v>
+        <v>0.8088803147364824</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9156820782876903</v>
+        <v>0.8570432762748691</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9458474496656186</v>
+        <v>0.8641600594652006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.956549366191365</v>
+        <v>0.852015188786816</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9682619373908892</v>
+        <v>0.8421377375538571</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9927307631363073</v>
+        <v>0.8489931743369014</v>
       </c>
       <c r="J13" t="n">
-        <v>1.044516361514574</v>
+        <v>0.891028250510031</v>
       </c>
       <c r="K13" t="n">
-        <v>1.1294039261933</v>
+        <v>0.981592089192862</v>
       </c>
       <c r="L13" t="n">
-        <v>1.273987065002129</v>
+        <v>1.150401573491267</v>
       </c>
       <c r="M13" t="n">
-        <v>1.518749021717423</v>
+        <v>1.433326229886639</v>
       </c>
       <c r="N13" t="n">
-        <v>1.866635196311785</v>
+        <v>1.823930570204989</v>
       </c>
       <c r="O13" t="n">
-        <v>2.432229952442937</v>
+        <v>2.421859797510959</v>
       </c>
     </row>
     <row r="14">
@@ -9287,46 +9287,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-355.9244967457093</v>
+        <v>-356.4953220735068</v>
       </c>
       <c r="C2" t="n">
-        <v>-175.4840120916834</v>
+        <v>-177.6117097815352</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.04891074949833</v>
+        <v>-22.7249214640646</v>
       </c>
       <c r="E2" t="n">
-        <v>104.6673245809741</v>
+        <v>100.1096972900212</v>
       </c>
       <c r="F2" t="n">
-        <v>186.3301561407699</v>
+        <v>181.7230494445081</v>
       </c>
       <c r="G2" t="n">
-        <v>228.995285582919</v>
+        <v>224.8451820458292</v>
       </c>
       <c r="H2" t="n">
-        <v>249.329587760666</v>
+        <v>245.7793386709488</v>
       </c>
       <c r="I2" t="n">
-        <v>255.400316281051</v>
+        <v>252.4675037021912</v>
       </c>
       <c r="J2" t="n">
-        <v>252.5423736821414</v>
+        <v>250.1806041261694</v>
       </c>
       <c r="K2" t="n">
-        <v>237.070109884139</v>
+        <v>235.2563782063201</v>
       </c>
       <c r="L2" t="n">
-        <v>212.766455169071</v>
+        <v>211.4268853334023</v>
       </c>
       <c r="M2" t="n">
-        <v>189.1281537019673</v>
+        <v>188.1464989168883</v>
       </c>
       <c r="N2" t="n">
-        <v>167.825720190442</v>
+        <v>167.1144327399379</v>
       </c>
       <c r="O2" t="n">
-        <v>146.8291227567586</v>
+        <v>146.3089359498671</v>
       </c>
     </row>
     <row r="3">
@@ -9339,43 +9339,43 @@
         <v>4.61992195780226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.700856451203816</v>
+        <v>7.718657562381056</v>
       </c>
       <c r="D3" t="n">
-        <v>12.72341210338827</v>
+        <v>12.71974007776201</v>
       </c>
       <c r="E3" t="n">
-        <v>20.17142208016372</v>
+        <v>20.07015394335033</v>
       </c>
       <c r="F3" t="n">
-        <v>30.12014093720876</v>
+        <v>29.82085202527858</v>
       </c>
       <c r="G3" t="n">
-        <v>42.71631609586819</v>
+        <v>42.11272072496299</v>
       </c>
       <c r="H3" t="n">
-        <v>58.54726638491579</v>
+        <v>57.53170084995096</v>
       </c>
       <c r="I3" t="n">
-        <v>77.94010391400394</v>
+        <v>76.42014493806306</v>
       </c>
       <c r="J3" t="n">
-        <v>100.6639698224081</v>
+        <v>98.58120747800956</v>
       </c>
       <c r="K3" t="n">
-        <v>124.6254130003991</v>
+        <v>121.9992295187156</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8660007987108</v>
+        <v>144.8036962336498</v>
       </c>
       <c r="M3" t="n">
-        <v>168.4245961738995</v>
+        <v>165.0877240748114</v>
       </c>
       <c r="N3" t="n">
-        <v>177.4677218616856</v>
+        <v>174.1680367835378</v>
       </c>
       <c r="O3" t="n">
-        <v>145.5081802752547</v>
+        <v>142.9993356692593</v>
       </c>
     </row>
     <row r="4">
@@ -9385,46 +9385,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2492535521897898</v>
+        <v>0.2499827804262509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2434296410636867</v>
+        <v>0.2440161959120402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2367811918980086</v>
+        <v>0.2371584054040843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2266616470964292</v>
+        <v>0.2268459370728398</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2224372260556883</v>
+        <v>0.2224768593590007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2241852995654687</v>
+        <v>0.224114273890056</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2251128245156108</v>
+        <v>0.224967290072857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2239466167987537</v>
+        <v>0.2237576938201476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2171415787340352</v>
+        <v>0.2169368428126333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.21034853560404</v>
+        <v>0.2101691741204709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.203893951294923</v>
+        <v>0.2037654751277442</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1833166769520085</v>
+        <v>0.1832637044982339</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1179789588278585</v>
+        <v>0.1180243544711082</v>
       </c>
       <c r="O4" t="n">
-        <v>1.443145041172832e-10</v>
+        <v>1.398018700601035e-10</v>
       </c>
     </row>
     <row r="5">
@@ -9434,46 +9434,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6089989269573586</v>
+        <v>0.6107790380750825</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00382894885485</v>
+        <v>1.002841059924492</v>
       </c>
       <c r="D5" t="n">
-        <v>1.573504259520484</v>
+        <v>1.563505481455882</v>
       </c>
       <c r="E5" t="n">
-        <v>2.308680095169858</v>
+        <v>2.282282205574432</v>
       </c>
       <c r="F5" t="n">
-        <v>3.221407233829009</v>
+        <v>3.171483255833593</v>
       </c>
       <c r="G5" t="n">
-        <v>4.365300792178994</v>
+        <v>4.284790307920392</v>
       </c>
       <c r="H5" t="n">
-        <v>5.752593439879234</v>
+        <v>5.636008122940231</v>
       </c>
       <c r="I5" t="n">
-        <v>7.348793596844124</v>
+        <v>7.193515054878981</v>
       </c>
       <c r="J5" t="n">
-        <v>8.95260570284484</v>
+        <v>8.76260878721088</v>
       </c>
       <c r="K5" t="n">
-        <v>10.44118061969133</v>
+        <v>10.22651951916621</v>
       </c>
       <c r="L5" t="n">
-        <v>11.68669096715796</v>
+        <v>11.45977971513481</v>
       </c>
       <c r="M5" t="n">
-        <v>11.87416963932979</v>
+        <v>11.66055066734734</v>
       </c>
       <c r="N5" t="n">
-        <v>8.362901184842153</v>
+        <v>8.227069628829588</v>
       </c>
       <c r="O5" t="n">
-        <v>1.03122733063989e-08</v>
+        <v>9.833610542708197e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9486,43 +9486,43 @@
         <v>2.45867138086419</v>
       </c>
       <c r="C6" t="n">
-        <v>4.157251821703396</v>
+        <v>4.160132432756564</v>
       </c>
       <c r="D6" t="n">
-        <v>6.709174391260693</v>
+        <v>6.70859344452146</v>
       </c>
       <c r="E6" t="n">
-        <v>10.29577716731633</v>
+        <v>10.28024323854323</v>
       </c>
       <c r="F6" t="n">
-        <v>14.65376055632058</v>
+        <v>14.60992563167647</v>
       </c>
       <c r="G6" t="n">
-        <v>19.72251858518327</v>
+        <v>19.63849608998488</v>
       </c>
       <c r="H6" t="n">
-        <v>25.90886249043022</v>
+        <v>25.77321065218741</v>
       </c>
       <c r="I6" t="n">
-        <v>33.30358207775556</v>
+        <v>33.10739504672931</v>
       </c>
       <c r="J6" t="n">
-        <v>41.91598059677394</v>
+        <v>41.65389851895406</v>
       </c>
       <c r="K6" t="n">
-        <v>50.56716910633887</v>
+        <v>50.24510804901822</v>
       </c>
       <c r="L6" t="n">
-        <v>58.52820122168392</v>
+        <v>58.16189835936684</v>
       </c>
       <c r="M6" t="n">
-        <v>66.31865405467296</v>
+        <v>65.92171286487077</v>
       </c>
       <c r="N6" t="n">
-        <v>72.82573491152623</v>
+        <v>72.41684511809473</v>
       </c>
       <c r="O6" t="n">
-        <v>73.7300509628294</v>
+        <v>73.34635180393933</v>
       </c>
     </row>
     <row r="7">
@@ -9532,46 +9532,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.443290864290861</v>
+        <v>2.443284441566856</v>
       </c>
       <c r="C7" t="n">
-        <v>4.123692350974736</v>
+        <v>4.109731553580906</v>
       </c>
       <c r="D7" t="n">
-        <v>6.645393778566062</v>
+        <v>6.592663156053402</v>
       </c>
       <c r="E7" t="n">
-        <v>10.18557892234706</v>
+        <v>10.06093490156536</v>
       </c>
       <c r="F7" t="n">
-        <v>14.48232065716605</v>
+        <v>14.25533992600963</v>
       </c>
       <c r="G7" t="n">
-        <v>19.47184226905207</v>
+        <v>19.11877469269265</v>
       </c>
       <c r="H7" t="n">
-        <v>25.55426796433053</v>
+        <v>25.05256706926139</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8149346567178</v>
+        <v>32.14868249697371</v>
       </c>
       <c r="J7" t="n">
-        <v>41.2293479445058</v>
+        <v>40.3924417521789</v>
       </c>
       <c r="K7" t="n">
-        <v>49.63752464312756</v>
+        <v>48.65851313334979</v>
       </c>
       <c r="L7" t="n">
-        <v>57.317497125031</v>
+        <v>56.24004610177693</v>
       </c>
       <c r="M7" t="n">
-        <v>64.77408295175674</v>
+        <v>63.6271688345125</v>
       </c>
       <c r="N7" t="n">
-        <v>70.88468374300834</v>
+        <v>69.70654205817782</v>
       </c>
       <c r="O7" t="n">
-        <v>71.45694308049733</v>
+        <v>70.33962091122629</v>
       </c>
     </row>
     <row r="8">
@@ -9581,46 +9581,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0648691080483355</v>
+        <v>0.06750981995422138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08499507555307513</v>
+        <v>0.09047861021748388</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1089000076386353</v>
+        <v>0.1177263327866479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1363187468216649</v>
+        <v>0.1489852687015225</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1659703977612829</v>
+        <v>0.1827940249283956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1960482393580764</v>
+        <v>0.2170162780836648</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2249439883974249</v>
+        <v>0.249657570662282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2502963510927174</v>
+        <v>0.2777609818660092</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2690422360435759</v>
+        <v>0.2975617726206773</v>
       </c>
       <c r="K8" t="n">
-        <v>0.276103932103881</v>
+        <v>0.3031977258914992</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2649761046469091</v>
+        <v>0.287491457971144</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2293226715677712</v>
+        <v>0.2444166363564124</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1618380420517528</v>
+        <v>0.1684928639096655</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002529083801326641</v>
+        <v>0.002505435722821831</v>
       </c>
     </row>
     <row r="9">
@@ -9630,46 +9630,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.433566279904976e-05</v>
+        <v>6.075838680346905e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001529081919759439</v>
+        <v>0.0001822878051888485</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003927219635129143</v>
+        <v>0.0004884448770858381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0009132290828633611</v>
+        <v>0.001169417723708192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001849068111547708</v>
+        <v>0.002415792528192444</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003295793917160095</v>
+        <v>0.004361823831567408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005348821972649653</v>
+        <v>0.007124186793195119</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007878512371702765</v>
+        <v>0.01048298830404912</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01041473986374229</v>
+        <v>0.01372281271503822</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01169348799765181</v>
+        <v>0.01510075257300945</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01052362777555794</v>
+        <v>0.01314044067639263</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006991693096994767</v>
+        <v>0.008307870027154962</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00255924636380399</v>
+        <v>0.002848848339403408</v>
       </c>
       <c r="O9" t="n">
-        <v>2.02112162737884e-08</v>
+        <v>1.958459606822638e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9682,43 +9682,43 @@
         <v>0.006233521498567667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008035732250396999</v>
+        <v>0.01207139248141527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009447942031986373</v>
+        <v>0.01720805479504009</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01061454750917986</v>
+        <v>0.02121923715154068</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01157319518025265</v>
+        <v>0.02410483954655335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01254304926348934</v>
+        <v>0.02624231362214547</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01347977759564075</v>
+        <v>0.02768453669827406</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01443595189080802</v>
+        <v>0.0286410199326519</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01613269933750368</v>
+        <v>0.0299547941111049</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01815310193226907</v>
+        <v>0.03127656052729146</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02050602006939372</v>
+        <v>0.03281722004876982</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0231847197705739</v>
+        <v>0.03468107943459454</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02661822670940564</v>
+        <v>0.03738707764971399</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03083014093217996</v>
+        <v>0.04099359817057727</v>
       </c>
     </row>
     <row r="11">
@@ -9728,46 +9728,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.834291937333502</v>
+        <v>1.832505403491774</v>
       </c>
       <c r="C11" t="n">
-        <v>3.119863402119886</v>
+        <v>3.106890493656414</v>
       </c>
       <c r="D11" t="n">
-        <v>5.071889519045579</v>
+        <v>5.02915767459752</v>
       </c>
       <c r="E11" t="n">
-        <v>7.876898827177205</v>
+        <v>7.778652695990923</v>
       </c>
       <c r="F11" t="n">
-        <v>11.26091342333704</v>
+        <v>11.08385667017604</v>
       </c>
       <c r="G11" t="n">
-        <v>15.10654147687308</v>
+        <v>14.83398438477226</v>
       </c>
       <c r="H11" t="n">
-        <v>19.80167452445129</v>
+        <v>19.41655894632115</v>
       </c>
       <c r="I11" t="n">
-        <v>25.46614105987367</v>
+        <v>24.95516744209473</v>
       </c>
       <c r="J11" t="n">
-        <v>32.27674224166096</v>
+        <v>31.62983296496802</v>
       </c>
       <c r="K11" t="n">
-        <v>39.19634402343623</v>
+        <v>38.43199361418358</v>
       </c>
       <c r="L11" t="n">
-        <v>45.63080615787304</v>
+        <v>44.78026638664212</v>
       </c>
       <c r="M11" t="n">
-        <v>52.89991331242695</v>
+        <v>51.96661816716517</v>
       </c>
       <c r="N11" t="n">
-        <v>62.52178255816619</v>
+        <v>61.47947242934823</v>
       </c>
       <c r="O11" t="n">
-        <v>71.45694307018506</v>
+        <v>70.33962090139268</v>
       </c>
     </row>
     <row r="12">
@@ -9777,46 +9777,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2278466295908219</v>
+        <v>0.2272032145217071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3081999568503189</v>
+        <v>0.3065652205055169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4030810456038466</v>
+        <v>0.3990539799824656</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5068721021396072</v>
+        <v>0.4986849130844559</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5974624229289154</v>
+        <v>0.5836595261200592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6733665189105955</v>
+        <v>0.653010423797774</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7494558535261689</v>
+        <v>0.7217597331697508</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8275121466568262</v>
+        <v>0.7925008973224524</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9102616542330836</v>
+        <v>0.8692768758791516</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9831141184203852</v>
+        <v>0.9402913003461499</v>
       </c>
       <c r="L12" t="n">
-        <v>1.052417931268493</v>
+        <v>1.013795251058858</v>
       </c>
       <c r="M12" t="n">
-        <v>1.146728038753891</v>
+        <v>1.117539841564218</v>
       </c>
       <c r="N12" t="n">
-        <v>1.263766144333128</v>
+        <v>1.24669287265905</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41287750359946</v>
+        <v>1.405558058506374</v>
       </c>
     </row>
     <row r="13">
@@ -9826,46 +9826,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2278466295908219</v>
+        <v>0.2272032145217071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3081999568503189</v>
+        <v>0.3065652205055169</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4030810456038466</v>
+        <v>0.3990539799824656</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5068721021396072</v>
+        <v>0.4986849130844559</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5974624229289154</v>
+        <v>0.5836595261200592</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6733665189105955</v>
+        <v>0.653010423797774</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7494558535261689</v>
+        <v>0.7217597331697508</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8275121466568262</v>
+        <v>0.7925008973224524</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9102616542330836</v>
+        <v>0.8692768758791516</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9831141184203852</v>
+        <v>0.9402913003461499</v>
       </c>
       <c r="L13" t="n">
-        <v>1.052417931268493</v>
+        <v>1.013795251058858</v>
       </c>
       <c r="M13" t="n">
-        <v>1.146728038753891</v>
+        <v>1.117539841564218</v>
       </c>
       <c r="N13" t="n">
-        <v>1.263766144333128</v>
+        <v>1.24669287265905</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41287750359946</v>
+        <v>1.405558058506374</v>
       </c>
     </row>
     <row r="14">

--- a/RICE13_pyomo/Results/coop.xlsx
+++ b/RICE13_pyomo/Results/coop.xlsx
@@ -496,46 +496,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.0606993019637</v>
+        <v>186.7463269932684</v>
       </c>
       <c r="C2" t="n">
-        <v>183.1213787489736</v>
+        <v>182.9453585324751</v>
       </c>
       <c r="D2" t="n">
-        <v>173.174359303083</v>
+        <v>173.0347320583699</v>
       </c>
       <c r="E2" t="n">
-        <v>160.0664586613712</v>
+        <v>159.9327108977765</v>
       </c>
       <c r="F2" t="n">
-        <v>144.4453287689574</v>
+        <v>144.3138155225924</v>
       </c>
       <c r="G2" t="n">
-        <v>128.4129450130598</v>
+        <v>128.287946789201</v>
       </c>
       <c r="H2" t="n">
-        <v>113.8562314661879</v>
+        <v>113.7425034491818</v>
       </c>
       <c r="I2" t="n">
-        <v>100.7538791709019</v>
+        <v>100.6552087024135</v>
       </c>
       <c r="J2" t="n">
-        <v>89.02877020622721</v>
+        <v>88.94670237489041</v>
       </c>
       <c r="K2" t="n">
-        <v>78.33968184409989</v>
+        <v>78.27402287889683</v>
       </c>
       <c r="L2" t="n">
-        <v>68.67235436860078</v>
+        <v>68.62117975566706</v>
       </c>
       <c r="M2" t="n">
-        <v>60.21615845214381</v>
+        <v>60.17591921624734</v>
       </c>
       <c r="N2" t="n">
-        <v>52.92880837506712</v>
+        <v>52.88989792055214</v>
       </c>
       <c r="O2" t="n">
-        <v>46.34318919506368</v>
+        <v>46.31800438764129</v>
       </c>
     </row>
     <row r="3">
@@ -548,43 +548,43 @@
         <v>30.15992716991271</v>
       </c>
       <c r="C3" t="n">
-        <v>49.1240325911378</v>
+        <v>47.74713504320535</v>
       </c>
       <c r="D3" t="n">
-        <v>67.3110584607852</v>
+        <v>65.70994556438573</v>
       </c>
       <c r="E3" t="n">
-        <v>85.55685169207882</v>
+        <v>83.71176701260289</v>
       </c>
       <c r="F3" t="n">
-        <v>103.5934753225934</v>
+        <v>101.4970003391962</v>
       </c>
       <c r="G3" t="n">
-        <v>121.6367698134404</v>
+        <v>119.2979153864547</v>
       </c>
       <c r="H3" t="n">
-        <v>140.2840587656009</v>
+        <v>137.7304003698708</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6237555191515</v>
+        <v>156.9165750445487</v>
       </c>
       <c r="J3" t="n">
-        <v>179.5823178570446</v>
+        <v>176.8234908249576</v>
       </c>
       <c r="K3" t="n">
-        <v>199.3774373653693</v>
+        <v>196.704514614475</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7209593843096</v>
+        <v>215.3123495252101</v>
       </c>
       <c r="M3" t="n">
-        <v>230.6205096493455</v>
+        <v>228.7370144620984</v>
       </c>
       <c r="N3" t="n">
-        <v>227.510581995318</v>
+        <v>226.6423088065768</v>
       </c>
       <c r="O3" t="n">
-        <v>176.6946460730225</v>
+        <v>175.1485024392587</v>
       </c>
     </row>
     <row r="4">
@@ -594,46 +594,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2481345910690242</v>
+        <v>0.24265025681487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2415709350134909</v>
+        <v>0.2382727124369605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2376371923791286</v>
+        <v>0.2346311098355283</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2337164183951775</v>
+        <v>0.2310431867257512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2320450339420811</v>
+        <v>0.2297117416199196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2325474521949553</v>
+        <v>0.2305589768124858</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2327676050035744</v>
+        <v>0.2311410507599977</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2324422465100872</v>
+        <v>0.2311948955390473</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2305758449879077</v>
+        <v>0.2297167676648654</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2266935830832234</v>
+        <v>0.2262443214085902</v>
       </c>
       <c r="L4" t="n">
-        <v>0.217151788442174</v>
+        <v>0.2171912734868068</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1916532209729439</v>
+        <v>0.1924643317365854</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1201904944654044</v>
+        <v>0.1196708515193887</v>
       </c>
       <c r="O4" t="n">
-        <v>2.605983876690264e-09</v>
+        <v>2.595389052484262e-09</v>
       </c>
     </row>
     <row r="5">
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.860791623200302</v>
+        <v>3.723101868407058</v>
       </c>
       <c r="C5" t="n">
-        <v>5.01825674054857</v>
+        <v>4.906154899827684</v>
       </c>
       <c r="D5" t="n">
-        <v>6.208693682649233</v>
+        <v>6.080012569415695</v>
       </c>
       <c r="E5" t="n">
-        <v>7.37616457347323</v>
+        <v>7.230851199922719</v>
       </c>
       <c r="F5" t="n">
-        <v>8.551595843342069</v>
+        <v>8.390809963335464</v>
       </c>
       <c r="G5" t="n">
-        <v>9.787193960824773</v>
+        <v>9.613378932573994</v>
       </c>
       <c r="H5" t="n">
-        <v>11.07097287378651</v>
+        <v>10.88929538892337</v>
       </c>
       <c r="I5" t="n">
-        <v>12.39249557797231</v>
+        <v>12.21100642125898</v>
       </c>
       <c r="J5" t="n">
-        <v>13.67609549054326</v>
+        <v>13.50499756605921</v>
       </c>
       <c r="K5" t="n">
-        <v>14.82023455326172</v>
+        <v>14.67257262088073</v>
       </c>
       <c r="L5" t="n">
-        <v>15.47059051541489</v>
+        <v>15.36622402953822</v>
       </c>
       <c r="M5" t="n">
-        <v>14.70981824357172</v>
+        <v>14.68866434108012</v>
       </c>
       <c r="N5" t="n">
-        <v>9.736661123665183</v>
+        <v>9.612321574391894</v>
       </c>
       <c r="O5" t="n">
-        <v>2.062611665893323e-07</v>
+        <v>2.041505911000346e-07</v>
       </c>
     </row>
     <row r="6">
@@ -695,43 +695,43 @@
         <v>15.99182389482275</v>
       </c>
       <c r="C6" t="n">
-        <v>21.54082258488249</v>
+        <v>21.35788658107939</v>
       </c>
       <c r="D6" t="n">
-        <v>26.99799781549058</v>
+        <v>26.80371331102287</v>
       </c>
       <c r="E6" t="n">
-        <v>32.52293955020875</v>
+        <v>32.31091867276576</v>
       </c>
       <c r="F6" t="n">
-        <v>37.88573481207644</v>
+        <v>37.65407265995844</v>
       </c>
       <c r="G6" t="n">
-        <v>43.17087761763162</v>
+        <v>42.92015388409926</v>
       </c>
       <c r="H6" t="n">
-        <v>48.68530085349845</v>
+        <v>48.41771662460534</v>
       </c>
       <c r="I6" t="n">
-        <v>54.46423250820764</v>
+        <v>54.18546153205828</v>
       </c>
       <c r="J6" t="n">
-        <v>60.47986235466692</v>
+        <v>60.19961451953972</v>
       </c>
       <c r="K6" t="n">
-        <v>66.54811741106221</v>
+        <v>66.27920179928245</v>
       </c>
       <c r="L6" t="n">
-        <v>72.41385283380239</v>
+        <v>72.17258576549872</v>
       </c>
       <c r="M6" t="n">
-        <v>77.92395457889882</v>
+        <v>77.73248303601497</v>
       </c>
       <c r="N6" t="n">
-        <v>81.8369106296521</v>
+        <v>81.74308829296848</v>
       </c>
       <c r="O6" t="n">
-        <v>79.83518087144911</v>
+        <v>79.62495958995542</v>
       </c>
     </row>
     <row r="7">
@@ -741,46 +741,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.55926405329895</v>
+        <v>15.34349032751116</v>
       </c>
       <c r="C7" t="n">
-        <v>20.77342930459874</v>
+        <v>20.59050257853467</v>
       </c>
       <c r="D7" t="n">
-        <v>26.12677594988509</v>
+        <v>25.91307083565203</v>
       </c>
       <c r="E7" t="n">
-        <v>31.56031837267548</v>
+        <v>31.29653508677474</v>
       </c>
       <c r="F7" t="n">
-        <v>36.85317327444535</v>
+        <v>36.52756234471843</v>
       </c>
       <c r="G7" t="n">
-        <v>42.08686815721256</v>
+        <v>41.69596458780514</v>
       </c>
       <c r="H7" t="n">
-        <v>47.56234388207285</v>
+        <v>47.11104043664719</v>
       </c>
       <c r="I7" t="n">
-        <v>53.31429963371361</v>
+        <v>52.81693781684996</v>
       </c>
       <c r="J7" t="n">
-        <v>59.3127848724158</v>
+        <v>58.78977709525194</v>
       </c>
       <c r="K7" t="n">
-        <v>65.37562445171169</v>
+        <v>64.85277742897475</v>
       </c>
       <c r="L7" t="n">
-        <v>71.24321022819761</v>
+        <v>70.74973033146121</v>
       </c>
       <c r="M7" t="n">
-        <v>76.75226207467881</v>
+        <v>76.31889092667637</v>
       </c>
       <c r="N7" t="n">
-        <v>81.01024267329041</v>
+        <v>80.32299805967814</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14905707371251</v>
+        <v>78.65895515919863</v>
       </c>
     </row>
     <row r="8">
@@ -790,46 +790,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8600230746840193</v>
+        <v>1.000000003747294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999301353707</v>
+        <v>1.000000003782268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999840375329</v>
+        <v>1.000000003435565</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999876320013</v>
+        <v>1.000000003038403</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999867659214</v>
+        <v>1.000000002596391</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999835982611</v>
+        <v>1.000000002034212</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999779709704</v>
+        <v>1.000000001237153</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999683447697</v>
+        <v>1.000000000033543</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999505713323</v>
+        <v>0.9999999980598118</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999999117420462</v>
+        <v>0.9999999943863486</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999997886470262</v>
+        <v>0.9999999859015178</v>
       </c>
       <c r="M8" t="n">
-        <v>0.999997142892208</v>
+        <v>0.9999999555740212</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6790931987326645</v>
+        <v>0.9999966017318298</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005615658362408474</v>
+        <v>0.005604126003341339</v>
       </c>
     </row>
     <row r="9">
@@ -839,46 +839,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.410717694377468</v>
+        <v>0.6264914201652534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6869145360097662</v>
+        <v>0.6810810366463446</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7105095817626559</v>
+        <v>0.7053966112166725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7151856776691692</v>
+        <v>0.7105233285652213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7039877111696211</v>
+        <v>0.6996830267265861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6847628035144964</v>
+        <v>0.680785938113147</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6652488006132912</v>
+        <v>0.6615925021845213</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6464455301314397</v>
+        <v>0.6431368055762</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6282346345546854</v>
+        <v>0.625323643017011</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6090980341403189</v>
+        <v>0.6066368581529186</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5876084090244279</v>
+        <v>0.5856509502032891</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5637373944272823</v>
+        <v>0.5623566308734453</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1795186183765258</v>
+        <v>0.5299134142809067</v>
       </c>
       <c r="O9" t="n">
-        <v>2.325962283201415e-07</v>
+        <v>2.306645803721036e-07</v>
       </c>
     </row>
     <row r="10">
@@ -891,43 +891,43 @@
         <v>0.001365832145850479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003736103575285992</v>
+        <v>0.004040800833488363</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005952748234930961</v>
+        <v>0.006911201519156217</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007608030002396286</v>
+        <v>0.00940425930018259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008672758443020359</v>
+        <v>0.01133548799270569</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009248055145895656</v>
+        <v>0.01266079706164098</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009401362686237088</v>
+        <v>0.01332329838631451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009244366828940745</v>
+        <v>0.01338711324259838</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008909458896194898</v>
+        <v>0.01303187383394514</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008465978409729579</v>
+        <v>0.01236869922841532</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00805141797824919</v>
+        <v>0.01160003448614748</v>
       </c>
       <c r="M10" t="n">
-        <v>0.007801902676501768</v>
+        <v>0.01095083348965904</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007907792865175284</v>
+        <v>0.01088993378643844</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008594250775797264</v>
+        <v>0.01213192703728635</v>
       </c>
     </row>
     <row r="11">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.69847243009865</v>
+        <v>11.62038845910411</v>
       </c>
       <c r="C11" t="n">
-        <v>15.75517256405017</v>
+        <v>15.68434767870698</v>
       </c>
       <c r="D11" t="n">
-        <v>19.91808226723586</v>
+        <v>19.83305826623634</v>
       </c>
       <c r="E11" t="n">
-        <v>24.18415379920224</v>
+        <v>24.06568388685202</v>
       </c>
       <c r="F11" t="n">
-        <v>28.30157743110329</v>
+        <v>28.13675238138296</v>
       </c>
       <c r="G11" t="n">
-        <v>32.29967419638778</v>
+        <v>32.08258565523114</v>
       </c>
       <c r="H11" t="n">
-        <v>36.49137100828635</v>
+        <v>36.22174504772381</v>
       </c>
       <c r="I11" t="n">
-        <v>40.9218040557413</v>
+        <v>40.60593139559097</v>
       </c>
       <c r="J11" t="n">
-        <v>45.63668938187254</v>
+        <v>45.28477952919272</v>
       </c>
       <c r="K11" t="n">
-        <v>50.55538989844997</v>
+        <v>50.18020480809402</v>
       </c>
       <c r="L11" t="n">
-        <v>55.77261971278271</v>
+        <v>55.38350630192299</v>
       </c>
       <c r="M11" t="n">
-        <v>62.04244383110709</v>
+        <v>61.63022658559625</v>
       </c>
       <c r="N11" t="n">
-        <v>71.27358154962523</v>
+        <v>70.71067648528626</v>
       </c>
       <c r="O11" t="n">
-        <v>79.14905686745135</v>
+        <v>78.65895495504803</v>
       </c>
     </row>
     <row r="12">
@@ -986,46 +986,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2267321874770816</v>
+        <v>-6.069801712874828e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>1.298946473592272e-07</v>
+        <v>-6.972398507358891e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>3.212765623777157e-08</v>
+        <v>-6.865000410297586e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>2.621737651986781e-08</v>
+        <v>-6.398743434615918e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>2.888490729870505e-08</v>
+        <v>-5.632272308818772e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>3.641312725386799e-08</v>
+        <v>-4.489880423272526e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>4.966984316448929e-08</v>
+        <v>-2.774132449941109e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>7.248377645835009e-08</v>
+        <v>-7.641437536194568e-11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.14914240938844e-07</v>
+        <v>4.489745482901112e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>2.077677962693953e-07</v>
+        <v>1.316167962217467e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>5.011259493585992e-07</v>
+        <v>3.331666332008541e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>6.782880887749492e-06</v>
+        <v>1.052097831841756e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7479778339189751</v>
+        <v>7.911690129502754e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>2.122721574547791</v>
+        <v>2.117156596566412</v>
       </c>
     </row>
     <row r="13">
@@ -1035,46 +1035,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2267321874770816</v>
+        <v>12.27714286850479</v>
       </c>
       <c r="C13" t="n">
-        <v>1.298946473592272e-07</v>
+        <v>14.1270867959725</v>
       </c>
       <c r="D13" t="n">
-        <v>3.212765623777157e-08</v>
+        <v>15.29778224504147</v>
       </c>
       <c r="E13" t="n">
-        <v>2.621737651986781e-08</v>
+        <v>15.93528088781453</v>
       </c>
       <c r="F13" t="n">
-        <v>2.888490729870505e-08</v>
+        <v>16.07054718186969</v>
       </c>
       <c r="G13" t="n">
-        <v>3.641312725386799e-08</v>
+        <v>15.87498664087095</v>
       </c>
       <c r="H13" t="n">
-        <v>4.966984316448929e-08</v>
+        <v>15.54206314868276</v>
       </c>
       <c r="I13" t="n">
-        <v>7.248377645835009e-08</v>
+        <v>15.11653049718575</v>
       </c>
       <c r="J13" t="n">
-        <v>1.14914240938844e-07</v>
+        <v>14.61620608876426</v>
       </c>
       <c r="K13" t="n">
-        <v>2.077677962693953e-07</v>
+        <v>14.02459722198105</v>
       </c>
       <c r="L13" t="n">
-        <v>5.011259493585992e-07</v>
+        <v>13.32760711957807</v>
       </c>
       <c r="M13" t="n">
-        <v>6.782880887749492e-06</v>
+        <v>12.54405568488411</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7479778339189751</v>
+        <v>11.54336012842657</v>
       </c>
       <c r="O13" t="n">
-        <v>2.122721574547791</v>
+        <v>69.10087471714672</v>
       </c>
     </row>
     <row r="14">
@@ -1245,46 +1245,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.5652369745437</v>
+        <v>174.5617093574675</v>
       </c>
       <c r="C2" t="n">
-        <v>208.0158964541958</v>
+        <v>207.6143754287199</v>
       </c>
       <c r="D2" t="n">
-        <v>220.88068656164</v>
+        <v>220.2589098916424</v>
       </c>
       <c r="E2" t="n">
-        <v>218.0912227334687</v>
+        <v>217.3625887638888</v>
       </c>
       <c r="F2" t="n">
-        <v>203.561880038643</v>
+        <v>202.8193589119348</v>
       </c>
       <c r="G2" t="n">
-        <v>184.711102507217</v>
+        <v>184.0164900521691</v>
       </c>
       <c r="H2" t="n">
-        <v>165.4862087459767</v>
+        <v>164.8771988963599</v>
       </c>
       <c r="I2" t="n">
-        <v>146.9190632748049</v>
+        <v>146.4165291392868</v>
       </c>
       <c r="J2" t="n">
-        <v>129.5622561052847</v>
+        <v>129.1709795135482</v>
       </c>
       <c r="K2" t="n">
-        <v>113.8119853204194</v>
+        <v>113.5242680333597</v>
       </c>
       <c r="L2" t="n">
-        <v>99.73261862587374</v>
+        <v>99.53269085018653</v>
       </c>
       <c r="M2" t="n">
-        <v>87.24897923962321</v>
+        <v>87.11738924098667</v>
       </c>
       <c r="N2" t="n">
-        <v>76.45435058771851</v>
+        <v>76.3709025894325</v>
       </c>
       <c r="O2" t="n">
-        <v>66.55498550952602</v>
+        <v>66.50140958147094</v>
       </c>
     </row>
     <row r="3">
@@ -1297,43 +1297,43 @@
         <v>13.44037364302173</v>
       </c>
       <c r="C3" t="n">
-        <v>21.02918424026868</v>
+        <v>20.93579854437025</v>
       </c>
       <c r="D3" t="n">
-        <v>30.30063893801034</v>
+        <v>30.10370702097947</v>
       </c>
       <c r="E3" t="n">
-        <v>41.05061083009507</v>
+        <v>40.73526293507533</v>
       </c>
       <c r="F3" t="n">
-        <v>52.94813517101791</v>
+        <v>52.49334751233796</v>
       </c>
       <c r="G3" t="n">
-        <v>66.10325184034174</v>
+        <v>65.47564880396472</v>
       </c>
       <c r="H3" t="n">
-        <v>80.68759930773747</v>
+        <v>79.83547260127231</v>
       </c>
       <c r="I3" t="n">
-        <v>96.69274272449738</v>
+        <v>95.54739745407731</v>
       </c>
       <c r="J3" t="n">
-        <v>114.0062075296818</v>
+        <v>112.4917634655611</v>
       </c>
       <c r="K3" t="n">
-        <v>132.3502352996029</v>
+        <v>130.4082940107459</v>
       </c>
       <c r="L3" t="n">
-        <v>150.8624804237479</v>
+        <v>148.5243122072079</v>
       </c>
       <c r="M3" t="n">
-        <v>166.6296894389515</v>
+        <v>164.133574519368</v>
       </c>
       <c r="N3" t="n">
-        <v>171.2828859400095</v>
+        <v>169.1417644107391</v>
       </c>
       <c r="O3" t="n">
-        <v>137.6140316577574</v>
+        <v>136.4328444584538</v>
       </c>
     </row>
     <row r="4">
@@ -1343,46 +1343,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2300124827764385</v>
+        <v>0.229002618470047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2246816495190914</v>
+        <v>0.2239166508786032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2196045040059337</v>
+        <v>0.2191377899334872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2154575863603236</v>
+        <v>0.2152987342504622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2152123745055248</v>
+        <v>0.2153215932564867</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2166425399974487</v>
+        <v>0.2169238214748895</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2179030284354459</v>
+        <v>0.2182084423412124</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2188268501926387</v>
+        <v>0.2189874919467258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2190854991227983</v>
+        <v>0.2189643263572027</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2173298091285777</v>
+        <v>0.2169171599421685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2099886644312646</v>
+        <v>0.2094829594771333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1878350308184492</v>
+        <v>0.1875982244803598</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196931328370306</v>
+        <v>0.1199302201321669</v>
       </c>
       <c r="O4" t="n">
-        <v>1.029767634436236e-09</v>
+        <v>1.02473679797571e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1392,46 +1392,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.634281572405871</v>
+        <v>1.624943002816028</v>
       </c>
       <c r="C5" t="n">
-        <v>2.296821578053795</v>
+        <v>2.28038454422806</v>
       </c>
       <c r="D5" t="n">
-        <v>3.04854313111563</v>
+        <v>3.023874932977278</v>
       </c>
       <c r="E5" t="n">
-        <v>3.86346722216282</v>
+        <v>3.828983957507253</v>
       </c>
       <c r="F5" t="n">
-        <v>4.764137866270726</v>
+        <v>4.717235027773549</v>
       </c>
       <c r="G5" t="n">
-        <v>5.763882057050965</v>
+        <v>5.700552551177047</v>
       </c>
       <c r="H5" t="n">
-        <v>6.855871646246163</v>
+        <v>6.771048940281939</v>
       </c>
       <c r="I5" t="n">
-        <v>8.029153282751343</v>
+        <v>7.917644596565872</v>
       </c>
       <c r="J5" t="n">
-        <v>9.259872869643658</v>
+        <v>9.118484140147583</v>
       </c>
       <c r="K5" t="n">
-        <v>10.47148068326144</v>
+        <v>10.30537516754388</v>
       </c>
       <c r="L5" t="n">
-        <v>11.40271950951822</v>
+        <v>11.23463490220334</v>
       </c>
       <c r="M5" t="n">
-        <v>11.31827057520884</v>
+        <v>11.19119256792887</v>
       </c>
       <c r="N5" t="n">
-        <v>7.789138217236859</v>
+        <v>7.745675788795554</v>
       </c>
       <c r="O5" t="n">
-        <v>6.681143277958426e-08</v>
+        <v>6.606809271774824e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1444,43 +1444,43 @@
         <v>7.122862075485028</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2793295650309</v>
+        <v>10.26561379592313</v>
       </c>
       <c r="D6" t="n">
-        <v>13.99921589707501</v>
+        <v>13.97185818838546</v>
       </c>
       <c r="E6" t="n">
-        <v>18.12464103663037</v>
+        <v>18.08275857618428</v>
       </c>
       <c r="F6" t="n">
-        <v>22.41325526426008</v>
+        <v>22.35532650738988</v>
       </c>
       <c r="G6" t="n">
-        <v>26.96781352721166</v>
+        <v>26.89074487586551</v>
       </c>
       <c r="H6" t="n">
-        <v>31.90855484193441</v>
+        <v>31.8070848258791</v>
       </c>
       <c r="I6" t="n">
-        <v>37.21009836875074</v>
+        <v>37.07731810156915</v>
       </c>
       <c r="J6" t="n">
-        <v>42.83752841692908</v>
+        <v>42.66601418031139</v>
       </c>
       <c r="K6" t="n">
-        <v>48.77974634756164</v>
+        <v>48.56391456436768</v>
       </c>
       <c r="L6" t="n">
-        <v>54.89664797571198</v>
+        <v>54.64000353239268</v>
       </c>
       <c r="M6" t="n">
-        <v>60.83321002827601</v>
+        <v>60.55837969569057</v>
       </c>
       <c r="N6" t="n">
-        <v>65.6449469929826</v>
+        <v>65.39768384851349</v>
       </c>
       <c r="O6" t="n">
-        <v>65.46158940002942</v>
+        <v>65.29251692326626</v>
       </c>
     </row>
     <row r="7">
@@ -1490,46 +1490,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.105186434574149</v>
+        <v>7.095739837702193</v>
       </c>
       <c r="C7" t="n">
-        <v>10.22255971046106</v>
+        <v>10.18407758101194</v>
       </c>
       <c r="D7" t="n">
-        <v>13.88196997559421</v>
+        <v>13.79896609295497</v>
       </c>
       <c r="E7" t="n">
-        <v>17.93145132379648</v>
+        <v>17.78451680562554</v>
       </c>
       <c r="F7" t="n">
-        <v>22.13691418635607</v>
+        <v>21.9078586426512</v>
       </c>
       <c r="G7" t="n">
-        <v>26.60549519553659</v>
+        <v>26.27905276801021</v>
       </c>
       <c r="H7" t="n">
-        <v>31.46294797035015</v>
+        <v>31.03018777657583</v>
       </c>
       <c r="I7" t="n">
-        <v>36.69181033169869</v>
+        <v>36.15569330549727</v>
       </c>
       <c r="J7" t="n">
-        <v>42.26602356942602</v>
+        <v>41.64369736316015</v>
       </c>
       <c r="K7" t="n">
-        <v>48.18244089592997</v>
+        <v>47.5083445232796</v>
       </c>
       <c r="L7" t="n">
-        <v>54.30159547136252</v>
+        <v>53.63030448989665</v>
       </c>
       <c r="M7" t="n">
-        <v>60.25644165463709</v>
+        <v>59.65510920440782</v>
       </c>
       <c r="N7" t="n">
-        <v>65.0758989477052</v>
+        <v>64.5848542615829</v>
       </c>
       <c r="O7" t="n">
-        <v>64.88010551638801</v>
+        <v>64.47323141733642</v>
       </c>
     </row>
     <row r="8">
@@ -1539,46 +1539,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2185460842060289</v>
+        <v>0.3327575371793156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2803900603929126</v>
+        <v>0.4207590107052788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3442891030934329</v>
+        <v>0.5110784716784041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4087839988772494</v>
+        <v>0.601551008684456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4717132786568496</v>
+        <v>0.6892525121510877</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5303464678941799</v>
+        <v>0.7706998986706407</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5808035303992727</v>
+        <v>0.8409705118742818</v>
       </c>
       <c r="I8" t="n">
-        <v>0.617567626675429</v>
+        <v>0.8928900337142115</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6335983467338572</v>
+        <v>0.9172799475783743</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6209970114641605</v>
+        <v>0.9029061146822781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5703777279855704</v>
+        <v>0.8350308796218163</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4724167075197328</v>
+        <v>0.6964149081036932</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3190041862622362</v>
+        <v>0.4720506704333807</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003899573403215911</v>
+        <v>0.003890677676873375</v>
       </c>
     </row>
     <row r="9">
@@ -1588,46 +1588,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004207516997221563</v>
+        <v>0.01365411386917775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01015654461975138</v>
+        <v>0.03160271418626612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02069793957468923</v>
+        <v>0.0624392446664223</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03688044688681738</v>
+        <v>0.1085354085363948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05849669908524133</v>
+        <v>0.1687206176106335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08464701910346761</v>
+        <v>0.2403701329452624</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1127703340194464</v>
+        <v>0.3168953418424835</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1372810773962986</v>
+        <v>0.3840394541389106</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1502108129181615</v>
+        <v>0.4215847416891483</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1438581304824798</v>
+        <v>0.4084672073127864</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1141158683063867</v>
+        <v>0.3302348227384797</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06704190735920142</v>
+        <v>0.1978334593041404</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0217440888893475</v>
+        <v>0.06489937917602466</v>
       </c>
       <c r="O9" t="n">
-        <v>8.658421327602311e-08</v>
+        <v>8.581392076730465e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1640,43 +1640,43 @@
         <v>0.001890830367193471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004534664411253704</v>
+        <v>0.004864151498156187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006896670686126856</v>
+        <v>0.007905380177411396</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008624130300355306</v>
+        <v>0.01049100784170146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00971944397412669</v>
+        <v>0.01246894099425925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0102963969359781</v>
+        <v>0.01380854180961368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01043094991965598</v>
+        <v>0.01446224040898337</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01023934298372392</v>
+        <v>0.01449903524468275</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009834695187932759</v>
+        <v>0.01407987333720285</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009295811378729311</v>
+        <v>0.01332476674460837</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00876076506995218</v>
+        <v>0.01243528872311893</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008379082182952156</v>
+        <v>0.01164887560604272</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008337335643618771</v>
+        <v>0.01143664673946345</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008882824300274801</v>
+        <v>0.01254792216202624</v>
       </c>
     </row>
     <row r="11">
@@ -1686,46 +1686,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.470904862168278</v>
+        <v>5.470796834886165</v>
       </c>
       <c r="C11" t="n">
-        <v>7.925738132407261</v>
+        <v>7.903693036783876</v>
       </c>
       <c r="D11" t="n">
-        <v>10.83342684447858</v>
+        <v>10.77509115997769</v>
       </c>
       <c r="E11" t="n">
-        <v>14.06798410163366</v>
+        <v>13.95553284811829</v>
       </c>
       <c r="F11" t="n">
-        <v>17.37277632008534</v>
+        <v>17.19062361487765</v>
       </c>
       <c r="G11" t="n">
-        <v>20.84161313848562</v>
+        <v>20.57850021683316</v>
       </c>
       <c r="H11" t="n">
-        <v>24.60707632410399</v>
+        <v>24.25913883629389</v>
       </c>
       <c r="I11" t="n">
-        <v>28.66265704894735</v>
+        <v>28.2380487089314</v>
       </c>
       <c r="J11" t="n">
-        <v>33.00615069978236</v>
+        <v>32.52521322301257</v>
       </c>
       <c r="K11" t="n">
-        <v>37.71096021266853</v>
+        <v>37.20296935573572</v>
       </c>
       <c r="L11" t="n">
-        <v>42.8988759618443</v>
+        <v>42.39566958769331</v>
       </c>
       <c r="M11" t="n">
-        <v>48.93817107942824</v>
+        <v>48.46391663647895</v>
       </c>
       <c r="N11" t="n">
-        <v>57.28676073046834</v>
+        <v>56.83917847278736</v>
       </c>
       <c r="O11" t="n">
-        <v>64.88010544957658</v>
+        <v>64.47323135126832</v>
       </c>
     </row>
     <row r="12">
@@ -1735,46 +1735,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4159580472674951</v>
+        <v>0.3551647336834386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4817681403323843</v>
+        <v>0.3872757833022902</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5269416983316417</v>
+        <v>0.3921387716736274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5476834296697883</v>
+        <v>0.3682573499471397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5437680691015713</v>
+        <v>0.3190272007160922</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5269255024373625</v>
+        <v>0.2565269324807722</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5078588696970074</v>
+        <v>0.1920524351875736</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4963764649978266</v>
+        <v>0.1385268346358307</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5060011354718487</v>
+        <v>0.1137791108585063</v>
       </c>
       <c r="K12" t="n">
-        <v>0.553812365999601</v>
+        <v>0.1412492151210285</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6596705388460193</v>
+        <v>0.2521203212128408</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8418468740015266</v>
+        <v>0.4822319972812252</v>
       </c>
       <c r="N12" t="n">
-        <v>1.103970629594324</v>
+        <v>0.8526413399629973</v>
       </c>
       <c r="O12" t="n">
-        <v>1.521405935453036</v>
+        <v>1.517490039994939</v>
       </c>
     </row>
     <row r="13">
@@ -1784,46 +1784,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4159580472674951</v>
+        <v>17.7981182410289</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4817681403323843</v>
+        <v>19.57429474768582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5269416983316417</v>
+        <v>20.0269934506726</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5476834296697883</v>
+        <v>19.17377278461236</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5437680691015713</v>
+        <v>17.26190386705511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5269255024373625</v>
+        <v>14.92961026451932</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5078588696970074</v>
+        <v>12.67504801569677</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4963764649978266</v>
+        <v>10.89460604193867</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5060011354718487</v>
+        <v>10.00601248449571</v>
       </c>
       <c r="K13" t="n">
-        <v>0.553812365999601</v>
+        <v>10.45390409487378</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6596705388460193</v>
+        <v>12.74517442454277</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8418468740015266</v>
+        <v>17.41272864015678</v>
       </c>
       <c r="N13" t="n">
-        <v>1.103970629594324</v>
+        <v>24.6630490583248</v>
       </c>
       <c r="O13" t="n">
-        <v>1.521405935453036</v>
+        <v>38.29139183602121</v>
       </c>
     </row>
     <row r="14">
@@ -1994,46 +1994,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.13795353937429</v>
+        <v>73.55808635569944</v>
       </c>
       <c r="C2" t="n">
-        <v>71.87685761931863</v>
+        <v>71.37760689502319</v>
       </c>
       <c r="D2" t="n">
-        <v>66.80209401333931</v>
+        <v>66.49646195274727</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08123411422119</v>
+        <v>59.91961471055773</v>
       </c>
       <c r="F2" t="n">
-        <v>52.48885795885587</v>
+        <v>52.39530274246879</v>
       </c>
       <c r="G2" t="n">
-        <v>45.08914670485944</v>
+        <v>45.02393626760754</v>
       </c>
       <c r="H2" t="n">
-        <v>38.59943391401192</v>
+        <v>38.5490219400198</v>
       </c>
       <c r="I2" t="n">
-        <v>32.95012903107418</v>
+        <v>32.91011116248426</v>
       </c>
       <c r="J2" t="n">
-        <v>28.06086936132222</v>
+        <v>28.02926237053194</v>
       </c>
       <c r="K2" t="n">
-        <v>24.23129167072775</v>
+        <v>24.20611390822047</v>
       </c>
       <c r="L2" t="n">
-        <v>21.2358113914794</v>
+        <v>21.21499980293629</v>
       </c>
       <c r="M2" t="n">
-        <v>18.61586277371396</v>
+        <v>18.5966429127413</v>
       </c>
       <c r="N2" t="n">
-        <v>16.35776891994957</v>
+        <v>16.34232718779481</v>
       </c>
       <c r="O2" t="n">
-        <v>14.30847070001252</v>
+        <v>14.2986089735021</v>
       </c>
     </row>
     <row r="3">
@@ -2046,43 +2046,43 @@
         <v>9.580191347594166</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0968117782394</v>
+        <v>14.79498910391197</v>
       </c>
       <c r="D3" t="n">
-        <v>20.47153772001485</v>
+        <v>19.71537372962254</v>
       </c>
       <c r="E3" t="n">
-        <v>25.45999168775127</v>
+        <v>24.51567035792933</v>
       </c>
       <c r="F3" t="n">
-        <v>29.8899473334343</v>
+        <v>29.03860787061801</v>
       </c>
       <c r="G3" t="n">
-        <v>34.06330226853933</v>
+        <v>33.32907389411228</v>
       </c>
       <c r="H3" t="n">
-        <v>38.24464764572725</v>
+        <v>37.54914022517542</v>
       </c>
       <c r="I3" t="n">
-        <v>42.50716655133153</v>
+        <v>41.81885306867243</v>
       </c>
       <c r="J3" t="n">
-        <v>46.85703461441424</v>
+        <v>46.17950201167864</v>
       </c>
       <c r="K3" t="n">
-        <v>51.50307415853992</v>
+        <v>50.86387558853553</v>
       </c>
       <c r="L3" t="n">
-        <v>56.15077463841315</v>
+        <v>55.61542650798483</v>
       </c>
       <c r="M3" t="n">
-        <v>59.51533861424668</v>
+        <v>59.17688643303744</v>
       </c>
       <c r="N3" t="n">
-        <v>59.18285946696266</v>
+        <v>58.60299712210507</v>
       </c>
       <c r="O3" t="n">
-        <v>46.10148325138545</v>
+        <v>45.6338752514857</v>
       </c>
     </row>
     <row r="4">
@@ -2092,46 +2092,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2346126034654506</v>
+        <v>0.2344843334615829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2300435712378813</v>
+        <v>0.2270671468439724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2249187208569284</v>
+        <v>0.2218742150998213</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2195802256011438</v>
+        <v>0.2175702935950256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.217614872529399</v>
+        <v>0.2161080798998167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2184458291261924</v>
+        <v>0.21706176167567</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2196605317853034</v>
+        <v>0.2184776445347894</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2212906776718282</v>
+        <v>0.2203823533921778</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2244988065252795</v>
+        <v>0.2239513715685097</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2241244030209434</v>
+        <v>0.2241227486509766</v>
       </c>
       <c r="L4" t="n">
-        <v>0.214533162574527</v>
+        <v>0.2152764432538475</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1907062853175391</v>
+        <v>0.1902639688595163</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196228331402742</v>
+        <v>0.1194826847771003</v>
       </c>
       <c r="O4" t="n">
-        <v>9.395093208515866e-09</v>
+        <v>9.350521983040467e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2141,46 +2141,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.175640560330074</v>
+        <v>1.145458292897332</v>
       </c>
       <c r="C5" t="n">
-        <v>1.520760493869503</v>
+        <v>1.455668000757402</v>
       </c>
       <c r="D5" t="n">
-        <v>1.832200784908818</v>
+        <v>1.764134459989602</v>
       </c>
       <c r="E5" t="n">
-        <v>2.101259714679022</v>
+        <v>2.04905221722094</v>
       </c>
       <c r="F5" t="n">
-        <v>2.36413220576463</v>
+        <v>2.32039373991096</v>
       </c>
       <c r="G5" t="n">
-        <v>2.636750854607816</v>
+        <v>2.592801072979872</v>
       </c>
       <c r="H5" t="n">
-        <v>2.917208246804521</v>
+        <v>2.872627742786209</v>
       </c>
       <c r="I5" t="n">
-        <v>3.203570208822506</v>
+        <v>3.159816955692283</v>
       </c>
       <c r="J5" t="n">
-        <v>3.516503642147425</v>
+        <v>3.47620788625086</v>
       </c>
       <c r="K5" t="n">
-        <v>3.819276308045883</v>
+        <v>3.788028971033379</v>
       </c>
       <c r="L5" t="n">
-        <v>3.993677410291813</v>
+        <v>3.978498627273709</v>
       </c>
       <c r="M5" t="n">
-        <v>3.843114403692382</v>
+        <v>3.796929267065873</v>
       </c>
       <c r="N5" t="n">
-        <v>2.546569613178739</v>
+        <v>2.52002736297653</v>
       </c>
       <c r="O5" t="n">
-        <v>1.952556983590433e-07</v>
+        <v>1.929571837299601e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2193,43 +2193,43 @@
         <v>5.097074969620485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.783333477683891</v>
+        <v>6.742360829353</v>
       </c>
       <c r="D6" t="n">
-        <v>8.422428654594009</v>
+        <v>8.327865553959429</v>
       </c>
       <c r="E6" t="n">
-        <v>9.952074781536881</v>
+        <v>9.839868292414025</v>
       </c>
       <c r="F6" t="n">
-        <v>11.29662755236665</v>
+        <v>11.19912270516319</v>
       </c>
       <c r="G6" t="n">
-        <v>12.52557755009405</v>
+        <v>12.44396295370354</v>
       </c>
       <c r="H6" t="n">
-        <v>13.75725960547141</v>
+        <v>13.68172108435889</v>
       </c>
       <c r="I6" t="n">
-        <v>14.97416489944304</v>
+        <v>14.90100634578136</v>
       </c>
       <c r="J6" t="n">
-        <v>16.1935645769349</v>
+        <v>16.12296053553246</v>
       </c>
       <c r="K6" t="n">
-        <v>17.61637768584552</v>
+        <v>17.55050031806376</v>
       </c>
       <c r="L6" t="n">
-        <v>19.24791442461621</v>
+        <v>19.19267614693307</v>
       </c>
       <c r="M6" t="n">
-        <v>20.77010704175416</v>
+        <v>20.73460161462939</v>
       </c>
       <c r="N6" t="n">
-        <v>21.92194433098512</v>
+        <v>21.85728602343862</v>
       </c>
       <c r="O6" t="n">
-        <v>21.4388802445122</v>
+        <v>21.37341085106586</v>
       </c>
     </row>
     <row r="7">
@@ -2239,46 +2239,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.01098637909792</v>
+        <v>4.885009910843361</v>
       </c>
       <c r="C7" t="n">
-        <v>6.610749805726713</v>
+        <v>6.410738061361444</v>
       </c>
       <c r="D7" t="n">
-        <v>8.146057286508791</v>
+        <v>7.951056679551145</v>
       </c>
       <c r="E7" t="n">
-        <v>9.569439638411943</v>
+        <v>9.417885977738036</v>
       </c>
       <c r="F7" t="n">
-        <v>10.86383562982463</v>
+        <v>10.73719104341979</v>
       </c>
       <c r="G7" t="n">
-        <v>12.07050217051574</v>
+        <v>11.94499230524993</v>
       </c>
       <c r="H7" t="n">
-        <v>13.28052983890527</v>
+        <v>13.14838297942555</v>
       </c>
       <c r="I7" t="n">
-        <v>14.4767517661696</v>
+        <v>14.33788552965166</v>
       </c>
       <c r="J7" t="n">
-        <v>15.66379659907658</v>
+        <v>15.5221549299038</v>
       </c>
       <c r="K7" t="n">
-        <v>17.04087665852696</v>
+        <v>16.90158180655024</v>
       </c>
       <c r="L7" t="n">
-        <v>18.61566464767163</v>
+        <v>18.48088238146142</v>
       </c>
       <c r="M7" t="n">
-        <v>20.15200703685949</v>
+        <v>19.95611302458103</v>
       </c>
       <c r="N7" t="n">
-        <v>21.28832386198825</v>
+        <v>21.09115113773801</v>
       </c>
       <c r="O7" t="n">
-        <v>20.78273137110128</v>
+        <v>20.63597990357509</v>
       </c>
     </row>
     <row r="8">
@@ -2288,46 +2288,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.618103679386536</v>
+        <v>0.8917758729248535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7532671320893335</v>
+        <v>0.9999999958573401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8686756960669449</v>
+        <v>1.000000005971564</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9687591038792043</v>
+        <v>1.000000006592338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999997059712938</v>
+        <v>1.000000005924053</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999998165324225</v>
+        <v>1.00000000438861</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999998096523162</v>
+        <v>1.000000001663066</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999997506024059</v>
+        <v>0.9999999969296561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999995940439929</v>
+        <v>0.9999999882347904</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999990507254509</v>
+        <v>0.9999999705895719</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9885920967718594</v>
+        <v>0.9999999246788086</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7952187708764276</v>
+        <v>0.9999996636481245</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5232730711273511</v>
+        <v>0.7892372788859264</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007507322042463589</v>
+        <v>0.007490034890811992</v>
       </c>
     </row>
     <row r="9">
@@ -2337,46 +2337,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0703425437176448</v>
+        <v>0.1963190119722039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1311471170960681</v>
+        <v>0.2881842990883583</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1983689524109558</v>
+        <v>0.2909166600712003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2634778829312051</v>
+        <v>0.2847184409042732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2740411721092001</v>
+        <v>0.2716760622640531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2575416457382479</v>
+        <v>0.2558636814568049</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2421302069058831</v>
+        <v>0.2408008450102897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2276151881214783</v>
+        <v>0.2265032958218057</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2143127718662767</v>
+        <v>0.2133786023727078</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2044762550850245</v>
+        <v>0.2037121300953023</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1910103950290219</v>
+        <v>0.1966802680099154</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0995253976950492</v>
+        <v>0.1887243460913239</v>
       </c>
       <c r="N9" t="n">
-        <v>0.029062165547615</v>
+        <v>0.09157710526051718</v>
       </c>
       <c r="O9" t="n">
-        <v>1.760258252553262e-07</v>
+        <v>1.743674724573092e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2389,43 +2389,43 @@
         <v>0.003089231941607784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006108582896216261</v>
+        <v>0.006442620026221032</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009261273543910152</v>
+        <v>0.01031383297203273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01197310739814703</v>
+        <v>0.01394976738433972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01405293302774777</v>
+        <v>0.01698843779893873</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01577042919179261</v>
+        <v>0.01953613715351432</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01705278277709827</v>
+        <v>0.02138161259971019</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01801756204528007</v>
+        <v>0.02259025414100283</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0194802820894265</v>
+        <v>0.02402952003772062</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02106135431755921</v>
+        <v>0.02536716181019605</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02292400995669725</v>
+        <v>0.02683906577270335</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02496735361821294</v>
+        <v>0.0284434808499492</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02757776839140837</v>
+        <v>0.03086191852532556</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03060554888602694</v>
+        <v>0.03450225040176608</v>
       </c>
     </row>
     <row r="11">
@@ -2435,46 +2435,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.835345818767845</v>
+        <v>3.739551617946029</v>
       </c>
       <c r="C11" t="n">
-        <v>5.089989311857209</v>
+        <v>4.955070060604042</v>
       </c>
       <c r="D11" t="n">
-        <v>6.313856501599973</v>
+        <v>6.186922219561543</v>
       </c>
       <c r="E11" t="n">
-        <v>7.468179923732921</v>
+        <v>7.368833760517096</v>
       </c>
       <c r="F11" t="n">
-        <v>8.499703424060002</v>
+        <v>8.416797303508831</v>
       </c>
       <c r="G11" t="n">
-        <v>9.433751315907923</v>
+        <v>9.352191232270057</v>
       </c>
       <c r="H11" t="n">
-        <v>10.36332159210075</v>
+        <v>10.27575523663934</v>
       </c>
       <c r="I11" t="n">
-        <v>11.27318155734709</v>
+        <v>11.17806857395937</v>
       </c>
       <c r="J11" t="n">
-        <v>12.14729295692916</v>
+        <v>12.04594704365294</v>
       </c>
       <c r="K11" t="n">
-        <v>13.22160035048108</v>
+        <v>13.11355283551686</v>
       </c>
       <c r="L11" t="n">
-        <v>14.62198723737982</v>
+        <v>14.50238375418771</v>
       </c>
       <c r="M11" t="n">
-        <v>16.30889263316711</v>
+        <v>16.15918375751516</v>
       </c>
       <c r="N11" t="n">
-        <v>18.74175424880952</v>
+        <v>18.57112377476148</v>
       </c>
       <c r="O11" t="n">
-        <v>20.78273117584558</v>
+        <v>20.63597971061791</v>
       </c>
     </row>
     <row r="12">
@@ -2484,46 +2484,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2185663260378469</v>
+        <v>0.06193866912744983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1584197902446465</v>
+        <v>2.643811752583927e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0895521925670538</v>
+        <v>-4.026387754827987e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02181645671831944</v>
+        <v>-4.551723032922898e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>2.043938883779504e-07</v>
+        <v>-4.082557732829457e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>1.253385730689556e-07</v>
+        <v>-2.978607895374622e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>1.278085536234364e-07</v>
+        <v>-1.110530934158687e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>1.645155613557967e-07</v>
+        <v>2.015462552892086e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>2.634209767626911e-07</v>
+        <v>7.601046423670322e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>6.137941881385449e-07</v>
+        <v>1.894546063319889e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007428736424920067</v>
+        <v>4.890780345486898e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1333885630416153</v>
+        <v>2.187153495023667e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>0.305358896576962</v>
+        <v>0.134602105988273</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5819027286819414</v>
+        <v>0.5801358365969825</v>
       </c>
     </row>
     <row r="13">
@@ -2533,46 +2533,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2185663260378469</v>
+        <v>6.451127334605514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1584197902446465</v>
+        <v>4.691329613107374</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0895521925670538</v>
+        <v>4.999848115404204</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02181645671831944</v>
+        <v>5.104924175683939</v>
       </c>
       <c r="F13" t="n">
-        <v>2.043938883779504e-07</v>
+        <v>5.027965684339386</v>
       </c>
       <c r="G13" t="n">
-        <v>1.253385730689556e-07</v>
+        <v>4.841728177666756</v>
       </c>
       <c r="H13" t="n">
-        <v>1.278085536234364e-07</v>
+        <v>4.619922582990623</v>
       </c>
       <c r="I13" t="n">
-        <v>1.645155613557967e-07</v>
+        <v>4.372950443811097</v>
       </c>
       <c r="J13" t="n">
-        <v>2.634209767626911e-07</v>
+        <v>4.117895886003249</v>
       </c>
       <c r="K13" t="n">
-        <v>6.137941881385449e-07</v>
+        <v>3.906540077445862</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007428736424920067</v>
+        <v>3.72825140476115</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1333885630416153</v>
+        <v>3.519827520793426</v>
       </c>
       <c r="N13" t="n">
-        <v>0.305358896576962</v>
+        <v>6.892006675273538</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5819027286819414</v>
+        <v>19.47489014714231</v>
       </c>
     </row>
     <row r="14">
@@ -2743,46 +2743,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-149.9595209071312</v>
+        <v>-149.6127315268994</v>
       </c>
       <c r="C2" t="n">
-        <v>20.26407826578223</v>
+        <v>19.9777196837076</v>
       </c>
       <c r="D2" t="n">
-        <v>144.8376308847139</v>
+        <v>144.0155637858613</v>
       </c>
       <c r="E2" t="n">
-        <v>225.2912019422415</v>
+        <v>224.0571654715165</v>
       </c>
       <c r="F2" t="n">
-        <v>264.0234866931356</v>
+        <v>262.5744592817189</v>
       </c>
       <c r="G2" t="n">
-        <v>273.7861255330595</v>
+        <v>272.3066865644687</v>
       </c>
       <c r="H2" t="n">
-        <v>269.0194487708301</v>
+        <v>267.6357938454458</v>
       </c>
       <c r="I2" t="n">
-        <v>255.8997372064532</v>
+        <v>254.6944454432537</v>
       </c>
       <c r="J2" t="n">
-        <v>238.3476830020833</v>
+        <v>237.3583480404659</v>
       </c>
       <c r="K2" t="n">
-        <v>216.8448194809201</v>
+        <v>216.0826325166889</v>
       </c>
       <c r="L2" t="n">
-        <v>193.5159376224907</v>
+        <v>192.9630113066188</v>
       </c>
       <c r="M2" t="n">
-        <v>171.6657797079795</v>
+        <v>171.2835019578531</v>
       </c>
       <c r="N2" t="n">
-        <v>152.1807021805208</v>
+        <v>151.9234040403767</v>
       </c>
       <c r="O2" t="n">
-        <v>133.5318796079482</v>
+        <v>133.3478832695826</v>
       </c>
     </row>
     <row r="3">
@@ -2795,43 +2795,43 @@
         <v>7.827276852851487</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2986401593516</v>
+        <v>12.27061392426997</v>
       </c>
       <c r="D3" t="n">
-        <v>19.08932327830834</v>
+        <v>19.01387027527621</v>
       </c>
       <c r="E3" t="n">
-        <v>28.54609324980744</v>
+        <v>28.38046925694825</v>
       </c>
       <c r="F3" t="n">
-        <v>40.63141765562701</v>
+        <v>40.30874275701728</v>
       </c>
       <c r="G3" t="n">
-        <v>55.58698535340419</v>
+        <v>55.01958527168272</v>
       </c>
       <c r="H3" t="n">
-        <v>73.8918279898146</v>
+        <v>72.97766255238457</v>
       </c>
       <c r="I3" t="n">
-        <v>95.83106359804765</v>
+        <v>94.46914666085429</v>
       </c>
       <c r="J3" t="n">
-        <v>121.346569446181</v>
+        <v>119.4591774468367</v>
       </c>
       <c r="K3" t="n">
-        <v>149.4230851705294</v>
+        <v>146.9824494659436</v>
       </c>
       <c r="L3" t="n">
-        <v>178.7007118479395</v>
+        <v>175.7798824628257</v>
       </c>
       <c r="M3" t="n">
-        <v>205.7576383381217</v>
+        <v>202.6266211852984</v>
       </c>
       <c r="N3" t="n">
-        <v>219.6872811859155</v>
+        <v>216.9001877154864</v>
       </c>
       <c r="O3" t="n">
-        <v>182.7986103621902</v>
+        <v>181.0922630362555</v>
       </c>
     </row>
     <row r="4">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2297626203434142</v>
+        <v>0.2291306501813566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2254664306417538</v>
+        <v>0.2248038879924975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2209018369056738</v>
+        <v>0.2202049910929772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2151193271729594</v>
+        <v>0.2144049498639563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2137124648869603</v>
+        <v>0.2129957275644292</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2155679011498101</v>
+        <v>0.2148619299597325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2171081606732258</v>
+        <v>0.2164214832820381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2177827689690466</v>
+        <v>0.2171100706014999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2161121618171204</v>
+        <v>0.2154362224342741</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2132351002076942</v>
+        <v>0.2125781257823754</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2068168440321187</v>
+        <v>0.2062965556279943</v>
       </c>
       <c r="M4" t="n">
-        <v>0.186209369071703</v>
+        <v>0.1860246635980382</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1204297721777348</v>
+        <v>0.1206436813651582</v>
       </c>
       <c r="O4" t="n">
-        <v>3.083208152663906e-10</v>
+        <v>3.056458078143504e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2890,46 +2890,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9569437476068507</v>
+        <v>0.9541411240986879</v>
       </c>
       <c r="C5" t="n">
-        <v>1.480105261219441</v>
+        <v>1.473537175309241</v>
       </c>
       <c r="D5" t="n">
-        <v>2.189005778656227</v>
+        <v>2.175074262910119</v>
       </c>
       <c r="E5" t="n">
-        <v>3.067801039033502</v>
+        <v>3.041308500719855</v>
       </c>
       <c r="F5" t="n">
-        <v>4.141968602618856</v>
+        <v>4.096479572477376</v>
       </c>
       <c r="G5" t="n">
-        <v>5.450984464692807</v>
+        <v>5.37935193849053</v>
       </c>
       <c r="H5" t="n">
-        <v>7.006657627842157</v>
+        <v>6.902340911994465</v>
       </c>
       <c r="I5" t="n">
-        <v>8.793234367768985</v>
+        <v>8.651982275155186</v>
       </c>
       <c r="J5" t="n">
-        <v>10.71121526245487</v>
+        <v>10.53296098181515</v>
       </c>
       <c r="K5" t="n">
-        <v>12.66001035957499</v>
+        <v>12.45302712609634</v>
       </c>
       <c r="L5" t="n">
-        <v>14.34485528862226</v>
+        <v>14.1335965967199</v>
       </c>
       <c r="M5" t="n">
-        <v>14.79440288115192</v>
+        <v>14.62486535178629</v>
       </c>
       <c r="N5" t="n">
-        <v>10.61983918484751</v>
+        <v>10.54638439262225</v>
       </c>
       <c r="O5" t="n">
-        <v>2.77701435974289e-08</v>
+        <v>2.730605606751119e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2942,43 +2942,43 @@
         <v>4.17964548697053</v>
       </c>
       <c r="C6" t="n">
-        <v>6.615270188343595</v>
+        <v>6.610744098166453</v>
       </c>
       <c r="D6" t="n">
-        <v>10.02249220641156</v>
+        <v>10.01059117168579</v>
       </c>
       <c r="E6" t="n">
-        <v>14.46381564596206</v>
+        <v>14.43858870255345</v>
       </c>
       <c r="F6" t="n">
-        <v>19.69473836241291</v>
+        <v>19.64768555037537</v>
       </c>
       <c r="G6" t="n">
-        <v>25.72858834803701</v>
+        <v>25.64951843059547</v>
       </c>
       <c r="H6" t="n">
-        <v>32.85906648819019</v>
+        <v>32.73657819797666</v>
       </c>
       <c r="I6" t="n">
-        <v>41.11825146995569</v>
+        <v>40.94206500476366</v>
       </c>
       <c r="J6" t="n">
-        <v>50.47611378637163</v>
+        <v>50.23929261786017</v>
       </c>
       <c r="K6" t="n">
-        <v>60.45652825298422</v>
+        <v>60.15857472625146</v>
       </c>
       <c r="L6" t="n">
-        <v>70.62270922497365</v>
+        <v>70.27441517716606</v>
       </c>
       <c r="M6" t="n">
-        <v>80.91471675735527</v>
+        <v>80.54334814596824</v>
       </c>
       <c r="N6" t="n">
-        <v>89.90877608993463</v>
+        <v>89.56505354317704</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05604244570593</v>
+        <v>91.79740452456302</v>
       </c>
     </row>
     <row r="7">
@@ -2988,46 +2988,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.164923546643735</v>
+        <v>4.164179359433087</v>
       </c>
       <c r="C7" t="n">
-        <v>6.564636948420922</v>
+        <v>6.554767306152724</v>
       </c>
       <c r="D7" t="n">
-        <v>9.90940505212251</v>
+        <v>9.877497563130786</v>
       </c>
       <c r="E7" t="n">
-        <v>14.26092708335286</v>
+        <v>14.18488007226335</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38103425464529</v>
+        <v>19.23268423888094</v>
       </c>
       <c r="G7" t="n">
-        <v>25.28662400857452</v>
+        <v>25.0363195541373</v>
       </c>
       <c r="H7" t="n">
-        <v>32.27265896461639</v>
+        <v>31.89304872751201</v>
       </c>
       <c r="I7" t="n">
-        <v>40.37617121590903</v>
+        <v>39.85067229348233</v>
       </c>
       <c r="J7" t="n">
-        <v>49.5632229690015</v>
+        <v>48.89131856658215</v>
       </c>
       <c r="K7" t="n">
-        <v>59.37113705597226</v>
+        <v>58.58094326621823</v>
       </c>
       <c r="L7" t="n">
-        <v>69.36018850763674</v>
+        <v>68.51106434470192</v>
       </c>
       <c r="M7" t="n">
-        <v>79.45036791062373</v>
+        <v>78.61788361239927</v>
       </c>
       <c r="N7" t="n">
-        <v>88.18283878486751</v>
+        <v>87.41762745701521</v>
       </c>
       <c r="O7" t="n">
-        <v>90.06898730932379</v>
+        <v>89.33888628401183</v>
       </c>
     </row>
     <row r="8">
@@ -3037,46 +3037,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09180317433036818</v>
+        <v>0.1332558197263132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1230652965490278</v>
+        <v>0.1787355995847553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1600602379225372</v>
+        <v>0.2327380198518276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2019871828164946</v>
+        <v>0.2938797458924796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2472368215964252</v>
+        <v>0.3596767596267834</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2933666531888171</v>
+        <v>0.4265810161715566</v>
       </c>
       <c r="H8" t="n">
-        <v>0.337475987166847</v>
+        <v>0.4905454088334926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3752686945432865</v>
+        <v>0.5456679171334449</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4011146290641996</v>
+        <v>0.5843835449146054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4078351817992283</v>
+        <v>0.5965744495127693</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3865641875225934</v>
+        <v>0.5688787518175356</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3290383101266875</v>
+        <v>0.4869703004012553</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2273404345662502</v>
+        <v>0.337179236850487</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002354614262257849</v>
+        <v>0.002346243571559859</v>
       </c>
     </row>
     <row r="9">
@@ -3086,46 +3086,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004047351433952743</v>
+        <v>0.001148922354043731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001168739159582636</v>
+        <v>0.00332071527557769</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003013567659034808</v>
+        <v>0.008586176265272315</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006895133969608835</v>
+        <v>0.01966767117179528</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01383586884598283</v>
+        <v>0.03942806375854451</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02468986243849376</v>
+        <v>0.07021600337757729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03988988955992884</v>
+        <v>0.1132563717492361</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05794810414522487</v>
+        <v>0.164594519703118</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07453668564528108</v>
+        <v>0.2127797128725124</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0819311898987068</v>
+        <v>0.236487118570805</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07265365579034516</v>
+        <v>0.2132774824926117</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04704447534424731</v>
+        <v>0.1403549117568856</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01656519753769116</v>
+        <v>0.04975637226041589</v>
       </c>
       <c r="O9" t="n">
-        <v>4.215209950312829e-08</v>
+        <v>4.161737094354487e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3138,43 +3138,43 @@
         <v>0.003425459223283617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007477321311871396</v>
+        <v>0.007965226902786357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01098265624587868</v>
+        <v>0.01243757038464373</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0135506033426459</v>
+        <v>0.01620940688454709</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01522580464912047</v>
+        <v>0.01911539386015419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01621831992410266</v>
+        <v>0.02116932037339531</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01663217164767294</v>
+        <v>0.02230755744534588</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01663816250555615</v>
+        <v>0.02263682087042667</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01660892784402909</v>
+        <v>0.02259574685973871</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01659804219842398</v>
+        <v>0.02229348596713332</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01684822169248952</v>
+        <v>0.02205743507169295</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01751602709847534</v>
+        <v>0.02216334015041121</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01901229425945664</v>
+        <v>0.02342062702938243</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02158527611484063</v>
+        <v>0.02678200120871588</v>
       </c>
     </row>
     <row r="11">
@@ -3184,46 +3184,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.207979799036884</v>
+        <v>3.210038235334399</v>
       </c>
       <c r="C11" t="n">
-        <v>5.084531687201483</v>
+        <v>5.081230130843483</v>
       </c>
       <c r="D11" t="n">
-        <v>7.720399273466283</v>
+        <v>7.702423300220667</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19312604431936</v>
+        <v>11.14357157154349</v>
       </c>
       <c r="F11" t="n">
-        <v>15.23906565202643</v>
+        <v>15.13620466640356</v>
       </c>
       <c r="G11" t="n">
-        <v>19.83563954388171</v>
+        <v>19.65696761564677</v>
       </c>
       <c r="H11" t="n">
-        <v>25.26600133677423</v>
+        <v>24.99070781551755</v>
       </c>
       <c r="I11" t="n">
-        <v>31.58293684814004</v>
+        <v>31.19869001832715</v>
       </c>
       <c r="J11" t="n">
-        <v>38.85200770654663</v>
+        <v>38.35835758476701</v>
       </c>
       <c r="K11" t="n">
-        <v>46.71112669639727</v>
+        <v>46.1279161401219</v>
       </c>
       <c r="L11" t="n">
-        <v>55.01533321901448</v>
+        <v>54.37746774798202</v>
       </c>
       <c r="M11" t="n">
-        <v>64.6559650294718</v>
+        <v>63.99301826061298</v>
       </c>
       <c r="N11" t="n">
-        <v>77.56299960002001</v>
+        <v>76.87124306439296</v>
       </c>
       <c r="O11" t="n">
-        <v>90.06898728155365</v>
+        <v>89.33888625670578</v>
       </c>
     </row>
     <row r="12">
@@ -3233,46 +3233,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5714157530413146</v>
+        <v>0.5453347385354406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7341715206121863</v>
+        <v>0.6870938061028018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9090876092228399</v>
+        <v>0.8294405699295957</v>
       </c>
       <c r="E12" t="n">
-        <v>1.077899178594301</v>
+        <v>0.9521136919056644</v>
       </c>
       <c r="F12" t="n">
-        <v>1.211773405541537</v>
+        <v>1.02830866996348</v>
       </c>
       <c r="G12" t="n">
-        <v>1.314776333859759</v>
+        <v>1.063636111698754</v>
       </c>
       <c r="H12" t="n">
-        <v>1.406562263538608</v>
+        <v>1.077558556614783</v>
       </c>
       <c r="I12" t="n">
-        <v>1.495886286715722</v>
+        <v>1.083212898539154</v>
       </c>
       <c r="J12" t="n">
-        <v>1.599175964321518</v>
+        <v>1.104594529293055</v>
       </c>
       <c r="K12" t="n">
-        <v>1.732738702597723</v>
+        <v>1.174649259470475</v>
       </c>
       <c r="L12" t="n">
-        <v>1.93071247964362</v>
+        <v>1.350208293693705</v>
       </c>
       <c r="M12" t="n">
-        <v>2.240705388509704</v>
+        <v>1.705421379116098</v>
       </c>
       <c r="N12" t="n">
-        <v>2.669032877307722</v>
+        <v>2.280858516895048</v>
       </c>
       <c r="O12" t="n">
-        <v>3.300047087552558</v>
+        <v>3.29080298440209</v>
       </c>
     </row>
     <row r="13">
@@ -3282,46 +3282,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5714157530413146</v>
+        <v>20.39665464891545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7341715206121863</v>
+        <v>26.41052859987456</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9090876092228399</v>
+        <v>32.39395667178346</v>
       </c>
       <c r="E13" t="n">
-        <v>1.077899178594301</v>
+        <v>37.44398925208657</v>
       </c>
       <c r="F13" t="n">
-        <v>1.211773405541537</v>
+        <v>40.45346546885245</v>
       </c>
       <c r="G13" t="n">
-        <v>1.314776333859759</v>
+        <v>41.6660323132563</v>
       </c>
       <c r="H13" t="n">
-        <v>1.406562263538608</v>
+        <v>41.89674412889222</v>
       </c>
       <c r="I13" t="n">
-        <v>1.495886286715722</v>
+        <v>41.62703888214237</v>
       </c>
       <c r="J13" t="n">
-        <v>1.599175964321518</v>
+        <v>41.56384504854935</v>
       </c>
       <c r="K13" t="n">
-        <v>1.732738702597723</v>
+        <v>42.43274951230946</v>
       </c>
       <c r="L13" t="n">
-        <v>1.93071247964362</v>
+        <v>45.44628038634094</v>
       </c>
       <c r="M13" t="n">
-        <v>2.240705388509704</v>
+        <v>52.11259846568441</v>
       </c>
       <c r="N13" t="n">
-        <v>2.669032877307722</v>
+        <v>62.87977321804037</v>
       </c>
       <c r="O13" t="n">
-        <v>3.300047087552558</v>
+        <v>82.84252065438028</v>
       </c>
     </row>
     <row r="14">
@@ -3495,43 +3495,43 @@
         <v>825.23</v>
       </c>
       <c r="C2" t="n">
-        <v>800.5739600674842</v>
+        <v>785.9971059725517</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0138141563972</v>
+        <v>748.3177715765163</v>
       </c>
       <c r="E2" t="n">
-        <v>757.9838440203544</v>
+        <v>711.5189700977834</v>
       </c>
       <c r="F2" t="n">
-        <v>738.96461121185</v>
+        <v>675.803711736953</v>
       </c>
       <c r="G2" t="n">
-        <v>719.6406148062865</v>
+        <v>639.2745883749751</v>
       </c>
       <c r="H2" t="n">
-        <v>699.6348754596529</v>
+        <v>601.1348704722332</v>
       </c>
       <c r="I2" t="n">
-        <v>679.6765803904583</v>
+        <v>562.7065546187234</v>
       </c>
       <c r="J2" t="n">
-        <v>661.3863556744221</v>
+        <v>527.1237855426326</v>
       </c>
       <c r="K2" t="n">
-        <v>647.0425574060148</v>
+        <v>495.3274339415871</v>
       </c>
       <c r="L2" t="n">
-        <v>639.8726824562642</v>
+        <v>469.3669304938172</v>
       </c>
       <c r="M2" t="n">
-        <v>645.1163416499908</v>
+        <v>452.9564795373951</v>
       </c>
       <c r="N2" t="n">
-        <v>670.3861844006294</v>
+        <v>457.8093231865938</v>
       </c>
       <c r="O2" t="n">
-        <v>729.1953679609974</v>
+        <v>503.003423732901</v>
       </c>
     </row>
     <row r="3">
@@ -3544,43 +3544,43 @@
         <v>9903.01790909091</v>
       </c>
       <c r="C3" t="n">
-        <v>10822.8476782493</v>
+        <v>13345.62422905701</v>
       </c>
       <c r="D3" t="n">
-        <v>11282.67963972139</v>
+        <v>16238.9616681929</v>
       </c>
       <c r="E3" t="n">
-        <v>11402.62976331197</v>
+        <v>18617.89099091121</v>
       </c>
       <c r="F3" t="n">
-        <v>11274.21473545471</v>
+        <v>20535.98919641681</v>
       </c>
       <c r="G3" t="n">
-        <v>10968.0723148491</v>
+        <v>21947.79172554289</v>
       </c>
       <c r="H3" t="n">
-        <v>10539.15805459431</v>
+        <v>22863.37611027151</v>
       </c>
       <c r="I3" t="n">
-        <v>10030.47360856084</v>
+        <v>23394.46684174941</v>
       </c>
       <c r="J3" t="n">
-        <v>9475.683988187579</v>
+        <v>23725.333002213</v>
       </c>
       <c r="K3" t="n">
-        <v>8901.127574222945</v>
+        <v>23919.92340483713</v>
       </c>
       <c r="L3" t="n">
-        <v>8327.881585092902</v>
+        <v>24064.68077057566</v>
       </c>
       <c r="M3" t="n">
-        <v>7774.235036754715</v>
+        <v>24280.68299581022</v>
       </c>
       <c r="N3" t="n">
-        <v>7257.18592009398</v>
+        <v>24983.25921370852</v>
       </c>
       <c r="O3" t="n">
-        <v>6796.875320385905</v>
+        <v>26732.88565605629</v>
       </c>
     </row>
     <row r="4">
@@ -3691,43 +3691,43 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6229932008153</v>
+        <v>1.688078865231789</v>
       </c>
       <c r="D6" t="n">
-        <v>2.048333108555147</v>
+        <v>2.207606239580128</v>
       </c>
       <c r="E6" t="n">
-        <v>2.314350878597995</v>
+        <v>2.574213940293714</v>
       </c>
       <c r="F6" t="n">
-        <v>2.469029302580688</v>
+        <v>2.824762197923135</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54625100874012</v>
+        <v>2.98278636493413</v>
       </c>
       <c r="H6" t="n">
-        <v>2.562720132696227</v>
+        <v>3.056352812419786</v>
       </c>
       <c r="I6" t="n">
-        <v>2.535202291705057</v>
+        <v>3.058953878878565</v>
       </c>
       <c r="J6" t="n">
-        <v>2.476447522592479</v>
+        <v>3.008058380771746</v>
       </c>
       <c r="K6" t="n">
-        <v>2.395999047521016</v>
+        <v>2.915667665306465</v>
       </c>
       <c r="L6" t="n">
-        <v>2.311737945509494</v>
+        <v>2.80250851087496</v>
       </c>
       <c r="M6" t="n">
-        <v>2.246352009325503</v>
+        <v>2.696915625711925</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22872149758103</v>
+        <v>2.660148372307151</v>
       </c>
       <c r="O6" t="n">
-        <v>2.297380936939992</v>
+        <v>2.789333078821126</v>
       </c>
     </row>
     <row r="7">
@@ -3743,40 +3743,40 @@
         <v>0.09456200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170983560040765</v>
+        <v>0.1742378432615894</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2648510374664841</v>
+        <v>0.2759062630775164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3673260295230597</v>
+        <v>0.3908216469383263</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4724111931759412</v>
+        <v>0.5125186744875667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5761031839541502</v>
+        <v>0.6360320590098948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6754340313912539</v>
+        <v>0.7570480966803893</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7684224444069441</v>
+        <v>0.8721433857902982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8538236983162207</v>
+        <v>0.9789391355393705</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9309324657764605</v>
+        <v>1.075775562027725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9999727397631122</v>
+        <v>1.162112209470087</v>
       </c>
       <c r="N7" t="n">
-        <v>1.062291703241232</v>
+        <v>1.238852380282179</v>
       </c>
       <c r="O7" t="n">
-        <v>1.120613192958221</v>
+        <v>1.309917179883427</v>
       </c>
     </row>
     <row r="8">
@@ -3789,43 +3789,43 @@
         <v>4.477605569014966</v>
       </c>
       <c r="C8" t="n">
-        <v>4.543995865458173</v>
+        <v>4.856907713614369</v>
       </c>
       <c r="D8" t="n">
-        <v>4.446021500816332</v>
+        <v>4.996311641974699</v>
       </c>
       <c r="E8" t="n">
-        <v>4.293305513193157</v>
+        <v>5.01441363502162</v>
       </c>
       <c r="F8" t="n">
-        <v>4.127282888233452</v>
+        <v>4.973913364946485</v>
       </c>
       <c r="G8" t="n">
-        <v>3.954758514152009</v>
+        <v>4.868658253007255</v>
       </c>
       <c r="H8" t="n">
-        <v>3.745741896261995</v>
+        <v>4.661526636078753</v>
       </c>
       <c r="I8" t="n">
-        <v>3.526784099229265</v>
+        <v>4.392223525511231</v>
       </c>
       <c r="J8" t="n">
-        <v>3.304606030594256</v>
+        <v>4.10140862890541</v>
       </c>
       <c r="K8" t="n">
-        <v>3.083497692549436</v>
+        <v>3.790016843566076</v>
       </c>
       <c r="L8" t="n">
-        <v>2.91822177520622</v>
+        <v>3.518706800473912</v>
       </c>
       <c r="M8" t="n">
-        <v>2.858883046586731</v>
+        <v>3.355607969061299</v>
       </c>
       <c r="N8" t="n">
-        <v>2.969158508943794</v>
+        <v>3.501610723198773</v>
       </c>
       <c r="O8" t="n">
-        <v>3.338293473079359</v>
+        <v>4.22060826942121</v>
       </c>
     </row>
     <row r="9">
@@ -3835,46 +3835,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.437156006748426</v>
+        <v>5.979470597255172</v>
       </c>
       <c r="C9" t="n">
-        <v>7.350872929701093</v>
+        <v>5.664031832067078</v>
       </c>
       <c r="D9" t="n">
-        <v>7.333168756272483</v>
+        <v>5.299933111044907</v>
       </c>
       <c r="E9" t="n">
-        <v>7.193882847393802</v>
+        <v>4.966701805090352</v>
       </c>
       <c r="F9" t="n">
-        <v>6.935175693985859</v>
+        <v>4.45673220464565</v>
       </c>
       <c r="G9" t="n">
-        <v>6.635113443012083</v>
+        <v>3.85732327022551</v>
       </c>
       <c r="H9" t="n">
-        <v>6.399788998596369</v>
+        <v>3.37078686031582</v>
       </c>
       <c r="I9" t="n">
-        <v>6.327096493081878</v>
+        <v>3.194201747815606</v>
       </c>
       <c r="J9" t="n">
-        <v>6.50225644125234</v>
+        <v>3.145850266407033</v>
       </c>
       <c r="K9" t="n">
-        <v>7.047523193897125</v>
+        <v>3.347878862522052</v>
       </c>
       <c r="L9" t="n">
-        <v>8.202838108847827</v>
+        <v>3.991358070283598</v>
       </c>
       <c r="M9" t="n">
-        <v>10.26838037486375</v>
+        <v>5.920762119368619</v>
       </c>
       <c r="N9" t="n">
-        <v>13.92555256884435</v>
+        <v>10.01312193286984</v>
       </c>
       <c r="O9" t="n">
-        <v>19.83566338491965</v>
+        <v>19.77618306568121</v>
       </c>
     </row>
     <row r="10">
@@ -3884,46 +3884,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.0131560067484</v>
+        <v>443.2908110875187</v>
       </c>
       <c r="C10" t="n">
-        <v>154.2116729297011</v>
+        <v>422.7899862041595</v>
       </c>
       <c r="D10" t="n">
-        <v>124.8218087562725</v>
+        <v>400.2825489537598</v>
       </c>
       <c r="E10" t="n">
-        <v>101.1847948473938</v>
+        <v>377.9887304596723</v>
       </c>
       <c r="F10" t="n">
-        <v>82.12790529398588</v>
+        <v>346.540144876776</v>
       </c>
       <c r="G10" t="n">
-        <v>66.7892971230121</v>
+        <v>311.0363557282913</v>
       </c>
       <c r="H10" t="n">
-        <v>54.52313594259638</v>
+        <v>281.7428342505046</v>
       </c>
       <c r="I10" t="n">
-        <v>44.82577404828189</v>
+        <v>267.0312844638526</v>
       </c>
       <c r="J10" t="n">
-        <v>37.30119848541236</v>
+        <v>256.7123702845428</v>
       </c>
       <c r="K10" t="n">
-        <v>31.68667682922514</v>
+        <v>253.6749706222247</v>
       </c>
       <c r="L10" t="n">
-        <v>27.91416101711024</v>
+        <v>262.2470302292128</v>
       </c>
       <c r="M10" t="n">
-        <v>26.03743870147368</v>
+        <v>313.0644517479322</v>
       </c>
       <c r="N10" t="n">
-        <v>26.54079923013229</v>
+        <v>424.7952363718612</v>
       </c>
       <c r="O10" t="n">
-        <v>29.92786071395001</v>
+        <v>711.3965619905786</v>
       </c>
     </row>
     <row r="12">
@@ -4044,46 +4044,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2602788326838</v>
+        <v>262.1315946480306</v>
       </c>
       <c r="C2" t="n">
-        <v>250.0300201449587</v>
+        <v>248.7443348723609</v>
       </c>
       <c r="D2" t="n">
-        <v>228.7312200927352</v>
+        <v>227.6250538608557</v>
       </c>
       <c r="E2" t="n">
-        <v>204.6919654624343</v>
+        <v>203.9128010850509</v>
       </c>
       <c r="F2" t="n">
-        <v>178.9586827111707</v>
+        <v>178.4494663617877</v>
       </c>
       <c r="G2" t="n">
-        <v>154.3440725592293</v>
+        <v>154.0156311267528</v>
       </c>
       <c r="H2" t="n">
-        <v>132.5985043824411</v>
+        <v>132.3790635153264</v>
       </c>
       <c r="I2" t="n">
-        <v>113.5851042179743</v>
+        <v>113.4279590365046</v>
       </c>
       <c r="J2" t="n">
-        <v>97.04838180069892</v>
+        <v>96.92533459988684</v>
       </c>
       <c r="K2" t="n">
-        <v>83.95861511721456</v>
+        <v>83.85423361701085</v>
       </c>
       <c r="L2" t="n">
-        <v>73.60651649857238</v>
+        <v>73.51506266854777</v>
       </c>
       <c r="M2" t="n">
-        <v>64.53198439777954</v>
+        <v>64.45444304145009</v>
       </c>
       <c r="N2" t="n">
-        <v>56.701969845892</v>
+        <v>56.64820309353815</v>
       </c>
       <c r="O2" t="n">
-        <v>49.59117380707151</v>
+        <v>49.55648304207231</v>
       </c>
     </row>
     <row r="3">
@@ -4096,43 +4096,43 @@
         <v>30.92935159935833</v>
       </c>
       <c r="C3" t="n">
-        <v>47.45753247261276</v>
+        <v>47.19389498270633</v>
       </c>
       <c r="D3" t="n">
-        <v>63.5528327611927</v>
+        <v>62.77294795380172</v>
       </c>
       <c r="E3" t="n">
-        <v>79.10553493686058</v>
+        <v>77.49529363489322</v>
       </c>
       <c r="F3" t="n">
-        <v>93.94969173574346</v>
+        <v>91.91251151935079</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3033812592854</v>
+        <v>106.0891369691567</v>
       </c>
       <c r="H3" t="n">
-        <v>122.7247715723705</v>
+        <v>120.5081182316215</v>
       </c>
       <c r="I3" t="n">
-        <v>137.2353939363605</v>
+        <v>135.1776473011086</v>
       </c>
       <c r="J3" t="n">
-        <v>152.2894133999182</v>
+        <v>150.529409226337</v>
       </c>
       <c r="K3" t="n">
-        <v>168.3087693640815</v>
+        <v>166.8628439036326</v>
       </c>
       <c r="L3" t="n">
-        <v>184.7537672867231</v>
+        <v>183.4489596954549</v>
       </c>
       <c r="M3" t="n">
-        <v>197.8612120088903</v>
+        <v>196.2817569054782</v>
       </c>
       <c r="N3" t="n">
-        <v>198.0863364505914</v>
+        <v>195.5673783494092</v>
       </c>
       <c r="O3" t="n">
-        <v>154.98805562878</v>
+        <v>153.4472460212826</v>
       </c>
     </row>
     <row r="4">
@@ -4142,46 +4142,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2254353598448298</v>
+        <v>0.2263870971347589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2226677354837568</v>
+        <v>0.2233020274646752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2205912215178325</v>
+        <v>0.2199499538382161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2181153843417643</v>
+        <v>0.2173224690407735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2174529044964744</v>
+        <v>0.2165524062732168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2184746636532413</v>
+        <v>0.2176231026554832</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2193528260282635</v>
+        <v>0.2187675488874538</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2208057918689271</v>
+        <v>0.2206748294933645</v>
       </c>
       <c r="J4" t="n">
-        <v>0.223428789313972</v>
+        <v>0.2237501618263215</v>
       </c>
       <c r="K4" t="n">
-        <v>0.223067143784276</v>
+        <v>0.2236132376305593</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2145652889444982</v>
+        <v>0.2148481937633378</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1908638618633335</v>
+        <v>0.1901125380151693</v>
       </c>
       <c r="N4" t="n">
-        <v>0.11982261546114</v>
+        <v>0.1199565509938095</v>
       </c>
       <c r="O4" t="n">
-        <v>2.053526376049561e-09</v>
+        <v>2.043679001502695e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4191,46 +4191,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.667313440364405</v>
+        <v>3.640949691373763</v>
       </c>
       <c r="C5" t="n">
-        <v>4.700541436764698</v>
+        <v>4.631745426898845</v>
       </c>
       <c r="D5" t="n">
-        <v>5.694603234575172</v>
+        <v>5.560772006188314</v>
       </c>
       <c r="E5" t="n">
-        <v>6.636729721068286</v>
+        <v>6.489157341964475</v>
       </c>
       <c r="F5" t="n">
-        <v>7.554514929699052</v>
+        <v>7.404122582691617</v>
       </c>
       <c r="G5" t="n">
-        <v>8.496171753732723</v>
+        <v>8.351712344166067</v>
       </c>
       <c r="H5" t="n">
-        <v>9.444391202287751</v>
+        <v>9.315906461672045</v>
       </c>
       <c r="I5" t="n">
-        <v>10.4438390315679</v>
+        <v>10.33958780289985</v>
       </c>
       <c r="J5" t="n">
-        <v>11.5208734256054</v>
+        <v>11.43764843054188</v>
       </c>
       <c r="K5" t="n">
-        <v>12.60681281297044</v>
+        <v>12.52674835724865</v>
       </c>
       <c r="L5" t="n">
-        <v>13.34415566287572</v>
+        <v>13.23170598008992</v>
       </c>
       <c r="M5" t="n">
-        <v>12.90963976910361</v>
+        <v>12.71281615315196</v>
       </c>
       <c r="N5" t="n">
-        <v>8.591962083006404</v>
+        <v>8.52571176039641</v>
       </c>
       <c r="O5" t="n">
-        <v>1.443052479430678e-07</v>
+        <v>1.426007078010605e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4243,43 +4243,43 @@
         <v>16.39053328158728</v>
       </c>
       <c r="C6" t="n">
-        <v>21.38412490175911</v>
+        <v>21.34841727334321</v>
       </c>
       <c r="D6" t="n">
-        <v>26.28561191283245</v>
+        <v>26.1884246795847</v>
       </c>
       <c r="E6" t="n">
-        <v>31.11494020295542</v>
+        <v>30.92356159503456</v>
       </c>
       <c r="F6" t="n">
-        <v>35.63841309828106</v>
+        <v>35.40479954066727</v>
       </c>
       <c r="G6" t="n">
-        <v>39.98095256250047</v>
+        <v>39.73395608030027</v>
       </c>
       <c r="H6" t="n">
-        <v>44.31093595765967</v>
+        <v>44.06929929470292</v>
       </c>
       <c r="I6" t="n">
-        <v>48.67100821383969</v>
+        <v>48.45091328142752</v>
       </c>
       <c r="J6" t="n">
-        <v>53.01819020783139</v>
+        <v>52.83362287462512</v>
       </c>
       <c r="K6" t="n">
-        <v>58.02322166516563</v>
+        <v>57.87322813922604</v>
       </c>
       <c r="L6" t="n">
-        <v>63.74497947508283</v>
+        <v>63.60958625962693</v>
       </c>
       <c r="M6" t="n">
-        <v>69.23683321970495</v>
+        <v>69.07056001473923</v>
       </c>
       <c r="N6" t="n">
-        <v>73.40221672954421</v>
+        <v>73.12093631447262</v>
       </c>
       <c r="O6" t="n">
-        <v>72.05485171785443</v>
+        <v>71.83920031703722</v>
       </c>
     </row>
     <row r="7">
@@ -4289,46 +4289,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.26769395399491</v>
+        <v>16.08284985078658</v>
       </c>
       <c r="C7" t="n">
-        <v>21.11011470320357</v>
+        <v>20.74206615804934</v>
       </c>
       <c r="D7" t="n">
-        <v>25.81518518911154</v>
+        <v>25.28198760286412</v>
       </c>
       <c r="E7" t="n">
-        <v>30.42760941002316</v>
+        <v>29.85957858203329</v>
       </c>
       <c r="F7" t="n">
-        <v>34.74092446450415</v>
+        <v>34.19090422551152</v>
       </c>
       <c r="G7" t="n">
-        <v>38.8885906112101</v>
+        <v>38.37695650074237</v>
       </c>
       <c r="H7" t="n">
-        <v>43.05570788985798</v>
+        <v>42.58358476404863</v>
       </c>
       <c r="I7" t="n">
-        <v>47.29875490660808</v>
+        <v>46.85440485730953</v>
       </c>
       <c r="J7" t="n">
-        <v>51.56396121099579</v>
+        <v>51.11794484162193</v>
       </c>
       <c r="K7" t="n">
-        <v>56.51577636714734</v>
+        <v>56.01970835887904</v>
       </c>
       <c r="L7" t="n">
-        <v>62.1915861997952</v>
+        <v>61.58630309298792</v>
       </c>
       <c r="M7" t="n">
-        <v>67.63794697996551</v>
+        <v>66.86995127137584</v>
       </c>
       <c r="N7" t="n">
-        <v>71.70567968275478</v>
+        <v>71.07333188361164</v>
       </c>
       <c r="O7" t="n">
-        <v>70.27192327603441</v>
+        <v>69.77647061804115</v>
       </c>
     </row>
     <row r="8">
@@ -4338,46 +4338,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4913211493697311</v>
+        <v>0.7558569482064961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6042349893449057</v>
+        <v>0.9071854005905494</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7027978876347826</v>
+        <v>0.9999999856353832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7896009971841421</v>
+        <v>0.9999999999516086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8652460368051035</v>
+        <v>1.000000000883034</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9283235256751536</v>
+        <v>1.000000000306223</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9743473992093504</v>
+        <v>0.9999999987796103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9970412034379531</v>
+        <v>0.9999999959685575</v>
       </c>
       <c r="J8" t="n">
-        <v>0.986335856642147</v>
+        <v>0.9999999906018837</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9352189803849263</v>
+        <v>0.9999999789259324</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8349544952852719</v>
+        <v>0.999999941402957</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6746062957153234</v>
+        <v>0.9999929547625587</v>
       </c>
       <c r="N8" t="n">
-        <v>0.44551284320381</v>
+        <v>0.6676545432241452</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005022674043755111</v>
+        <v>0.005010377049352437</v>
       </c>
     </row>
     <row r="9">
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07897733166937236</v>
+        <v>0.2638214348777066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1537812336588926</v>
+        <v>0.4790160344686364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2440225800226251</v>
+        <v>0.6526735718005734</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3418108300540987</v>
+        <v>0.6582105348962346</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4359063315608566</v>
+        <v>0.6494504589869342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5174263526360884</v>
+        <v>0.6332847295797099</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5747882457662523</v>
+        <v>0.6148007292005443</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5933777257847831</v>
+        <v>0.595615735086314</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5559780408122255</v>
+        <v>0.575802598221493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4673157087609319</v>
+        <v>0.5622493330399903</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3348197436117701</v>
+        <v>0.55364542196624</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1801435914647836</v>
+        <v>0.5410344749933201</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05401156270944202</v>
+        <v>0.1670150991780249</v>
       </c>
       <c r="O9" t="n">
-        <v>1.690017586698194e-07</v>
+        <v>1.673521822390756e-07</v>
       </c>
     </row>
     <row r="10">
@@ -4439,43 +4439,43 @@
         <v>0.002676056670607093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005622346738479495</v>
+        <v>0.005964614575162416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008613234664236698</v>
+        <v>0.009689911020796339</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0111046320714237</v>
+        <v>0.01312178989661369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01295181973852598</v>
+        <v>0.01594260844551524</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01438023763329582</v>
+        <v>0.01821401444436085</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0153560245869241</v>
+        <v>0.019762370071503</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01600286515588055</v>
+        <v>0.02065787043513487</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01694231644841567</v>
+        <v>0.02157481112901594</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01792609164757565</v>
+        <v>0.02231205151025239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01911638440721722</v>
+        <v>0.02310402929952002</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0204911545242494</v>
+        <v>0.0240272305308648</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02237705558855255</v>
+        <v>0.02571889019028759</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0247440419390448</v>
+        <v>0.02871314717509037</v>
       </c>
     </row>
     <row r="11">
@@ -4485,46 +4485,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.6003805136305</v>
+        <v>12.44190015941281</v>
       </c>
       <c r="C11" t="n">
-        <v>16.40957326643888</v>
+        <v>16.1103207311505</v>
       </c>
       <c r="D11" t="n">
-        <v>20.12058195453637</v>
+        <v>19.72121559667581</v>
       </c>
       <c r="E11" t="n">
-        <v>23.79087968895487</v>
+        <v>23.37042124006881</v>
       </c>
       <c r="F11" t="n">
-        <v>27.18640953480509</v>
+        <v>26.7867816428199</v>
       </c>
       <c r="G11" t="n">
-        <v>30.39241885747737</v>
+        <v>30.0252441565763</v>
       </c>
       <c r="H11" t="n">
-        <v>33.61131668757022</v>
+        <v>33.26767830237659</v>
       </c>
       <c r="I11" t="n">
-        <v>36.85491587504018</v>
+        <v>36.51481705440968</v>
       </c>
       <c r="J11" t="n">
-        <v>40.04308778539039</v>
+        <v>39.68029641108005</v>
       </c>
       <c r="K11" t="n">
-        <v>43.90896355417689</v>
+        <v>43.49296000163039</v>
       </c>
       <c r="L11" t="n">
-        <v>48.84743053691948</v>
+        <v>48.354597112898</v>
       </c>
       <c r="M11" t="n">
-        <v>54.7283072108619</v>
+        <v>54.15713511822388</v>
       </c>
       <c r="N11" t="n">
-        <v>63.11371759974837</v>
+        <v>62.54762012321524</v>
       </c>
       <c r="O11" t="n">
-        <v>70.27192313172917</v>
+        <v>69.77647047544045</v>
       </c>
     </row>
     <row r="12">
@@ -4534,46 +4534,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4884036841176878</v>
+        <v>0.2344118805016963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4340201354083252</v>
+        <v>0.1016162063503837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3545522106698872</v>
+        <v>1.707314914935925e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>0.26550543682888</v>
+        <v>6.069022906748264e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1755781384488544</v>
+        <v>-1.143010431453226e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09519395258182606</v>
+        <v>-4.041843889062111e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03455161283569788</v>
+        <v>1.63478510724501e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004031136274949547</v>
+        <v>5.467697450547888e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01878270053972128</v>
+        <v>1.287365687079964e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09073031780477089</v>
+        <v>2.943939571342217e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.237532830003821</v>
+        <v>8.415350878213978e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4777586861417076</v>
+        <v>1.031931481197935e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8137418357189221</v>
+        <v>0.4858670722547092</v>
       </c>
       <c r="O12" t="n">
-        <v>1.355994750710859</v>
+        <v>1.351953132147857</v>
       </c>
     </row>
     <row r="13">
@@ -4583,46 +4583,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4884036841176878</v>
+        <v>19.04947411853189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4340201354083252</v>
+        <v>13.76030556927746</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3545522106698872</v>
+        <v>9.806366218536581</v>
       </c>
       <c r="E13" t="n">
-        <v>0.26550543682888</v>
+        <v>10.006106339629</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1755781384488544</v>
+        <v>9.913934244630457</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09519395258182606</v>
+        <v>9.642265640159042</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03455161283569788</v>
+        <v>9.281233485106556</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004031136274949547</v>
+        <v>8.868220994308237</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01878270053972128</v>
+        <v>8.416209522752593</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09073031780477089</v>
+        <v>8.034448157319705</v>
       </c>
       <c r="L13" t="n">
-        <v>0.237532830003821</v>
+        <v>7.706687862159774</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4777586861417076</v>
+        <v>7.313230429734022</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8137418357189221</v>
+        <v>19.00221653755575</v>
       </c>
       <c r="O13" t="n">
-        <v>1.355994750710859</v>
+        <v>40.92793158419394</v>
       </c>
     </row>
     <row r="14">
@@ -4793,46 +4793,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.21693483309126</v>
+        <v>66.85050001681167</v>
       </c>
       <c r="C2" t="n">
-        <v>59.38157651192831</v>
+        <v>59.00834440538005</v>
       </c>
       <c r="D2" t="n">
-        <v>50.35523882532401</v>
+        <v>50.07597380614736</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68252070139274</v>
+        <v>41.51162860095906</v>
       </c>
       <c r="F2" t="n">
-        <v>34.74485940287957</v>
+        <v>34.64563201150022</v>
       </c>
       <c r="G2" t="n">
-        <v>29.4151014796678</v>
+        <v>29.35642651974148</v>
       </c>
       <c r="H2" t="n">
-        <v>24.82774929209607</v>
+        <v>24.7897792768654</v>
       </c>
       <c r="I2" t="n">
-        <v>20.90268258575272</v>
+        <v>20.87522878698096</v>
       </c>
       <c r="J2" t="n">
-        <v>17.55597672844959</v>
+        <v>17.53479393555609</v>
       </c>
       <c r="K2" t="n">
-        <v>15.0584249481265</v>
+        <v>15.04046924736902</v>
       </c>
       <c r="L2" t="n">
-        <v>13.20302195146452</v>
+        <v>13.18668149779628</v>
       </c>
       <c r="M2" t="n">
-        <v>11.57799296158905</v>
+        <v>11.56365071705454</v>
       </c>
       <c r="N2" t="n">
-        <v>10.17648119862886</v>
+        <v>10.16644258101836</v>
       </c>
       <c r="O2" t="n">
-        <v>8.904598384306917</v>
+        <v>8.898301551771596</v>
       </c>
     </row>
     <row r="3">
@@ -4845,43 +4845,43 @@
         <v>8.331421097670153</v>
       </c>
       <c r="C3" t="n">
-        <v>11.97733331549434</v>
+        <v>11.89442206642658</v>
       </c>
       <c r="D3" t="n">
-        <v>14.94600061851079</v>
+        <v>14.67824529130506</v>
       </c>
       <c r="E3" t="n">
-        <v>17.38134623711108</v>
+        <v>16.90658101791032</v>
       </c>
       <c r="F3" t="n">
-        <v>19.65054933090475</v>
+        <v>19.10743543591678</v>
       </c>
       <c r="G3" t="n">
-        <v>21.94558600060037</v>
+        <v>21.40598824518196</v>
       </c>
       <c r="H3" t="n">
-        <v>24.20161384290162</v>
+        <v>23.72665356855621</v>
       </c>
       <c r="I3" t="n">
-        <v>26.47800072687365</v>
+        <v>26.07401572125258</v>
       </c>
       <c r="J3" t="n">
-        <v>28.88781986828147</v>
+        <v>28.53231371016952</v>
       </c>
       <c r="K3" t="n">
-        <v>31.59204345849784</v>
+        <v>31.31039075358799</v>
       </c>
       <c r="L3" t="n">
-        <v>34.48803908195534</v>
+        <v>34.27113964863598</v>
       </c>
       <c r="M3" t="n">
-        <v>36.84378851102491</v>
+        <v>36.57364397041635</v>
       </c>
       <c r="N3" t="n">
-        <v>36.8416895404531</v>
+        <v>36.34985333861012</v>
       </c>
       <c r="O3" t="n">
-        <v>28.84810368559205</v>
+        <v>28.54068675888927</v>
       </c>
     </row>
     <row r="4">
@@ -4891,46 +4891,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2073973990880169</v>
+        <v>0.2087853480541573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2040553340092284</v>
+        <v>0.2043597084211564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037871945975867</v>
+        <v>0.2026099162279537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2085509133353855</v>
+        <v>0.2072527512115002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2132055365108452</v>
+        <v>0.2118792032624409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2140549792302165</v>
+        <v>0.2131081356998191</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2152383988566042</v>
+        <v>0.2146525887472119</v>
       </c>
       <c r="I4" t="n">
-        <v>0.217652370859111</v>
+        <v>0.217328662308212</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2225015466002893</v>
+        <v>0.2227696322414442</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2236026392821617</v>
+        <v>0.2243482470758627</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2151428532872647</v>
+        <v>0.2155599983637912</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1913767699329303</v>
+        <v>0.1905032550953641</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1203236176282638</v>
+        <v>0.1204345479418071</v>
       </c>
       <c r="O4" t="n">
-        <v>1.672644198669811e-08</v>
+        <v>1.664858662324042e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4940,46 +4940,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9072346403342485</v>
+        <v>0.8989435154274716</v>
       </c>
       <c r="C5" t="n">
-        <v>1.076976272150646</v>
+        <v>1.053091675929242</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21699980557151</v>
+        <v>1.17885933463329</v>
       </c>
       <c r="E5" t="n">
-        <v>1.359004863811085</v>
+        <v>1.321247513916755</v>
       </c>
       <c r="F5" t="n">
-        <v>1.509386311279241</v>
+        <v>1.474363746307503</v>
       </c>
       <c r="G5" t="n">
-        <v>1.654966114913188</v>
+        <v>1.626284697842723</v>
       </c>
       <c r="H5" t="n">
-        <v>1.803941976422814</v>
+        <v>1.78010431661753</v>
       </c>
       <c r="I5" t="n">
-        <v>1.96555118778685</v>
+        <v>1.944086658134029</v>
       </c>
       <c r="J5" t="n">
-        <v>2.151948348893567</v>
+        <v>2.136178811668223</v>
       </c>
       <c r="K5" t="n">
-        <v>2.34725746492749</v>
+        <v>2.335388144175345</v>
       </c>
       <c r="L5" t="n">
-        <v>2.481855284182088</v>
+        <v>2.462403645728069</v>
       </c>
       <c r="M5" t="n">
-        <v>2.399505483505464</v>
+        <v>2.359741221023257</v>
       </c>
       <c r="N5" t="n">
-        <v>1.600220084597838</v>
+        <v>1.586627659891892</v>
       </c>
       <c r="O5" t="n">
-        <v>2.18133236598421e-07</v>
+        <v>2.155365648097353e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4992,43 +4992,43 @@
         <v>4.422632286096618</v>
       </c>
       <c r="C6" t="n">
-        <v>5.372275910277605</v>
+        <v>5.361092146941755</v>
       </c>
       <c r="D6" t="n">
-        <v>6.11366219120115</v>
+        <v>6.08059645205521</v>
       </c>
       <c r="E6" t="n">
-        <v>6.697960780406468</v>
+        <v>6.642542074926428</v>
       </c>
       <c r="F6" t="n">
-        <v>7.294389086288004</v>
+        <v>7.233312639182227</v>
       </c>
       <c r="G6" t="n">
-        <v>7.975127643282896</v>
+        <v>7.91578651372359</v>
       </c>
       <c r="H6" t="n">
-        <v>8.634515850767805</v>
+        <v>8.583326634562543</v>
       </c>
       <c r="I6" t="n">
-        <v>9.27961551420303</v>
+        <v>9.236911918570625</v>
       </c>
       <c r="J6" t="n">
-        <v>9.914872084923299</v>
+        <v>9.878108282116198</v>
       </c>
       <c r="K6" t="n">
-        <v>10.72625459009998</v>
+        <v>10.69747626768223</v>
       </c>
       <c r="L6" t="n">
-        <v>11.73468067248718</v>
+        <v>11.71249151692117</v>
       </c>
       <c r="M6" t="n">
-        <v>12.70394987751531</v>
+        <v>12.6759336493427</v>
       </c>
       <c r="N6" t="n">
-        <v>13.44272231473812</v>
+        <v>13.38863077203514</v>
       </c>
       <c r="O6" t="n">
-        <v>13.17872944747707</v>
+        <v>13.13644000973786</v>
       </c>
     </row>
     <row r="7">
@@ -5038,46 +5038,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.37437809887495</v>
+        <v>4.305587167899793</v>
       </c>
       <c r="C7" t="n">
-        <v>5.277863856780824</v>
+        <v>5.153127708319924</v>
       </c>
       <c r="D7" t="n">
-        <v>5.971915006606221</v>
+        <v>5.818369389714229</v>
       </c>
       <c r="E7" t="n">
-        <v>6.516417703841809</v>
+        <v>6.375054160648655</v>
       </c>
       <c r="F7" t="n">
-        <v>7.079489285225302</v>
+        <v>6.958510904353858</v>
       </c>
       <c r="G7" t="n">
-        <v>7.731500200858532</v>
+        <v>7.631265190801926</v>
       </c>
       <c r="H7" t="n">
-        <v>8.381134528066406</v>
+        <v>8.29295526789053</v>
       </c>
       <c r="I7" t="n">
-        <v>9.030690453903551</v>
+        <v>8.945376267843388</v>
       </c>
       <c r="J7" t="n">
-        <v>9.671610745067825</v>
+        <v>9.589183185224146</v>
       </c>
       <c r="K7" t="n">
-        <v>10.49744972806654</v>
+        <v>10.40965630271067</v>
       </c>
       <c r="L7" t="n">
-        <v>11.53584814118016</v>
+        <v>11.42328662283796</v>
       </c>
       <c r="M7" t="n">
-        <v>12.53812301433655</v>
+        <v>12.38688136768054</v>
       </c>
       <c r="N7" t="n">
-        <v>13.29930163454418</v>
+        <v>13.17419035490161</v>
       </c>
       <c r="O7" t="n">
-        <v>13.04122160420571</v>
+        <v>12.94623800130032</v>
       </c>
     </row>
     <row r="8">
@@ -5087,46 +5087,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5386976663296725</v>
+        <v>0.7666665846936678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6580683243892953</v>
+        <v>0.9240372197153901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7589876179581827</v>
+        <v>0.9999999745582621</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8432314294441136</v>
+        <v>1.00000000041649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9143274259572378</v>
+        <v>1.000000002798015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9741430041559629</v>
+        <v>1.000000000560318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999967455580409</v>
+        <v>0.9999999945501157</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999977605387342</v>
+        <v>0.9999999829047638</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999945398213278</v>
+        <v>0.9999999598767189</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9664117725523007</v>
+        <v>0.9999999094820675</v>
       </c>
       <c r="L8" t="n">
-        <v>0.861312406220834</v>
+        <v>0.999999752393452</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6952110224232444</v>
+        <v>0.9999944378864495</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4590989784278799</v>
+        <v>0.6786483474257733</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008775770136181624</v>
+        <v>0.008755581559878732</v>
       </c>
     </row>
     <row r="9">
@@ -5136,46 +5136,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04079736889544671</v>
+        <v>0.109588299870604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07065217167186304</v>
+        <v>0.1823863013709402</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09893840589691373</v>
+        <v>0.2129867010039449</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1216159583815697</v>
+        <v>0.1944156767981551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1403883698145759</v>
+        <v>0.1788934973331266</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1564582565537336</v>
+        <v>0.1671134143930842</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1570320273979151</v>
+        <v>0.1561024924050884</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1465938603651399</v>
+        <v>0.1459201623017033</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1370754096690427</v>
+        <v>0.1365692141410324</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1187467576046277</v>
+        <v>0.1303168842418855</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08343644334739407</v>
+        <v>0.1264979616945917</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04420207509988131</v>
+        <v>0.1220535631609361</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0131144741364986</v>
+        <v>0.03901822716486526</v>
       </c>
       <c r="O9" t="n">
-        <v>1.783736454313767e-07</v>
+        <v>1.766663556028921e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5188,43 +5188,43 @@
         <v>0.00168605885451114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004422684579446896</v>
+        <v>0.004771068384915051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007002149834124924</v>
+        <v>0.008097949226739809</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008947069137579125</v>
+        <v>0.01100064352703816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01021489673318812</v>
+        <v>0.01325924127428366</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01093013049691435</v>
+        <v>0.0148321216502024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01115862162612355</v>
+        <v>0.01564298785115095</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01102752584713392</v>
+        <v>0.0157645206221763</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01070976299814283</v>
+        <v>0.01542358905164591</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01026062765006437</v>
+        <v>0.0147233867866103</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009833764648592683</v>
+        <v>0.01389174388331916</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009573777388255208</v>
+        <v>0.01317447086115732</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009693438799563031</v>
+        <v>0.01310232487216467</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0104340608437055</v>
+        <v>0.01447894799734081</v>
       </c>
     </row>
     <row r="11">
@@ -5234,46 +5234,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.467143458540702</v>
+        <v>3.406643652472321</v>
       </c>
       <c r="C11" t="n">
-        <v>4.200887584630179</v>
+        <v>4.100036032390682</v>
       </c>
       <c r="D11" t="n">
-        <v>4.754915201034711</v>
+        <v>4.639510055080938</v>
       </c>
       <c r="E11" t="n">
-        <v>5.157412840030724</v>
+        <v>5.0538066467319</v>
       </c>
       <c r="F11" t="n">
-        <v>5.570102973946061</v>
+        <v>5.484147158046356</v>
       </c>
       <c r="G11" t="n">
-        <v>6.076534085945344</v>
+        <v>6.004980492959203</v>
       </c>
       <c r="H11" t="n">
-        <v>6.577192551643592</v>
+        <v>6.512850951273</v>
       </c>
       <c r="I11" t="n">
-        <v>7.065139266116702</v>
+        <v>7.001289609709358</v>
       </c>
       <c r="J11" t="n">
-        <v>7.519662396174259</v>
+        <v>7.453004373555921</v>
       </c>
       <c r="K11" t="n">
-        <v>8.150192263139052</v>
+        <v>8.074268158535327</v>
       </c>
       <c r="L11" t="n">
-        <v>9.053992856998068</v>
+        <v>8.960882977109891</v>
       </c>
       <c r="M11" t="n">
-        <v>10.13861753083108</v>
+        <v>10.02714014665728</v>
       </c>
       <c r="N11" t="n">
-        <v>11.69908154994635</v>
+        <v>11.58756269500972</v>
       </c>
       <c r="O11" t="n">
-        <v>13.04122138607248</v>
+        <v>12.94623778576375</v>
       </c>
     </row>
     <row r="12">
@@ -5283,46 +5283,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1768103249980011</v>
+        <v>0.08943322845335927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1356599539453725</v>
+        <v>0.03007517377822249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09398762455064641</v>
+        <v>9.867856766208304e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05855770062324776</v>
+        <v>-1.542840037322836e-10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03080453826949422</v>
+        <v>-9.976338827708159e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009073510099107937</v>
+        <v>-1.951588584166553e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>1.113516083088532e-06</v>
+        <v>1.853637876285482e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>7.475493913970739e-07</v>
+        <v>5.680260645053618e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>1.780576070359009e-06</v>
+        <v>1.303577291107085e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01090451112074116</v>
+        <v>2.93080531826196e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04559405011595995</v>
+        <v>8.124762936977279e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1009338915928228</v>
+        <v>1.837886964568826e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1771935945238061</v>
+        <v>0.1048478891775818</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2988631050477263</v>
+        <v>0.2979101459100414</v>
       </c>
     </row>
     <row r="13">
@@ -5332,46 +5332,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1768103249980011</v>
+        <v>5.44070207082433</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1356599539453725</v>
+        <v>3.529901061751783</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09398762455064641</v>
+        <v>2.474444875681963</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05855770062324776</v>
+        <v>2.3358382352108</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03080453826949422</v>
+        <v>2.20117195266872</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009073510099107937</v>
+        <v>2.087585158587121</v>
       </c>
       <c r="H13" t="n">
-        <v>1.113516083088532e-06</v>
+        <v>1.964527198514793</v>
       </c>
       <c r="I13" t="n">
-        <v>7.475493913970739e-07</v>
+        <v>1.837359819160746</v>
       </c>
       <c r="J13" t="n">
-        <v>1.780576070359009e-06</v>
+        <v>1.71006588031212</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01090451112074116</v>
+        <v>1.613959661039116</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04559405011595995</v>
+        <v>1.542154035760785</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1009338915928228</v>
+        <v>1.458564915533467</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1771935945238061</v>
+        <v>3.696602134834951</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2988631050477263</v>
+        <v>8.102790132797804</v>
       </c>
     </row>
     <row r="14">
@@ -5542,46 +5542,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.67298611707714</v>
+        <v>52.24652579208849</v>
       </c>
       <c r="C2" t="n">
-        <v>50.14618658318441</v>
+        <v>49.6507963774017</v>
       </c>
       <c r="D2" t="n">
-        <v>44.92984732853721</v>
+        <v>44.49839636948644</v>
       </c>
       <c r="E2" t="n">
-        <v>39.35668743733645</v>
+        <v>39.07148739386446</v>
       </c>
       <c r="F2" t="n">
-        <v>34.0119202961635</v>
+        <v>33.84505019959118</v>
       </c>
       <c r="G2" t="n">
-        <v>29.13188145701864</v>
+        <v>29.03975429883863</v>
       </c>
       <c r="H2" t="n">
-        <v>24.76788227923796</v>
+        <v>24.7162424257695</v>
       </c>
       <c r="I2" t="n">
-        <v>20.93771475934141</v>
+        <v>20.90430162204104</v>
       </c>
       <c r="J2" t="n">
-        <v>17.61114695644303</v>
+        <v>17.58744888395401</v>
       </c>
       <c r="K2" t="n">
-        <v>15.19456128417988</v>
+        <v>15.17595850475415</v>
       </c>
       <c r="L2" t="n">
-        <v>13.47236066871852</v>
+        <v>13.45525611069295</v>
       </c>
       <c r="M2" t="n">
-        <v>11.94027901703902</v>
+        <v>11.92467570207897</v>
       </c>
       <c r="N2" t="n">
-        <v>10.60906417179608</v>
+        <v>10.597517419777</v>
       </c>
       <c r="O2" t="n">
-        <v>9.368153430770686</v>
+        <v>9.361420548749471</v>
       </c>
     </row>
     <row r="3">
@@ -5594,43 +5594,43 @@
         <v>4.214901559230878</v>
       </c>
       <c r="C3" t="n">
-        <v>6.00095711112685</v>
+        <v>5.964074207481032</v>
       </c>
       <c r="D3" t="n">
-        <v>7.689516695076899</v>
+        <v>7.606494700182791</v>
       </c>
       <c r="E3" t="n">
-        <v>9.337334119486385</v>
+        <v>9.114772316247304</v>
       </c>
       <c r="F3" t="n">
-        <v>10.97207072424279</v>
+        <v>10.67256108596263</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6140963390459</v>
+        <v>12.2878351953486</v>
       </c>
       <c r="H3" t="n">
-        <v>14.26509597571972</v>
+        <v>13.9536828823034</v>
       </c>
       <c r="I3" t="n">
-        <v>15.92218365537889</v>
+        <v>15.6682085724967</v>
       </c>
       <c r="J3" t="n">
-        <v>17.70759075348391</v>
+        <v>17.48739009354323</v>
       </c>
       <c r="K3" t="n">
-        <v>19.80229896021428</v>
+        <v>19.61690505404317</v>
       </c>
       <c r="L3" t="n">
-        <v>22.0848095019023</v>
+        <v>21.96911205467307</v>
       </c>
       <c r="M3" t="n">
-        <v>24.089050973933</v>
+        <v>23.9701770165038</v>
       </c>
       <c r="N3" t="n">
-        <v>24.58800107319987</v>
+        <v>24.34364478260856</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6653622972939</v>
+        <v>19.48932183237335</v>
       </c>
     </row>
     <row r="4">
@@ -5640,46 +5640,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.202979682198318</v>
+        <v>0.2037360147081228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2022187901410832</v>
+        <v>0.2034926051418074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2043037237142071</v>
+        <v>0.2034586027262201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2062189423986246</v>
+        <v>0.2049778957716573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2079702165224762</v>
+        <v>0.2065275270646842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2094060554981191</v>
+        <v>0.2080819342061192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2108049876828973</v>
+        <v>0.2100751422288075</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2140553799676421</v>
+        <v>0.2134974574114448</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2210815303211515</v>
+        <v>0.2209009150328046</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2233723986180088</v>
+        <v>0.2239757015539733</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2151529360642054</v>
+        <v>0.2156373381670112</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1918673995311082</v>
+        <v>0.1912393758115346</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1217127984687684</v>
+        <v>0.1216741212670752</v>
       </c>
       <c r="O4" t="n">
-        <v>1.080507052648204e-08</v>
+        <v>1.07609955738963e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5689,46 +5689,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4531311810279169</v>
+        <v>0.449442890663335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5597112330462186</v>
+        <v>0.552695060887766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6656165433124064</v>
+        <v>0.6462551609558651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7716343628767771</v>
+        <v>0.7494436492866856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8788371834250043</v>
+        <v>0.8566543244023188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9866832540950071</v>
+        <v>0.9669179674183368</v>
       </c>
       <c r="H5" t="n">
-        <v>1.094825224268815</v>
+        <v>1.080286019144508</v>
       </c>
       <c r="I5" t="n">
-        <v>1.215586859354068</v>
+        <v>1.202422356932363</v>
       </c>
       <c r="J5" t="n">
-        <v>1.362804383836033</v>
+        <v>1.351942915480632</v>
       </c>
       <c r="K5" t="n">
-        <v>1.518017479006093</v>
+        <v>1.512912020083949</v>
       </c>
       <c r="L5" t="n">
-        <v>1.638855404690405</v>
+        <v>1.631002129489829</v>
       </c>
       <c r="M5" t="n">
-        <v>1.618866835611952</v>
+        <v>1.598576085157314</v>
       </c>
       <c r="N5" t="n">
-        <v>1.109205643791344</v>
+        <v>1.10012177432249</v>
       </c>
       <c r="O5" t="n">
-        <v>9.825161445504053e-08</v>
+        <v>9.730439047545873e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5741,43 +5741,43 @@
         <v>2.24719363913384</v>
       </c>
       <c r="C6" t="n">
-        <v>2.799570430811399</v>
+        <v>2.794397296820573</v>
       </c>
       <c r="D6" t="n">
-        <v>3.310306142357589</v>
+        <v>3.299543183961223</v>
       </c>
       <c r="E6" t="n">
-        <v>3.816247198357794</v>
+        <v>3.788727550154521</v>
       </c>
       <c r="F6" t="n">
-        <v>4.322202892117952</v>
+        <v>4.286463844352044</v>
       </c>
       <c r="G6" t="n">
-        <v>4.828460979193664</v>
+        <v>4.790650589677517</v>
       </c>
       <c r="H6" t="n">
-        <v>5.324676769264615</v>
+        <v>5.289534993799224</v>
       </c>
       <c r="I6" t="n">
-        <v>5.808052379110282</v>
+        <v>5.78010248590151</v>
       </c>
       <c r="J6" t="n">
-        <v>6.290580252570419</v>
+        <v>6.267009655119693</v>
       </c>
       <c r="K6" t="n">
-        <v>6.921238359847836</v>
+        <v>6.901734829119795</v>
       </c>
       <c r="L6" t="n">
-        <v>7.724455239478677</v>
+        <v>7.712292898239279</v>
       </c>
       <c r="M6" t="n">
-        <v>8.520887666172259</v>
+        <v>8.508251227926639</v>
       </c>
       <c r="N6" t="n">
-        <v>9.177362593246924</v>
+        <v>9.149905410728902</v>
       </c>
       <c r="O6" t="n">
-        <v>9.150320848544778</v>
+        <v>9.125669900331193</v>
       </c>
     </row>
     <row r="7">
@@ -5787,46 +5787,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.232396740995942</v>
+        <v>2.20600609719012</v>
       </c>
       <c r="C7" t="n">
-        <v>2.767849776253342</v>
+        <v>2.716044941793391</v>
       </c>
       <c r="D7" t="n">
-        <v>3.257975582684497</v>
+        <v>3.176347189533613</v>
       </c>
       <c r="E7" t="n">
-        <v>3.741820969022307</v>
+        <v>3.656216912879015</v>
       </c>
       <c r="F7" t="n">
-        <v>4.225783855593691</v>
+        <v>4.147894164897523</v>
       </c>
       <c r="G7" t="n">
-        <v>4.711818155152966</v>
+        <v>4.646813627080856</v>
       </c>
       <c r="H7" t="n">
-        <v>5.193545163721185</v>
+        <v>5.142379091991248</v>
       </c>
       <c r="I7" t="n">
-        <v>5.678842828140191</v>
+        <v>5.632021905605636</v>
       </c>
       <c r="J7" t="n">
-        <v>6.164261581943869</v>
+        <v>6.1201327087299</v>
       </c>
       <c r="K7" t="n">
-        <v>6.795904455510054</v>
+        <v>6.754804247010561</v>
       </c>
       <c r="L7" t="n">
-        <v>7.617164955635752</v>
+        <v>7.563635052045656</v>
       </c>
       <c r="M7" t="n">
-        <v>8.437425219543245</v>
+        <v>8.359032120731783</v>
       </c>
       <c r="N7" t="n">
-        <v>9.113303265933594</v>
+        <v>9.041542793703169</v>
       </c>
       <c r="O7" t="n">
-        <v>9.093102559047308</v>
+        <v>9.042322321133257</v>
       </c>
     </row>
     <row r="8">
@@ -5836,46 +5836,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4590123335591698</v>
+        <v>0.6910184510705932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5726081884275565</v>
+        <v>0.846108613282601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6773238791333509</v>
+        <v>0.989516727380417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7737360755044737</v>
+        <v>0.9999999948863086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8623684351811109</v>
+        <v>1.000000001811854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9411296254620627</v>
+        <v>1.000000001468995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.99998990462225</v>
+        <v>0.9999999979893714</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999985644741527</v>
+        <v>0.9999999908506594</v>
       </c>
       <c r="J8" t="n">
-        <v>0.999997967152726</v>
+        <v>0.9999999769875227</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9998981222279986</v>
+        <v>0.9999999484016439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9041678375754881</v>
+        <v>0.9999998712649711</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7388306252199961</v>
+        <v>0.9999992611186048</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4934387370867534</v>
+        <v>0.744704592816765</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007855831753488706</v>
+        <v>0.007842990162975768</v>
       </c>
     </row>
     <row r="9">
@@ -5885,46 +5885,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0123098889618828</v>
+        <v>0.03870053276770408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02322753416172145</v>
+        <v>0.0691817964967317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03633373555933792</v>
+        <v>0.1046768431829389</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05087826679704972</v>
+        <v>0.1035927136914482</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06605583756547199</v>
+        <v>0.09916655717755654</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08055009508370733</v>
+        <v>0.0947181887316856</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09078590525653071</v>
+        <v>0.09018928574188322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0861025464635293</v>
+        <v>0.08568854033053144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08168454712132882</v>
+        <v>0.08137893577022143</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07922978601557719</v>
+        <v>0.07902905258858663</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05918500847242497</v>
+        <v>0.07834835072622241</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03308813824607954</v>
+        <v>0.07710831430644323</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01031874196396208</v>
+        <v>0.03257074429524807</v>
       </c>
       <c r="O9" t="n">
-        <v>8.558329957870554e-08</v>
+        <v>8.496577553977614e-08</v>
       </c>
     </row>
     <row r="10">
@@ -5937,43 +5937,43 @@
         <v>0.001106717789115114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00303372271076421</v>
+        <v>0.003281766175799238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00483243042359872</v>
+        <v>0.005612640966389501</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006170450003493018</v>
+        <v>0.007632621559942498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007024936060766557</v>
+        <v>0.009192454131832364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007474996507690129</v>
+        <v>0.01025304871342795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007577117266494803</v>
+        <v>0.01076968318252437</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007421937973838553</v>
+        <v>0.01079427918752757</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007095390522517184</v>
+        <v>0.01045123818599265</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006661252788181493</v>
+        <v>0.009838327783060855</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006227659281995803</v>
+        <v>0.009116548916788718</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005911861575516396</v>
+        <v>0.008475395349366529</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005855776624638587</v>
+        <v>0.00828335040946032</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00625313635021546</v>
+        <v>0.009133301460875393</v>
       </c>
     </row>
     <row r="11">
@@ -5983,46 +5983,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.779265559968025</v>
+        <v>1.756563206526785</v>
       </c>
       <c r="C11" t="n">
-        <v>2.208138543207123</v>
+        <v>2.163349880905625</v>
       </c>
       <c r="D11" t="n">
-        <v>2.592359039372091</v>
+        <v>2.530092028577748</v>
       </c>
       <c r="E11" t="n">
-        <v>2.97018660614553</v>
+        <v>2.90677326359233</v>
       </c>
       <c r="F11" t="n">
-        <v>3.346946672168686</v>
+        <v>3.291239840495204</v>
       </c>
       <c r="G11" t="n">
-        <v>3.725134901057959</v>
+        <v>3.679895659662519</v>
       </c>
       <c r="H11" t="n">
-        <v>4.09871993945237</v>
+        <v>4.06209307284674</v>
       </c>
       <c r="I11" t="n">
-        <v>4.463255968786123</v>
+        <v>4.429599548673272</v>
       </c>
       <c r="J11" t="n">
-        <v>4.801457198107836</v>
+        <v>4.768189793249269</v>
       </c>
       <c r="K11" t="n">
-        <v>5.27788697650396</v>
+        <v>5.241892226926613</v>
       </c>
       <c r="L11" t="n">
-        <v>5.978309550945347</v>
+        <v>5.932632922555828</v>
       </c>
       <c r="M11" t="n">
-        <v>6.818558383931292</v>
+        <v>6.760456035574469</v>
       </c>
       <c r="N11" t="n">
-        <v>8.00409762214225</v>
+        <v>7.941421019380678</v>
       </c>
       <c r="O11" t="n">
-        <v>9.093102460795695</v>
+        <v>9.042322223828867</v>
       </c>
     </row>
     <row r="12">
@@ -6032,46 +6032,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2285420768113532</v>
+        <v>0.1305303046061935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1920217912562815</v>
+        <v>0.06901371200406095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1483021080043692</v>
+        <v>0.004802452008858956</v>
       </c>
       <c r="E12" t="n">
-        <v>0.104966299995361</v>
+        <v>2.355190092015642e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06400187536844237</v>
+        <v>-8.35587269275602e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02733150685665217</v>
+        <v>-6.766637068725686e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>4.659698663636713e-06</v>
+        <v>9.219159854077479e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>6.567247374035973e-07</v>
+        <v>4.165500275921548e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>9.21746294825767e-07</v>
+        <v>1.03953634559268e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>4.680800660478945e-05</v>
+        <v>2.364019402235788e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04551632380363476</v>
+        <v>6.104755557513642e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>0.127399404364457</v>
+        <v>3.598946117949449e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2489427539976733</v>
+        <v>0.1250861510455846</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4566309840143368</v>
+        <v>0.4554067153255496</v>
       </c>
     </row>
     <row r="13">
@@ -6081,46 +6081,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2285420768113532</v>
+        <v>8.731109370499464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1920217912562815</v>
+        <v>6.345399297551229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1483021080043692</v>
+        <v>3.76006440682723</v>
       </c>
       <c r="E13" t="n">
-        <v>0.104966299995361</v>
+        <v>3.539389853462601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06400187536844237</v>
+        <v>3.465312976584806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02733150685665217</v>
+        <v>3.356380475677215</v>
       </c>
       <c r="H13" t="n">
-        <v>4.659698663636713e-06</v>
+        <v>3.21622524993952</v>
       </c>
       <c r="I13" t="n">
-        <v>6.567247374035973e-07</v>
+        <v>3.054425223670304</v>
       </c>
       <c r="J13" t="n">
-        <v>9.21746294825767e-07</v>
+        <v>2.882212178706894</v>
       </c>
       <c r="K13" t="n">
-        <v>4.680800660478945e-05</v>
+        <v>2.766279704395457</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04551632380363476</v>
+        <v>2.697666621042565</v>
       </c>
       <c r="M13" t="n">
-        <v>0.127399404364457</v>
+        <v>2.600769610801184</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2489427539976733</v>
+        <v>5.799399026856266</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4566309840143368</v>
+        <v>14.96741597159544</v>
       </c>
     </row>
     <row r="14">
@@ -6291,46 +6291,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.86236843611222</v>
+        <v>19.82845662348033</v>
       </c>
       <c r="C2" t="n">
-        <v>31.74422966274495</v>
+        <v>31.52844931199377</v>
       </c>
       <c r="D2" t="n">
-        <v>36.79641980958591</v>
+        <v>36.50971124795176</v>
       </c>
       <c r="E2" t="n">
-        <v>37.67517122066369</v>
+        <v>37.37227306508991</v>
       </c>
       <c r="F2" t="n">
-        <v>35.93160602871243</v>
+        <v>35.64738057929407</v>
       </c>
       <c r="G2" t="n">
-        <v>32.9647977240743</v>
+        <v>32.72195093773863</v>
       </c>
       <c r="H2" t="n">
-        <v>29.56335254933404</v>
+        <v>29.37954117468419</v>
       </c>
       <c r="I2" t="n">
-        <v>26.09549337181153</v>
+        <v>25.96719016146201</v>
       </c>
       <c r="J2" t="n">
-        <v>22.76998036599233</v>
+        <v>22.68186721313874</v>
       </c>
       <c r="K2" t="n">
-        <v>20.03837199684183</v>
+        <v>19.97633409183638</v>
       </c>
       <c r="L2" t="n">
-        <v>17.83910956658117</v>
+        <v>17.79443064530631</v>
       </c>
       <c r="M2" t="n">
-        <v>15.83631710971692</v>
+        <v>15.80521754199904</v>
       </c>
       <c r="N2" t="n">
-        <v>14.07361180980746</v>
+        <v>14.05405963937731</v>
       </c>
       <c r="O2" t="n">
-        <v>12.40680753115983</v>
+        <v>12.39533865101882</v>
       </c>
     </row>
     <row r="3">
@@ -6343,43 +6343,43 @@
         <v>2.049368038767686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.973116491250168</v>
+        <v>2.952758601810896</v>
       </c>
       <c r="D3" t="n">
-        <v>4.108862590069534</v>
+        <v>4.069824024026977</v>
       </c>
       <c r="E3" t="n">
-        <v>5.460654099084501</v>
+        <v>5.404504741723503</v>
       </c>
       <c r="F3" t="n">
-        <v>7.009382689945521</v>
+        <v>6.935963150880204</v>
       </c>
       <c r="G3" t="n">
-        <v>8.761043412250975</v>
+        <v>8.661986103975812</v>
       </c>
       <c r="H3" t="n">
-        <v>10.7131431494341</v>
+        <v>10.5545803997956</v>
       </c>
       <c r="I3" t="n">
-        <v>12.87247365608064</v>
+        <v>12.65169465804258</v>
       </c>
       <c r="J3" t="n">
-        <v>15.24174021289004</v>
+        <v>14.99245082746281</v>
       </c>
       <c r="K3" t="n">
-        <v>17.92196081276051</v>
+        <v>17.66146535498124</v>
       </c>
       <c r="L3" t="n">
-        <v>20.82225123418473</v>
+        <v>20.55058619746282</v>
       </c>
       <c r="M3" t="n">
-        <v>23.48992640183751</v>
+        <v>23.17933773096676</v>
       </c>
       <c r="N3" t="n">
-        <v>24.68029914477316</v>
+        <v>24.34793218872822</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2489502118522</v>
+        <v>20.05698607512736</v>
       </c>
     </row>
     <row r="4">
@@ -6389,46 +6389,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2069725537061461</v>
+        <v>0.205585743847537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2051486575345794</v>
+        <v>0.204258672742646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2049174733425079</v>
+        <v>0.204640987264237</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2046571415672149</v>
+        <v>0.2049907843070081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.205997763084304</v>
+        <v>0.2066929133477791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2078501582698003</v>
+        <v>0.2081544192680831</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2099279822359638</v>
+        <v>0.209916121309506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2124477259058096</v>
+        <v>0.2125377030161618</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2169250021068525</v>
+        <v>0.2171082241456717</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2181447106614437</v>
+        <v>0.2183025785264928</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2110699195284749</v>
+        <v>0.2108526212899807</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1892945263743677</v>
+        <v>0.1888124246715756</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1214387968675818</v>
+        <v>0.1216358658477544</v>
       </c>
       <c r="O4" t="n">
-        <v>6.003309613537466e-09</v>
+        <v>5.971950001959712e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6438,46 +6438,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2258546040301854</v>
+        <v>0.2238188150862582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3072200969664839</v>
+        <v>0.3040260760755697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.402798230059381</v>
+        <v>0.3985444849544272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5105370336751066</v>
+        <v>0.5051528868023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6317022789856829</v>
+        <v>0.6243565291935822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7658356198802048</v>
+        <v>0.7534332596893436</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9137031614167955</v>
+        <v>0.897154002833181</v>
       </c>
       <c r="I5" t="n">
-        <v>1.07533861782595</v>
+        <v>1.058107766947502</v>
       </c>
       <c r="J5" t="n">
-        <v>1.260749461092057</v>
+        <v>1.243392098718555</v>
       </c>
       <c r="K5" t="n">
-        <v>1.457324989445806</v>
+        <v>1.439241400760777</v>
       </c>
       <c r="L5" t="n">
-        <v>1.622965632213168</v>
+        <v>1.601379139249483</v>
       </c>
       <c r="M5" t="n">
-        <v>1.648986824891664</v>
+        <v>1.626579686614365</v>
       </c>
       <c r="N5" t="n">
-        <v>1.164346200485133</v>
+        <v>1.156738705990102</v>
       </c>
       <c r="O5" t="n">
-        <v>5.846427297052639e-08</v>
+        <v>5.780214074091754e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6490,43 +6490,43 @@
         <v>1.09355370754314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.504817233862465</v>
+        <v>1.501718605775759</v>
       </c>
       <c r="D6" t="n">
-        <v>1.980539154869194</v>
+        <v>1.97487511213689</v>
       </c>
       <c r="E6" t="n">
-        <v>2.519183416459731</v>
+        <v>2.511384208963646</v>
       </c>
       <c r="F6" t="n">
-        <v>3.102201821538523</v>
+        <v>3.092417698454706</v>
       </c>
       <c r="G6" t="n">
-        <v>3.732031547872729</v>
+        <v>3.719322191883972</v>
       </c>
       <c r="H6" t="n">
-        <v>4.411525859323451</v>
+        <v>4.391835335927036</v>
       </c>
       <c r="I6" t="n">
-        <v>5.130625571761875</v>
+        <v>5.104066551363663</v>
       </c>
       <c r="J6" t="n">
-        <v>5.887506438439686</v>
+        <v>5.858451224595862</v>
       </c>
       <c r="K6" t="n">
-        <v>6.759076580547077</v>
+        <v>6.729452471371883</v>
       </c>
       <c r="L6" t="n">
-        <v>7.767006989809783</v>
+        <v>7.736466613042931</v>
       </c>
       <c r="M6" t="n">
-        <v>8.78503524240174</v>
+        <v>8.750025491477679</v>
       </c>
       <c r="N6" t="n">
-        <v>9.658900574748158</v>
+        <v>9.619692613430184</v>
       </c>
       <c r="O6" t="n">
-        <v>9.811048208458795</v>
+        <v>9.783051907610425</v>
       </c>
     </row>
     <row r="7">
@@ -6536,46 +6536,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.091229730637848</v>
+        <v>1.088688402695096</v>
       </c>
       <c r="C7" t="n">
-        <v>1.497548658902141</v>
+        <v>1.488436559355425</v>
       </c>
       <c r="D7" t="n">
-        <v>1.965660729117652</v>
+        <v>1.947530112527349</v>
       </c>
       <c r="E7" t="n">
-        <v>2.494596718030641</v>
+        <v>2.464271203752012</v>
       </c>
       <c r="F7" t="n">
-        <v>3.06654921649397</v>
+        <v>3.020696351321185</v>
       </c>
       <c r="G7" t="n">
-        <v>3.684556347010861</v>
+        <v>3.61958810357513</v>
       </c>
       <c r="H7" t="n">
-        <v>4.352460075521388</v>
+        <v>4.273868996990435</v>
       </c>
       <c r="I7" t="n">
-        <v>5.061662172381689</v>
+        <v>4.978447362193621</v>
       </c>
       <c r="J7" t="n">
-        <v>5.811914020270651</v>
+        <v>5.727061255331738</v>
       </c>
       <c r="K7" t="n">
-        <v>6.680542402458459</v>
+        <v>6.592874030510427</v>
       </c>
       <c r="L7" t="n">
-        <v>7.689232249857459</v>
+        <v>7.594779374580995</v>
       </c>
       <c r="M7" t="n">
-        <v>8.711222962836569</v>
+        <v>8.614791581876419</v>
       </c>
       <c r="N7" t="n">
-        <v>9.587926021325368</v>
+        <v>9.509848907870108</v>
       </c>
       <c r="O7" t="n">
-        <v>9.738673620745702</v>
+        <v>9.678939160902152</v>
       </c>
     </row>
     <row r="8">
@@ -6585,46 +6585,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2251660216897172</v>
+        <v>0.3612255779357966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2932565753638528</v>
+        <v>0.4702767343882568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3667896489789619</v>
+        <v>0.5876584212642099</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4439237172905397</v>
+        <v>0.709512100781577</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5223435389255189</v>
+        <v>0.8317529185022909</v>
       </c>
       <c r="G8" t="n">
-        <v>0.598526948191951</v>
+        <v>0.9492307461117163</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6672937622853498</v>
+        <v>0.9999998757057965</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7207170131851965</v>
+        <v>0.9999999370358464</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7487166264549806</v>
+        <v>0.9999999244787835</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7415674781216149</v>
+        <v>0.9999998661211766</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6887656760704373</v>
+        <v>0.9999996018227861</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5766694317581282</v>
+        <v>0.9340745607450066</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3931266154641713</v>
+        <v>0.6461692920810352</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007448953823575533</v>
+        <v>0.007434218195350692</v>
       </c>
     </row>
     <row r="9">
@@ -6634,46 +6634,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009219736836598835</v>
+        <v>0.003463301626412348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00204110361176659</v>
+        <v>0.007643036172279681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003935238794963835</v>
+        <v>0.01468619854623326</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006806982133541825</v>
+        <v>0.0252250516643439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01070331084792356</v>
+        <v>0.03925119991936365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01548607093617835</v>
+        <v>0.05613922144599536</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0206572738441189</v>
+        <v>0.06383256446290993</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02509807954730731</v>
+        <v>0.06246619526823319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02727017775862392</v>
+        <v>0.06101693151863753</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02618669782106532</v>
+        <v>0.06022142753770794</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02120789403680731</v>
+        <v>0.06000477760665072</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0127428537651757</v>
+        <v>0.04897849400938178</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004216210258462315</v>
+        <v>0.01688241569070649</v>
       </c>
       <c r="O9" t="n">
-        <v>5.702359304076706e-08</v>
+        <v>5.654793753010163e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6686,43 +6686,43 @@
         <v>0.001282061605169162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003473824748232184</v>
+        <v>0.003755037878845519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00552535754199754</v>
+        <v>0.006409924853228118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007057729968917452</v>
+        <v>0.008715493817779063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008042447149442709</v>
+        <v>0.01049992283719731</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008571505764446895</v>
+        <v>0.01172118590800674</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008706400275716441</v>
+        <v>0.01232600276036178</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00854970202353217</v>
+        <v>0.0123730741490695</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008207590244812889</v>
+        <v>0.01201222559471613</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007744768038020302</v>
+        <v>0.01134669033603883</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007282965753697821</v>
+        <v>0.01055810939810394</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006951528834538965</v>
+        <v>0.00985773306327958</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006911588192434485</v>
+        <v>0.009663644526394208</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007376839778149314</v>
+        <v>0.01064214839536362</v>
       </c>
     </row>
     <row r="11">
@@ -6732,46 +6732,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.865375126607663</v>
+        <v>0.8648695876088378</v>
       </c>
       <c r="C11" t="n">
-        <v>1.190328561935657</v>
+        <v>1.184410483279855</v>
       </c>
       <c r="D11" t="n">
-        <v>1.562862499058271</v>
+        <v>1.548985627572921</v>
       </c>
       <c r="E11" t="n">
-        <v>1.984059684355534</v>
+        <v>1.959118316949712</v>
       </c>
       <c r="F11" t="n">
-        <v>2.434846937508288</v>
+        <v>2.396339822127603</v>
       </c>
       <c r="G11" t="n">
-        <v>2.918720727130657</v>
+        <v>2.866154843885786</v>
       </c>
       <c r="H11" t="n">
-        <v>3.438756914104592</v>
+        <v>3.376714994157255</v>
       </c>
       <c r="I11" t="n">
-        <v>3.986323554555739</v>
+        <v>3.920339595246119</v>
       </c>
       <c r="J11" t="n">
-        <v>4.551164559178594</v>
+        <v>4.483669156613183</v>
       </c>
       <c r="K11" t="n">
-        <v>5.223217413012653</v>
+        <v>5.15363262974965</v>
       </c>
       <c r="L11" t="n">
-        <v>6.066266617644291</v>
+        <v>5.993400235331512</v>
       </c>
       <c r="M11" t="n">
-        <v>7.062236137944904</v>
+        <v>6.988211895262054</v>
       </c>
       <c r="N11" t="n">
-        <v>8.423579820840235</v>
+        <v>8.353110201880007</v>
       </c>
       <c r="O11" t="n">
-        <v>9.738673562281429</v>
+        <v>9.678939103100012</v>
       </c>
     </row>
     <row r="12">
@@ -6781,46 +6781,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1801159004412922</v>
+        <v>0.1484878482741071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1817002260268482</v>
+        <v>0.135908789353741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1755705327306147</v>
+        <v>0.1140031771119079</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1635263871870077</v>
+        <v>0.08515984962063122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1465074781817824</v>
+        <v>0.05144222888361153</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1272572175916128</v>
+        <v>0.01603781871882219</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1084552853052045</v>
+        <v>4.033646852093822e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09317474694540802</v>
+        <v>2.089744147923379e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08553169079230843</v>
+        <v>2.557900835181726e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09062214634186171</v>
+        <v>4.67402927775252e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1134818403893315</v>
+        <v>1.446119715431573e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1591656797532697</v>
+        <v>0.02468815532789193</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2302625626965185</v>
+        <v>0.1337070365181868</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3532435190571638</v>
+        <v>0.352240750946032</v>
       </c>
     </row>
     <row r="13">
@@ -6830,46 +6830,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1801159004412922</v>
+        <v>9.244672151753537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1817002260268482</v>
+        <v>9.348169947272972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1755705327306147</v>
+        <v>8.733655694950295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1635263871870077</v>
+        <v>7.538350885958525</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1465074781817824</v>
+        <v>5.914677311783378</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1272572175916128</v>
+        <v>4.121559974106091</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1084552853052045</v>
+        <v>3.342398164495378</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09317474694540802</v>
+        <v>3.375929019635484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08553169079230843</v>
+        <v>3.372340517490297</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09062214634186171</v>
+        <v>3.375985982514468</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1134818403893315</v>
+        <v>3.387122636903912</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1591656797532697</v>
+        <v>4.496752440734706</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2302625626965185</v>
+        <v>9.430794215840965</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3532435190571638</v>
+        <v>20.09175132991391</v>
       </c>
     </row>
     <row r="14">
@@ -7040,46 +7040,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.3308247110433</v>
+        <v>271.8550875001106</v>
       </c>
       <c r="C2" t="n">
-        <v>358.5941058548578</v>
+        <v>356.2341185486803</v>
       </c>
       <c r="D2" t="n">
-        <v>387.6148975841559</v>
+        <v>384.5336247807744</v>
       </c>
       <c r="E2" t="n">
-        <v>380.5956466844774</v>
+        <v>377.4027829683212</v>
       </c>
       <c r="F2" t="n">
-        <v>351.973824089102</v>
+        <v>349.0302213004647</v>
       </c>
       <c r="G2" t="n">
-        <v>317.0977972470611</v>
+        <v>314.5847814779058</v>
       </c>
       <c r="H2" t="n">
-        <v>280.7624823702107</v>
+        <v>278.8013081827679</v>
       </c>
       <c r="I2" t="n">
-        <v>245.568135832578</v>
+        <v>244.1719061479584</v>
       </c>
       <c r="J2" t="n">
-        <v>212.7187087219797</v>
+        <v>211.7425234789081</v>
       </c>
       <c r="K2" t="n">
-        <v>186.2760138260049</v>
+        <v>185.578602697566</v>
       </c>
       <c r="L2" t="n">
-        <v>165.319506382235</v>
+        <v>164.8153407930502</v>
       </c>
       <c r="M2" t="n">
-        <v>146.4323995250098</v>
+        <v>146.0981180789369</v>
       </c>
       <c r="N2" t="n">
-        <v>129.9413068512734</v>
+        <v>129.733852098792</v>
       </c>
       <c r="O2" t="n">
-        <v>114.3801379428578</v>
+        <v>114.2569719583285</v>
       </c>
     </row>
     <row r="3">
@@ -7092,43 +7092,43 @@
         <v>22.26872927438124</v>
       </c>
       <c r="C3" t="n">
-        <v>33.34245613862517</v>
+        <v>33.05759148982686</v>
       </c>
       <c r="D3" t="n">
-        <v>46.24202950275355</v>
+        <v>45.69355495393587</v>
       </c>
       <c r="E3" t="n">
-        <v>60.62752008924056</v>
+        <v>59.84753346735245</v>
       </c>
       <c r="F3" t="n">
-        <v>76.23730920345535</v>
+        <v>75.24147911305036</v>
       </c>
       <c r="G3" t="n">
-        <v>93.29021889800228</v>
+        <v>92.02006650923913</v>
       </c>
       <c r="H3" t="n">
-        <v>111.7980408005161</v>
+        <v>110.0027373746372</v>
       </c>
       <c r="I3" t="n">
-        <v>131.6383865530652</v>
+        <v>129.0635745072035</v>
       </c>
       <c r="J3" t="n">
-        <v>153.1489259762201</v>
+        <v>150.2455303441861</v>
       </c>
       <c r="K3" t="n">
-        <v>176.8271268271344</v>
+        <v>173.7722077649175</v>
       </c>
       <c r="L3" t="n">
-        <v>201.7845825805646</v>
+        <v>198.4828485352236</v>
       </c>
       <c r="M3" t="n">
-        <v>223.2709579597115</v>
+        <v>219.2215982728724</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9940853974386</v>
+        <v>226.2829395059786</v>
       </c>
       <c r="O3" t="n">
-        <v>184.6061063125855</v>
+        <v>182.604438703074</v>
       </c>
     </row>
     <row r="4">
@@ -7138,46 +7138,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2155630655718426</v>
+        <v>0.2138484114910969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2097697014542311</v>
+        <v>0.2087008974243388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2065590709996611</v>
+        <v>0.2062334121895464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2050495838645448</v>
+        <v>0.2054311441311815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2066381325856693</v>
+        <v>0.2074931599538015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2083702286459262</v>
+        <v>0.2090957766041856</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2101638344169209</v>
+        <v>0.2103055080610583</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2127997319903894</v>
+        <v>0.2130724780651038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2171906997981519</v>
+        <v>0.2175038323212024</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2182874895089681</v>
+        <v>0.2183942667347497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2106266638589019</v>
+        <v>0.2099328322803236</v>
       </c>
       <c r="M4" t="n">
-        <v>0.188215175540473</v>
+        <v>0.1877673389105255</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1194023673155941</v>
+        <v>0.1196943747269605</v>
       </c>
       <c r="O4" t="n">
-        <v>4.3087542757582e-10</v>
+        <v>4.280687094633818e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7187,46 +7187,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.557783035222472</v>
+        <v>2.529296570342641</v>
       </c>
       <c r="C5" t="n">
-        <v>3.461623390723505</v>
+        <v>3.41670855198</v>
       </c>
       <c r="D5" t="n">
-        <v>4.450392137516227</v>
+        <v>4.391517600339045</v>
       </c>
       <c r="E5" t="n">
-        <v>5.509780007160754</v>
+        <v>5.437393449982136</v>
       </c>
       <c r="F5" t="n">
-        <v>6.670791284752009</v>
+        <v>6.5784984941284</v>
       </c>
       <c r="G5" t="n">
-        <v>7.926975279857309</v>
+        <v>7.791732412629746</v>
       </c>
       <c r="H5" t="n">
-        <v>9.265682008050508</v>
+        <v>9.070799163268505</v>
       </c>
       <c r="I5" t="n">
-        <v>10.72494586956165</v>
+        <v>10.52438445112843</v>
       </c>
       <c r="J5" t="n">
-        <v>12.34273982147556</v>
+        <v>12.13848306125095</v>
       </c>
       <c r="K5" t="n">
-        <v>14.01287758311145</v>
+        <v>13.7892226199019</v>
       </c>
       <c r="L5" t="n">
-        <v>15.29130244692906</v>
+        <v>15.00149082590061</v>
       </c>
       <c r="M5" t="n">
-        <v>15.21443160564137</v>
+        <v>14.98450945839645</v>
       </c>
       <c r="N5" t="n">
-        <v>10.44121273839804</v>
+        <v>10.37044563348867</v>
       </c>
       <c r="O5" t="n">
-        <v>3.759996297832542e-08</v>
+        <v>3.709407133016851e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7239,43 +7239,43 @@
         <v>11.9469150777149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.68735972058326</v>
+        <v>16.64446015719587</v>
       </c>
       <c r="D6" t="n">
-        <v>21.89356593790486</v>
+        <v>21.81533677454648</v>
       </c>
       <c r="E6" t="n">
-        <v>27.43475778320466</v>
+        <v>27.32839119836027</v>
       </c>
       <c r="F6" t="n">
-        <v>33.09950594522721</v>
+        <v>32.96920241345007</v>
       </c>
       <c r="G6" t="n">
-        <v>39.16575025416274</v>
+        <v>39.00500873190962</v>
       </c>
       <c r="H6" t="n">
-        <v>45.55048528674192</v>
+        <v>45.3297995020912</v>
       </c>
       <c r="I6" t="n">
-        <v>52.22470542374459</v>
+        <v>51.91613349761224</v>
       </c>
       <c r="J6" t="n">
-        <v>59.12691958078103</v>
+        <v>58.78838574857932</v>
       </c>
       <c r="K6" t="n">
-        <v>67.07026745961959</v>
+        <v>66.72052681204055</v>
       </c>
       <c r="L6" t="n">
-        <v>76.2087494521334</v>
+        <v>75.83249342647514</v>
       </c>
       <c r="M6" t="n">
-        <v>85.2816146929153</v>
+        <v>84.8146249027632</v>
       </c>
       <c r="N6" t="n">
-        <v>92.85007954813776</v>
+        <v>92.39805373443329</v>
       </c>
       <c r="O6" t="n">
-        <v>93.33212674628027</v>
+        <v>93.0273698687584</v>
       </c>
     </row>
     <row r="7">
@@ -7285,46 +7285,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.86559037113905</v>
+        <v>11.82752096546643</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5020180070132</v>
+        <v>16.37131700987857</v>
       </c>
       <c r="D7" t="n">
-        <v>21.54537254635275</v>
+        <v>21.29391912646463</v>
       </c>
       <c r="E7" t="n">
-        <v>26.87047641511187</v>
+        <v>26.46820409328976</v>
       </c>
       <c r="F7" t="n">
-        <v>32.28247952727889</v>
+        <v>31.70465231525273</v>
       </c>
       <c r="G7" t="n">
-        <v>38.04274406843046</v>
+        <v>37.26393970825795</v>
       </c>
       <c r="H7" t="n">
-        <v>44.08789948925913</v>
+        <v>43.13153396170189</v>
       </c>
       <c r="I7" t="n">
-        <v>50.39924519287467</v>
+        <v>49.39344840168764</v>
       </c>
       <c r="J7" t="n">
-        <v>56.82904393671734</v>
+        <v>55.80813419105758</v>
       </c>
       <c r="K7" t="n">
-        <v>64.19459775103483</v>
+        <v>63.1391236870223</v>
       </c>
       <c r="L7" t="n">
-        <v>72.59908202872479</v>
+        <v>71.45852634365023</v>
       </c>
       <c r="M7" t="n">
-        <v>80.83530757789363</v>
+        <v>79.80359920601977</v>
       </c>
       <c r="N7" t="n">
-        <v>87.44560910422084</v>
+        <v>86.64104438613005</v>
       </c>
       <c r="O7" t="n">
-        <v>87.26411526846483</v>
+        <v>86.65447978355832</v>
       </c>
     </row>
     <row r="8">
@@ -7334,46 +7334,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.244352896566985</v>
+        <v>0.3740776019903601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3150020016927115</v>
+        <v>0.483270362950513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3884563267200542</v>
+        <v>0.5971892060797209</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4628045152613446</v>
+        <v>0.7121036038991323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.535575580460095</v>
+        <v>0.8239077512430703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6040580198427064</v>
+        <v>0.9287169597287651</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6631696536842431</v>
+        <v>0.9999999639564904</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7061688107923716</v>
+        <v>0.9999999895947075</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7228283441988156</v>
+        <v>0.9999999880778127</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7053082781699849</v>
+        <v>0.9999999765162976</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6450910360325749</v>
+        <v>0.9999997396795572</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5319858330145166</v>
+        <v>0.8473804244873813</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3572900804308024</v>
+        <v>0.5770009024866648</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003034571798483646</v>
+        <v>0.003026557193945163</v>
       </c>
     </row>
     <row r="9">
@@ -7383,46 +7383,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01658861355804614</v>
+        <v>0.05465801923066479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03593102561404921</v>
+        <v>0.1187973838363891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0658939664757793</v>
+        <v>0.2189003065896139</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1067450009905192</v>
+        <v>0.3553596805842909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156036992987085</v>
+        <v>0.5191303287852883</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2113087476807891</v>
+        <v>0.7017535632038091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2643567669262023</v>
+        <v>0.8308682664925798</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3029920401912556</v>
+        <v>0.7978360538231977</v>
       </c>
       <c r="J9" t="n">
-        <v>0.310421190338452</v>
+        <v>0.7658771974458738</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2814805265865585</v>
+        <v>0.7442461685551371</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2152336360539983</v>
+        <v>0.7308386504953914</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1222924482774821</v>
+        <v>0.4478312326591259</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03832984045077792</v>
+        <v>0.1459664509365488</v>
       </c>
       <c r="O9" t="n">
-        <v>5.412191206362117e-08</v>
+        <v>5.354883815758374e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7435,43 +7435,43 @@
         <v>0.005418645114382654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008953524731159897</v>
+        <v>0.009273101201434259</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01289417292171549</v>
+        <v>0.01386718640278813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01667725192683752</v>
+        <v>0.01847263605171585</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01996976710332294</v>
+        <v>0.0226095784806718</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02327792604852738</v>
+        <v>0.02664569229022127</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02630551624233416</v>
+        <v>0.03016552662743724</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02915225999506457</v>
+        <v>0.03322375773960005</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03361336034105273</v>
+        <v>0.03766686790050872</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03867867656201121</v>
+        <v>0.04252299992258403</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0445412608362871</v>
+        <v>0.04804178614886269</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05070277670415507</v>
+        <v>0.0538019765968047</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05779360265045674</v>
+        <v>0.06072685160119866</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06501524860991727</v>
+        <v>0.06850553810837104</v>
       </c>
     </row>
     <row r="11">
@@ -7481,46 +7481,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.307807335916578</v>
+        <v>9.298224395123791</v>
       </c>
       <c r="C11" t="n">
-        <v>13.04039461628969</v>
+        <v>12.95460845789857</v>
       </c>
       <c r="D11" t="n">
-        <v>17.09498040883652</v>
+        <v>16.90240152612559</v>
       </c>
       <c r="E11" t="n">
-        <v>21.36069640795111</v>
+        <v>21.03081064330762</v>
       </c>
       <c r="F11" t="n">
-        <v>25.61168824252688</v>
+        <v>25.12615382112433</v>
       </c>
       <c r="G11" t="n">
-        <v>30.11576878857315</v>
+        <v>29.47220729562821</v>
       </c>
       <c r="H11" t="n">
-        <v>34.82221748120862</v>
+        <v>34.06073479843339</v>
       </c>
       <c r="I11" t="n">
-        <v>39.67429932331302</v>
+        <v>38.86906395055922</v>
       </c>
       <c r="J11" t="n">
-        <v>44.48630411524178</v>
+        <v>43.66965112980662</v>
       </c>
       <c r="K11" t="n">
-        <v>50.18172016792339</v>
+        <v>49.3499010671204</v>
       </c>
       <c r="L11" t="n">
-        <v>57.30777958179573</v>
+        <v>56.45703551774962</v>
       </c>
       <c r="M11" t="n">
-        <v>65.62087597225225</v>
+        <v>64.81908974762331</v>
       </c>
       <c r="N11" t="n">
-        <v>77.0043963658228</v>
+        <v>76.27059875264139</v>
       </c>
       <c r="O11" t="n">
-        <v>87.26411523086486</v>
+        <v>86.65447974646425</v>
       </c>
     </row>
     <row r="12">
@@ -7530,46 +7530,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.154597791617479</v>
+        <v>1.784710098600987</v>
       </c>
       <c r="C12" t="n">
-        <v>2.174989739608602</v>
+        <v>1.636490043484921</v>
       </c>
       <c r="D12" t="n">
-        <v>2.072375791535879</v>
+        <v>1.360152333055171</v>
       </c>
       <c r="E12" t="n">
-        <v>1.889653166263842</v>
+        <v>1.008785682787775</v>
       </c>
       <c r="F12" t="n">
-        <v>1.659591169723883</v>
+        <v>0.6267772686076284</v>
       </c>
       <c r="G12" t="n">
-        <v>1.430543831614279</v>
+        <v>0.2564896009843695</v>
       </c>
       <c r="H12" t="n">
-        <v>1.225491778094825</v>
+        <v>1.305019654410659e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>1.073972225045362</v>
+        <v>3.780731110485588e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>1.015825639310844</v>
+        <v>4.344427746592792e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>1.095561310270674</v>
+        <v>8.684898514708723e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>1.352331083343465</v>
+        <v>9.870174642043087e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>1.814220908287072</v>
+        <v>0.5883784267447018</v>
       </c>
       <c r="N12" t="n">
-        <v>2.483363962936135</v>
+        <v>1.626467373106909</v>
       </c>
       <c r="O12" t="n">
-        <v>3.567543031506954</v>
+        <v>3.555922538797224</v>
       </c>
     </row>
     <row r="13">
@@ -7579,46 +7579,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.154597791617479</v>
+        <v>93.70387000035643</v>
       </c>
       <c r="C13" t="n">
-        <v>2.174989739608602</v>
+        <v>95.88636496981655</v>
       </c>
       <c r="D13" t="n">
-        <v>2.072375791535879</v>
+        <v>89.53784307834945</v>
       </c>
       <c r="E13" t="n">
-        <v>1.889653166263842</v>
+        <v>77.01321405250602</v>
       </c>
       <c r="F13" t="n">
-        <v>1.659591169723883</v>
+        <v>60.88417387263534</v>
       </c>
       <c r="G13" t="n">
-        <v>1.430543831614279</v>
+        <v>44.2915403977685</v>
       </c>
       <c r="H13" t="n">
-        <v>1.225491778094825</v>
+        <v>32.57350392461846</v>
       </c>
       <c r="I13" t="n">
-        <v>1.073972225045362</v>
+        <v>32.42260781867582</v>
       </c>
       <c r="J13" t="n">
-        <v>1.015825639310844</v>
+        <v>31.95278643863768</v>
       </c>
       <c r="K13" t="n">
-        <v>1.095561310270674</v>
+        <v>31.60449579535197</v>
       </c>
       <c r="L13" t="n">
-        <v>1.352331083343465</v>
+        <v>31.34815859190505</v>
       </c>
       <c r="M13" t="n">
-        <v>1.814220908287072</v>
+        <v>55.32015341040189</v>
       </c>
       <c r="N13" t="n">
-        <v>2.483363962936135</v>
+        <v>97.29015695791719</v>
       </c>
       <c r="O13" t="n">
-        <v>3.567543031506954</v>
+        <v>181.1940967117541</v>
       </c>
     </row>
     <row r="14">
@@ -7789,46 +7789,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-204.858359128825</v>
+        <v>-204.4754793019738</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.122001549754582</v>
+        <v>-6.586681429710426</v>
       </c>
       <c r="D2" t="n">
-        <v>133.6844555906636</v>
+        <v>132.5268731318689</v>
       </c>
       <c r="E2" t="n">
-        <v>220.4642218288289</v>
+        <v>218.8137317541672</v>
       </c>
       <c r="F2" t="n">
-        <v>260.6812898374532</v>
+        <v>258.8118105664462</v>
       </c>
       <c r="G2" t="n">
-        <v>269.7432879845409</v>
+        <v>267.8899902330419</v>
       </c>
       <c r="H2" t="n">
-        <v>262.9973118261714</v>
+        <v>261.3100728024999</v>
       </c>
       <c r="I2" t="n">
-        <v>247.5430678264026</v>
+        <v>246.1091106387896</v>
       </c>
       <c r="J2" t="n">
-        <v>227.7350969097099</v>
+        <v>226.5830369302305</v>
       </c>
       <c r="K2" t="n">
-        <v>206.1353728363222</v>
+        <v>205.2553079641927</v>
       </c>
       <c r="L2" t="n">
-        <v>184.4864167370913</v>
+        <v>183.844393172952</v>
       </c>
       <c r="M2" t="n">
-        <v>164.0800970405361</v>
+        <v>163.6303098046445</v>
       </c>
       <c r="N2" t="n">
-        <v>145.8499366593319</v>
+        <v>145.53999036571</v>
       </c>
       <c r="O2" t="n">
-        <v>128.2019722075146</v>
+        <v>127.9702436769692</v>
       </c>
     </row>
     <row r="3">
@@ -7841,43 +7841,43 @@
         <v>8.636725107995959</v>
       </c>
       <c r="C3" t="n">
-        <v>13.37292933405672</v>
+        <v>13.34270695058905</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1673397956829</v>
+        <v>20.08715838303552</v>
       </c>
       <c r="E3" t="n">
-        <v>29.18108174810978</v>
+        <v>29.0072589294338</v>
       </c>
       <c r="F3" t="n">
-        <v>40.27921295560668</v>
+        <v>39.94533693819059</v>
       </c>
       <c r="G3" t="n">
-        <v>53.52711314541251</v>
+        <v>52.94956904424076</v>
       </c>
       <c r="H3" t="n">
-        <v>69.25784386581483</v>
+        <v>68.34374264907537</v>
       </c>
       <c r="I3" t="n">
-        <v>87.53749523682575</v>
+        <v>86.20390128807772</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3686063679671</v>
+        <v>106.5626038784871</v>
       </c>
       <c r="K3" t="n">
-        <v>131.4164362307523</v>
+        <v>129.1307228436155</v>
       </c>
       <c r="L3" t="n">
-        <v>155.6561596343718</v>
+        <v>152.971155187021</v>
       </c>
       <c r="M3" t="n">
-        <v>178.0326381394151</v>
+        <v>175.1842077686944</v>
       </c>
       <c r="N3" t="n">
-        <v>189.0557309692495</v>
+        <v>186.5037521421386</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5197249446376</v>
+        <v>154.8930860569941</v>
       </c>
     </row>
     <row r="4">
@@ -7887,46 +7887,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2263934092079204</v>
+        <v>0.2257779815570794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2206199025576015</v>
+        <v>0.2200008034355787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2163328693877153</v>
+        <v>0.2156960259070559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2111575010791009</v>
+        <v>0.2105107138101113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2099721668678269</v>
+        <v>0.2093195896899993</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2118171953477326</v>
+        <v>0.2111619239427379</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2133987209689372</v>
+        <v>0.2127459181194852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2146471809276445</v>
+        <v>0.2139992886489205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2150320858680828</v>
+        <v>0.2143873295790082</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2135536224536993</v>
+        <v>0.2129492153417034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2070980340987846</v>
+        <v>0.2066437054921876</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1863347805849162</v>
+        <v>0.1861987214449265</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1202551785411076</v>
+        <v>0.120469184793165</v>
       </c>
       <c r="O4" t="n">
-        <v>2.64719904896042e-10</v>
+        <v>2.614792184679211e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7936,46 +7936,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.036148949582819</v>
+        <v>1.033126711236051</v>
       </c>
       <c r="C5" t="n">
-        <v>1.550448765591647</v>
+        <v>1.54348441367927</v>
       </c>
       <c r="D5" t="n">
-        <v>2.214916516718441</v>
+        <v>2.200329987839534</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010439889124518</v>
+        <v>2.983113114309881</v>
       </c>
       <c r="F5" t="n">
-        <v>3.948262000359586</v>
+        <v>3.902149127136355</v>
       </c>
       <c r="G5" t="n">
-        <v>5.059409355121619</v>
+        <v>4.988136951076224</v>
       </c>
       <c r="H5" t="n">
-        <v>6.338877827300407</v>
+        <v>6.237391171060226</v>
       </c>
       <c r="I5" t="n">
-        <v>7.784616907852955</v>
+        <v>7.65051620468258</v>
       </c>
       <c r="J5" t="n">
-        <v>9.363063960655854</v>
+        <v>9.197464035027037</v>
       </c>
       <c r="K5" t="n">
-        <v>10.9834081645932</v>
+        <v>10.79460561769237</v>
       </c>
       <c r="L5" t="n">
-        <v>12.37586912061457</v>
+        <v>12.18464639977889</v>
       </c>
       <c r="M5" t="n">
-        <v>12.69795884159105</v>
+        <v>12.54207958471959</v>
       </c>
       <c r="N5" t="n">
-        <v>9.060006757831442</v>
+        <v>8.986324868727612</v>
       </c>
       <c r="O5" t="n">
-        <v>2.031479487788743e-08</v>
+        <v>1.987294335325879e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7988,43 +7988,43 @@
         <v>4.604494857796085</v>
       </c>
       <c r="C6" t="n">
-        <v>7.111204701144537</v>
+        <v>7.106379555537523</v>
       </c>
       <c r="D6" t="n">
-        <v>10.40873402575504</v>
+        <v>10.39630178157631</v>
       </c>
       <c r="E6" t="n">
-        <v>14.54243768591655</v>
+        <v>14.51639586051892</v>
       </c>
       <c r="F6" t="n">
-        <v>19.22190638401797</v>
+        <v>19.17396770852726</v>
       </c>
       <c r="G6" t="n">
-        <v>24.44707120496363</v>
+        <v>24.36763719767695</v>
       </c>
       <c r="H6" t="n">
-        <v>30.4156977922559</v>
+        <v>30.29470457485727</v>
       </c>
       <c r="I6" t="n">
-        <v>37.12839694765273</v>
+        <v>36.95779397624356</v>
       </c>
       <c r="J6" t="n">
-        <v>44.54845436882894</v>
+        <v>44.32441794417174</v>
       </c>
       <c r="K6" t="n">
-        <v>52.56787978519866</v>
+        <v>52.2919009555109</v>
       </c>
       <c r="L6" t="n">
-        <v>61.01280551138717</v>
+        <v>60.69514675576384</v>
       </c>
       <c r="M6" t="n">
-        <v>69.51718552781037</v>
+        <v>69.18162816843467</v>
       </c>
       <c r="N6" t="n">
-        <v>76.84508260184704</v>
+        <v>76.53241181206353</v>
       </c>
       <c r="O6" t="n">
-        <v>78.36117122200923</v>
+        <v>78.11596560421411</v>
       </c>
     </row>
     <row r="7">
@@ -8034,46 +8034,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.576762871357339</v>
+        <v>4.575852366608495</v>
       </c>
       <c r="C7" t="n">
-        <v>7.027692187411976</v>
+        <v>7.01581262238998</v>
       </c>
       <c r="D7" t="n">
-        <v>10.23846502377238</v>
+        <v>10.20106874285974</v>
       </c>
       <c r="E7" t="n">
-        <v>14.25684559506502</v>
+        <v>14.1708374852634</v>
       </c>
       <c r="F7" t="n">
-        <v>18.80373984445726</v>
+        <v>18.64206371183609</v>
       </c>
       <c r="G7" t="n">
-        <v>23.88573480455999</v>
+        <v>23.62233142197023</v>
       </c>
       <c r="H7" t="n">
-        <v>29.70438528646621</v>
+        <v>29.31849986215528</v>
       </c>
       <c r="I7" t="n">
-        <v>36.26703539366341</v>
+        <v>35.75019455898163</v>
       </c>
       <c r="J7" t="n">
-        <v>43.54263654587751</v>
+        <v>42.90115490074936</v>
       </c>
       <c r="K7" t="n">
-        <v>51.43161721349173</v>
+        <v>50.69098564355396</v>
       </c>
       <c r="L7" t="n">
-        <v>59.7585060354139</v>
+        <v>58.96451755332826</v>
       </c>
       <c r="M7" t="n">
-        <v>68.14594034313608</v>
+        <v>67.35856985156187</v>
       </c>
       <c r="N7" t="n">
-        <v>75.33984704645715</v>
+        <v>74.59438597643323</v>
       </c>
       <c r="O7" t="n">
-        <v>76.74071538317166</v>
+        <v>76.00199920169504</v>
       </c>
     </row>
     <row r="8">
@@ -8083,46 +8083,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09249964689573867</v>
+        <v>0.1384096694223306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1231360618183413</v>
+        <v>0.1851800750201918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15858062799337</v>
+        <v>0.2395380365769394</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1981938398764035</v>
+        <v>0.300197986975035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2403916289026974</v>
+        <v>0.3645151428610424</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2829995917076495</v>
+        <v>0.4291001294198452</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3231918345760613</v>
+        <v>0.489787113059745</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3570323190858315</v>
+        <v>0.540955890790219</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3792282560192717</v>
+        <v>0.5752734883240327</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3833974314771644</v>
+        <v>0.5835276165742718</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3620088182011801</v>
+        <v>0.5540722471915569</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3072425203454569</v>
+        <v>0.4730876331665049</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2117901212095347</v>
+        <v>0.3273579357620159</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002491752546494845</v>
+        <v>0.002480499784793072</v>
       </c>
     </row>
     <row r="9">
@@ -8132,46 +8132,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004354772229717124</v>
+        <v>0.00134598197181514</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001170190968997505</v>
+        <v>0.003665617542414772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002765344227217349</v>
+        <v>0.008765533459120027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005828644287611111</v>
+        <v>0.01860709134864094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01084430203146121</v>
+        <v>0.03470136793691944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01809345398267601</v>
+        <v>0.05784582309621197</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02744740582270806</v>
+        <v>0.08755919676635186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03762537703886207</v>
+        <v>0.1198816766290551</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04586052482910364</v>
+        <v>0.1465465842144933</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0482973551266624</v>
+        <v>0.155736898387007</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04164559564121954</v>
+        <v>0.136418836830601</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02634194882232464</v>
+        <v>0.08778802395415052</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009087961691083328</v>
+        <v>0.03063542393224702</v>
       </c>
       <c r="O9" t="n">
-        <v>3.265162109648918e-08</v>
+        <v>3.21395523853507e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8181,46 +8181,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005928231013127826</v>
+        <v>0.005928231013127825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01157923674315142</v>
+        <v>0.01222863413443946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0160926062036915</v>
+        <v>0.01793594579833157</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01923772703078876</v>
+        <v>0.02252289666446088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0211905223858502</v>
+        <v>0.02593112893024912</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0222211872279678</v>
+        <v>0.02821200705811744</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02248395235374479</v>
+        <v>0.02933336133844206</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02218614981174229</v>
+        <v>0.02943134921234872</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02154861064706257</v>
+        <v>0.02880390805844203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02069638762350473</v>
+        <v>0.02763675420404915</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01987539943734808</v>
+        <v>0.02626586227758961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01934634185260469</v>
+        <v>0.02508281951233968</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01946965951550472</v>
+        <v>0.02492264867311278</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02067932090492827</v>
+        <v>0.02706189898605661</v>
       </c>
     </row>
     <row r="11">
@@ -8230,46 +8230,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.54061392177452</v>
+        <v>3.542725655372444</v>
       </c>
       <c r="C11" t="n">
-        <v>5.477243421820329</v>
+        <v>5.472328208710709</v>
       </c>
       <c r="D11" t="n">
-        <v>8.023548507053938</v>
+        <v>8.00073875502021</v>
       </c>
       <c r="E11" t="n">
-        <v>11.24640570594051</v>
+        <v>11.18772437095352</v>
       </c>
       <c r="F11" t="n">
-        <v>14.85547784409767</v>
+        <v>14.73991458469973</v>
       </c>
       <c r="G11" t="n">
-        <v>18.82632544943838</v>
+        <v>18.63419447089401</v>
       </c>
       <c r="H11" t="n">
-        <v>23.3655074591658</v>
+        <v>23.08110869109506</v>
       </c>
       <c r="I11" t="n">
-        <v>28.48241848581046</v>
+        <v>28.09967835429905</v>
       </c>
       <c r="J11" t="n">
-        <v>34.17957258522166</v>
+        <v>33.70369086572233</v>
       </c>
       <c r="K11" t="n">
-        <v>40.44820904889853</v>
+        <v>39.89638002586159</v>
       </c>
       <c r="L11" t="n">
-        <v>47.38263691479933</v>
+        <v>46.77987115354937</v>
       </c>
       <c r="M11" t="n">
-        <v>55.44798150154503</v>
+        <v>54.81649026684227</v>
       </c>
       <c r="N11" t="n">
-        <v>66.27984028862572</v>
+        <v>65.60806110770562</v>
       </c>
       <c r="O11" t="n">
-        <v>76.74071536285686</v>
+        <v>76.0019991818221</v>
       </c>
     </row>
     <row r="12">
@@ -8279,46 +8279,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6561625916257702</v>
+        <v>0.6229676300374907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8005549618281964</v>
+        <v>0.7434055578773172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9356646618129473</v>
+        <v>0.8446293794104043</v>
       </c>
       <c r="E12" t="n">
-        <v>1.053186575936352</v>
+        <v>0.9175562654598731</v>
       </c>
       <c r="F12" t="n">
-        <v>1.131043200486238</v>
+        <v>0.9438656718906819</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179555413635194</v>
+        <v>0.9361500659821144</v>
       </c>
       <c r="H12" t="n">
-        <v>1.217421447708275</v>
+        <v>0.9141042329836792</v>
       </c>
       <c r="I12" t="n">
-        <v>1.25372446416979</v>
+        <v>0.8909784852448085</v>
       </c>
       <c r="J12" t="n">
-        <v>1.301882738969334</v>
+        <v>0.8862570434610404</v>
       </c>
       <c r="K12" t="n">
-        <v>1.379424128814152</v>
+        <v>0.9268141722371258</v>
       </c>
       <c r="L12" t="n">
-        <v>1.508933947128981</v>
+        <v>1.049187301586535</v>
       </c>
       <c r="M12" t="n">
-        <v>1.712136962062231</v>
+        <v>1.295967973160809</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98712324848719</v>
+        <v>1.688870195637459</v>
       </c>
       <c r="O12" t="n">
-        <v>2.379524068152288</v>
+        <v>2.372104886111489</v>
       </c>
     </row>
     <row r="13">
@@ -8328,46 +8328,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6561625916257702</v>
+        <v>26.69002740539355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8005549618281964</v>
+        <v>33.66550551626283</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9356646618129473</v>
+        <v>39.86156059500895</v>
       </c>
       <c r="E13" t="n">
-        <v>1.053186575936352</v>
+        <v>44.61165189397234</v>
       </c>
       <c r="F13" t="n">
-        <v>1.131043200486238</v>
+        <v>46.85179542904896</v>
       </c>
       <c r="G13" t="n">
-        <v>1.179555413635194</v>
+        <v>47.11319644107822</v>
       </c>
       <c r="H13" t="n">
-        <v>1.217421447708275</v>
+        <v>46.37163851011019</v>
       </c>
       <c r="I13" t="n">
-        <v>1.25372446416979</v>
+        <v>45.24603788573311</v>
       </c>
       <c r="J13" t="n">
-        <v>1.301882738969334</v>
+        <v>44.51998972063218</v>
       </c>
       <c r="K13" t="n">
-        <v>1.379424128814152</v>
+        <v>45.10903437556395</v>
       </c>
       <c r="L13" t="n">
-        <v>1.508933947128981</v>
+        <v>48.1046357591606</v>
       </c>
       <c r="M13" t="n">
-        <v>1.712136962062231</v>
+        <v>54.63600528622353</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98712324848719</v>
+        <v>65.0209472760976</v>
       </c>
       <c r="O13" t="n">
-        <v>2.379524068152288</v>
+        <v>84.20262405856467</v>
       </c>
     </row>
     <row r="14">
@@ -8538,46 +8538,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.180222332372</v>
+        <v>136.1050968923729</v>
       </c>
       <c r="C2" t="n">
-        <v>174.7037648496342</v>
+        <v>174.0406930007906</v>
       </c>
       <c r="D2" t="n">
-        <v>197.4518042537105</v>
+        <v>196.427512520389</v>
       </c>
       <c r="E2" t="n">
-        <v>207.5187164217539</v>
+        <v>206.2915615193932</v>
       </c>
       <c r="F2" t="n">
-        <v>203.8455257736462</v>
+        <v>202.570454192378</v>
       </c>
       <c r="G2" t="n">
-        <v>193.2180866236471</v>
+        <v>192.0034169540531</v>
       </c>
       <c r="H2" t="n">
-        <v>180.9405751417419</v>
+        <v>179.8497848377251</v>
       </c>
       <c r="I2" t="n">
-        <v>168.0492668492171</v>
+        <v>167.1225987978812</v>
       </c>
       <c r="J2" t="n">
-        <v>155.1805198742653</v>
+        <v>154.4342487154426</v>
       </c>
       <c r="K2" t="n">
-        <v>139.4037249180506</v>
+        <v>138.8461361880927</v>
       </c>
       <c r="L2" t="n">
-        <v>121.9563772817289</v>
+        <v>121.5693366444522</v>
       </c>
       <c r="M2" t="n">
-        <v>106.5191982115215</v>
+        <v>106.2630756024568</v>
       </c>
       <c r="N2" t="n">
-        <v>93.23775190830578</v>
+        <v>93.07318081681585</v>
       </c>
       <c r="O2" t="n">
-        <v>80.99020955007678</v>
+        <v>80.88124256182634</v>
       </c>
     </row>
     <row r="3">
@@ -8590,43 +8590,43 @@
         <v>10.83233191914928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.42077174482337</v>
+        <v>18.29162633432156</v>
       </c>
       <c r="D3" t="n">
-        <v>27.91859263710069</v>
+        <v>27.63541085599144</v>
       </c>
       <c r="E3" t="n">
-        <v>39.26673569334513</v>
+        <v>38.80104506223716</v>
       </c>
       <c r="F3" t="n">
-        <v>52.09483114627191</v>
+        <v>51.40821995203363</v>
       </c>
       <c r="G3" t="n">
-        <v>66.48001567020981</v>
+        <v>65.51447102041276</v>
       </c>
       <c r="H3" t="n">
-        <v>82.85453630014801</v>
+        <v>81.52283904361398</v>
       </c>
       <c r="I3" t="n">
-        <v>101.2084100429444</v>
+        <v>99.40800433612837</v>
       </c>
       <c r="J3" t="n">
-        <v>121.2308775065677</v>
+        <v>118.8662989279366</v>
       </c>
       <c r="K3" t="n">
-        <v>141.1095838727016</v>
+        <v>138.1426093227253</v>
       </c>
       <c r="L3" t="n">
-        <v>159.0486505852424</v>
+        <v>155.5939893573037</v>
       </c>
       <c r="M3" t="n">
-        <v>173.2993169554481</v>
+        <v>169.7306086914909</v>
       </c>
       <c r="N3" t="n">
-        <v>175.6711989965358</v>
+        <v>172.6798428338802</v>
       </c>
       <c r="O3" t="n">
-        <v>138.9395223136605</v>
+        <v>137.2918162638488</v>
       </c>
     </row>
     <row r="4">
@@ -8636,46 +8636,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2551256618005397</v>
+        <v>0.2535426007970187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2468486309723791</v>
+        <v>0.2457343925738247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2398690798592351</v>
+        <v>0.2392668872989823</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2325376820384592</v>
+        <v>0.2323981465327113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2304390568298141</v>
+        <v>0.2306438120005508</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2314642425631228</v>
+        <v>0.2318427812163295</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2316253809196216</v>
+        <v>0.231975220475599</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2300894655374525</v>
+        <v>0.2302139912272884</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2239563009000584</v>
+        <v>0.223702161633358</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2172466578832426</v>
+        <v>0.2166436941605821</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2096513536029882</v>
+        <v>0.2089861905221422</v>
       </c>
       <c r="M4" t="n">
-        <v>0.187287834601493</v>
+        <v>0.1870111944380248</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1185434190957294</v>
+        <v>0.1188727371644898</v>
       </c>
       <c r="O4" t="n">
-        <v>6.585801560520195e-10</v>
+        <v>6.53252058139279e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8685,46 +8685,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.464377114860896</v>
+        <v>1.451462573810714</v>
       </c>
       <c r="C5" t="n">
-        <v>2.149566667967751</v>
+        <v>2.125751511884812</v>
       </c>
       <c r="D5" t="n">
-        <v>2.953212436285351</v>
+        <v>2.916517311344746</v>
       </c>
       <c r="E5" t="n">
-        <v>3.840336699689734</v>
+        <v>3.787913208548296</v>
       </c>
       <c r="F5" t="n">
-        <v>4.831567120885482</v>
+        <v>4.758953307921996</v>
       </c>
       <c r="G5" t="n">
-        <v>5.967438813843569</v>
+        <v>5.86793554842398</v>
       </c>
       <c r="H5" t="n">
-        <v>7.231881957059998</v>
+        <v>7.098274798587766</v>
       </c>
       <c r="I5" t="n">
-        <v>8.594168696779262</v>
+        <v>8.420487104256136</v>
       </c>
       <c r="J5" t="n">
-        <v>9.883899061175745</v>
+        <v>9.669649363207206</v>
       </c>
       <c r="K5" t="n">
-        <v>10.98467809973487</v>
+        <v>10.74266398273121</v>
       </c>
       <c r="L5" t="n">
-        <v>11.78424815693758</v>
+        <v>11.54783391934503</v>
       </c>
       <c r="M5" t="n">
-        <v>11.52454634901147</v>
+        <v>11.34984389581076</v>
       </c>
       <c r="N5" t="n">
-        <v>7.768676267705168</v>
+        <v>7.708207802781827</v>
       </c>
       <c r="O5" t="n">
-        <v>4.244027268610608e-08</v>
+        <v>4.171800833839169e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8737,43 +8737,43 @@
         <v>5.773373341602125</v>
       </c>
       <c r="C6" t="n">
-        <v>8.805236619968332</v>
+        <v>8.786671316538037</v>
       </c>
       <c r="D6" t="n">
-        <v>12.50714145694934</v>
+        <v>12.46894711334815</v>
       </c>
       <c r="E6" t="n">
-        <v>16.83803404730394</v>
+        <v>16.77787561954458</v>
       </c>
       <c r="F6" t="n">
-        <v>21.43252561912588</v>
+        <v>21.34738737747814</v>
       </c>
       <c r="G6" t="n">
-        <v>26.39926985362655</v>
+        <v>26.28365470281864</v>
       </c>
       <c r="H6" t="n">
-        <v>31.99782352027719</v>
+        <v>31.84266003272355</v>
       </c>
       <c r="I6" t="n">
-        <v>38.28171985280114</v>
+        <v>38.07613576118372</v>
       </c>
       <c r="J6" t="n">
-        <v>45.21382842525104</v>
+        <v>44.94743670175298</v>
       </c>
       <c r="K6" t="n">
-        <v>51.75075236866183</v>
+        <v>51.42188718621784</v>
       </c>
       <c r="L6" t="n">
-        <v>57.45677793255687</v>
+        <v>57.07949420952284</v>
       </c>
       <c r="M6" t="n">
-        <v>62.83222089198415</v>
+        <v>62.44122376138725</v>
       </c>
       <c r="N6" t="n">
-        <v>66.90262171397468</v>
+        <v>66.55879650476005</v>
       </c>
       <c r="O6" t="n">
-        <v>65.86173108953302</v>
+        <v>65.62643246408244</v>
       </c>
     </row>
     <row r="7">
@@ -8783,46 +8783,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.739826815249041</v>
+        <v>5.72472858307834</v>
       </c>
       <c r="C7" t="n">
-        <v>8.708035606680255</v>
+        <v>8.650606411335703</v>
       </c>
       <c r="D7" t="n">
-        <v>12.31176789446316</v>
+        <v>12.18938961537262</v>
       </c>
       <c r="E7" t="n">
-        <v>16.51490057879989</v>
+        <v>16.29924018354908</v>
       </c>
       <c r="F7" t="n">
-        <v>20.96678916913696</v>
+        <v>20.63334483871014</v>
       </c>
       <c r="G7" t="n">
-        <v>25.78125566075799</v>
+        <v>25.3099773805279</v>
       </c>
       <c r="H7" t="n">
-        <v>31.22232083697942</v>
+        <v>30.59928031983234</v>
       </c>
       <c r="I7" t="n">
-        <v>37.35142187715827</v>
+        <v>36.57678258113624</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13315910940359</v>
+        <v>43.22555174525093</v>
       </c>
       <c r="K7" t="n">
-        <v>50.56316265927779</v>
+        <v>49.58678360962796</v>
       </c>
       <c r="L7" t="n">
-        <v>56.20878641810787</v>
+        <v>55.25644488993891</v>
       </c>
       <c r="M7" t="n">
-        <v>61.53387577753325</v>
+        <v>60.69071923698172</v>
       </c>
       <c r="N7" t="n">
-        <v>65.53443731390604</v>
+        <v>64.8442021833452</v>
       </c>
       <c r="O7" t="n">
-        <v>64.44207633057476</v>
+        <v>63.86203888468584</v>
       </c>
     </row>
     <row r="8">
@@ -8832,46 +8832,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2456697174641347</v>
+        <v>0.3723255243351582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3106302242549753</v>
+        <v>0.4656987628383006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3743085866901517</v>
+        <v>0.5568463738443431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4363501140335259</v>
+        <v>0.6450981405308494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.494521966680792</v>
+        <v>0.7273670270317152</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5464578429318392</v>
+        <v>0.8006436178157379</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5891026142652979</v>
+        <v>0.8611081409212146</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6184013891888287</v>
+        <v>0.9035365118298944</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6289768907114024</v>
+        <v>0.9209499703221299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6117969402593572</v>
+        <v>0.9003954968415163</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5571303375577481</v>
+        <v>0.826453806878342</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4575409617619344</v>
+        <v>0.6843573416263485</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3063376298730441</v>
+        <v>0.4607894685205634</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003160233174850269</v>
+        <v>0.003148624118301495</v>
       </c>
     </row>
     <row r="9">
@@ -8881,46 +8881,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00685251498003511</v>
+        <v>0.02195074715073636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01639425686180675</v>
+        <v>0.05083782155026597</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03236800284359741</v>
+        <v>0.09813034398248827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05590081069628746</v>
+        <v>0.1664476404157817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08530153851804421</v>
+        <v>0.2502757119115643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1185544658681252</v>
+        <v>0.3439402378461699</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1526963328392117</v>
+        <v>0.4398903093181499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1816974465125069</v>
+        <v>0.5225176336453835</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1968575707351709</v>
+        <v>0.5692061005871119</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1836508549532067</v>
+        <v>0.5384397771366992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1390464221929931</v>
+        <v>0.4167078110887289</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07807864875218591</v>
+        <v>0.2395573739760815</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02422010691365561</v>
+        <v>0.0755761092946885</v>
       </c>
       <c r="O9" t="n">
-        <v>5.880965900542517e-08</v>
+        <v>5.800077272440988e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8933,43 +8933,43 @@
         <v>0.00462364198426167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009177124921665017</v>
+        <v>0.009699587088418305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01303299880341674</v>
+        <v>0.01455031867115885</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01587077547515427</v>
+        <v>0.01860711109432985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01775035374885467</v>
+        <v>0.02172475810064349</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01891945230946704</v>
+        <v>0.0239592663792314</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01946402229713807</v>
+        <v>0.02523311189289293</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01955503911550559</v>
+        <v>0.02565479733891273</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01954737689539883</v>
+        <v>0.02564504097449424</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01939950258653211</v>
+        <v>0.02521618459387665</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01930050956838707</v>
+        <v>0.02463829660670986</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01942103029903221</v>
+        <v>0.02419791060155019</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0200883651301554</v>
+        <v>0.02462511791364712</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02155507723018557</v>
+        <v>0.02688540966113748</v>
       </c>
     </row>
     <row r="11">
@@ -8979,46 +8979,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.275449700388145</v>
+        <v>4.273266009267626</v>
       </c>
       <c r="C11" t="n">
-        <v>6.558468938712504</v>
+        <v>6.524854899450891</v>
       </c>
       <c r="D11" t="n">
-        <v>9.358555458177811</v>
+        <v>9.272872304027876</v>
       </c>
       <c r="E11" t="n">
-        <v>12.67456387911015</v>
+        <v>12.51132697500079</v>
       </c>
       <c r="F11" t="n">
-        <v>16.13522204825148</v>
+        <v>15.87439153078814</v>
       </c>
       <c r="G11" t="n">
-        <v>19.81381684691442</v>
+        <v>19.44204183210392</v>
       </c>
       <c r="H11" t="n">
-        <v>23.99043887991942</v>
+        <v>23.50100552124458</v>
       </c>
       <c r="I11" t="n">
-        <v>28.75725318037901</v>
+        <v>28.15629547688011</v>
       </c>
       <c r="J11" t="n">
-        <v>34.24926004822785</v>
+        <v>33.55590238204372</v>
       </c>
       <c r="K11" t="n">
-        <v>39.57848455954292</v>
+        <v>38.84411962689676</v>
       </c>
       <c r="L11" t="n">
-        <v>44.42453826117029</v>
+        <v>43.70861097059389</v>
       </c>
       <c r="M11" t="n">
-        <v>50.00932942852179</v>
+        <v>49.34087534117096</v>
       </c>
       <c r="N11" t="n">
-        <v>57.76576104620087</v>
+        <v>57.13599438056337</v>
       </c>
       <c r="O11" t="n">
-        <v>64.4420762881345</v>
+        <v>63.86203884296783</v>
       </c>
     </row>
     <row r="12">
@@ -9028,46 +9028,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6126481087913977</v>
+        <v>0.5097814436932858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7270013200380843</v>
+        <v>0.5622798114814732</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8088803147364824</v>
+        <v>0.5711498930757828</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8570432762748691</v>
+        <v>0.5377088575588165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8641600594652006</v>
+        <v>0.4642390423145998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.852015188786816</v>
+        <v>0.3728667497920016</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8421377375538571</v>
+        <v>0.2832796932381105</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8489931743369014</v>
+        <v>0.2134626033588692</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891028250510031</v>
+        <v>0.1887235937740359</v>
       </c>
       <c r="K12" t="n">
-        <v>0.981592089192862</v>
+        <v>0.250254797716629</v>
       </c>
       <c r="L12" t="n">
-        <v>1.150401573491267</v>
+        <v>0.4478447377816921</v>
       </c>
       <c r="M12" t="n">
-        <v>1.433326229886639</v>
+        <v>0.8288248937168098</v>
       </c>
       <c r="N12" t="n">
-        <v>1.823930570204989</v>
+        <v>1.410525223199483</v>
       </c>
       <c r="O12" t="n">
-        <v>2.421859797510959</v>
+        <v>2.41323552812035</v>
       </c>
     </row>
     <row r="13">
@@ -9077,46 +9077,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6126481087913977</v>
+        <v>25.62664509906278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7270013200380843</v>
+        <v>29.36203117737112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8088803147364824</v>
+        <v>31.02795223254565</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8570432762748691</v>
+        <v>30.68733873324667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8641600594652006</v>
+        <v>28.4024967019881</v>
       </c>
       <c r="G13" t="n">
-        <v>0.852015188786816</v>
+        <v>25.31039220765306</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8421377375538571</v>
+        <v>22.36767174873284</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8489931743369014</v>
+        <v>20.19963928220484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.891028250510031</v>
+        <v>19.48029377163989</v>
       </c>
       <c r="K13" t="n">
-        <v>0.981592089192862</v>
+        <v>20.92056282699899</v>
       </c>
       <c r="L13" t="n">
-        <v>1.150401573491267</v>
+        <v>25.56394191681076</v>
       </c>
       <c r="M13" t="n">
-        <v>1.433326229886639</v>
+        <v>34.50754923884621</v>
       </c>
       <c r="N13" t="n">
-        <v>1.823930570204989</v>
+        <v>47.83953818449397</v>
       </c>
       <c r="O13" t="n">
-        <v>2.421859797510959</v>
+        <v>72.15636733347267</v>
       </c>
     </row>
     <row r="14">
@@ -9287,46 +9287,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-356.4953220735068</v>
+        <v>-356.3340268700965</v>
       </c>
       <c r="C2" t="n">
-        <v>-177.6117097815352</v>
+        <v>-177.9905696125846</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.7249214640646</v>
+        <v>-23.74838415322779</v>
       </c>
       <c r="E2" t="n">
-        <v>100.1096972900212</v>
+        <v>98.48500036211841</v>
       </c>
       <c r="F2" t="n">
-        <v>181.7230494445081</v>
+        <v>179.7389242869203</v>
       </c>
       <c r="G2" t="n">
-        <v>224.8451820458292</v>
+        <v>222.7771487686087</v>
       </c>
       <c r="H2" t="n">
-        <v>245.7793386709488</v>
+        <v>243.8091396214001</v>
       </c>
       <c r="I2" t="n">
-        <v>252.4675037021912</v>
+        <v>250.7182340075157</v>
       </c>
       <c r="J2" t="n">
-        <v>250.1806041261694</v>
+        <v>248.7104656448099</v>
       </c>
       <c r="K2" t="n">
-        <v>235.2563782063201</v>
+        <v>234.1088362797543</v>
       </c>
       <c r="L2" t="n">
-        <v>211.4268853334023</v>
+        <v>210.5890176271927</v>
       </c>
       <c r="M2" t="n">
-        <v>188.1464989168883</v>
+        <v>187.5542010766323</v>
       </c>
       <c r="N2" t="n">
-        <v>167.1144327399379</v>
+        <v>166.6975325726995</v>
       </c>
       <c r="O2" t="n">
-        <v>146.3089359498671</v>
+        <v>145.9811920683783</v>
       </c>
     </row>
     <row r="3">
@@ -9339,43 +9339,43 @@
         <v>4.61992195780226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.718657562381056</v>
+        <v>7.711800706962072</v>
       </c>
       <c r="D3" t="n">
-        <v>12.71974007776201</v>
+        <v>12.6969096937064</v>
       </c>
       <c r="E3" t="n">
-        <v>20.07015394335033</v>
+        <v>20.00330930117851</v>
       </c>
       <c r="F3" t="n">
-        <v>29.82085202527858</v>
+        <v>29.65749572836516</v>
       </c>
       <c r="G3" t="n">
-        <v>42.11272072496299</v>
+        <v>41.77646295840737</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53170084995096</v>
+        <v>56.92733064434636</v>
       </c>
       <c r="I3" t="n">
-        <v>76.42014493806306</v>
+        <v>75.45276489062167</v>
       </c>
       <c r="J3" t="n">
-        <v>98.58120747800956</v>
+        <v>97.1869261350961</v>
       </c>
       <c r="K3" t="n">
-        <v>121.9992295187156</v>
+        <v>120.1819759875682</v>
       </c>
       <c r="L3" t="n">
-        <v>144.8036962336498</v>
+        <v>142.6566647872922</v>
       </c>
       <c r="M3" t="n">
-        <v>165.0877240748114</v>
+        <v>162.8034642463972</v>
       </c>
       <c r="N3" t="n">
-        <v>174.1680367835378</v>
+        <v>172.0900355925837</v>
       </c>
       <c r="O3" t="n">
-        <v>142.9993356692593</v>
+        <v>141.6066967097657</v>
       </c>
     </row>
     <row r="4">
@@ -9385,46 +9385,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2499827804262509</v>
+        <v>0.2497206531336723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2440161959120402</v>
+        <v>0.2437766086405043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2371584054040843</v>
+        <v>0.2369008857774587</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2268459370728398</v>
+        <v>0.2265479127814805</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2224768593590007</v>
+        <v>0.2221209194505057</v>
       </c>
       <c r="G4" t="n">
-        <v>0.224114273890056</v>
+        <v>0.2236933030402291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.224967290072857</v>
+        <v>0.2244969534771328</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2237576938201476</v>
+        <v>0.2232699601577783</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2169368428126333</v>
+        <v>0.2164603412842181</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2101691741204709</v>
+        <v>0.2097463720017053</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2037654751277442</v>
+        <v>0.2034717191767564</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1832637044982339</v>
+        <v>0.1832057484956787</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1180243544711082</v>
+        <v>0.1181946201094169</v>
       </c>
       <c r="O4" t="n">
-        <v>1.398018700601035e-10</v>
+        <v>1.369685278991815e-10</v>
       </c>
     </row>
     <row r="5">
@@ -9434,46 +9434,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6107790380750825</v>
+        <v>0.6100933525331841</v>
       </c>
       <c r="C5" t="n">
-        <v>1.002841059924492</v>
+        <v>1.000797105284079</v>
       </c>
       <c r="D5" t="n">
-        <v>1.563505481455882</v>
+        <v>1.557617063508639</v>
       </c>
       <c r="E5" t="n">
-        <v>2.282282205574432</v>
+        <v>2.268277304439241</v>
       </c>
       <c r="F5" t="n">
-        <v>3.171483255833593</v>
+        <v>3.143553361056859</v>
       </c>
       <c r="G5" t="n">
-        <v>4.284790307920392</v>
+        <v>4.236077870711344</v>
       </c>
       <c r="H5" t="n">
-        <v>5.636008122940231</v>
+        <v>5.560343204249405</v>
       </c>
       <c r="I5" t="n">
-        <v>7.193515054878981</v>
+        <v>7.087817377180208</v>
       </c>
       <c r="J5" t="n">
-        <v>8.76260878721088</v>
+        <v>8.629499018466891</v>
       </c>
       <c r="K5" t="n">
-        <v>10.22651951916621</v>
+        <v>10.07518008718112</v>
       </c>
       <c r="L5" t="n">
-        <v>11.45977971513481</v>
+        <v>11.30621608984955</v>
       </c>
       <c r="M5" t="n">
-        <v>11.66055066734734</v>
+        <v>11.53239776362738</v>
       </c>
       <c r="N5" t="n">
-        <v>8.227069628829588</v>
+        <v>8.160261154259009</v>
       </c>
       <c r="O5" t="n">
-        <v>9.833610542708197e-09</v>
+        <v>9.539728622492627e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9486,43 +9486,43 @@
         <v>2.45867138086419</v>
       </c>
       <c r="C6" t="n">
-        <v>4.160132432756564</v>
+        <v>4.15902339403976</v>
       </c>
       <c r="D6" t="n">
-        <v>6.70859344452146</v>
+        <v>6.704978840497787</v>
       </c>
       <c r="E6" t="n">
-        <v>10.28024323854323</v>
+        <v>10.26995958445585</v>
       </c>
       <c r="F6" t="n">
-        <v>14.60992563167647</v>
+        <v>14.58586984602923</v>
       </c>
       <c r="G6" t="n">
-        <v>19.63849608998488</v>
+        <v>19.59132172983415</v>
       </c>
       <c r="H6" t="n">
-        <v>25.77321065218741</v>
+        <v>25.69168598922157</v>
       </c>
       <c r="I6" t="n">
-        <v>33.10739504672931</v>
+        <v>32.9811049469902</v>
       </c>
       <c r="J6" t="n">
-        <v>41.65389851895406</v>
+        <v>41.47627721609751</v>
       </c>
       <c r="K6" t="n">
-        <v>50.24510804901822</v>
+        <v>50.01939795818596</v>
       </c>
       <c r="L6" t="n">
-        <v>58.16189835936684</v>
+        <v>57.90183116986648</v>
       </c>
       <c r="M6" t="n">
-        <v>65.92171286487077</v>
+        <v>65.6467366297319</v>
       </c>
       <c r="N6" t="n">
-        <v>72.41684511809473</v>
+        <v>72.15655344507492</v>
       </c>
       <c r="O6" t="n">
-        <v>73.34635180393933</v>
+        <v>73.13132614105049</v>
       </c>
     </row>
     <row r="7">
@@ -9532,46 +9532,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.443284441566856</v>
+        <v>2.443103303140125</v>
       </c>
       <c r="C7" t="n">
-        <v>4.109731553580906</v>
+        <v>4.105386119141346</v>
       </c>
       <c r="D7" t="n">
-        <v>6.592663156053402</v>
+        <v>6.574973573428691</v>
       </c>
       <c r="E7" t="n">
-        <v>10.06093490156536</v>
+        <v>10.01235136792955</v>
       </c>
       <c r="F7" t="n">
-        <v>14.25533992600963</v>
+        <v>14.15244169182058</v>
       </c>
       <c r="G7" t="n">
-        <v>19.11877469269265</v>
+        <v>18.93699012504423</v>
       </c>
       <c r="H7" t="n">
-        <v>25.05256706926139</v>
+        <v>24.76801185106407</v>
       </c>
       <c r="I7" t="n">
-        <v>32.14868249697371</v>
+        <v>31.74550383836435</v>
       </c>
       <c r="J7" t="n">
-        <v>40.3924417521789</v>
+        <v>39.8664206443994</v>
       </c>
       <c r="K7" t="n">
-        <v>48.65851313334979</v>
+        <v>48.03506249490317</v>
       </c>
       <c r="L7" t="n">
-        <v>56.24004610177693</v>
+        <v>55.56652362104344</v>
       </c>
       <c r="M7" t="n">
-        <v>63.6271688345125</v>
+        <v>62.94779426039347</v>
       </c>
       <c r="N7" t="n">
-        <v>69.70654205817782</v>
+        <v>69.0408848279623</v>
       </c>
       <c r="O7" t="n">
-        <v>70.33962091122629</v>
+        <v>69.64905565397139</v>
       </c>
     </row>
     <row r="8">
@@ -9581,46 +9581,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06750981995422138</v>
+        <v>0.1105760837182724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09047861021748388</v>
+        <v>0.148674915212688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1177263327866479</v>
+        <v>0.1938724059944179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1489852687015225</v>
+        <v>0.2453735763044725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1827940249283956</v>
+        <v>0.3004798037830672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2170162780836648</v>
+        <v>0.3555455082749025</v>
       </c>
       <c r="H8" t="n">
-        <v>0.249657570662282</v>
+        <v>0.4073745881564905</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2777609818660092</v>
+        <v>0.4514805413247729</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2975617726206773</v>
+        <v>0.4824471946603945</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3031977258914992</v>
+        <v>0.4914956363351882</v>
       </c>
       <c r="L8" t="n">
-        <v>0.287491457971144</v>
+        <v>0.4673055617560702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2444166363564124</v>
+        <v>0.3989398137919807</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1684928639096655</v>
+        <v>0.2759489316626222</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002505435722821831</v>
+        <v>0.002492830989408082</v>
       </c>
     </row>
     <row r="9">
@@ -9630,46 +9630,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.075838680346905e-05</v>
+        <v>0.0002418968135350151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001822878051888485</v>
+        <v>0.0007321141531890303</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004884448770858381</v>
+        <v>0.001973241192059519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001169417723708192</v>
+        <v>0.004723365090727309</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002415792528192444</v>
+        <v>0.009699138883136888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004361823831567408</v>
+        <v>0.01733611226090251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007124186793195119</v>
+        <v>0.02797545273894499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01048298830404912</v>
+        <v>0.04069444475554088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01372281271503822</v>
+        <v>0.05287259973686424</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01510075257300945</v>
+        <v>0.05813875164697387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01314044067639263</v>
+        <v>0.05097960525689145</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008307870027154962</v>
+        <v>0.03261736557238408</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002848848339403408</v>
+        <v>0.01129789889465182</v>
       </c>
       <c r="O9" t="n">
-        <v>1.958459606822638e-08</v>
+        <v>1.92526764272326e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9682,43 +9682,43 @@
         <v>0.006233521498567667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01207139248141527</v>
+        <v>0.01272057301265547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01720805479504009</v>
+        <v>0.0190950678477506</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02121923715154068</v>
+        <v>0.02462374358496247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02410483954655335</v>
+        <v>0.02905065106150419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02624231362214547</v>
+        <v>0.03251416628817779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02768453669827406</v>
+        <v>0.03486336730856535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0286410199326519</v>
+        <v>0.03623003734383222</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0299547941111049</v>
+        <v>0.03753914469828463</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03127656052729146</v>
+        <v>0.0385089943154862</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03281722004876982</v>
+        <v>0.03945173921813703</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03468107943459454</v>
+        <v>0.04061626122871854</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03738707764971399</v>
+        <v>0.04302271339194522</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04099359817057727</v>
+        <v>0.04761667334064591</v>
       </c>
     </row>
     <row r="11">
@@ -9728,46 +9728,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.832505403491774</v>
+        <v>1.833009950606941</v>
       </c>
       <c r="C11" t="n">
-        <v>3.106890493656414</v>
+        <v>3.104589013857267</v>
       </c>
       <c r="D11" t="n">
-        <v>5.02915767459752</v>
+        <v>5.017356509920051</v>
       </c>
       <c r="E11" t="n">
-        <v>7.778652695990923</v>
+        <v>7.744074063490313</v>
       </c>
       <c r="F11" t="n">
-        <v>11.08385667017604</v>
+        <v>11.00888833076372</v>
       </c>
       <c r="G11" t="n">
-        <v>14.83398438477226</v>
+        <v>14.70091225433288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.41655894632115</v>
+        <v>19.20766864681467</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95516744209473</v>
+        <v>24.65768646118415</v>
       </c>
       <c r="J11" t="n">
-        <v>31.62983296496802</v>
+        <v>31.23692162593251</v>
       </c>
       <c r="K11" t="n">
-        <v>38.43199361418358</v>
+        <v>37.95988240772205</v>
       </c>
       <c r="L11" t="n">
-        <v>44.78026638664212</v>
+        <v>44.26030753119389</v>
       </c>
       <c r="M11" t="n">
-        <v>51.96661816716517</v>
+        <v>51.41539649676609</v>
       </c>
       <c r="N11" t="n">
-        <v>61.47947242934823</v>
+        <v>60.88062367370329</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33962090139268</v>
+        <v>69.64905564443166</v>
       </c>
     </row>
     <row r="12">
@@ -9777,46 +9777,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2272032145217071</v>
+        <v>0.2167100278115246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3065652205055169</v>
+        <v>0.2868729526604529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3990539799824656</v>
+        <v>0.3644165187299417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4986849130844559</v>
+        <v>0.4417601164993214</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5836595261200592</v>
+        <v>0.4987841349606182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.653010423797774</v>
+        <v>0.5361855993131711</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7217597331697508</v>
+        <v>0.568247450927564</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7925008973224524</v>
+        <v>0.5995853940796837</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8692768758791516</v>
+        <v>0.6377475068015247</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9402913003461499</v>
+        <v>0.6831124780527329</v>
       </c>
       <c r="L12" t="n">
-        <v>1.013795251058858</v>
+        <v>0.7545570222342285</v>
       </c>
       <c r="M12" t="n">
-        <v>1.117539841564218</v>
+        <v>0.885285290221961</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24669287265905</v>
+        <v>1.081680187171397</v>
       </c>
       <c r="O12" t="n">
-        <v>1.405558058506374</v>
+        <v>1.401455166584575</v>
       </c>
     </row>
     <row r="13">
@@ -9826,46 +9826,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2272032145217071</v>
+        <v>13.02526777804204</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3065652205055169</v>
+        <v>18.20426890821531</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3990539799824656</v>
+        <v>24.05424136895786</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4986849130844559</v>
+        <v>29.95260136548897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5836595261200592</v>
+        <v>34.37568258531951</v>
       </c>
       <c r="G13" t="n">
-        <v>0.653010423797774</v>
+        <v>37.22746395694872</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7217597331697508</v>
+        <v>39.43296682872449</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7925008973224524</v>
+        <v>41.24882554418615</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8692768758791516</v>
+        <v>43.06082233759861</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9402913003461499</v>
+        <v>44.62146088526289</v>
       </c>
       <c r="L13" t="n">
-        <v>1.013795251058858</v>
+        <v>46.8005876085121</v>
       </c>
       <c r="M13" t="n">
-        <v>1.117539841564218</v>
+        <v>51.26320661475092</v>
       </c>
       <c r="N13" t="n">
-        <v>1.24669287265905</v>
+        <v>58.0341853666892</v>
       </c>
       <c r="O13" t="n">
-        <v>1.405558058506374</v>
+        <v>69.88134144038746</v>
       </c>
     </row>
     <row r="14">

--- a/RICE13_pyomo/Results/coop.xlsx
+++ b/RICE13_pyomo/Results/coop.xlsx
@@ -497,46 +497,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.7226590117783</v>
+        <v>186.7654584071862</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9428782221307</v>
+        <v>183.0091049694514</v>
       </c>
       <c r="D2" t="n">
-        <v>173.0416477146335</v>
+        <v>173.1529347454531</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9438441824673</v>
+        <v>160.0855162323259</v>
       </c>
       <c r="F2" t="n">
-        <v>144.3265701873277</v>
+        <v>144.4762410603242</v>
       </c>
       <c r="G2" t="n">
-        <v>128.3007481823361</v>
+        <v>128.44144220491</v>
       </c>
       <c r="H2" t="n">
-        <v>113.7543856043602</v>
+        <v>113.8771502173751</v>
       </c>
       <c r="I2" t="n">
-        <v>100.6657157507284</v>
+        <v>100.7669049443006</v>
       </c>
       <c r="J2" t="n">
-        <v>88.95567357655081</v>
+        <v>89.03566087553506</v>
       </c>
       <c r="K2" t="n">
-        <v>78.28142702231719</v>
+        <v>78.3424379614966</v>
       </c>
       <c r="L2" t="n">
-        <v>68.62713118288023</v>
+        <v>68.6724586725674</v>
       </c>
       <c r="M2" t="n">
-        <v>60.18064208334361</v>
+        <v>60.21387680695582</v>
       </c>
       <c r="N2" t="n">
-        <v>52.89370002990679</v>
+        <v>52.91903174097154</v>
       </c>
       <c r="O2" t="n">
-        <v>46.32072550019908</v>
+        <v>46.33703275071995</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +549,43 @@
         <v>30.15992716991271</v>
       </c>
       <c r="C3" t="n">
-        <v>47.80560505167927</v>
+        <v>47.69984009436878</v>
       </c>
       <c r="D3" t="n">
-        <v>65.82374397727884</v>
+        <v>65.73495582318272</v>
       </c>
       <c r="E3" t="n">
-        <v>83.87254215489516</v>
+        <v>83.94808598072449</v>
       </c>
       <c r="F3" t="n">
-        <v>101.6956879201641</v>
+        <v>102.0430040795022</v>
       </c>
       <c r="G3" t="n">
-        <v>119.5277735768016</v>
+        <v>120.1976851746613</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9852758465027</v>
+        <v>138.9824679967979</v>
       </c>
       <c r="I3" t="n">
-        <v>157.1872030762744</v>
+        <v>158.4747320071446</v>
       </c>
       <c r="J3" t="n">
-        <v>177.1004203629648</v>
+        <v>178.6061972455655</v>
       </c>
       <c r="K3" t="n">
-        <v>196.9776616655946</v>
+        <v>198.6117111448372</v>
       </c>
       <c r="L3" t="n">
-        <v>215.5691023417912</v>
+        <v>217.2220931639481</v>
       </c>
       <c r="M3" t="n">
-        <v>228.959843326831</v>
+        <v>230.4823414292888</v>
       </c>
       <c r="N3" t="n">
-        <v>226.7975635465231</v>
+        <v>227.9237536297481</v>
       </c>
       <c r="O3" t="n">
-        <v>175.2930811355861</v>
+        <v>176.3005320456239</v>
       </c>
     </row>
     <row r="4">
@@ -595,46 +595,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2430313304758268</v>
+        <v>0.2423420155987285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2386296433736725</v>
+        <v>0.2381302713628378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2349505641193365</v>
+        <v>0.2346518636708179</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2313208560022008</v>
+        <v>0.2311817235732932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2299500316089927</v>
+        <v>0.2299245924233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2307588461420892</v>
+        <v>0.2308125839760485</v>
       </c>
       <c r="H4" t="n">
-        <v>0.231300002954975</v>
+        <v>0.2314013153107405</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2313140527066732</v>
+        <v>0.2314304375761554</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2297985224977231</v>
+        <v>0.2299083028794614</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2262901138257062</v>
+        <v>0.2263643412717178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2172004854329218</v>
+        <v>0.2171886677716305</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1924249525763409</v>
+        <v>0.1921975875074922</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196884538386891</v>
+        <v>0.1198158774646904</v>
       </c>
       <c r="O4" t="n">
-        <v>2.596530610488532e-09</v>
+        <v>2.603387878658076e-09</v>
       </c>
     </row>
     <row r="5">
@@ -644,46 +644,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.72894886925445</v>
+        <v>3.7183723735234</v>
       </c>
       <c r="C5" t="n">
-        <v>4.915496017982261</v>
+        <v>4.910304998605876</v>
       </c>
       <c r="D5" t="n">
-        <v>6.09212217833558</v>
+        <v>6.102772412425472</v>
       </c>
       <c r="E5" t="n">
-        <v>7.245114075437376</v>
+        <v>7.277211641036249</v>
       </c>
       <c r="F5" t="n">
-        <v>8.406867974790238</v>
+        <v>8.46174896891025</v>
       </c>
       <c r="G5" t="n">
-        <v>9.630851820711749</v>
+        <v>9.707212662646606</v>
       </c>
       <c r="H5" t="n">
-        <v>10.90747123373476</v>
+        <v>11.00145418647729</v>
       </c>
       <c r="I5" t="n">
-        <v>12.22926315906475</v>
+        <v>12.33494748940487</v>
       </c>
       <c r="J5" t="n">
-        <v>13.52265633523818</v>
+        <v>13.63355808970605</v>
       </c>
       <c r="K5" t="n">
-        <v>14.68872385376861</v>
+        <v>14.79704715363745</v>
       </c>
       <c r="L5" t="n">
-        <v>15.3795544988538</v>
+        <v>15.47416808296265</v>
       </c>
       <c r="M5" t="n">
-        <v>14.69642025297832</v>
+        <v>14.7559530349588</v>
       </c>
       <c r="N5" t="n">
-        <v>9.621366045970376</v>
+        <v>9.682843316826661</v>
       </c>
       <c r="O5" t="n">
-        <v>2.043773097228922e-07</v>
+        <v>2.057426959356929e-07</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +696,43 @@
         <v>15.99182389482275</v>
       </c>
       <c r="C6" t="n">
-        <v>21.36572952878731</v>
+        <v>21.35153769411844</v>
       </c>
       <c r="D6" t="n">
-        <v>26.81763071557711</v>
+        <v>26.80677348030167</v>
       </c>
       <c r="E6" t="n">
-        <v>32.32952288304423</v>
+        <v>32.3382558709424</v>
       </c>
       <c r="F6" t="n">
-        <v>37.67617068173146</v>
+        <v>37.71472668660375</v>
       </c>
       <c r="G6" t="n">
-        <v>42.94494619452792</v>
+        <v>43.01701244453609</v>
       </c>
       <c r="H6" t="n">
-        <v>48.44457889498079</v>
+        <v>48.54934411886299</v>
       </c>
       <c r="I6" t="n">
-        <v>54.21348010508937</v>
+        <v>54.34631961410929</v>
       </c>
       <c r="J6" t="n">
-        <v>60.22788325453713</v>
+        <v>60.38105257352714</v>
       </c>
       <c r="K6" t="n">
-        <v>66.30679930002567</v>
+        <v>66.47133898605534</v>
       </c>
       <c r="L6" t="n">
-        <v>72.19839401938673</v>
+        <v>72.36403608655084</v>
       </c>
       <c r="M6" t="n">
-        <v>77.75519270345075</v>
+        <v>77.9099460166838</v>
       </c>
       <c r="N6" t="n">
-        <v>81.75988298642412</v>
+        <v>81.88146840791944</v>
       </c>
       <c r="O6" t="n">
-        <v>79.64467214519055</v>
+        <v>79.78171786134052</v>
       </c>
     </row>
     <row r="7">
@@ -742,46 +742,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.34349033087053</v>
+        <v>15.34349033260624</v>
       </c>
       <c r="C7" t="n">
-        <v>20.59884911400147</v>
+        <v>20.62024693670328</v>
       </c>
       <c r="D7" t="n">
-        <v>25.92937880856186</v>
+        <v>26.00777303429717</v>
       </c>
       <c r="E7" t="n">
-        <v>31.32062625329574</v>
+        <v>31.47831726727785</v>
       </c>
       <c r="F7" t="n">
-        <v>36.55954259265024</v>
+        <v>36.80227886772479</v>
       </c>
       <c r="G7" t="n">
-        <v>41.73556932583021</v>
+        <v>42.05668727166942</v>
       </c>
       <c r="H7" t="n">
-        <v>47.15724640893331</v>
+        <v>47.54274698786322</v>
       </c>
       <c r="I7" t="n">
-        <v>52.86865633958062</v>
+        <v>53.29872603877303</v>
       </c>
       <c r="J7" t="n">
-        <v>58.84570617886443</v>
+        <v>59.29998142282833</v>
       </c>
       <c r="K7" t="n">
-        <v>64.91102773089855</v>
+        <v>65.36827784141018</v>
       </c>
       <c r="L7" t="n">
-        <v>70.80810371210463</v>
+        <v>71.24758506845036</v>
       </c>
       <c r="M7" t="n">
-        <v>76.37481551228551</v>
+        <v>76.77491287128457</v>
       </c>
       <c r="N7" t="n">
-        <v>80.38675191625116</v>
+        <v>80.81435884555606</v>
       </c>
       <c r="O7" t="n">
-        <v>78.71168893496657</v>
+        <v>79.02882917383158</v>
       </c>
     </row>
     <row r="8">
@@ -791,46 +791,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.000000001832225</v>
+        <v>1.000000000842756</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000000002994608</v>
+        <v>1.000000002286923</v>
       </c>
       <c r="D8" t="n">
-        <v>1.00000000278852</v>
+        <v>1.000000002117434</v>
       </c>
       <c r="E8" t="n">
-        <v>1.000000002338949</v>
+        <v>1.000000001604544</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000001709621</v>
+        <v>1.000000000830728</v>
       </c>
       <c r="G8" t="n">
-        <v>1.000000000796262</v>
+        <v>0.9999999996791744</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999994044063</v>
+        <v>0.9999999979231916</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999971667662</v>
+        <v>0.9999999951143207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999932919429</v>
+        <v>0.999999990255765</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999999857497029</v>
+        <v>0.9999999807537252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999999677272663</v>
+        <v>0.9999999575427203</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9999999009081314</v>
+        <v>0.9999998645239242</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9891903591091473</v>
+        <v>0.922061919299172</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005604166023089689</v>
+        <v>0.005613162017416592</v>
       </c>
     </row>
     <row r="9">
@@ -840,46 +840,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6264914168058848</v>
+        <v>0.6264914150701819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6813311386796975</v>
+        <v>0.680878574320126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7057628759809258</v>
+        <v>0.7054771434632219</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7109324373423025</v>
+        <v>0.7111244759665153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7000936475230206</v>
+        <v>0.7008100884091116</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6811791835571883</v>
+        <v>0.6823222735372565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6619595519637632</v>
+        <v>0.6633910889686537</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6434693577991113</v>
+        <v>0.6450460496555528</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6256172762189058</v>
+        <v>0.6272083175411063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6068894364574922</v>
+        <v>0.608395418258263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5858603437916732</v>
+        <v>0.5872044444570714</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5625208381475256</v>
+        <v>0.5636403453551403</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5141406182180766</v>
+        <v>0.4229332874812887</v>
       </c>
       <c r="O9" t="n">
-        <v>2.307257616597802e-07</v>
+        <v>2.321631041404039e-07</v>
       </c>
     </row>
     <row r="10">
@@ -892,43 +892,43 @@
         <v>0.001365832145850479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004004041892923523</v>
+        <v>0.002361056323776129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006804815569643836</v>
+        <v>0.003488793703949769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00921647354599392</v>
+        <v>0.004601798201236663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01105564695193857</v>
+        <v>0.0056115408770817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01229941429540857</v>
+        <v>0.006462626842992822</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0129090385002503</v>
+        <v>0.007069220980428685</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01293690068134526</v>
+        <v>0.007407079790113409</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01256162027571836</v>
+        <v>0.007516643281516555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01189745457475778</v>
+        <v>0.007441789708654352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01114193708068388</v>
+        <v>0.007313668532949208</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01051835028095066</v>
+        <v>0.007334016120633986</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0105062583332894</v>
+        <v>0.007867180296192555</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01171431753523217</v>
+        <v>0.009436854401334786</v>
       </c>
     </row>
     <row r="11">
@@ -938,46 +938,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.61454146161608</v>
+        <v>11.62511795908284</v>
       </c>
       <c r="C11" t="n">
-        <v>15.68335309601921</v>
+        <v>15.7099419380974</v>
       </c>
       <c r="D11" t="n">
-        <v>19.83725663022629</v>
+        <v>19.9050006218717</v>
       </c>
       <c r="E11" t="n">
-        <v>24.07551217785837</v>
+        <v>24.2011056262416</v>
       </c>
       <c r="F11" t="n">
-        <v>28.15267461786</v>
+        <v>28.34052989881454</v>
       </c>
       <c r="G11" t="n">
-        <v>32.10471750511845</v>
+        <v>32.34947460902281</v>
       </c>
       <c r="H11" t="n">
-        <v>36.24977517519855</v>
+        <v>36.54129280138593</v>
       </c>
       <c r="I11" t="n">
-        <v>40.63939318051588</v>
+        <v>40.96377854936816</v>
       </c>
       <c r="J11" t="n">
-        <v>45.32304984362624</v>
+        <v>45.66642333312228</v>
       </c>
       <c r="K11" t="n">
-        <v>50.22230387712995</v>
+        <v>50.57123068777274</v>
       </c>
       <c r="L11" t="n">
-        <v>55.42854921325083</v>
+        <v>55.77341698548771</v>
       </c>
       <c r="M11" t="n">
-        <v>61.67839525930719</v>
+        <v>62.01895983632577</v>
       </c>
       <c r="N11" t="n">
-        <v>70.76538587028078</v>
+        <v>71.13151552872939</v>
       </c>
       <c r="O11" t="n">
-        <v>78.71168873058926</v>
+        <v>79.02882896808889</v>
       </c>
     </row>
     <row r="12">
@@ -987,46 +987,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.96780564031238e-09</v>
+        <v>-1.365080799116215e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.522418744944733e-09</v>
+        <v>-4.214560372553476e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.574958908704462e-09</v>
+        <v>-4.231572822465971e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.928560455257299e-09</v>
+        <v>-3.38195718424123e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.710804665888931e-09</v>
+        <v>-1.804975014488323e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.758512064541888e-09</v>
+        <v>7.09719158344886e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>1.336271876471053e-09</v>
+        <v>4.669596449884494e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>6.457637259126462e-09</v>
+        <v>1.116295164652013e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>1.553025195587278e-08</v>
+        <v>2.261687425835689e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>3.342493620242061e-08</v>
+        <v>4.525532762613618e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>7.629220468501627e-08</v>
+        <v>1.005985729961704e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>2.347383245962787e-07</v>
+        <v>3.215674578320513e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02517167453031118</v>
+        <v>0.1817589935051601</v>
       </c>
       <c r="O12" t="n">
-        <v>2.117680650586607</v>
+        <v>2.121305382722352</v>
       </c>
     </row>
     <row r="13">
@@ -1036,46 +1036,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.7336760709758</v>
+        <v>10.73367612569833</v>
       </c>
       <c r="C13" t="n">
-        <v>12.35558282379114</v>
+        <v>12.34737587600141</v>
       </c>
       <c r="D13" t="n">
-        <v>13.38150894807228</v>
+        <v>13.37609143180543</v>
       </c>
       <c r="E13" t="n">
-        <v>13.9399393590746</v>
+        <v>13.94370492740571</v>
       </c>
       <c r="F13" t="n">
-        <v>14.05842396019566</v>
+        <v>14.0728107477576</v>
       </c>
       <c r="G13" t="n">
-        <v>13.8872206034772</v>
+        <v>13.91052493702579</v>
       </c>
       <c r="H13" t="n">
-        <v>13.59567344854003</v>
+        <v>13.62507526898484</v>
       </c>
       <c r="I13" t="n">
-        <v>13.22293342781209</v>
+        <v>13.25533377511404</v>
       </c>
       <c r="J13" t="n">
-        <v>12.78467607676269</v>
+        <v>12.81718979131889</v>
       </c>
       <c r="K13" t="n">
-        <v>12.26654855926516</v>
+        <v>12.29698819832129</v>
       </c>
       <c r="L13" t="n">
-        <v>11.65624494385059</v>
+        <v>11.68298804245911</v>
       </c>
       <c r="M13" t="n">
-        <v>10.97023996495689</v>
+        <v>10.99207569257943</v>
       </c>
       <c r="N13" t="n">
-        <v>10.65719667014918</v>
+        <v>14.21866092785203</v>
       </c>
       <c r="O13" t="n">
-        <v>60.42855399510715</v>
+        <v>60.5319876114106</v>
       </c>
     </row>
     <row r="14">
@@ -1246,46 +1246,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-356.3447996898158</v>
+        <v>-355.8527952236498</v>
       </c>
       <c r="C2" t="n">
-        <v>-177.9430141245363</v>
+        <v>-176.0503292657534</v>
       </c>
       <c r="D2" t="n">
-        <v>-23.63379537266138</v>
+        <v>-20.40778904127074</v>
       </c>
       <c r="E2" t="n">
-        <v>98.65769184654582</v>
+        <v>102.5924532863096</v>
       </c>
       <c r="F2" t="n">
-        <v>179.9473378731329</v>
+        <v>183.8481846371137</v>
       </c>
       <c r="G2" t="n">
-        <v>222.9941288251597</v>
+        <v>226.4197254968104</v>
       </c>
       <c r="H2" t="n">
-        <v>244.015493852115</v>
+        <v>246.8507577514482</v>
       </c>
       <c r="I2" t="n">
-        <v>250.9037475933234</v>
+        <v>253.1470007782614</v>
       </c>
       <c r="J2" t="n">
-        <v>248.8705361008277</v>
+        <v>250.5872874848627</v>
       </c>
       <c r="K2" t="n">
-        <v>234.2383580767375</v>
+        <v>235.4826383493698</v>
       </c>
       <c r="L2" t="n">
-        <v>210.6879529487459</v>
+        <v>211.5460192672426</v>
       </c>
       <c r="M2" t="n">
-        <v>187.6275579648093</v>
+        <v>188.2042995857725</v>
       </c>
       <c r="N2" t="n">
-        <v>166.7492164778313</v>
+        <v>167.1271780262335</v>
       </c>
       <c r="O2" t="n">
-        <v>146.020276137439</v>
+        <v>146.2641738731892</v>
       </c>
     </row>
     <row r="3">
@@ -1298,43 +1298,43 @@
         <v>4.61992195780226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.712355066647984</v>
+        <v>7.696970205211095</v>
       </c>
       <c r="D3" t="n">
-        <v>12.69898212123476</v>
+        <v>12.70560292566162</v>
       </c>
       <c r="E3" t="n">
-        <v>20.00967764858038</v>
+        <v>20.10556597146511</v>
       </c>
       <c r="F3" t="n">
-        <v>29.67275709446419</v>
+        <v>29.94297713766659</v>
       </c>
       <c r="G3" t="n">
-        <v>41.80806472977329</v>
+        <v>42.33746584064755</v>
       </c>
       <c r="H3" t="n">
-        <v>56.98474732539855</v>
+        <v>57.84976075206414</v>
       </c>
       <c r="I3" t="n">
-        <v>75.5442921838584</v>
+        <v>76.79655545557273</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32023406183491</v>
+        <v>98.96447666793547</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3608911668609</v>
+        <v>122.3379718938337</v>
       </c>
       <c r="L3" t="n">
-        <v>142.877575903815</v>
+        <v>145.0730195489862</v>
       </c>
       <c r="M3" t="n">
-        <v>163.0544766713189</v>
+        <v>165.3134604242102</v>
       </c>
       <c r="N3" t="n">
-        <v>172.3413325491086</v>
+        <v>174.393119505324</v>
       </c>
       <c r="O3" t="n">
-        <v>141.7814889019136</v>
+        <v>143.1588179243978</v>
       </c>
     </row>
     <row r="4">
@@ -1344,46 +1344,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2497411225231278</v>
+        <v>0.2491112186829689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2437940750433318</v>
+        <v>0.2433319382882068</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2369188734970301</v>
+        <v>0.2366608506144816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2265657293363985</v>
+        <v>0.2264902811451939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2221423216186577</v>
+        <v>0.2222058571600738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2237195499837729</v>
+        <v>0.2238866143610441</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2245239441624533</v>
+        <v>0.2247569137533017</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2232979035740641</v>
+        <v>0.2235527286553004</v>
       </c>
       <c r="J4" t="n">
-        <v>0.216490236773318</v>
+        <v>0.2167443079114798</v>
       </c>
       <c r="K4" t="n">
-        <v>0.209776361565835</v>
+        <v>0.2100084319930793</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2034979959474026</v>
+        <v>0.2036816896970443</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1832209317327038</v>
+        <v>0.1832952571846186</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1181796932531777</v>
+        <v>0.1180955818721844</v>
       </c>
       <c r="O4" t="n">
-        <v>1.373060191066882e-10</v>
+        <v>1.394144611978995e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1393,46 +1393,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6101487885017752</v>
+        <v>0.6086103023580864</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000985018709861</v>
+        <v>1.002183536101244</v>
       </c>
       <c r="D5" t="n">
-        <v>1.558181637169045</v>
+        <v>1.567539616281542</v>
       </c>
       <c r="E5" t="n">
-        <v>2.269581390505334</v>
+        <v>2.293259975740849</v>
       </c>
       <c r="F5" t="n">
-        <v>3.146181407260931</v>
+        <v>3.1896995280336</v>
       </c>
       <c r="G5" t="n">
-        <v>4.240717653182137</v>
+        <v>4.308759920496011</v>
       </c>
       <c r="H5" t="n">
-        <v>5.567493937694579</v>
+        <v>5.66255911163848</v>
       </c>
       <c r="I5" t="n">
-        <v>7.097956810470852</v>
+        <v>7.218717350663323</v>
       </c>
       <c r="J5" t="n">
-        <v>8.642742376401339</v>
+        <v>8.783119254394508</v>
       </c>
       <c r="K5" t="n">
-        <v>10.09103281227081</v>
+        <v>10.24164063440466</v>
       </c>
       <c r="L5" t="n">
-        <v>11.32361463799073</v>
+        <v>11.47296262672729</v>
       </c>
       <c r="M5" t="n">
-        <v>11.54877519720313</v>
+        <v>11.67518799970773</v>
       </c>
       <c r="N5" t="n">
-        <v>8.168978190393506</v>
+        <v>8.235169705110849</v>
       </c>
       <c r="O5" t="n">
-        <v>9.574468373946837e-09</v>
+        <v>9.793127279167241e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1445,43 +1445,43 @@
         <v>2.45867138086419</v>
       </c>
       <c r="C6" t="n">
-        <v>4.159113082699434</v>
+        <v>4.156622321941773</v>
       </c>
       <c r="D6" t="n">
-        <v>6.705307143745757</v>
+        <v>6.706355726100861</v>
       </c>
       <c r="E6" t="n">
-        <v>10.27094035293423</v>
+        <v>10.28568145802059</v>
       </c>
       <c r="F6" t="n">
-        <v>14.58812115094499</v>
+        <v>14.62784953891997</v>
       </c>
       <c r="G6" t="n">
-        <v>19.59576650504857</v>
+        <v>19.66987926877627</v>
       </c>
       <c r="H6" t="n">
-        <v>25.6994570065174</v>
+        <v>25.81587380642291</v>
       </c>
       <c r="I6" t="n">
-        <v>32.99310208398671</v>
+        <v>33.15623248794534</v>
       </c>
       <c r="J6" t="n">
-        <v>41.4933364987759</v>
+        <v>41.70241581816171</v>
       </c>
       <c r="K6" t="n">
-        <v>50.04172552548952</v>
+        <v>50.28692052512755</v>
       </c>
       <c r="L6" t="n">
-        <v>57.92871578451642</v>
+        <v>58.19433020201114</v>
       </c>
       <c r="M6" t="n">
-        <v>65.6770847470994</v>
+        <v>65.94874178665263</v>
       </c>
       <c r="N6" t="n">
-        <v>72.18814759700865</v>
+        <v>72.44490838443724</v>
       </c>
       <c r="O6" t="n">
-        <v>73.15839534014432</v>
+        <v>73.37088243215425</v>
       </c>
     </row>
     <row r="7">
@@ -1491,46 +1491,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.443125034185234</v>
+        <v>2.44312683136376</v>
       </c>
       <c r="C7" t="n">
-        <v>4.10586278002017</v>
+        <v>4.118586089238476</v>
       </c>
       <c r="D7" t="n">
-        <v>6.576857361212205</v>
+        <v>6.623569602709869</v>
       </c>
       <c r="E7" t="n">
-        <v>10.01731990602834</v>
+        <v>10.12520256562679</v>
       </c>
       <c r="F7" t="n">
-        <v>14.16290864494451</v>
+        <v>14.35470499652845</v>
       </c>
       <c r="G7" t="n">
-        <v>18.95550770368405</v>
+        <v>19.24527704701281</v>
       </c>
       <c r="H7" t="n">
-        <v>24.79688283787783</v>
+        <v>25.19414872306813</v>
       </c>
       <c r="I7" t="n">
-        <v>31.78693886893829</v>
+        <v>32.29089349114581</v>
       </c>
       <c r="J7" t="n">
-        <v>39.92208842863874</v>
+        <v>40.5229523166145</v>
       </c>
       <c r="K7" t="n">
-        <v>48.103765061746</v>
+        <v>48.76775916665178</v>
       </c>
       <c r="L7" t="n">
-        <v>55.6448459616158</v>
+        <v>56.3279038179237</v>
       </c>
       <c r="M7" t="n">
-        <v>63.03196413197664</v>
+        <v>63.69607255002922</v>
       </c>
       <c r="N7" t="n">
-        <v>69.12336599903854</v>
+        <v>69.73308886376313</v>
       </c>
       <c r="O7" t="n">
-        <v>69.73087149593475</v>
+        <v>70.24470198443652</v>
       </c>
     </row>
     <row r="8">
@@ -1540,46 +1540,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1069205240435889</v>
+        <v>0.1066079970188699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143873499705213</v>
+        <v>0.1392730226785625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1877173977397082</v>
+        <v>0.1790947887776327</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2377387582757148</v>
+        <v>0.2251625308474243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2913158624123589</v>
+        <v>0.2748577114162989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3449262893997049</v>
+        <v>0.3247189727455567</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3954894520492065</v>
+        <v>0.3717768517811057</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4385909904734092</v>
+        <v>0.4119525346517556</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4689158745188713</v>
+        <v>0.4401948385279598</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4778728882346707</v>
+        <v>0.4485447233687792</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4543508470685714</v>
+        <v>0.4266121486759029</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3876368126901331</v>
+        <v>0.3647290730965353</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2680373224799791</v>
+        <v>0.2531850387722007</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002494047451554218</v>
+        <v>0.002504062844224594</v>
       </c>
     </row>
     <row r="9">
@@ -1589,46 +1589,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002201657684258661</v>
+        <v>0.000218368589899787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006678345320568513</v>
+        <v>0.0006093826008462007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001802890322347505</v>
+        <v>0.001580726757522917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004323695894621516</v>
+        <v>0.003718665989825754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008894816118409166</v>
+        <v>0.007578804741133669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01592858912729857</v>
+        <v>0.01350220130378936</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02575746886841121</v>
+        <v>0.02176100249638354</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03753798444084774</v>
+        <v>0.03165322028840403</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04884450072996512</v>
+        <v>0.04112809182592993</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05376246217630355</v>
+        <v>0.04524632630062352</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0471423435461349</v>
+        <v>0.0397004286842343</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03010918360736882</v>
+        <v>0.02549286582523023</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01041871484009156</v>
+        <v>0.008913245555029229</v>
       </c>
       <c r="O9" t="n">
-        <v>1.928588291272574e-08</v>
+        <v>1.956026716891069e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1641,43 +1641,43 @@
         <v>0.006233521498567667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0126427118238098</v>
+        <v>0.009004149812910521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01888756018124122</v>
+        <v>0.01210872192738295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02427204739243212</v>
+        <v>0.01524062620875088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02853812945302434</v>
+        <v>0.01815480374909523</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03186046394645329</v>
+        <v>0.02089997680424238</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03411810216646995</v>
+        <v>0.02324012293200498</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03542028959970896</v>
+        <v>0.02514416488104418</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03669031458706909</v>
+        <v>0.02729662988074487</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03765253859216901</v>
+        <v>0.02931010721642137</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03861172216685584</v>
+        <v>0.03139010190618337</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03981619223181061</v>
+        <v>0.0337713246752031</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04231114088397312</v>
+        <v>0.03730981700985556</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04685072449973608</v>
+        <v>0.0426079164448961</v>
       </c>
     </row>
     <row r="11">
@@ -1687,46 +1687,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.832976245683459</v>
+        <v>1.834516529005674</v>
       </c>
       <c r="C11" t="n">
-        <v>3.10487776131031</v>
+        <v>3.116402553137232</v>
       </c>
       <c r="D11" t="n">
-        <v>5.018675724043159</v>
+        <v>5.056029986428328</v>
       </c>
       <c r="E11" t="n">
-        <v>7.747738515523008</v>
+        <v>7.831942589885939</v>
       </c>
       <c r="F11" t="n">
-        <v>11.01672723768358</v>
+        <v>11.16500546849485</v>
       </c>
       <c r="G11" t="n">
-        <v>14.71479005050191</v>
+        <v>14.9365171265168</v>
       </c>
       <c r="H11" t="n">
-        <v>19.22938890018325</v>
+        <v>19.53158961142965</v>
       </c>
       <c r="I11" t="n">
-        <v>24.68898205846744</v>
+        <v>25.07217614048248</v>
       </c>
       <c r="J11" t="n">
-        <v>31.2793460522374</v>
+        <v>31.73983306221999</v>
       </c>
       <c r="K11" t="n">
-        <v>38.01273224947519</v>
+        <v>38.52611853224712</v>
       </c>
       <c r="L11" t="n">
-        <v>44.32123132362506</v>
+        <v>44.8549411911964</v>
       </c>
       <c r="M11" t="n">
-        <v>51.48318893477352</v>
+        <v>52.02088455032149</v>
       </c>
       <c r="N11" t="n">
-        <v>60.95438780864503</v>
+        <v>61.49791915865227</v>
       </c>
       <c r="O11" t="n">
-        <v>69.73087148636027</v>
+        <v>70.24470197464338</v>
       </c>
     </row>
     <row r="12">
@@ -1736,46 +1736,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2176007126967244</v>
+        <v>0.2176768605706222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2884971178379594</v>
+        <v>0.2898736843209854</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3672169197104004</v>
+        <v>0.3711730662264557</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4462721716387665</v>
+        <v>0.4542860964845822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5053963639011743</v>
+        <v>0.5185417834382716</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5451444319808867</v>
+        <v>0.5640860974912286</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5798190116739012</v>
+        <v>0.6052926287526914</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6138981623972323</v>
+        <v>0.6462065611627127</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6546904595605636</v>
+        <v>0.6935734288047178</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7017260441902798</v>
+        <v>0.7447738367408877</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7732661339625159</v>
+        <v>0.8163018206157575</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9023501334478959</v>
+        <v>0.9399778923013912</v>
       </c>
       <c r="N12" t="n">
-        <v>1.093978356823903</v>
+        <v>1.120146361627191</v>
       </c>
       <c r="O12" t="n">
-        <v>1.401972198580927</v>
+        <v>1.406030081419965</v>
       </c>
     </row>
     <row r="13">
@@ -1785,46 +1785,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.432884014971</v>
+        <v>11.43674529881531</v>
       </c>
       <c r="C13" t="n">
-        <v>16.00138713820199</v>
+        <v>16.07369525260095</v>
       </c>
       <c r="D13" t="n">
-        <v>21.18136633190054</v>
+        <v>21.39556663380044</v>
       </c>
       <c r="E13" t="n">
-        <v>26.43215013647919</v>
+        <v>26.87163212087619</v>
       </c>
       <c r="F13" t="n">
-        <v>30.41058129975126</v>
+        <v>31.12972642960997</v>
       </c>
       <c r="G13" t="n">
-        <v>33.02137103921159</v>
+        <v>34.04205327564014</v>
       </c>
       <c r="H13" t="n">
-        <v>35.07098283283918</v>
+        <v>36.40897617279011</v>
       </c>
       <c r="I13" t="n">
-        <v>36.77449882549014</v>
+        <v>38.41566022450541</v>
       </c>
       <c r="J13" t="n">
-        <v>38.45744032565273</v>
+        <v>40.35777735911343</v>
       </c>
       <c r="K13" t="n">
-        <v>39.86765077238203</v>
+        <v>41.88937466794972</v>
       </c>
       <c r="L13" t="n">
-        <v>41.74751448770336</v>
+        <v>43.69598384656848</v>
       </c>
       <c r="M13" t="n">
-        <v>45.55584284129866</v>
+        <v>47.21059466669644</v>
       </c>
       <c r="N13" t="n">
-        <v>51.26162343668942</v>
+        <v>52.39158387176614</v>
       </c>
       <c r="O13" t="n">
-        <v>61.11848729583815</v>
+        <v>61.29538976137274</v>
       </c>
     </row>
     <row r="14">
@@ -1995,46 +1995,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.572055821664</v>
+        <v>174.6493854022039</v>
       </c>
       <c r="C2" t="n">
-        <v>207.6609905462715</v>
+        <v>207.9842093679697</v>
       </c>
       <c r="D2" t="n">
-        <v>220.3252003697352</v>
+        <v>220.8651759622059</v>
       </c>
       <c r="E2" t="n">
-        <v>217.4372866222774</v>
+        <v>218.0783249404494</v>
       </c>
       <c r="F2" t="n">
-        <v>202.89412626522</v>
+        <v>203.5264391219796</v>
       </c>
       <c r="G2" t="n">
-        <v>184.0857559985883</v>
+        <v>184.647524610681</v>
       </c>
       <c r="H2" t="n">
-        <v>164.9374254918152</v>
+        <v>165.4036173873892</v>
       </c>
       <c r="I2" t="n">
-        <v>146.4662274215896</v>
+        <v>146.8321648152501</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2100565256547</v>
+        <v>129.4842525136942</v>
       </c>
       <c r="K2" t="n">
-        <v>113.5535578907968</v>
+        <v>113.7505802898255</v>
       </c>
       <c r="L2" t="n">
-        <v>99.55369021373585</v>
+        <v>99.68987458838374</v>
       </c>
       <c r="M2" t="n">
-        <v>87.13184515886013</v>
+        <v>87.22230405771521</v>
       </c>
       <c r="N2" t="n">
-        <v>76.38031188223788</v>
+        <v>76.43833305084884</v>
       </c>
       <c r="O2" t="n">
-        <v>66.50758333722899</v>
+        <v>66.54340730594662</v>
       </c>
     </row>
     <row r="3">
@@ -2047,43 +2047,43 @@
         <v>13.44037364302173</v>
       </c>
       <c r="C3" t="n">
-        <v>20.94330650759215</v>
+        <v>20.92646000831528</v>
       </c>
       <c r="D3" t="n">
-        <v>30.11906142172609</v>
+        <v>30.13492667629153</v>
       </c>
       <c r="E3" t="n">
-        <v>40.75927975030596</v>
+        <v>40.87297227073179</v>
       </c>
       <c r="F3" t="n">
-        <v>52.52700389476137</v>
+        <v>52.79531577651218</v>
       </c>
       <c r="G3" t="n">
-        <v>65.52206073684262</v>
+        <v>65.98451107914019</v>
       </c>
       <c r="H3" t="n">
-        <v>79.89997725690952</v>
+        <v>80.58186502081742</v>
       </c>
       <c r="I3" t="n">
-        <v>95.63603500752151</v>
+        <v>96.54973289611483</v>
       </c>
       <c r="J3" t="n">
-        <v>112.6132571176675</v>
+        <v>113.7561094793408</v>
       </c>
       <c r="K3" t="n">
-        <v>130.571870907434</v>
+        <v>131.9292486303139</v>
       </c>
       <c r="L3" t="n">
-        <v>148.7320723956029</v>
+        <v>150.2538144409808</v>
       </c>
       <c r="M3" t="n">
-        <v>164.3700280753822</v>
+        <v>165.9320801035381</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3634343109403</v>
+        <v>170.7255465705472</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5642120626118</v>
+        <v>137.3965793466486</v>
       </c>
     </row>
     <row r="4">
@@ -2093,46 +2093,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2290739606995971</v>
+        <v>0.2288145137165466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2239575264656682</v>
+        <v>0.2237334242217231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2191449847138099</v>
+        <v>0.2189531838684754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2152714996262046</v>
+        <v>0.2150837906257489</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2152668563579622</v>
+        <v>0.2150653842162435</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2168531684564204</v>
+        <v>0.2166509379480675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2181355452083527</v>
+        <v>0.2179691270411021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2189314718030511</v>
+        <v>0.2188425493413099</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2189416405564866</v>
+        <v>0.2189698163196341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2169316100892962</v>
+        <v>0.217071648402457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2095198465978786</v>
+        <v>0.2097006101295849</v>
       </c>
       <c r="M4" t="n">
-        <v>0.187625018273082</v>
+        <v>0.1877128510342405</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1199106966417876</v>
+        <v>0.1198207998765603</v>
       </c>
       <c r="O4" t="n">
-        <v>1.025315269005036e-09</v>
+        <v>1.028678344628589e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2142,46 +2142,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.625693799138218</v>
+        <v>1.624009149210531</v>
       </c>
       <c r="C5" t="n">
-        <v>2.281658197812268</v>
+        <v>2.283832124377712</v>
       </c>
       <c r="D5" t="n">
-        <v>3.025741239650241</v>
+        <v>3.036557304471458</v>
       </c>
       <c r="E5" t="n">
-        <v>3.831512181182517</v>
+        <v>3.854379156290287</v>
       </c>
       <c r="F5" t="n">
-        <v>4.72070269556906</v>
+        <v>4.7575922729599</v>
       </c>
       <c r="G5" t="n">
-        <v>5.705384732704976</v>
+        <v>5.757448862698164</v>
       </c>
       <c r="H5" t="n">
-        <v>6.777663557355682</v>
+        <v>6.845257390030747</v>
       </c>
       <c r="I5" t="n">
-        <v>7.926703361389589</v>
+        <v>8.009129922105178</v>
       </c>
       <c r="J5" t="n">
-        <v>9.130605608106546</v>
+        <v>9.226494582521248</v>
       </c>
       <c r="K5" t="n">
-        <v>10.32044761266602</v>
+        <v>10.42529298249979</v>
       </c>
       <c r="L5" t="n">
-        <v>11.25103610796431</v>
+        <v>11.3541814465182</v>
       </c>
       <c r="M5" t="n">
-        <v>11.20511493224228</v>
+        <v>11.28686077174973</v>
       </c>
       <c r="N5" t="n">
-        <v>7.751083397709434</v>
+        <v>7.786826208321031</v>
       </c>
       <c r="O5" t="n">
-        <v>6.615326081509115e-08</v>
+        <v>6.664997407727094e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2194,43 +2194,43 @@
         <v>7.122862075485028</v>
       </c>
       <c r="C6" t="n">
-        <v>10.26671808882024</v>
+        <v>10.26423987018534</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9739957114164</v>
+        <v>13.97620355051436</v>
       </c>
       <c r="E6" t="n">
-        <v>18.08595630208084</v>
+        <v>18.10107605156913</v>
       </c>
       <c r="F6" t="n">
-        <v>22.35962551292155</v>
+        <v>22.39382882488221</v>
       </c>
       <c r="G6" t="n">
-        <v>26.89646184984631</v>
+        <v>26.95327175860357</v>
       </c>
       <c r="H6" t="n">
-        <v>31.81479239640498</v>
+        <v>31.89600504421005</v>
       </c>
       <c r="I6" t="n">
-        <v>37.08763353561342</v>
+        <v>37.19357954863598</v>
       </c>
       <c r="J6" t="n">
-        <v>42.67983303636329</v>
+        <v>42.80931464138142</v>
       </c>
       <c r="K6" t="n">
-        <v>48.58218130749741</v>
+        <v>48.73314606806385</v>
       </c>
       <c r="L6" t="n">
-        <v>54.66292192970288</v>
+        <v>54.83010854094312</v>
       </c>
       <c r="M6" t="n">
-        <v>60.58453893245783</v>
+        <v>60.75669278641531</v>
       </c>
       <c r="N6" t="n">
-        <v>65.42338427822405</v>
+        <v>65.58079302206271</v>
       </c>
       <c r="O6" t="n">
-        <v>65.31137110574851</v>
+        <v>65.43054026916516</v>
       </c>
     </row>
     <row r="7">
@@ -2240,46 +2240,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.096807485989731</v>
+        <v>7.097491862873435</v>
       </c>
       <c r="C7" t="n">
-        <v>10.18790586688337</v>
+        <v>10.2078271600331</v>
       </c>
       <c r="D7" t="n">
-        <v>13.80702936734636</v>
+        <v>13.86852317386492</v>
       </c>
       <c r="E7" t="n">
-        <v>17.79851112588298</v>
+        <v>17.92036092109331</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9295379485596</v>
+        <v>22.12160869262086</v>
       </c>
       <c r="G7" t="n">
-        <v>26.30989795222453</v>
+        <v>26.57477007590088</v>
       </c>
       <c r="H7" t="n">
-        <v>31.07088095560941</v>
+        <v>31.40471076318963</v>
       </c>
       <c r="I7" t="n">
-        <v>36.20632198791586</v>
+        <v>36.59768151217261</v>
       </c>
       <c r="J7" t="n">
-        <v>41.70337622801755</v>
+        <v>42.13591963311131</v>
       </c>
       <c r="K7" t="n">
-        <v>47.57466008949909</v>
+        <v>48.02696740557752</v>
       </c>
       <c r="L7" t="n">
-        <v>53.69914254260546</v>
+        <v>54.14472299103881</v>
       </c>
       <c r="M7" t="n">
-        <v>59.72079328959</v>
+        <v>60.12833276764255</v>
       </c>
       <c r="N7" t="n">
-        <v>64.64046673721236</v>
+        <v>64.98726612026493</v>
       </c>
       <c r="O7" t="n">
-        <v>64.51992164252675</v>
+        <v>64.79185104390955</v>
       </c>
     </row>
     <row r="8">
@@ -2289,46 +2289,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3232208939627427</v>
+        <v>0.3168310821034663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4094297576500016</v>
+        <v>0.3890833939226249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4979379063679399</v>
+        <v>0.4657276320904049</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5867106957713417</v>
+        <v>0.544202690790925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6728055966130388</v>
+        <v>0.6213284881346547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7528055203538164</v>
+        <v>0.6935416421211824</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8219166963030664</v>
+        <v>0.7562422443317528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8729843608701128</v>
+        <v>0.8029664533517546</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8969523852045089</v>
+        <v>0.8251470719130349</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8828086028128642</v>
+        <v>0.8127110905997217</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8160699260546204</v>
+        <v>0.7522322557913305</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6798834945464469</v>
+        <v>0.6287585392406388</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4606326927390534</v>
+        <v>0.4282886660120084</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003891107262651518</v>
+        <v>0.003898044973633333</v>
       </c>
     </row>
     <row r="9">
@@ -2338,46 +2338,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01258646558164007</v>
+        <v>0.01190208869793604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02928059111732493</v>
+        <v>0.02538003467574824</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05805630098683603</v>
+        <v>0.04815008525281487</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1012214531153382</v>
+        <v>0.08206881933237008</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1577186788232453</v>
+        <v>0.1264024927074182</v>
       </c>
       <c r="G9" t="n">
-        <v>0.225115711084926</v>
+        <v>0.1793136846859069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2972711613459799</v>
+        <v>0.2360438797590166</v>
       </c>
       <c r="I9" t="n">
-        <v>0.360645419367371</v>
+        <v>0.2861896351961208</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3960723208227338</v>
+        <v>0.3145021241411372</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3836609651836373</v>
+        <v>0.3052741403015282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3097950937220343</v>
+        <v>0.2473714749995423</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1850432866142355</v>
+        <v>0.1490884388783772</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06062285300749309</v>
+        <v>0.04956203555235488</v>
       </c>
       <c r="O9" t="n">
-        <v>8.586512943439758e-08</v>
+        <v>8.645193633834377e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2390,43 +2390,43 @@
         <v>0.001890830367193471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004824485331245386</v>
+        <v>0.003023377850574332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007793765314685606</v>
+        <v>0.004259403577049036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01029659255900611</v>
+        <v>0.005449748449341498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01218128118385987</v>
+        <v>0.006511509965276766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01343850312188633</v>
+        <v>0.007390123165778525</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01403876140018614</v>
+        <v>0.008002582170011711</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01403880697403421</v>
+        <v>0.008326931826023051</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0135985650887742</v>
+        <v>0.00838352323870287</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01284133886179396</v>
+        <v>0.008226526594955817</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01196394686358719</v>
+        <v>0.007988568444610697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01120256699502555</v>
+        <v>0.007888375056542562</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01104031373449764</v>
+        <v>0.008294575914359874</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01211809465881744</v>
+        <v>0.009761330659601363</v>
       </c>
     </row>
     <row r="11">
@@ -2436,46 +2436,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.471113686851512</v>
+        <v>5.473482713662904</v>
       </c>
       <c r="C11" t="n">
-        <v>7.9062476690711</v>
+        <v>7.923995035655385</v>
       </c>
       <c r="D11" t="n">
-        <v>10.78128812769612</v>
+        <v>10.83196586939346</v>
       </c>
       <c r="E11" t="n">
-        <v>13.96699894470047</v>
+        <v>14.06598176480302</v>
       </c>
       <c r="F11" t="n">
-        <v>17.20883525299054</v>
+        <v>17.36401641966097</v>
       </c>
       <c r="G11" t="n">
-        <v>20.60451321951956</v>
+        <v>20.81732121320272</v>
       </c>
       <c r="H11" t="n">
-        <v>24.29321739825373</v>
+        <v>24.55945337315888</v>
       </c>
       <c r="I11" t="n">
-        <v>28.27961862652627</v>
+        <v>28.58855159006743</v>
       </c>
       <c r="J11" t="n">
-        <v>32.57277061991101</v>
+        <v>32.90942505059007</v>
       </c>
       <c r="K11" t="n">
-        <v>37.25421247683308</v>
+        <v>37.60167442307774</v>
       </c>
       <c r="L11" t="n">
-        <v>42.44810643464115</v>
+        <v>42.79054154452061</v>
       </c>
       <c r="M11" t="n">
-        <v>48.51567835734772</v>
+        <v>48.84147199589282</v>
       </c>
       <c r="N11" t="n">
-        <v>56.88938333950292</v>
+        <v>57.2004399119439</v>
       </c>
       <c r="O11" t="n">
-        <v>64.51992157637349</v>
+        <v>64.79185097725957</v>
       </c>
     </row>
     <row r="12">
@@ -2485,46 +2485,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3602409683911784</v>
+        <v>0.363642184521359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3948929040060359</v>
+        <v>0.4083991748539856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4027397470086255</v>
+        <v>0.4286456147566847</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3820407166179993</v>
+        <v>0.4216869468866942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3359769332586279</v>
+        <v>0.3894305852737573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2766048624748596</v>
+        <v>0.343644066166624</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2151149468870008</v>
+        <v>0.2951977371534729</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1643168254706953</v>
+        <v>0.2556253189199988</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1417850095651857</v>
+        <v>0.2413130704867649</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1705505872538492</v>
+        <v>0.2734116315033629</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2812160231418481</v>
+        <v>0.3799779074325876</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5087110957574601</v>
+        <v>0.5916323793177801</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8714237661070758</v>
+        <v>0.9259024670720414</v>
       </c>
       <c r="O12" t="n">
-        <v>1.517927583119472</v>
+        <v>1.520686649729972</v>
       </c>
     </row>
     <row r="13">
@@ -2534,46 +2534,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.75627179670562</v>
+        <v>15.88773146623191</v>
       </c>
       <c r="C13" t="n">
-        <v>17.39622012508967</v>
+        <v>17.89895874862423</v>
       </c>
       <c r="D13" t="n">
-        <v>17.88400534883804</v>
+        <v>18.80559545123115</v>
       </c>
       <c r="E13" t="n">
-        <v>17.22318250484898</v>
+        <v>18.55939481263604</v>
       </c>
       <c r="F13" t="n">
-        <v>15.62187815621235</v>
+        <v>17.31616675626277</v>
       </c>
       <c r="G13" t="n">
-        <v>13.6384653615082</v>
+        <v>15.62581843777091</v>
       </c>
       <c r="H13" t="n">
-        <v>11.70772636791144</v>
+        <v>13.92100196223275</v>
       </c>
       <c r="I13" t="n">
-        <v>10.17692656527946</v>
+        <v>12.52912974852129</v>
       </c>
       <c r="J13" t="n">
-        <v>9.409984883192179</v>
+        <v>11.8078159005795</v>
       </c>
       <c r="K13" t="n">
-        <v>9.792423341246939</v>
+        <v>12.12712162460207</v>
       </c>
       <c r="L13" t="n">
-        <v>11.76193431807565</v>
+        <v>13.89995219419424</v>
       </c>
       <c r="M13" t="n">
-        <v>15.77189713834881</v>
+        <v>17.51468486032783</v>
       </c>
       <c r="N13" t="n">
-        <v>21.94996299188215</v>
+        <v>23.08652132637413</v>
       </c>
       <c r="O13" t="n">
-        <v>33.48709907626531</v>
+        <v>33.54796731021753</v>
       </c>
     </row>
     <row r="14">
@@ -2744,46 +2744,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.6015280107375</v>
+        <v>73.67254381577034</v>
       </c>
       <c r="C2" t="n">
-        <v>71.3962580279141</v>
+        <v>71.45663448558464</v>
       </c>
       <c r="D2" t="n">
-        <v>66.50670305825587</v>
+        <v>66.57448539162164</v>
       </c>
       <c r="E2" t="n">
-        <v>59.92699145460809</v>
+        <v>60.0015393989726</v>
       </c>
       <c r="F2" t="n">
-        <v>52.40157107795952</v>
+        <v>52.47434116815313</v>
       </c>
       <c r="G2" t="n">
-        <v>45.02948917942906</v>
+        <v>45.09402121127678</v>
       </c>
       <c r="H2" t="n">
-        <v>38.55384933573551</v>
+        <v>38.60739489331613</v>
       </c>
       <c r="I2" t="n">
-        <v>32.91419212430545</v>
+        <v>32.95633765133025</v>
       </c>
       <c r="J2" t="n">
-        <v>28.03262039918396</v>
+        <v>28.06453486203292</v>
       </c>
       <c r="K2" t="n">
-        <v>24.20884464953284</v>
+        <v>24.23261685064614</v>
       </c>
       <c r="L2" t="n">
-        <v>21.21720597430632</v>
+        <v>21.23471417064861</v>
       </c>
       <c r="M2" t="n">
-        <v>18.59840393812495</v>
+        <v>18.61100369269005</v>
       </c>
       <c r="N2" t="n">
-        <v>16.34387823848461</v>
+        <v>16.35327997758618</v>
       </c>
       <c r="O2" t="n">
-        <v>14.29968760633621</v>
+        <v>14.30586449086753</v>
       </c>
     </row>
     <row r="3">
@@ -2796,43 +2796,43 @@
         <v>9.580191347594166</v>
       </c>
       <c r="C3" t="n">
-        <v>14.85602703357095</v>
+        <v>14.86397307410426</v>
       </c>
       <c r="D3" t="n">
-        <v>19.76915592734969</v>
+        <v>19.78763039131464</v>
       </c>
       <c r="E3" t="n">
-        <v>24.56728202093392</v>
+        <v>24.6233263273306</v>
       </c>
       <c r="F3" t="n">
-        <v>29.0915255463672</v>
+        <v>29.22219316018621</v>
       </c>
       <c r="G3" t="n">
-        <v>33.38563452607686</v>
+        <v>33.60680495562853</v>
       </c>
       <c r="H3" t="n">
-        <v>37.61027907429908</v>
+        <v>37.92154473022921</v>
       </c>
       <c r="I3" t="n">
-        <v>41.8835995663907</v>
+        <v>42.27215737254028</v>
       </c>
       <c r="J3" t="n">
-        <v>46.24629866000306</v>
+        <v>46.69013932517758</v>
       </c>
       <c r="K3" t="n">
-        <v>50.9311492605585</v>
+        <v>51.40855398099651</v>
       </c>
       <c r="L3" t="n">
-        <v>55.68068340780459</v>
+        <v>56.16642063964503</v>
       </c>
       <c r="M3" t="n">
-        <v>59.23562281103408</v>
+        <v>59.69441769636853</v>
       </c>
       <c r="N3" t="n">
-        <v>58.64553406934218</v>
+        <v>59.01822447648629</v>
       </c>
       <c r="O3" t="n">
-        <v>45.67910240424499</v>
+        <v>45.96057116322574</v>
       </c>
     </row>
     <row r="4">
@@ -2842,46 +2842,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.235100702234182</v>
+        <v>0.2346705191076128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2272836186607229</v>
+        <v>0.226905280350898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2220786430576554</v>
+        <v>0.2217876359693244</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217756509569056</v>
+        <v>0.2176256571321977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2162751228385823</v>
+        <v>0.2162589746722403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2172076427217318</v>
+        <v>0.2172722774148653</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2185971316058253</v>
+        <v>0.2187113328631563</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2204744746408103</v>
+        <v>0.2206067878497325</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2240167280764358</v>
+        <v>0.2241494994372725</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2241600550755116</v>
+        <v>0.2242703233029067</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2152823469488694</v>
+        <v>0.2153383652132912</v>
       </c>
       <c r="M4" t="n">
-        <v>0.19022353736243</v>
+        <v>0.1901527227288556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1195130552182902</v>
+        <v>0.1195573935892166</v>
       </c>
       <c r="O4" t="n">
-        <v>9.35538213233248e-09</v>
+        <v>9.383284415141927e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2891,46 +2891,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.15156208586323</v>
+        <v>1.152356689916561</v>
       </c>
       <c r="C5" t="n">
-        <v>1.458917959520073</v>
+        <v>1.460488344614757</v>
       </c>
       <c r="D5" t="n">
-        <v>1.767420357009196</v>
+        <v>1.772380622921166</v>
       </c>
       <c r="E5" t="n">
-        <v>2.052544397381119</v>
+        <v>2.063657014629931</v>
       </c>
       <c r="F5" t="n">
-        <v>2.324204677844024</v>
+        <v>2.341765622823392</v>
       </c>
       <c r="G5" t="n">
-        <v>2.596942810599789</v>
+        <v>2.62035764015557</v>
       </c>
       <c r="H5" t="n">
-        <v>2.876970612703842</v>
+        <v>2.904973230982158</v>
       </c>
       <c r="I5" t="n">
-        <v>3.164239049742091</v>
+        <v>3.195074943285852</v>
       </c>
       <c r="J5" t="n">
-        <v>3.480606198338991</v>
+        <v>3.512870903304192</v>
       </c>
       <c r="K5" t="n">
-        <v>3.792208973113278</v>
+        <v>3.824136622975451</v>
       </c>
       <c r="L5" t="n">
-        <v>3.982096897669882</v>
+        <v>4.011039776173665</v>
       </c>
       <c r="M5" t="n">
-        <v>3.799134950923884</v>
+        <v>3.820406803143867</v>
       </c>
       <c r="N5" t="n">
-        <v>2.523066906611535</v>
+        <v>2.538218871529285</v>
       </c>
       <c r="O5" t="n">
-        <v>1.932069317973443e-07</v>
+        <v>1.946449451409585e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2943,43 +2943,43 @@
         <v>5.097074969620485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.750693655101736</v>
+        <v>6.751776675072943</v>
       </c>
       <c r="D6" t="n">
-        <v>8.334674411994797</v>
+        <v>8.337010297849913</v>
       </c>
       <c r="E6" t="n">
-        <v>9.846078339293893</v>
+        <v>9.852811399225168</v>
       </c>
       <c r="F6" t="n">
-        <v>11.20524132436849</v>
+        <v>11.22031650045499</v>
       </c>
       <c r="G6" t="n">
-        <v>12.45029454958548</v>
+        <v>12.47498130036715</v>
       </c>
       <c r="H6" t="n">
-        <v>13.68840039912481</v>
+        <v>13.72228830035522</v>
       </c>
       <c r="I6" t="n">
-        <v>14.90792379246322</v>
+        <v>14.94928040977852</v>
       </c>
       <c r="J6" t="n">
-        <v>16.12995334556479</v>
+        <v>16.17623950081818</v>
       </c>
       <c r="K6" t="n">
-        <v>17.5574608992456</v>
+        <v>17.60667239832941</v>
       </c>
       <c r="L6" t="n">
-        <v>19.1994293480431</v>
+        <v>19.24952325474968</v>
       </c>
       <c r="M6" t="n">
-        <v>20.74077354741869</v>
+        <v>20.78883623659779</v>
       </c>
       <c r="N6" t="n">
-        <v>21.86204434383145</v>
+        <v>21.90363173865336</v>
       </c>
       <c r="O6" t="n">
-        <v>21.37976352253228</v>
+        <v>21.41920039063432</v>
       </c>
     </row>
     <row r="7">
@@ -2989,46 +2989,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.898165232684707</v>
+        <v>4.910530280065239</v>
       </c>
       <c r="C7" t="n">
-        <v>6.418931413169155</v>
+        <v>6.436555122719851</v>
       </c>
       <c r="D7" t="n">
-        <v>7.958533664807848</v>
+        <v>7.991340974328725</v>
       </c>
       <c r="E7" t="n">
-        <v>9.425869295219419</v>
+        <v>9.482599808424029</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74651881982147</v>
+        <v>10.82852457971996</v>
       </c>
       <c r="G7" t="n">
-        <v>11.95603790943385</v>
+        <v>12.06024841886382</v>
       </c>
       <c r="H7" t="n">
-        <v>13.16106296349579</v>
+        <v>13.28222544736512</v>
       </c>
       <c r="I7" t="n">
-        <v>14.35195187514185</v>
+        <v>14.48312164112645</v>
       </c>
       <c r="J7" t="n">
-        <v>15.53726022259993</v>
+        <v>15.67199976856186</v>
       </c>
       <c r="K7" t="n">
-        <v>16.91741631592577</v>
+        <v>17.0514607847176</v>
       </c>
       <c r="L7" t="n">
-        <v>18.49708977120939</v>
+        <v>18.62668443777196</v>
       </c>
       <c r="M7" t="n">
-        <v>19.97194986278407</v>
+        <v>20.09125479939352</v>
       </c>
       <c r="N7" t="n">
-        <v>21.11122422569786</v>
+        <v>21.23012885552081</v>
       </c>
       <c r="O7" t="n">
-        <v>20.6519551061004</v>
+        <v>20.74379679111691</v>
       </c>
     </row>
     <row r="8">
@@ -3038,46 +3038,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.869956450976227</v>
+        <v>0.8485089985472456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999517997191</v>
+        <v>0.9946219911239709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999916416121</v>
+        <v>0.9999999781957349</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999944582321</v>
+        <v>0.9999999868407112</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999932524707</v>
+        <v>0.99999998646573</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999897327821</v>
+        <v>0.9999999824087552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999983602001</v>
+        <v>0.9999999747617383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999731031797</v>
+        <v>0.9999999613306321</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999540246772</v>
+        <v>0.9999999363586934</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999999156241266</v>
+        <v>0.9999998843983648</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999998137738999</v>
+        <v>0.9999997346826384</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9999991696266518</v>
+        <v>0.9999981520950024</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7696423118421604</v>
+        <v>0.7184027669427143</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007489640518170512</v>
+        <v>0.007503226248011222</v>
       </c>
     </row>
     <row r="9">
@@ -3087,46 +3087,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1831636901308575</v>
+        <v>0.1707986427503257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.288540427989798</v>
+        <v>0.28426209947239</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2911545016811006</v>
+        <v>0.2912360900266355</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2848981200999182</v>
+        <v>0.2850929363688084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2718244823150311</v>
+        <v>0.2721901811749623</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559938566038608</v>
+        <v>0.2565014422697328</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2409183900134975</v>
+        <v>0.2415148173925899</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2266084296069042</v>
+        <v>0.2272370648593472</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2134711279572678</v>
+        <v>0.2140836893670466</v>
       </c>
       <c r="K9" t="n">
-        <v>0.203792891574052</v>
+        <v>0.204364081226018</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1967494115088446</v>
+        <v>0.1972627136367487</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1887802612963581</v>
+        <v>0.189217183559228</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08537077274726826</v>
+        <v>0.07052708617307683</v>
       </c>
       <c r="O9" t="n">
-        <v>1.743932438528584e-07</v>
+        <v>1.75603763195427e-07</v>
       </c>
     </row>
     <row r="10">
@@ -3139,43 +3139,43 @@
         <v>0.003089231941607784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00640257374293943</v>
+        <v>0.004585378689286546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01019670851011779</v>
+        <v>0.006529107143911145</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01374262110372964</v>
+        <v>0.008639021999246425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01667951780971852</v>
+        <v>0.01065939089643419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01913712021822834</v>
+        <v>0.01268390191726776</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02092421592473596</v>
+        <v>0.01446901794013234</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02209318294751253</v>
+        <v>0.01598215414010459</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02351042107086248</v>
+        <v>0.01793717525476774</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02484708320008422</v>
+        <v>0.01992696430354905</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02633360378371886</v>
+        <v>0.02210839706048135</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02796633510375764</v>
+        <v>0.02445371390006352</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03043856900665731</v>
+        <v>0.02752857627237243</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03404192199186832</v>
+        <v>0.03153261613860088</v>
       </c>
     </row>
     <row r="11">
@@ -3185,46 +3185,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.746603146821477</v>
+        <v>3.758173590148678</v>
       </c>
       <c r="C11" t="n">
-        <v>4.960013453649082</v>
+        <v>4.976066778105095</v>
       </c>
       <c r="D11" t="n">
-        <v>6.191113307798652</v>
+        <v>6.218960351407559</v>
       </c>
       <c r="E11" t="n">
-        <v>7.3733248978383</v>
+        <v>7.418942793794097</v>
       </c>
       <c r="F11" t="n">
-        <v>8.422314141977441</v>
+        <v>8.486758956896573</v>
       </c>
       <c r="G11" t="n">
-        <v>9.359095098834061</v>
+        <v>9.439890778708246</v>
       </c>
       <c r="H11" t="n">
-        <v>10.28409235079195</v>
+        <v>10.37725221638296</v>
       </c>
       <c r="I11" t="n">
-        <v>11.18771282539976</v>
+        <v>11.2880466978406</v>
       </c>
       <c r="J11" t="n">
-        <v>12.05665402426094</v>
+        <v>12.15912886525767</v>
       </c>
       <c r="K11" t="n">
-        <v>13.12520734281249</v>
+        <v>13.22732416174215</v>
       </c>
       <c r="L11" t="n">
-        <v>14.5149928735395</v>
+        <v>14.61564466159829</v>
       </c>
       <c r="M11" t="n">
-        <v>16.17281491186018</v>
+        <v>16.27084799624966</v>
       </c>
       <c r="N11" t="n">
-        <v>18.58815731908633</v>
+        <v>18.69190998399152</v>
       </c>
       <c r="O11" t="n">
-        <v>20.65195491289347</v>
+        <v>20.74379659647197</v>
       </c>
     </row>
     <row r="12">
@@ -3234,46 +3234,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0744263277776304</v>
+        <v>0.08670110139352653</v>
       </c>
       <c r="C12" t="n">
-        <v>3.079904342759432e-08</v>
+        <v>0.00343699454317713</v>
       </c>
       <c r="D12" t="n">
-        <v>5.640335476740209e-09</v>
+        <v>1.471789040974797e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>3.828765101416482e-09</v>
+        <v>9.09786921393834e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>4.652596135729346e-09</v>
+        <v>9.344784893183659e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>6.972043126110543e-09</v>
+        <v>1.196917271758583e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>1.095529168164144e-08</v>
+        <v>1.690310037145572e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>1.766404727059096e-08</v>
+        <v>2.546592607557294e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>2.971575878887295e-08</v>
+        <v>4.12520543765127e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>5.437437940500297e-08</v>
+        <v>7.470601700946235e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>1.20963490764988e-07</v>
+        <v>1.727870102404554e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>5.401172717453949e-07</v>
+        <v>1.204757204384762e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1471483188334158</v>
+        <v>0.1802213899091088</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5803084969545179</v>
+        <v>0.5813709693334543</v>
       </c>
     </row>
     <row r="13">
@@ -3283,46 +3283,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.060116690756898</v>
+        <v>6.475787349834912</v>
       </c>
       <c r="C13" t="n">
-        <v>4.106611568397383</v>
+        <v>4.221178091243948</v>
       </c>
       <c r="D13" t="n">
-        <v>4.374847795573032</v>
+        <v>4.376074198839647</v>
       </c>
       <c r="E13" t="n">
-        <v>4.465956567156437</v>
+        <v>4.469010704979294</v>
       </c>
       <c r="F13" t="n">
-        <v>4.398258140286138</v>
+        <v>4.404175571219437</v>
       </c>
       <c r="G13" t="n">
-        <v>4.235186346288905</v>
+        <v>4.243584138261696</v>
       </c>
       <c r="H13" t="n">
-        <v>4.041083988251685</v>
+        <v>4.051088545168489</v>
       </c>
       <c r="I13" t="n">
-        <v>3.824963930432569</v>
+        <v>3.835575135597871</v>
       </c>
       <c r="J13" t="n">
-        <v>3.601761317668328</v>
+        <v>3.612097180597252</v>
       </c>
       <c r="K13" t="n">
-        <v>3.416770321737719</v>
+        <v>3.42634767858454</v>
       </c>
       <c r="L13" t="n">
-        <v>3.260689120849167</v>
+        <v>3.269198031819128</v>
       </c>
       <c r="M13" t="n">
-        <v>3.078243088963646</v>
+        <v>3.085392491673158</v>
       </c>
       <c r="N13" t="n">
-        <v>6.334079700047843</v>
+        <v>7.160014102641462</v>
       </c>
       <c r="O13" t="n">
-        <v>17.03159897179285</v>
+        <v>17.06278225350673</v>
       </c>
     </row>
     <row r="14">
@@ -3493,46 +3493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-149.6387050972174</v>
+        <v>-149.3960893162287</v>
       </c>
       <c r="C2" t="n">
-        <v>20.01519417427993</v>
+        <v>21.21107887213133</v>
       </c>
       <c r="D2" t="n">
-        <v>144.1065668565326</v>
+        <v>146.120211258692</v>
       </c>
       <c r="E2" t="n">
-        <v>224.1867569447699</v>
+        <v>226.5618352653428</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7244424671173</v>
+        <v>265.0270795319689</v>
       </c>
       <c r="G2" t="n">
-        <v>272.4591115022974</v>
+        <v>274.4588720870707</v>
       </c>
       <c r="H2" t="n">
-        <v>267.7775688463361</v>
+        <v>269.4102218631473</v>
       </c>
       <c r="I2" t="n">
-        <v>254.8186610840174</v>
+        <v>256.0896287732786</v>
       </c>
       <c r="J2" t="n">
-        <v>237.4620855891333</v>
+        <v>238.4158563274196</v>
       </c>
       <c r="K2" t="n">
-        <v>216.1646774912588</v>
+        <v>216.8516233066576</v>
       </c>
       <c r="L2" t="n">
-        <v>193.0247698176196</v>
+        <v>193.5009490974782</v>
       </c>
       <c r="M2" t="n">
-        <v>171.3282139221207</v>
+        <v>171.6474927818088</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9539181335083</v>
+        <v>152.1613455643281</v>
       </c>
       <c r="O2" t="n">
-        <v>133.369532165147</v>
+        <v>133.5007128243167</v>
       </c>
     </row>
     <row r="3">
@@ -3545,43 +3545,43 @@
         <v>7.827276852851487</v>
       </c>
       <c r="C3" t="n">
-        <v>12.27298171203981</v>
+        <v>12.2595213303987</v>
       </c>
       <c r="D3" t="n">
-        <v>19.02036513190025</v>
+        <v>19.03928752633114</v>
       </c>
       <c r="E3" t="n">
-        <v>28.39493875222994</v>
+        <v>28.52105655598459</v>
       </c>
       <c r="F3" t="n">
-        <v>40.3366409432905</v>
+        <v>40.65719212720006</v>
       </c>
       <c r="G3" t="n">
-        <v>55.06889834002337</v>
+        <v>55.66613840891861</v>
       </c>
       <c r="H3" t="n">
-        <v>73.05795092179086</v>
+        <v>74.00046509638828</v>
       </c>
       <c r="I3" t="n">
-        <v>94.58876576342949</v>
+        <v>95.91942971904987</v>
       </c>
       <c r="J3" t="n">
-        <v>119.6268852098099</v>
+        <v>121.3493502750134</v>
       </c>
       <c r="K3" t="n">
-        <v>147.2054755464318</v>
+        <v>149.2821886923596</v>
       </c>
       <c r="L3" t="n">
-        <v>176.0580658701346</v>
+        <v>178.3999132073532</v>
       </c>
       <c r="M3" t="n">
-        <v>202.9437050553888</v>
+        <v>205.3798628475469</v>
       </c>
       <c r="N3" t="n">
-        <v>217.2098427815563</v>
+        <v>219.4152661705263</v>
       </c>
       <c r="O3" t="n">
-        <v>181.2940630361171</v>
+        <v>182.7391640001038</v>
       </c>
     </row>
     <row r="4">
@@ -3591,46 +3591,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2291829683550265</v>
+        <v>0.2288545046258233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2248561154728123</v>
+        <v>0.2246621190257531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2202570334630181</v>
+        <v>0.2202160464369085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214453066648492</v>
+        <v>0.2145365726208212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2130403053526627</v>
+        <v>0.2132068260433534</v>
       </c>
       <c r="G4" t="n">
-        <v>0.214902730866138</v>
+        <v>0.2151213749320809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2164565478020245</v>
+        <v>0.2167031019994326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2171435865573475</v>
+        <v>0.2173990016014524</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2154740903227836</v>
+        <v>0.2157380884462253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2126215566519618</v>
+        <v>0.2128825998031355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2063386016417108</v>
+        <v>0.2065566014518597</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1860485440683463</v>
+        <v>0.1861405063400402</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1206255353054624</v>
+        <v>0.1205366544023748</v>
       </c>
       <c r="O4" t="n">
-        <v>3.059599660986242e-10</v>
+        <v>3.078669097844629e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3640,46 +3640,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9543779028756713</v>
+        <v>0.9530318647115603</v>
       </c>
       <c r="C5" t="n">
-        <v>1.474104101317038</v>
+        <v>1.476465675247505</v>
       </c>
       <c r="D5" t="n">
-        <v>2.176294750790653</v>
+        <v>2.188246748068805</v>
       </c>
       <c r="E5" t="n">
-        <v>3.043593799242792</v>
+        <v>3.071251461725546</v>
       </c>
       <c r="F5" t="n">
-        <v>4.100438129704305</v>
+        <v>4.148985207916049</v>
       </c>
       <c r="G5" t="n">
-        <v>5.385661335056603</v>
+        <v>5.459088278957583</v>
       </c>
       <c r="H5" t="n">
-        <v>6.91150333991171</v>
+        <v>7.011706298256671</v>
       </c>
       <c r="I5" t="n">
-        <v>8.664582191243305</v>
+        <v>8.790431314529354</v>
       </c>
       <c r="J5" t="n">
-        <v>10.54941598174535</v>
+        <v>10.69702865313194</v>
       </c>
       <c r="K5" t="n">
-        <v>12.47306902824261</v>
+        <v>12.63484325193874</v>
       </c>
       <c r="L5" t="n">
-        <v>14.15560532807672</v>
+        <v>14.31756593964316</v>
       </c>
       <c r="M5" t="n">
-        <v>14.64477482747288</v>
+        <v>14.78037359648916</v>
       </c>
       <c r="N5" t="n">
-        <v>10.55576738806778</v>
+        <v>10.62337912576384</v>
       </c>
       <c r="O5" t="n">
-        <v>2.736026430175557e-08</v>
+        <v>2.769099337367599e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3692,43 +3692,43 @@
         <v>4.17964548697053</v>
       </c>
       <c r="C6" t="n">
-        <v>6.611126763176162</v>
+        <v>6.608950703473229</v>
       </c>
       <c r="D6" t="n">
-        <v>10.0116168899926</v>
+        <v>10.01460386478108</v>
       </c>
       <c r="E6" t="n">
-        <v>14.44079671912603</v>
+        <v>14.46000877818767</v>
       </c>
       <c r="F6" t="n">
-        <v>19.6517640853982</v>
+        <v>19.69848552783869</v>
       </c>
       <c r="G6" t="n">
-        <v>25.6564130293092</v>
+        <v>25.73957373733265</v>
       </c>
       <c r="H6" t="n">
-        <v>32.74737885233245</v>
+        <v>32.8735520354159</v>
       </c>
       <c r="I6" t="n">
-        <v>40.95761066498304</v>
+        <v>41.12962238105276</v>
       </c>
       <c r="J6" t="n">
-        <v>50.26044138901562</v>
+        <v>50.47646080312056</v>
       </c>
       <c r="K6" t="n">
-        <v>60.18594495690707</v>
+        <v>60.43942060602316</v>
       </c>
       <c r="L6" t="n">
-        <v>70.30776090040251</v>
+        <v>70.58702541286733</v>
       </c>
       <c r="M6" t="n">
-        <v>80.58113936162114</v>
+        <v>80.87011973461985</v>
       </c>
       <c r="N6" t="n">
-        <v>89.6033943477435</v>
+        <v>89.87536431058726</v>
       </c>
       <c r="O6" t="n">
-        <v>91.82808086945793</v>
+        <v>92.04706039741853</v>
       </c>
     </row>
     <row r="7">
@@ -3738,46 +3738,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.164261898367806</v>
+        <v>4.16435702792814</v>
       </c>
       <c r="C7" t="n">
-        <v>6.555766109440213</v>
+        <v>6.571938703552674</v>
       </c>
       <c r="D7" t="n">
-        <v>9.880704904509027</v>
+        <v>9.936817881687537</v>
       </c>
       <c r="E7" t="n">
-        <v>14.19235381805716</v>
+        <v>14.31574777300919</v>
       </c>
       <c r="F7" t="n">
-        <v>19.24724114019889</v>
+        <v>19.45990794437508</v>
       </c>
       <c r="G7" t="n">
-        <v>25.06092553291614</v>
+        <v>25.37678220344748</v>
       </c>
       <c r="H7" t="n">
-        <v>31.93021144471504</v>
+        <v>32.3562802450102</v>
       </c>
       <c r="I7" t="n">
-        <v>39.90254710541494</v>
+        <v>40.43455236581282</v>
       </c>
       <c r="J7" t="n">
-        <v>48.95909278903165</v>
+        <v>49.58340333027598</v>
       </c>
       <c r="K7" t="n">
-        <v>58.66323821840724</v>
+        <v>59.351225810014</v>
       </c>
       <c r="L7" t="n">
-        <v>68.60376689310276</v>
+        <v>69.31546045493988</v>
       </c>
       <c r="M7" t="n">
-        <v>78.71480478822247</v>
+        <v>79.40439126929459</v>
       </c>
       <c r="N7" t="n">
-        <v>87.50856409745423</v>
+        <v>88.13401349518908</v>
       </c>
       <c r="O7" t="n">
-        <v>89.42432779893878</v>
+        <v>89.94468873924258</v>
       </c>
     </row>
     <row r="8">
@@ -3787,46 +3787,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1297546305221873</v>
+        <v>0.1254959713737279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1741758334684839</v>
+        <v>0.164073492064934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2269108512887353</v>
+        <v>0.2110544392034304</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2866678950740538</v>
+        <v>0.2650340353075538</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3510049889668409</v>
+        <v>0.3236325648938775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4164679579307798</v>
+        <v>0.3835245850970198</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47912904250758</v>
+        <v>0.4410321569994484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5331490950760132</v>
+        <v>0.4908803914801839</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5710789898612166</v>
+        <v>0.5260951397516546</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5829899864987126</v>
+        <v>0.5375798782760233</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5557397380898506</v>
+        <v>0.5131634900325632</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4752873120135227</v>
+        <v>0.4403026144382917</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3289854151750184</v>
+        <v>0.3063669394574031</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002347026567526367</v>
+        <v>0.002353456532233404</v>
       </c>
     </row>
     <row r="9">
@@ -3836,46 +3836,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001066383419324777</v>
+        <v>0.0009712538589901789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003089099654879442</v>
+        <v>0.002612344295135141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007998535951508618</v>
+        <v>0.006532055818751003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01834871576336925</v>
+        <v>0.01474912754910339</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03683139326541923</v>
+        <v>0.02941158544710119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06567151301764435</v>
+        <v>0.05230882409433167</v>
       </c>
       <c r="H9" t="n">
-        <v>0.106064755029856</v>
+        <v>0.08442885692441753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1542968141201565</v>
+        <v>0.1229511767966993</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1995758430279433</v>
+        <v>0.1592946794016317</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2218171311969174</v>
+        <v>0.1775046109355618</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1998646110963752</v>
+        <v>0.1605216263019048</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1311903311252582</v>
+        <v>0.1062876077314208</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04646424457929727</v>
+        <v>0.03817840595522288</v>
       </c>
       <c r="O9" t="n">
-        <v>4.167019345244769e-08</v>
+        <v>4.209076626205242e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3888,43 +3888,43 @@
         <v>0.003425459223283617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007906602906515257</v>
+        <v>0.005205010170122995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0122770828011727</v>
+        <v>0.007115002074657334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0159336212385532</v>
+        <v>0.008956555947928149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01871035853758793</v>
+        <v>0.0106183796577104</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02065043085992436</v>
+        <v>0.01206246509593573</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02171479603891718</v>
+        <v>0.01316690490321742</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02199265852727232</v>
+        <v>0.01391014080174971</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02192127101368469</v>
+        <v>0.01453673220681895</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02161450830811656</v>
+        <v>0.01506781792317252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02139350445726917</v>
+        <v>0.01574005031557848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02153288295523673</v>
+        <v>0.01681017490829646</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02286036171532117</v>
+        <v>0.01895038114735423</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02617666628867177</v>
+        <v>0.02284018204392489</v>
       </c>
     </row>
     <row r="11">
@@ -3934,46 +3934,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.209883995492134</v>
+        <v>3.21132516321658</v>
       </c>
       <c r="C11" t="n">
-        <v>5.081662008123175</v>
+        <v>5.095473028305169</v>
       </c>
       <c r="D11" t="n">
-        <v>7.704410153718375</v>
+        <v>7.748571133618732</v>
       </c>
       <c r="E11" t="n">
-        <v>11.14876001881437</v>
+        <v>11.24449631128365</v>
       </c>
       <c r="F11" t="n">
-        <v>15.14680301049459</v>
+        <v>15.31092273645903</v>
       </c>
       <c r="G11" t="n">
-        <v>19.67526419785954</v>
+        <v>19.91769392448989</v>
       </c>
       <c r="H11" t="n">
-        <v>25.01870810480333</v>
+        <v>25.34457394675352</v>
       </c>
       <c r="I11" t="n">
-        <v>31.23796491417163</v>
+        <v>31.64412105128347</v>
       </c>
       <c r="J11" t="n">
-        <v>38.4096768072863</v>
+        <v>38.88637467714403</v>
       </c>
       <c r="K11" t="n">
-        <v>46.19016919016463</v>
+        <v>46.71638255807527</v>
       </c>
       <c r="L11" t="n">
-        <v>54.44816156502603</v>
+        <v>54.99789451529672</v>
       </c>
       <c r="M11" t="n">
-        <v>64.07002996074959</v>
+        <v>64.62401767280542</v>
       </c>
       <c r="N11" t="n">
-        <v>76.95279670938645</v>
+        <v>77.51063436942523</v>
       </c>
       <c r="O11" t="n">
-        <v>89.42432777157852</v>
+        <v>89.94468871155159</v>
       </c>
     </row>
     <row r="12">
@@ -3983,46 +3983,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5475376031668386</v>
+        <v>0.5502170497972196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6909486331999568</v>
+        <v>0.6991708279636374</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8358256024780707</v>
+        <v>0.8532232519178328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9619850477015767</v>
+        <v>0.9924786682021665</v>
       </c>
       <c r="F12" t="n">
-        <v>1.042451201095385</v>
+        <v>1.089001207121931</v>
       </c>
       <c r="G12" t="n">
-        <v>1.082685793352699</v>
+        <v>1.1475164059469</v>
       </c>
       <c r="H12" t="n">
-        <v>1.102069044423222</v>
+        <v>1.18723194449723</v>
       </c>
       <c r="I12" t="n">
-        <v>1.113482746100726</v>
+        <v>1.219397273755294</v>
       </c>
       <c r="J12" t="n">
-        <v>1.140434263107231</v>
+        <v>1.265454974915603</v>
       </c>
       <c r="K12" t="n">
-        <v>1.214755398481461</v>
+        <v>1.352708710536563</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39201796020585</v>
+        <v>1.531482802938721</v>
       </c>
       <c r="M12" t="n">
-        <v>1.745076564389926</v>
+        <v>1.868103271078361</v>
       </c>
       <c r="N12" t="n">
-        <v>2.310043052782044</v>
+        <v>2.395157631628547</v>
       </c>
       <c r="O12" t="n">
-        <v>3.29190010298966</v>
+        <v>3.299728926138494</v>
       </c>
     </row>
     <row r="13">
@@ -4032,46 +4032,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.90131407743079</v>
+        <v>17.98522385841336</v>
       </c>
       <c r="C13" t="n">
-        <v>23.21214107530188</v>
+        <v>23.47216527904669</v>
       </c>
       <c r="D13" t="n">
-        <v>28.52232866726261</v>
+        <v>29.07161171797516</v>
       </c>
       <c r="E13" t="n">
-        <v>33.04127230385122</v>
+        <v>33.98950734269119</v>
       </c>
       <c r="F13" t="n">
-        <v>35.79084034735094</v>
+        <v>37.19896736674413</v>
       </c>
       <c r="G13" t="n">
-        <v>36.97496794887789</v>
+        <v>38.86281283363287</v>
       </c>
       <c r="H13" t="n">
-        <v>37.30033831527985</v>
+        <v>39.66791425452907</v>
       </c>
       <c r="I13" t="n">
-        <v>37.17937581988135</v>
+        <v>39.97506138835954</v>
       </c>
       <c r="J13" t="n">
-        <v>37.21933081679623</v>
+        <v>40.34539461726777</v>
       </c>
       <c r="K13" t="n">
-        <v>38.03385171677176</v>
+        <v>41.30710657093998</v>
       </c>
       <c r="L13" t="n">
-        <v>40.6655244544639</v>
+        <v>43.82619792612296</v>
       </c>
       <c r="M13" t="n">
-        <v>46.41731240789874</v>
+        <v>49.11120880441208</v>
       </c>
       <c r="N13" t="n">
-        <v>55.59499439813397</v>
+        <v>57.42433008464906</v>
       </c>
       <c r="O13" t="n">
-        <v>72.45181018536348</v>
+        <v>72.6241160054165</v>
       </c>
     </row>
     <row r="14">
@@ -4245,43 +4245,43 @@
         <v>825.23</v>
       </c>
       <c r="C2" t="n">
-        <v>786.8833713225423</v>
+        <v>787.5098421243739</v>
       </c>
       <c r="D2" t="n">
-        <v>750.686074253019</v>
+        <v>753.1305265955021</v>
       </c>
       <c r="E2" t="n">
-        <v>715.5307789371462</v>
+        <v>720.7929605485342</v>
       </c>
       <c r="F2" t="n">
-        <v>680.7118273793635</v>
+        <v>689.1311477359635</v>
       </c>
       <c r="G2" t="n">
-        <v>645.2696413894538</v>
+        <v>657.0943549640029</v>
       </c>
       <c r="H2" t="n">
-        <v>608.3886398297641</v>
+        <v>624.2655691825148</v>
       </c>
       <c r="I2" t="n">
-        <v>570.5564681751132</v>
+        <v>590.9413062428614</v>
       </c>
       <c r="J2" t="n">
-        <v>535.4717711713156</v>
+        <v>558.3989610128061</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2974643256804</v>
+        <v>529.5955684236893</v>
       </c>
       <c r="L2" t="n">
-        <v>479.0014184994839</v>
+        <v>506.7882697413091</v>
       </c>
       <c r="M2" t="n">
-        <v>463.6257545938736</v>
+        <v>495.9951801289197</v>
       </c>
       <c r="N2" t="n">
-        <v>471.2916768501869</v>
+        <v>507.5081266211175</v>
       </c>
       <c r="O2" t="n">
-        <v>517.1885820647766</v>
+        <v>556.2868653936998</v>
       </c>
     </row>
     <row r="3">
@@ -4291,46 +4291,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9903.01790909091</v>
+        <v>1673.728436090909</v>
       </c>
       <c r="C3" t="n">
-        <v>13069.27972075844</v>
+        <v>3836.876748073825</v>
       </c>
       <c r="D3" t="n">
-        <v>15719.1479217553</v>
+        <v>6005.482227190745</v>
       </c>
       <c r="E3" t="n">
-        <v>17877.0542150747</v>
+        <v>8075.143036979759</v>
       </c>
       <c r="F3" t="n">
-        <v>19568.80161283509</v>
+        <v>9951.522587011314</v>
       </c>
       <c r="G3" t="n">
-        <v>20801.05845776728</v>
+        <v>11560.07305457916</v>
       </c>
       <c r="H3" t="n">
-        <v>21588.81137475877</v>
+        <v>12871.8859361393</v>
       </c>
       <c r="I3" t="n">
-        <v>22000.72611225085</v>
+        <v>13901.52868625617</v>
       </c>
       <c r="J3" t="n">
-        <v>22225.67585104177</v>
+        <v>14707.02780564504</v>
       </c>
       <c r="K3" t="n">
-        <v>22331.85770427154</v>
+        <v>15405.26211324942</v>
       </c>
       <c r="L3" t="n">
-        <v>22394.99252354813</v>
+        <v>16068.5439916777</v>
       </c>
       <c r="M3" t="n">
-        <v>22536.53828975284</v>
+        <v>16884.34427295701</v>
       </c>
       <c r="N3" t="n">
-        <v>23158.8265603313</v>
+        <v>18141.93169776367</v>
       </c>
       <c r="O3" t="n">
-        <v>24657.62561332004</v>
+        <v>20217.08480553817</v>
       </c>
     </row>
     <row r="4">
@@ -4441,43 +4441,43 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.680360999883558</v>
+        <v>1.28905885494308</v>
       </c>
       <c r="D6" t="n">
-        <v>2.190499002947695</v>
+        <v>1.566254010854104</v>
       </c>
       <c r="E6" t="n">
-        <v>2.548287520339922</v>
+        <v>1.797277548111711</v>
       </c>
       <c r="F6" t="n">
-        <v>2.789510461582008</v>
+        <v>1.982728758120455</v>
       </c>
       <c r="G6" t="n">
-        <v>2.939631182356822</v>
+        <v>2.124512249640717</v>
       </c>
       <c r="H6" t="n">
-        <v>3.008041064843272</v>
+        <v>2.217717062980465</v>
       </c>
       <c r="I6" t="n">
-        <v>3.006457738650334</v>
+        <v>2.264499098965852</v>
       </c>
       <c r="J6" t="n">
-        <v>2.952257748365437</v>
+        <v>2.2688858316997</v>
       </c>
       <c r="K6" t="n">
-        <v>2.857940113599533</v>
+        <v>2.239768379168845</v>
       </c>
       <c r="L6" t="n">
-        <v>2.744093656305084</v>
+        <v>2.196006854230021</v>
       </c>
       <c r="M6" t="n">
-        <v>2.639594946403779</v>
+        <v>2.171456381557915</v>
       </c>
       <c r="N6" t="n">
-        <v>2.608642705727792</v>
+        <v>2.22224945870371</v>
       </c>
       <c r="O6" t="n">
-        <v>2.735871056397253</v>
+        <v>2.423632369760742</v>
       </c>
     </row>
     <row r="7">
@@ -4493,40 +4493,40 @@
         <v>0.09456200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1738519499941779</v>
+        <v>0.154286842747154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2746843026418538</v>
+        <v>0.2248852011525015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3883644635267571</v>
+        <v>0.303504818500462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5084217634295196</v>
+        <v>0.3874660154814617</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6299822343758847</v>
+        <v>0.4743183271894245</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7488851758992541</v>
+        <v>0.5614882639789764</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8617638040368081</v>
+        <v>0.6466388057283202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9662885012532394</v>
+        <v>0.7277511570268892</v>
       </c>
       <c r="L7" t="n">
-        <v>1.060871081870554</v>
+        <v>0.8033520181339869</v>
       </c>
       <c r="M7" t="n">
-        <v>1.145032210592281</v>
+        <v>0.8729847599387885</v>
       </c>
       <c r="N7" t="n">
-        <v>1.219760347382856</v>
+        <v>0.9379083410197447</v>
       </c>
       <c r="O7" t="n">
-        <v>1.289204465300102</v>
+        <v>1.002125396903943</v>
       </c>
     </row>
     <row r="8">
@@ -4536,46 +4536,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.477605569014966</v>
+        <v>2.367909022972957</v>
       </c>
       <c r="C8" t="n">
-        <v>4.819802591747876</v>
+        <v>2.938542279534039</v>
       </c>
       <c r="D8" t="n">
-        <v>4.939612930518595</v>
+        <v>3.233720434080263</v>
       </c>
       <c r="E8" t="n">
-        <v>4.946515255263221</v>
+        <v>3.408326542971669</v>
       </c>
       <c r="F8" t="n">
-        <v>4.890634106938549</v>
+        <v>3.513301071751282</v>
       </c>
       <c r="G8" t="n">
-        <v>4.778633167020057</v>
+        <v>3.556701223089957</v>
       </c>
       <c r="H8" t="n">
-        <v>4.573380614716431</v>
+        <v>3.509442693171125</v>
       </c>
       <c r="I8" t="n">
-        <v>4.301634856787921</v>
+        <v>3.398906254929656</v>
       </c>
       <c r="J8" t="n">
-        <v>4.009439182730409</v>
+        <v>3.238116100088304</v>
       </c>
       <c r="K8" t="n">
-        <v>3.700409031782063</v>
+        <v>3.057210750642332</v>
       </c>
       <c r="L8" t="n">
-        <v>3.432877147734256</v>
+        <v>2.91805834230574</v>
       </c>
       <c r="M8" t="n">
-        <v>3.278012571180715</v>
+        <v>2.921450019972025</v>
       </c>
       <c r="N8" t="n">
-        <v>3.44902459755227</v>
+        <v>3.225328142079813</v>
       </c>
       <c r="O8" t="n">
-        <v>4.139991506972629</v>
+        <v>4.005254051082264</v>
       </c>
     </row>
     <row r="9">
@@ -4585,46 +4585,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.068097132254231</v>
+        <v>6.130744212437392</v>
       </c>
       <c r="C9" t="n">
-        <v>5.822870748918173</v>
+        <v>6.012186552605318</v>
       </c>
       <c r="D9" t="n">
-        <v>5.492703359448949</v>
+        <v>5.803809714449234</v>
       </c>
       <c r="E9" t="n">
-        <v>5.104474191467484</v>
+        <v>5.48333424532533</v>
       </c>
       <c r="F9" t="n">
-        <v>4.624323329561394</v>
+        <v>5.06589449563551</v>
       </c>
       <c r="G9" t="n">
-        <v>4.055135540704479</v>
+        <v>4.602253681419218</v>
       </c>
       <c r="H9" t="n">
-        <v>3.517446512492073</v>
+        <v>4.158760536224841</v>
       </c>
       <c r="I9" t="n">
-        <v>3.338207917721598</v>
+        <v>3.837061151908812</v>
       </c>
       <c r="J9" t="n">
-        <v>3.308230569492274</v>
+        <v>3.820448273241989</v>
       </c>
       <c r="K9" t="n">
-        <v>3.521964989288504</v>
+        <v>4.074416952846247</v>
       </c>
       <c r="L9" t="n">
-        <v>4.21045063143278</v>
+        <v>5.002150275656773</v>
       </c>
       <c r="M9" t="n">
-        <v>6.330101280757809</v>
+        <v>7.103236810766815</v>
       </c>
       <c r="N9" t="n">
-        <v>10.24519064366122</v>
+        <v>10.96797139671164</v>
       </c>
       <c r="O9" t="n">
-        <v>19.48358049945336</v>
+        <v>19.52613406747734</v>
       </c>
     </row>
     <row r="10">
@@ -4634,46 +4634,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.6563602576622</v>
+        <v>233.0521155592007</v>
       </c>
       <c r="C10" t="n">
-        <v>395.6796173072703</v>
+        <v>255.2293153924303</v>
       </c>
       <c r="D10" t="n">
-        <v>372.9821085494929</v>
+        <v>267.0209032508087</v>
       </c>
       <c r="E10" t="n">
-        <v>347.945281926786</v>
+        <v>268.389385372953</v>
       </c>
       <c r="F10" t="n">
-        <v>318.9137006215697</v>
+        <v>260.370272626898</v>
       </c>
       <c r="G10" t="n">
-        <v>286.7858762768217</v>
+        <v>246.782018701805</v>
       </c>
       <c r="H10" t="n">
-        <v>257.0795874967962</v>
+        <v>231.6831343730805</v>
       </c>
       <c r="I10" t="n">
-        <v>242.5022350016006</v>
+        <v>219.565198801449</v>
       </c>
       <c r="J10" t="n">
-        <v>232.8749438333941</v>
+        <v>216.8937088168878</v>
       </c>
       <c r="K10" t="n">
-        <v>229.6320589703739</v>
+        <v>220.3808089753227</v>
       </c>
       <c r="L10" t="n">
-        <v>238.1045018559524</v>
+        <v>242.2654680447079</v>
       </c>
       <c r="M10" t="n">
-        <v>287.5942099553745</v>
+        <v>294.602185210236</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4681709021873</v>
+        <v>388.9346277550865</v>
       </c>
       <c r="O10" t="n">
-        <v>619.8730282125118</v>
+        <v>611.0429685133699</v>
       </c>
     </row>
   </sheetData>
@@ -4746,46 +4746,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.966550486930991</v>
+        <v>-9.953422624139504</v>
       </c>
       <c r="C2" t="n">
-        <v>-16.99558393703111</v>
+        <v>-16.95926417630561</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.1412121981077</v>
+        <v>-14.99234607185866</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.840987713131797</v>
+        <v>-9.686633556024036</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.188424769173948</v>
+        <v>-6.051174191810701</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.680332576565208</v>
+        <v>-3.568466602962376</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.009425170809436</v>
+        <v>-1.923303412628293</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8922046197053869</v>
+        <v>-0.8289333931986441</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1721558259057387</v>
+        <v>-0.1269657185835843</v>
       </c>
       <c r="K2" t="n">
-        <v>0.289185839059344</v>
+        <v>0.3209513096830428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5801735940415408</v>
+        <v>0.6022795078686599</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7523881689464096</v>
+        <v>0.7673827705106346</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8391781157512808</v>
+        <v>0.8493888402691654</v>
       </c>
       <c r="O2" t="n">
-        <v>1.361914768672171</v>
+        <v>1.367029563778152</v>
       </c>
     </row>
     <row r="3">
@@ -4798,43 +4798,43 @@
         <v>2.500980206115</v>
       </c>
       <c r="C3" t="n">
-        <v>1.23341139306356</v>
+        <v>1.231629558593964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999909846224</v>
+        <v>0.9999999909737604</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999907606482</v>
+        <v>0.9999999907681715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999912860791</v>
+        <v>0.9999999913071024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999999920813802</v>
+        <v>0.9999999921264309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999999993332533</v>
+        <v>0.9999999934192731</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999952578749</v>
+        <v>0.9999999954120383</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9999999983747513</v>
+        <v>0.999999998639059</v>
       </c>
       <c r="K3" t="n">
-        <v>1.000000003655996</v>
+        <v>1.000000004123635</v>
       </c>
       <c r="L3" t="n">
-        <v>1.000000014150741</v>
+        <v>1.000000015096506</v>
       </c>
       <c r="M3" t="n">
-        <v>1.00000003727686</v>
+        <v>1.000000039599051</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000111058709</v>
+        <v>1.000000120550494</v>
       </c>
       <c r="O3" t="n">
-        <v>1.000000005926348</v>
+        <v>1.000000006094413</v>
       </c>
     </row>
     <row r="4">
@@ -4844,46 +4844,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.237796612782045</v>
+        <v>0.2368054073237827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.404536516392803</v>
+        <v>0.4044598185863224</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4385496117991963</v>
+        <v>0.4369278246587064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3968539150393412</v>
+        <v>0.3947867913563098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3656995630249102</v>
+        <v>0.3634395000884472</v>
       </c>
       <c r="G4" t="n">
-        <v>0.340770237419124</v>
+        <v>0.3385046995912007</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3195270225107162</v>
+        <v>0.3173971848632667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3009003774769404</v>
+        <v>0.2989989842510269</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2849844915678346</v>
+        <v>0.2833405972484383</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2682514762002736</v>
+        <v>0.2668848969905175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2510092612402414</v>
+        <v>0.2499110765299748</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2358541578797873</v>
+        <v>0.234996349903255</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2226789358360676</v>
+        <v>0.2220075920148812</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.441606954246148e-09</v>
+        <v>-4.430005904093114e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4893,46 +4893,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03613735160744049</v>
+        <v>0.03595916816048086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05699360304496524</v>
+        <v>0.05705573177021656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06513215538041159</v>
+        <v>0.06513215538154266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06513215544076419</v>
+        <v>0.06513215544260417</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06513215550197364</v>
+        <v>0.06513215550574566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06513215559935849</v>
+        <v>0.06513215560646168</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06513215574826767</v>
+        <v>0.06513215576065957</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06513215599282281</v>
+        <v>0.06513215601387821</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06513215641226851</v>
+        <v>0.06513215644981651</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06513215727759745</v>
+        <v>0.0651321573558684</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06513215922428009</v>
+        <v>0.06513215942352243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06513216579610719</v>
+        <v>0.06513216666431583</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06513215271025707</v>
+        <v>0.06513215239610551</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.369835148935391e-09</v>
+        <v>-1.369828895503147e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4945,43 +4945,43 @@
         <v>0.1527699040834545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1417931378093569</v>
+        <v>0.1417316547340269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1499341309393448</v>
+        <v>0.1499341309388562</v>
       </c>
       <c r="E6" t="n">
-        <v>0.166199532661573</v>
+        <v>0.1661995326619481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807892649052338</v>
+        <v>0.1807892649063741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1943494973360429</v>
+        <v>0.1943494973386696</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2074694440599873</v>
+        <v>0.2074694440653861</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2203704671851165</v>
+        <v>0.2203704671953085</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2326734742912646</v>
+        <v>0.2326734743097139</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2471113573198586</v>
+        <v>0.2471113573545263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2639920733564341</v>
+        <v>0.2639920734313364</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2809000984156263</v>
+        <v>0.2809000986113174</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2976978680532533</v>
+        <v>0.2976978689009585</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3145550419771972</v>
+        <v>0.3145550419930569</v>
       </c>
     </row>
     <row r="7">
@@ -4991,46 +4991,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1519674783616979</v>
+        <v>0.151851127754503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1408861764895032</v>
+        <v>0.1410665019077522</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1485171885415655</v>
+        <v>0.1490684541146327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1641212369904615</v>
+        <v>0.1649805841245078</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1781029076524684</v>
+        <v>0.1792104476533096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1911321719075202</v>
+        <v>0.1924113777005735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2038392722984275</v>
+        <v>0.2052070997060614</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2164575416586649</v>
+        <v>0.2178340377209978</v>
       </c>
       <c r="J7" t="n">
-        <v>0.228546318622272</v>
+        <v>0.2298723059184753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2428026052276801</v>
+        <v>0.2440458717983677</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2594811000297793</v>
+        <v>0.2606213391094346</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2761544099184567</v>
+        <v>0.2771624609962236</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2924935511556704</v>
+        <v>0.2933780408362777</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3084098082172347</v>
+        <v>0.3092160428584284</v>
       </c>
     </row>
     <row r="8">
@@ -5040,46 +5040,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8805175352499385</v>
+        <v>0.9528851968831293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6629676181498499</v>
+        <v>0.6914678516363485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6293211089844241</v>
+        <v>0.6434241595345166</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6811756852564869</v>
+        <v>0.6869744363700062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7175695899238752</v>
+        <v>0.7174160127236877</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7406465393860145</v>
+        <v>0.7361382949766783</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7479819683109243</v>
+        <v>0.7402874455456094</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7381612908189236</v>
+        <v>0.7283247585137497</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7066986066591624</v>
+        <v>0.6956138598391712</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6509730249424299</v>
+        <v>0.6395904386933514</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5650717996563301</v>
+        <v>0.5543906002807534</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4424435956393415</v>
+        <v>0.4338284166794725</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2774246119956509</v>
+        <v>0.2720558176374137</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009670437741440469</v>
+        <v>0.009686389375867735</v>
       </c>
     </row>
     <row r="9">
@@ -5089,46 +5089,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004700672138470347</v>
+        <v>0.0005864178210419421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000164830950412891</v>
+        <v>0.0001853674614798824</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000127379417082981</v>
+        <v>0.0001355343689617371</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001505221269821714</v>
+        <v>0.0001541375231945424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001632470866322177</v>
+        <v>0.0001631492767966279</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001666100008536201</v>
+        <v>0.0001637859420335679</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001600358110851274</v>
+        <v>0.0001554687446294277</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001443480037214641</v>
+        <v>0.000139026452218757</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001196012214762024</v>
+        <v>0.0001144223311160122</v>
       </c>
       <c r="K9" t="n">
-        <v>8.996839950883529e-05</v>
+        <v>8.563259622778541e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.793752223925303e-05</v>
+        <v>5.492298668408126e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>2.796818088622453e-05</v>
+        <v>2.646990921335213e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.249703733489628e-06</v>
+        <v>6.86367552257927e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>5.599201149533146e-10</v>
+        <v>5.621074264481326e-10</v>
       </c>
     </row>
     <row r="10">
@@ -5141,43 +5141,43 @@
         <v>0.002175549627418521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00523389481963969</v>
+        <v>0.003385167312800774</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008600863409933523</v>
+        <v>0.004869754809594075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01159915141310773</v>
+        <v>0.00640682315522282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01395608399345916</v>
+        <v>0.007830486931848497</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01569705849248587</v>
+        <v>0.009129602702139389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01672600978036718</v>
+        <v>0.01015511283691149</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01710110057335634</v>
+        <v>0.01087896691695614</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01722394209191087</v>
+        <v>0.01154728130524309</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01707239901243753</v>
+        <v>0.01205874546533122</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01686806633168562</v>
+        <v>0.01256026854185133</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0167950112616296</v>
+        <v>0.01321169954808584</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0174575223794337</v>
+        <v>0.01448772342603834</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01953627308408522</v>
+        <v>0.01697317753577446</v>
       </c>
     </row>
     <row r="11">
@@ -5187,46 +5187,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1158301267542575</v>
+        <v>0.1158919595940222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08389257344453795</v>
+        <v>0.08401077013753563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08338503316115388</v>
+        <v>0.08393629873309005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09898908154969731</v>
+        <v>0.09984842868190359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1129707521504948</v>
+        <v>0.1140782921475639</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1260000163081617</v>
+        <v>0.1272792220941118</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1387071165501598</v>
+        <v>0.1400749439454018</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1513253856658421</v>
+        <v>0.1527018817071195</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1634141622100035</v>
+        <v>0.1647401494686588</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1776704479500827</v>
+        <v>0.1789137144424993</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1943489408054992</v>
+        <v>0.1954891796859122</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2110222441223495</v>
+        <v>0.2120302943319078</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2273613984454133</v>
+        <v>0.2282458884401722</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3084098095870698</v>
+        <v>0.3092160442282573</v>
       </c>
     </row>
     <row r="12">
@@ -5236,46 +5236,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001066458043488631</v>
+        <v>0.0004205299987448078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002444372967271858</v>
+        <v>0.00223670088734964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002515754193372192</v>
+        <v>0.002420038442020795</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002143392137913102</v>
+        <v>0.002104408293299754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001861891033703496</v>
+        <v>0.001862903474308783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001669993135882486</v>
+        <v>0.001699022003307677</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001585153727679124</v>
+        <v>0.001633551064064607</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001610975386021963</v>
+        <v>0.001671495129253387</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001764701911185258</v>
+        <v>0.001831395334349816</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00207641493002382</v>
+        <v>0.002144131679226258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002585485112496726</v>
+        <v>0.002648980839548297</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003312551046119844</v>
+        <v>0.003363735502363889</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004289478504996674</v>
+        <v>0.004321349694177973</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005876484826747781</v>
+        <v>0.005876390172152154</v>
       </c>
     </row>
     <row r="13">
@@ -5285,46 +5285,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.188846950559538</v>
+        <v>0.909218993869975</v>
       </c>
       <c r="C13" t="n">
-        <v>1.654328464326527</v>
+        <v>1.558712778017132</v>
       </c>
       <c r="D13" t="n">
-        <v>1.612673358341107</v>
+        <v>1.569255837425504</v>
       </c>
       <c r="E13" t="n">
-        <v>1.392718882495666</v>
+        <v>1.375873253807105</v>
       </c>
       <c r="F13" t="n">
-        <v>1.211987241459001</v>
+        <v>1.212402839463255</v>
       </c>
       <c r="G13" t="n">
-        <v>1.071157784974749</v>
+        <v>1.082449198484916</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9753868672349635</v>
+        <v>0.9932091174682127</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9214171366665274</v>
+        <v>0.9425215094384131</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9089237111503154</v>
+        <v>0.9309985202474784</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9447304860595463</v>
+        <v>0.9660830319987798</v>
       </c>
       <c r="L13" t="n">
-        <v>1.032799202108608</v>
+        <v>1.051988543024732</v>
       </c>
       <c r="M13" t="n">
-        <v>1.168856413945808</v>
+        <v>1.183808524138201</v>
       </c>
       <c r="N13" t="n">
-        <v>1.356221816740516</v>
+        <v>1.365317999313421</v>
       </c>
       <c r="O13" t="n">
-        <v>1.693442180444993</v>
+        <v>1.693414978175015</v>
       </c>
     </row>
     <row r="14">
@@ -5495,46 +5495,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229.9636186469929</v>
+        <v>230.0960643954645</v>
       </c>
       <c r="C2" t="n">
-        <v>217.8511702586393</v>
+        <v>218.1139532627838</v>
       </c>
       <c r="D2" t="n">
-        <v>199.713078527948</v>
+        <v>200.0759155192416</v>
       </c>
       <c r="E2" t="n">
-        <v>179.3391517428663</v>
+        <v>179.7033261049484</v>
       </c>
       <c r="F2" t="n">
-        <v>157.3838205762179</v>
+        <v>157.6815217944005</v>
       </c>
       <c r="G2" t="n">
-        <v>136.1919012609769</v>
+        <v>136.4376405204502</v>
       </c>
       <c r="H2" t="n">
-        <v>117.3306357166874</v>
+        <v>117.5284213119233</v>
       </c>
       <c r="I2" t="n">
-        <v>100.7358435911894</v>
+        <v>100.8894028964294</v>
       </c>
       <c r="J2" t="n">
-        <v>86.22712784992527</v>
+        <v>86.3428542391422</v>
       </c>
       <c r="K2" t="n">
-        <v>74.71193561750238</v>
+        <v>74.79832844452301</v>
       </c>
       <c r="L2" t="n">
-        <v>65.59384339595982</v>
+        <v>65.65860979734032</v>
       </c>
       <c r="M2" t="n">
-        <v>57.59573460514601</v>
+        <v>57.64456867551458</v>
       </c>
       <c r="N2" t="n">
-        <v>50.69992000516403</v>
+        <v>50.73350115044396</v>
       </c>
       <c r="O2" t="n">
-        <v>44.39826382695634</v>
+        <v>44.4201287146638</v>
       </c>
     </row>
     <row r="3">
@@ -5547,43 +5547,43 @@
         <v>28.42837139324333</v>
       </c>
       <c r="C3" t="n">
-        <v>39.48713431824531</v>
+        <v>39.36078333316868</v>
       </c>
       <c r="D3" t="n">
-        <v>50.59081127744943</v>
+        <v>50.49217796948138</v>
       </c>
       <c r="E3" t="n">
-        <v>61.57729166410525</v>
+        <v>61.73686677078884</v>
       </c>
       <c r="F3" t="n">
-        <v>72.10006026122633</v>
+        <v>72.67586912256624</v>
       </c>
       <c r="G3" t="n">
-        <v>82.72496805974531</v>
+        <v>83.41645068501346</v>
       </c>
       <c r="H3" t="n">
-        <v>93.70507031180625</v>
+        <v>94.56440488648394</v>
       </c>
       <c r="I3" t="n">
-        <v>104.9666480403234</v>
+        <v>105.9907144640602</v>
       </c>
       <c r="J3" t="n">
-        <v>116.7965951026609</v>
+        <v>117.9455628020073</v>
       </c>
       <c r="K3" t="n">
-        <v>129.3945811324481</v>
+        <v>130.6111437701272</v>
       </c>
       <c r="L3" t="n">
-        <v>142.149344972095</v>
+        <v>143.3451330595082</v>
       </c>
       <c r="M3" t="n">
-        <v>151.8535517845008</v>
+        <v>152.9898080040969</v>
       </c>
       <c r="N3" t="n">
-        <v>151.9056866782742</v>
+        <v>153.0862087151995</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1677309091832</v>
+        <v>119.9204955915916</v>
       </c>
     </row>
     <row r="4">
@@ -5593,46 +5593,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2248118165395667</v>
+        <v>0.2237985762814372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2226683866938981</v>
+        <v>0.2217465847653279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2206017633117489</v>
+        <v>0.2202096079348773</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2172734192353635</v>
+        <v>0.2175753529984859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2166228853875506</v>
+        <v>0.2165753925431232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2177395466659225</v>
+        <v>0.2177872516669166</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2188813869100383</v>
+        <v>0.218982742728947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2207521527743468</v>
+        <v>0.2208644926994895</v>
       </c>
       <c r="J4" t="n">
-        <v>0.223752480761453</v>
+        <v>0.2238382318409044</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2234530574665887</v>
+        <v>0.2234436005065273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2143034472708172</v>
+        <v>0.2142596313288134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1905230263983017</v>
+        <v>0.19070911780439</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1199950100218749</v>
+        <v>0.1199362104592466</v>
       </c>
       <c r="O4" t="n">
-        <v>2.035753561483475e-09</v>
+        <v>2.042306909473387e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5642,46 +5642,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.957477412626575</v>
+        <v>2.944842314118913</v>
       </c>
       <c r="C5" t="n">
-        <v>3.682249887934448</v>
+        <v>3.676792143575804</v>
       </c>
       <c r="D5" t="n">
-        <v>4.393736650449068</v>
+        <v>4.413133291913848</v>
       </c>
       <c r="E5" t="n">
-        <v>5.062938625820338</v>
+        <v>5.114955472026605</v>
       </c>
       <c r="F5" t="n">
-        <v>5.75852315167449</v>
+        <v>5.807594200644529</v>
       </c>
       <c r="G5" t="n">
-        <v>6.486065749141193</v>
+        <v>6.547888698295487</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2293710294542</v>
+        <v>7.301814527925616</v>
       </c>
       <c r="I5" t="n">
-        <v>8.019698800143523</v>
+        <v>8.098888581759425</v>
       </c>
       <c r="J5" t="n">
-        <v>8.8670126543061</v>
+        <v>8.94860689156067</v>
       </c>
       <c r="K5" t="n">
-        <v>9.703224426544011</v>
+        <v>9.780384319006338</v>
       </c>
       <c r="L5" t="n">
-        <v>10.22891399183939</v>
+        <v>10.30084506129806</v>
       </c>
       <c r="M5" t="n">
-        <v>9.895762711840984</v>
+        <v>9.974196110913248</v>
       </c>
       <c r="N5" t="n">
-        <v>6.620149303588325</v>
+        <v>6.65426351359528</v>
       </c>
       <c r="O5" t="n">
-        <v>1.101839632902343e-07</v>
+        <v>1.110387463054047e-07</v>
       </c>
     </row>
     <row r="6">
@@ -5694,43 +5694,43 @@
         <v>13.35789643104379</v>
       </c>
       <c r="C6" t="n">
-        <v>16.91481529870682</v>
+        <v>16.89855986654319</v>
       </c>
       <c r="D6" t="n">
-        <v>20.51775072547521</v>
+        <v>20.50574192760469</v>
       </c>
       <c r="E6" t="n">
-        <v>24.12480005716853</v>
+        <v>24.14353860909725</v>
       </c>
       <c r="F6" t="n">
-        <v>27.51446524273032</v>
+        <v>27.58020300150853</v>
       </c>
       <c r="G6" t="n">
-        <v>30.82351434598391</v>
+        <v>30.90058368716441</v>
       </c>
       <c r="H6" t="n">
-        <v>34.15787299978149</v>
+        <v>34.25154769433656</v>
       </c>
       <c r="I6" t="n">
-        <v>37.53846759651643</v>
+        <v>37.64796334804746</v>
       </c>
       <c r="J6" t="n">
-        <v>40.92452786964569</v>
+        <v>41.04489086671106</v>
       </c>
       <c r="K6" t="n">
-        <v>44.82035381493367</v>
+        <v>44.94635975782037</v>
       </c>
       <c r="L6" t="n">
-        <v>49.25179827758708</v>
+        <v>49.37572878269471</v>
       </c>
       <c r="M6" t="n">
-        <v>53.45485070591327</v>
+        <v>53.57453182428167</v>
       </c>
       <c r="N6" t="n">
-        <v>56.65727305050508</v>
+        <v>56.7890074783702</v>
       </c>
       <c r="O6" t="n">
-        <v>55.66112747816718</v>
+        <v>55.76637600007866</v>
       </c>
     </row>
     <row r="7">
@@ -5740,46 +5740,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.15534680582976</v>
+        <v>13.1584497231816</v>
       </c>
       <c r="C7" t="n">
-        <v>16.53692265259204</v>
+        <v>16.58105421315469</v>
       </c>
       <c r="D7" t="n">
-        <v>19.9170513620961</v>
+        <v>20.04060282973187</v>
       </c>
       <c r="E7" t="n">
-        <v>23.30215377305708</v>
+        <v>23.50889198402082</v>
       </c>
       <c r="F7" t="n">
-        <v>26.58317075489123</v>
+        <v>26.81557739523966</v>
       </c>
       <c r="G7" t="n">
-        <v>29.788184316801</v>
+        <v>30.06552793232276</v>
       </c>
       <c r="H7" t="n">
-        <v>33.02871537644962</v>
+        <v>33.34424638640897</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32897210448168</v>
+        <v>36.66903848043542</v>
       </c>
       <c r="J7" t="n">
-        <v>39.62866746384546</v>
+        <v>39.97800919871898</v>
       </c>
       <c r="K7" t="n">
-        <v>43.42399489429616</v>
+        <v>43.77115431739846</v>
       </c>
       <c r="L7" t="n">
-        <v>47.73098203554802</v>
+        <v>48.07646217541502</v>
       </c>
       <c r="M7" t="n">
-        <v>51.9399827879765</v>
+        <v>52.30057286062097</v>
       </c>
       <c r="N7" t="n">
-        <v>55.17020501420417</v>
+        <v>55.48168887540722</v>
       </c>
       <c r="O7" t="n">
-        <v>54.12441140957264</v>
+        <v>54.36927515171374</v>
       </c>
     </row>
     <row r="8">
@@ -5789,46 +5789,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6909453138395891</v>
+        <v>0.6863385215295299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8122567344103849</v>
+        <v>0.7811944606478366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9207310055063446</v>
+        <v>0.8707307464104794</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999998638453951</v>
+        <v>0.9541468017281038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999732941377</v>
+        <v>0.9999998745631907</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999791666657</v>
+        <v>0.9999999490292769</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999763705859</v>
+        <v>0.9999999524521103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999671955652</v>
+        <v>0.9999999399763876</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999460848986</v>
+        <v>0.9999999028700017</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999998897814895</v>
+        <v>0.9999997728472827</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999995266750633</v>
+        <v>0.9890959448275507</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8689557055909872</v>
+        <v>0.8073672728648629</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5774572550583918</v>
+        <v>0.5394009146729932</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005013071711547957</v>
+        <v>0.005022465660031102</v>
       </c>
     </row>
     <row r="9">
@@ -5838,46 +5838,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1672116185766838</v>
+        <v>0.1641087012248513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2785120432049083</v>
+        <v>0.249465647732502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4057776943981474</v>
+        <v>0.3468462645918642</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5134981444350586</v>
+        <v>0.4506078999337476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5047135115046593</v>
+        <v>0.5059192368063737</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4912689728764098</v>
+        <v>0.4924972719812893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4765286547921344</v>
+        <v>0.4778354569774614</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4614670530634709</v>
+        <v>0.4628130685226541</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4460123167589252</v>
+        <v>0.4473240280197867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4354380869916841</v>
+        <v>0.436662115230631</v>
       </c>
       <c r="L9" t="n">
-        <v>0.428677540269262</v>
+        <v>0.4167641098767753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2825667392683965</v>
+        <v>0.2305144256694379</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08619461883156869</v>
+        <v>0.07138153882763594</v>
       </c>
       <c r="O9" t="n">
-        <v>1.298600203435798e-07</v>
+        <v>1.307893735610322e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5890,43 +5890,43 @@
         <v>0.002645476914705055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005875358444940726</v>
+        <v>0.004026378945504536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009500148022509565</v>
+        <v>0.00576876631426367</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01281453686429756</v>
+        <v>0.007622690613932124</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01550388032517322</v>
+        <v>0.009380147399507684</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01765084442350077</v>
+        <v>0.01108582563774199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01910625314825398</v>
+        <v>0.01253858233743815</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01992698388787434</v>
+        <v>0.01370889028758474</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02076622830563334</v>
+        <v>0.01509463484710543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02143938527601841</v>
+        <v>0.01643166052091182</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02217459544551893</v>
+        <v>0.01787320449054769</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02305312169793515</v>
+        <v>0.01947650315290944</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02472539432352456</v>
+        <v>0.02176366728378006</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02760842276034176</v>
+        <v>0.02505274356672511</v>
       </c>
     </row>
     <row r="11">
@@ -5936,46 +5936,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.19786939320319</v>
+        <v>10.21360740906268</v>
       </c>
       <c r="C11" t="n">
-        <v>12.85467276465759</v>
+        <v>12.90426206957889</v>
       </c>
       <c r="D11" t="n">
-        <v>15.52331471164703</v>
+        <v>15.62746953781802</v>
       </c>
       <c r="E11" t="n">
-        <v>18.23921514723674</v>
+        <v>18.39393651199422</v>
       </c>
       <c r="F11" t="n">
-        <v>20.82464760321674</v>
+        <v>21.00798319459513</v>
       </c>
       <c r="G11" t="n">
-        <v>23.3021185676598</v>
+        <v>23.51763923402727</v>
       </c>
       <c r="H11" t="n">
-        <v>25.79934434699542</v>
+        <v>26.04243185848335</v>
       </c>
       <c r="I11" t="n">
-        <v>28.30927330433816</v>
+        <v>28.57014989867599</v>
       </c>
       <c r="J11" t="n">
-        <v>30.76165480953936</v>
+        <v>31.02940230715831</v>
       </c>
       <c r="K11" t="n">
-        <v>33.72077046775215</v>
+        <v>33.99076999839212</v>
       </c>
       <c r="L11" t="n">
-        <v>37.50206804370863</v>
+        <v>37.77561711411695</v>
       </c>
       <c r="M11" t="n">
-        <v>42.04422007613551</v>
+        <v>42.32637674970772</v>
       </c>
       <c r="N11" t="n">
-        <v>48.55005571061585</v>
+        <v>48.82742536181194</v>
       </c>
       <c r="O11" t="n">
-        <v>54.12441129938868</v>
+        <v>54.36927504067499</v>
       </c>
     </row>
     <row r="12">
@@ -5985,46 +5985,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2418330041907742</v>
+        <v>0.2454377850723245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1628593238557105</v>
+        <v>0.1896221240553115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07381477710174705</v>
+        <v>0.1203042424285298</v>
       </c>
       <c r="E12" t="n">
-        <v>1.332161344979895e-07</v>
+        <v>0.04489844779298679</v>
       </c>
       <c r="F12" t="n">
-        <v>2.686446636434799e-08</v>
+        <v>1.264832429960584e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.133145720236512e-08</v>
+        <v>5.231991927942334e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>2.453407960557701e-08</v>
+        <v>4.950367550727415e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>3.447078160928866e-08</v>
+        <v>6.325657125912362e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>5.720642785412123e-08</v>
+        <v>1.033625493381218e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>1.192429282691619e-07</v>
+        <v>2.464423117620041e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>5.263267398852588e-07</v>
+        <v>0.01215557525628261</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1485482321647321</v>
+        <v>0.2188520946426228</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4786436419739526</v>
+        <v>0.5229658461567509</v>
       </c>
       <c r="O12" t="n">
-        <v>1.04749261549588</v>
+        <v>1.049463390136066</v>
       </c>
     </row>
     <row r="13">
@@ -6034,46 +6034,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.31339958690205</v>
+        <v>17.48298302735982</v>
       </c>
       <c r="C13" t="n">
-        <v>14.11193906151529</v>
+        <v>15.30310017820688</v>
       </c>
       <c r="D13" t="n">
-        <v>10.45800682640797</v>
+        <v>12.42019224069398</v>
       </c>
       <c r="E13" t="n">
-        <v>7.517040677901438</v>
+        <v>9.313064241790494</v>
       </c>
       <c r="F13" t="n">
-        <v>7.419118354844295</v>
+        <v>7.436847949104347</v>
       </c>
       <c r="G13" t="n">
-        <v>7.202889494431631</v>
+        <v>7.220900306026775</v>
       </c>
       <c r="H13" t="n">
-        <v>6.927358912147058</v>
+        <v>6.946357386422204</v>
       </c>
       <c r="I13" t="n">
-        <v>6.616349075263781</v>
+        <v>6.635649198442431</v>
       </c>
       <c r="J13" t="n">
-        <v>6.277651336224891</v>
+        <v>6.296115918258713</v>
       </c>
       <c r="K13" t="n">
-        <v>5.991852195755269</v>
+        <v>6.008701041907966</v>
       </c>
       <c r="L13" t="n">
-        <v>5.746130507187661</v>
+        <v>6.084775300782284</v>
       </c>
       <c r="M13" t="n">
-        <v>9.206574437844882</v>
+        <v>11.05090344497865</v>
       </c>
       <c r="N13" t="n">
-        <v>16.8231656553594</v>
+        <v>18.00350772046961</v>
       </c>
       <c r="O13" t="n">
-        <v>30.53629898427436</v>
+        <v>30.5937510753812</v>
       </c>
     </row>
     <row r="14">
@@ -6244,46 +6244,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.88637343532285</v>
+        <v>66.96322369342381</v>
       </c>
       <c r="C2" t="n">
-        <v>59.03858542410815</v>
+        <v>59.13514556574096</v>
       </c>
       <c r="D2" t="n">
-        <v>50.08861357547885</v>
+        <v>50.17398375350079</v>
       </c>
       <c r="E2" t="n">
-        <v>41.51825688463055</v>
+        <v>41.5834015816275</v>
       </c>
       <c r="F2" t="n">
-        <v>34.65016819780954</v>
+        <v>34.70452074796127</v>
       </c>
       <c r="G2" t="n">
-        <v>29.36008727409339</v>
+        <v>29.40553314549968</v>
       </c>
       <c r="H2" t="n">
-        <v>24.79283062041833</v>
+        <v>24.82929759663761</v>
       </c>
       <c r="I2" t="n">
-        <v>20.87775562987985</v>
+        <v>20.9058035431895</v>
       </c>
       <c r="J2" t="n">
-        <v>17.53684956623065</v>
+        <v>17.55773790458403</v>
       </c>
       <c r="K2" t="n">
-        <v>15.04214244056069</v>
+        <v>15.05767944537682</v>
       </c>
       <c r="L2" t="n">
-        <v>13.18805432750169</v>
+        <v>13.19978575663158</v>
       </c>
       <c r="M2" t="n">
-        <v>11.56478577002723</v>
+        <v>11.57403997284</v>
       </c>
       <c r="N2" t="n">
-        <v>10.16738032206196</v>
+        <v>10.17373568837784</v>
       </c>
       <c r="O2" t="n">
-        <v>8.898966450556893</v>
+        <v>8.902986429558004</v>
       </c>
     </row>
     <row r="3">
@@ -6296,43 +6296,43 @@
         <v>8.331421097670153</v>
       </c>
       <c r="C3" t="n">
-        <v>11.90693661477283</v>
+        <v>11.86412365546508</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7319665460252</v>
+        <v>14.75650275326089</v>
       </c>
       <c r="E3" t="n">
-        <v>16.94519698441053</v>
+        <v>17.05995465194395</v>
       </c>
       <c r="F3" t="n">
-        <v>19.13921933355318</v>
+        <v>19.26834843501265</v>
       </c>
       <c r="G3" t="n">
-        <v>21.43607293535886</v>
+        <v>21.6043290759708</v>
       </c>
       <c r="H3" t="n">
-        <v>23.7577558028117</v>
+        <v>23.97187776041447</v>
       </c>
       <c r="I3" t="n">
-        <v>26.10677681965436</v>
+        <v>26.36161670238335</v>
       </c>
       <c r="J3" t="n">
-        <v>28.5666067139977</v>
+        <v>28.84954970966263</v>
       </c>
       <c r="K3" t="n">
-        <v>31.34574834677812</v>
+        <v>31.64225563283481</v>
       </c>
       <c r="L3" t="n">
-        <v>34.30608372014984</v>
+        <v>34.59370939683387</v>
       </c>
       <c r="M3" t="n">
-        <v>36.60445976929027</v>
+        <v>36.83775012791297</v>
       </c>
       <c r="N3" t="n">
-        <v>36.38208569651657</v>
+        <v>36.68030430079276</v>
       </c>
       <c r="O3" t="n">
-        <v>28.56792895584167</v>
+        <v>28.76170147572948</v>
       </c>
     </row>
     <row r="4">
@@ -6342,46 +6342,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2087316057033028</v>
+        <v>0.2073394917766522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2048020069871054</v>
+        <v>0.2043883971324688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2027036000138027</v>
+        <v>0.202941342661261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2073517228068133</v>
+        <v>0.2071871244847829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2119760203080844</v>
+        <v>0.2119436413731007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2131969703071803</v>
+        <v>0.213252273116319</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2147271427636452</v>
+        <v>0.2148307478654628</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2173868139620926</v>
+        <v>0.2174962467587874</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2228098902870758</v>
+        <v>0.2228835771687829</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2243652364323211</v>
+        <v>0.2243219058612961</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2155413894040351</v>
+        <v>0.2151972501317538</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1905090232330567</v>
+        <v>0.1908192405127214</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1204467691229534</v>
+        <v>0.1204019032180541</v>
       </c>
       <c r="O4" t="n">
-        <v>1.665678209572323e-08</v>
+        <v>1.67064599359001e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6391,46 +6391,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9001949702620966</v>
+        <v>0.8959136743313225</v>
       </c>
       <c r="C5" t="n">
-        <v>1.058027446081663</v>
+        <v>1.061973862391982</v>
       </c>
       <c r="D5" t="n">
-        <v>1.180847786953708</v>
+        <v>1.191468029060558</v>
       </c>
       <c r="E5" t="n">
-        <v>1.323079448184169</v>
+        <v>1.331991005879609</v>
       </c>
       <c r="F5" t="n">
-        <v>1.476263979340377</v>
+        <v>1.488587140034731</v>
       </c>
       <c r="G5" t="n">
-        <v>1.628345932984094</v>
+        <v>1.643891399879789</v>
       </c>
       <c r="H5" t="n">
-        <v>1.782295958605325</v>
+        <v>1.800313975861415</v>
       </c>
       <c r="I5" t="n">
-        <v>1.946373649648178</v>
+        <v>1.965782231936149</v>
       </c>
       <c r="J5" t="n">
-        <v>2.138518847879121</v>
+        <v>2.158303964248223</v>
       </c>
       <c r="K5" t="n">
-        <v>2.337649708282808</v>
+        <v>2.356073706153158</v>
       </c>
       <c r="L5" t="n">
-        <v>2.464266801180842</v>
+        <v>2.477566949815222</v>
       </c>
       <c r="M5" t="n">
-        <v>2.361889976345723</v>
+        <v>2.383577504939848</v>
       </c>
       <c r="N5" t="n">
-        <v>1.588228006759574</v>
+        <v>1.597207018973574</v>
       </c>
       <c r="O5" t="n">
-        <v>2.158089079818721e-07</v>
+        <v>2.174647649809143e-07</v>
       </c>
     </row>
     <row r="6">
@@ -6443,43 +6443,43 @@
         <v>4.422632286096618</v>
       </c>
       <c r="C6" t="n">
-        <v>5.362783703409267</v>
+        <v>5.356991629961568</v>
       </c>
       <c r="D6" t="n">
-        <v>6.08726427285082</v>
+        <v>6.09030401762954</v>
       </c>
       <c r="E6" t="n">
-        <v>6.64709006817072</v>
+        <v>6.660562972352762</v>
       </c>
       <c r="F6" t="n">
-        <v>7.236920174253996</v>
+        <v>7.251533602345498</v>
       </c>
       <c r="G6" t="n">
-        <v>7.919122406444247</v>
+        <v>7.937719049521665</v>
       </c>
       <c r="H6" t="n">
-        <v>8.586700539496229</v>
+        <v>8.609844528447475</v>
       </c>
       <c r="I6" t="n">
-        <v>9.240392146560158</v>
+        <v>9.267360080060909</v>
       </c>
       <c r="J6" t="n">
-        <v>9.881668535994077</v>
+        <v>9.91092973344281</v>
       </c>
       <c r="K6" t="n">
-        <v>10.70109890801656</v>
+        <v>10.73136621789577</v>
       </c>
       <c r="L6" t="n">
-        <v>11.71607298081343</v>
+        <v>11.74545553792859</v>
       </c>
       <c r="M6" t="n">
-        <v>12.67913680747497</v>
+        <v>12.7033252209296</v>
       </c>
       <c r="N6" t="n">
-        <v>13.3921912810948</v>
+        <v>13.42502938507975</v>
       </c>
       <c r="O6" t="n">
-        <v>13.14020038872849</v>
+        <v>13.16687563172934</v>
       </c>
     </row>
     <row r="7">
@@ -6489,46 +6489,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.312691253578818</v>
+        <v>4.32099869954542</v>
       </c>
       <c r="C7" t="n">
-        <v>5.166099012634569</v>
+        <v>5.195861787123329</v>
       </c>
       <c r="D7" t="n">
-        <v>5.825489961072719</v>
+        <v>5.870997074505877</v>
       </c>
       <c r="E7" t="n">
-        <v>6.38084617901566</v>
+        <v>6.428927517537119</v>
       </c>
       <c r="F7" t="n">
-        <v>6.96429708037157</v>
+        <v>7.023504599575396</v>
       </c>
       <c r="G7" t="n">
-        <v>7.637753625850907</v>
+        <v>7.708669998481679</v>
       </c>
       <c r="H7" t="n">
-        <v>8.300282561702677</v>
+        <v>8.380150391641598</v>
       </c>
       <c r="I7" t="n">
-        <v>8.953503729934519</v>
+        <v>9.038235193622837</v>
       </c>
       <c r="J7" t="n">
-        <v>9.597952968442204</v>
+        <v>9.683548656497942</v>
       </c>
       <c r="K7" t="n">
-        <v>10.41894789698381</v>
+        <v>10.50309240690019</v>
       </c>
       <c r="L7" t="n">
-        <v>11.43291693532485</v>
+        <v>11.51300468894626</v>
       </c>
       <c r="M7" t="n">
-        <v>12.39778534508749</v>
+        <v>12.49128493822373</v>
       </c>
       <c r="N7" t="n">
-        <v>13.18614038653286</v>
+        <v>13.26562933212899</v>
       </c>
       <c r="O7" t="n">
-        <v>12.95621847855492</v>
+        <v>13.01680702047533</v>
       </c>
     </row>
     <row r="8">
@@ -6538,46 +6538,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.748533258179563</v>
+        <v>0.7262719093200152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9035150574773674</v>
+        <v>0.8533890086618615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999998491586506</v>
+        <v>0.9663375153363003</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999543943257</v>
+        <v>0.9999998663697264</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999607552398</v>
+        <v>0.9999999206701256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999558387697</v>
+        <v>0.9999999228712972</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999423161371</v>
+        <v>0.99999990731754</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999163489002</v>
+        <v>0.9999998721102048</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999998651383478</v>
+        <v>0.9999997975182117</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999997528938083</v>
+        <v>0.9999996191577217</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999993854798951</v>
+        <v>0.999998858631307</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9955785200038507</v>
+        <v>0.921247159392385</v>
       </c>
       <c r="N8" t="n">
-        <v>0.662328524973022</v>
+        <v>0.6164943938694601</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008754558623667039</v>
+        <v>0.008770959142768662</v>
       </c>
     </row>
     <row r="9">
@@ -6587,46 +6587,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1024842141915793</v>
+        <v>0.09417676822497732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1713238515136772</v>
+        <v>0.145861655012997</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2132201817056298</v>
+        <v>0.1938233344352566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1945487635963192</v>
+        <v>0.1949430440180331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1789826974262858</v>
+        <v>0.1793440949602476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1671838188571384</v>
+        <v>0.1675764046954079</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1561638298038077</v>
+        <v>0.1565847274669649</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1459751140173973</v>
+        <v>0.1464011218680983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1366183999844717</v>
+        <v>0.1370229229249172</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1303609581673578</v>
+        <v>0.1307296260675548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1265365124398585</v>
+        <v>0.1268536642585867</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1205808683578631</v>
+        <v>0.09721828118792239</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03645719657256844</v>
+        <v>0.02989804238010101</v>
       </c>
       <c r="O9" t="n">
-        <v>1.766587950642947e-07</v>
+        <v>1.779475254880285e-07</v>
       </c>
     </row>
     <row r="10">
@@ -6639,43 +6639,43 @@
         <v>0.00168605885451114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004729043844318814</v>
+        <v>0.002850142184252578</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007976346663479378</v>
+        <v>0.004184291722488737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01078594164114755</v>
+        <v>0.005508905320753716</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01293926065251814</v>
+        <v>0.006713739531470611</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01441889086640231</v>
+        <v>0.007744371646447038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01516928969289352</v>
+        <v>0.008491373926364629</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01524971022584761</v>
+        <v>0.008926357005158028</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0148858633571445</v>
+        <v>0.009117020950623016</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01418452947404075</v>
+        <v>0.009089633411760825</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01336792057417203</v>
+        <v>0.008990471623918722</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01267993211768453</v>
+        <v>0.009038735883795682</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01266362572260933</v>
+        <v>0.009646311144360329</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01400144047061776</v>
+        <v>0.01139742164381382</v>
       </c>
     </row>
     <row r="11">
@@ -6685,46 +6685,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.412496283316721</v>
+        <v>3.425085025214097</v>
       </c>
       <c r="C11" t="n">
-        <v>4.108071566552906</v>
+        <v>4.133887924731347</v>
       </c>
       <c r="D11" t="n">
-        <v>4.644642174119012</v>
+        <v>4.679529045445318</v>
       </c>
       <c r="E11" t="n">
-        <v>5.057766730831491</v>
+        <v>5.09693651165751</v>
       </c>
       <c r="F11" t="n">
-        <v>5.488033101031193</v>
+        <v>5.534917459540665</v>
       </c>
       <c r="G11" t="n">
-        <v>6.009407692866813</v>
+        <v>6.064778598601889</v>
       </c>
       <c r="H11" t="n">
-        <v>6.517986603097352</v>
+        <v>6.579836415780183</v>
       </c>
       <c r="I11" t="n">
-        <v>7.007130080286342</v>
+        <v>7.072452961686688</v>
       </c>
       <c r="J11" t="n">
-        <v>7.459434120563084</v>
+        <v>7.52524469224972</v>
       </c>
       <c r="K11" t="n">
-        <v>8.081298188701007</v>
+        <v>8.147018700747029</v>
       </c>
       <c r="L11" t="n">
-        <v>8.968650134144012</v>
+        <v>9.035437739131035</v>
       </c>
       <c r="M11" t="n">
-        <v>10.03589536874177</v>
+        <v>10.10770743328388</v>
       </c>
       <c r="N11" t="n">
-        <v>11.59791237977328</v>
+        <v>11.66842231315542</v>
       </c>
       <c r="O11" t="n">
-        <v>12.95621826274601</v>
+        <v>13.01680680301057</v>
       </c>
     </row>
     <row r="12">
@@ -6734,46 +6734,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0963834628663181</v>
+        <v>0.1049159068612003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03821235863420543</v>
+        <v>0.05800180645301973</v>
       </c>
       <c r="D12" t="n">
-        <v>5.856962529597261e-08</v>
+        <v>0.01307720768510886</v>
       </c>
       <c r="E12" t="n">
-        <v>1.690568847896032e-08</v>
+        <v>4.963616423223042e-08</v>
       </c>
       <c r="F12" t="n">
-        <v>1.39997224403729e-08</v>
+        <v>2.835636732239524e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53878462722759e-08</v>
+        <v>2.693837341883326e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>1.962739332823507e-08</v>
+        <v>3.162094425177011e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.780535297816237e-08</v>
+        <v>4.263421629973579e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>4.383139780115894e-08</v>
+        <v>6.600349422198199e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>8.003556578294319e-08</v>
+        <v>1.2370042273954e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.017053638635163e-07</v>
+        <v>3.755736408186303e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001461357059452034</v>
+        <v>0.02607850157048766</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1102018810796963</v>
+        <v>0.125467126271411</v>
       </c>
       <c r="O12" t="n">
-        <v>0.297995731868523</v>
+        <v>0.2985957371746923</v>
       </c>
     </row>
     <row r="13">
@@ -6783,46 +6783,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.97009612794665</v>
+        <v>5.233733649982875</v>
       </c>
       <c r="C13" t="n">
-        <v>3.327332412796937</v>
+        <v>3.916422835445661</v>
       </c>
       <c r="D13" t="n">
-        <v>2.165734472895852</v>
+        <v>2.544630523969623</v>
       </c>
       <c r="E13" t="n">
-        <v>2.04357831812535</v>
+        <v>2.047721350331553</v>
       </c>
       <c r="F13" t="n">
-        <v>1.92540360546866</v>
+        <v>1.92929194887426</v>
       </c>
       <c r="G13" t="n">
-        <v>1.825906162564606</v>
+        <v>1.830194287609606</v>
       </c>
       <c r="H13" t="n">
-        <v>1.718224909924089</v>
+        <v>1.722856403228748</v>
       </c>
       <c r="I13" t="n">
-        <v>1.606975051279279</v>
+        <v>1.611665349070496</v>
       </c>
       <c r="J13" t="n">
-        <v>1.495618140705634</v>
+        <v>1.500047427322682</v>
       </c>
       <c r="K13" t="n">
-        <v>1.41153367442973</v>
+        <v>1.415527074109308</v>
       </c>
       <c r="L13" t="n">
-        <v>1.348691204872962</v>
+        <v>1.352077236848829</v>
       </c>
       <c r="M13" t="n">
-        <v>1.304559281717601</v>
+        <v>1.802921156365947</v>
       </c>
       <c r="N13" t="n">
-        <v>3.342665678374036</v>
+        <v>3.663411791865663</v>
       </c>
       <c r="O13" t="n">
-        <v>7.086152746337516</v>
+        <v>7.100420822727194</v>
       </c>
     </row>
     <row r="14">
@@ -6993,46 +6993,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.29524097126333</v>
+        <v>52.36590999827443</v>
       </c>
       <c r="C2" t="n">
-        <v>49.69968665996659</v>
+        <v>49.80710222952478</v>
       </c>
       <c r="D2" t="n">
-        <v>44.53491725163354</v>
+        <v>44.65189912657093</v>
       </c>
       <c r="E2" t="n">
-        <v>39.08684013837907</v>
+        <v>39.16696821451418</v>
       </c>
       <c r="F2" t="n">
-        <v>33.85305534740452</v>
+        <v>33.91576112939729</v>
       </c>
       <c r="G2" t="n">
-        <v>29.04493899567253</v>
+        <v>29.09491857162767</v>
       </c>
       <c r="H2" t="n">
-        <v>24.72004417146587</v>
+        <v>24.75886179924469</v>
       </c>
       <c r="I2" t="n">
-        <v>20.90722815594076</v>
+        <v>20.93631078529788</v>
       </c>
       <c r="J2" t="n">
-        <v>17.5897188111418</v>
+        <v>17.61084929764819</v>
       </c>
       <c r="K2" t="n">
-        <v>15.17774858850291</v>
+        <v>15.1931139958417</v>
       </c>
       <c r="L2" t="n">
-        <v>13.45668549757023</v>
+        <v>13.4679002428329</v>
       </c>
       <c r="M2" t="n">
-        <v>11.92580564126299</v>
+        <v>11.93382806108105</v>
       </c>
       <c r="N2" t="n">
-        <v>10.59854135911782</v>
+        <v>10.60457310192617</v>
       </c>
       <c r="O2" t="n">
-        <v>9.362107447040874</v>
+        <v>9.365993332922555</v>
       </c>
     </row>
     <row r="3">
@@ -7045,43 +7045,43 @@
         <v>4.214901559230878</v>
       </c>
       <c r="C3" t="n">
-        <v>5.966755199075424</v>
+        <v>5.947001714133131</v>
       </c>
       <c r="D3" t="n">
-        <v>7.615462144872894</v>
+        <v>7.603039315013039</v>
       </c>
       <c r="E3" t="n">
-        <v>9.148646827541722</v>
+        <v>9.209191365284886</v>
       </c>
       <c r="F3" t="n">
-        <v>10.69726497636372</v>
+        <v>10.75724751037047</v>
       </c>
       <c r="G3" t="n">
-        <v>12.308595180476</v>
+        <v>12.38167924955672</v>
       </c>
       <c r="H3" t="n">
-        <v>13.97331946094156</v>
+        <v>14.06495550438729</v>
       </c>
       <c r="I3" t="n">
-        <v>15.68780273997678</v>
+        <v>15.79768218608748</v>
       </c>
       <c r="J3" t="n">
-        <v>17.50720801091214</v>
+        <v>17.63146964853992</v>
       </c>
       <c r="K3" t="n">
-        <v>19.63689769611267</v>
+        <v>19.77156000192575</v>
       </c>
       <c r="L3" t="n">
-        <v>21.98873678857152</v>
+        <v>22.12800739932368</v>
       </c>
       <c r="M3" t="n">
-        <v>23.98808190859384</v>
+        <v>24.12182745677443</v>
       </c>
       <c r="N3" t="n">
-        <v>24.35675389537209</v>
+        <v>24.46927822931945</v>
       </c>
       <c r="O3" t="n">
-        <v>19.50411064403837</v>
+        <v>19.59287553180344</v>
       </c>
     </row>
     <row r="4">
@@ -7091,46 +7091,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2035954964885008</v>
+        <v>0.2025393897838984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2034017325006743</v>
+        <v>0.2025232498697368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203896520945096</v>
+        <v>0.2044444284014682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205069654369307</v>
+        <v>0.2049264306185986</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2066283117500847</v>
+        <v>0.2065905721180186</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2081801196501402</v>
+        <v>0.2082111019896701</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2101614175837812</v>
+        <v>0.2102333571865719</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2135675814873674</v>
+        <v>0.2136559424529788</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2209529455626777</v>
+        <v>0.2210435532389358</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2240067359416679</v>
+        <v>0.2240807554607614</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2156437989759319</v>
+        <v>0.2156740315843147</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1912101340656931</v>
+        <v>0.1911660387402772</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1216989693541992</v>
+        <v>0.1217399992390562</v>
       </c>
       <c r="O4" t="n">
-        <v>1.076548232000129e-08</v>
+        <v>1.079090658769313e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7140,46 +7140,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4497109898227743</v>
+        <v>0.447735641328545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.553498324960071</v>
+        <v>0.5529448034057072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.649329936622684</v>
+        <v>0.6558175476907167</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7507329071510661</v>
+        <v>0.7546201030540542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8578689515181132</v>
+        <v>0.8630858967871137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9681577693590808</v>
+        <v>0.9747730897833312</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08156075073167</v>
+        <v>1.089353544074181</v>
       </c>
       <c r="I5" t="n">
-        <v>1.203720942294053</v>
+        <v>1.212315846669938</v>
       </c>
       <c r="J5" t="n">
-        <v>1.35325117163616</v>
+        <v>1.362384666820235</v>
       </c>
       <c r="K5" t="n">
-        <v>1.514177393148767</v>
+        <v>1.523409069950866</v>
       </c>
       <c r="L5" t="n">
-        <v>1.632108346538524</v>
+        <v>1.640626835425699</v>
       </c>
       <c r="M5" t="n">
-        <v>1.599262691449256</v>
+        <v>1.605851705932999</v>
       </c>
       <c r="N5" t="n">
-        <v>1.101143568990043</v>
+        <v>1.106096576843145</v>
       </c>
       <c r="O5" t="n">
-        <v>9.740052348237235e-08</v>
+        <v>9.794651596462791e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7192,43 +7192,43 @@
         <v>2.24719363913384</v>
       </c>
       <c r="C6" t="n">
-        <v>2.794774081733116</v>
+        <v>2.791995153437182</v>
       </c>
       <c r="D6" t="n">
-        <v>3.300709671475052</v>
+        <v>3.299093449640004</v>
       </c>
       <c r="E6" t="n">
-        <v>3.79294624152554</v>
+        <v>3.800459229757128</v>
       </c>
       <c r="F6" t="n">
-        <v>4.289438013044453</v>
+        <v>4.296639517747505</v>
       </c>
       <c r="G6" t="n">
-        <v>4.79307725998182</v>
+        <v>4.801597453654454</v>
       </c>
       <c r="H6" t="n">
-        <v>5.291767033578807</v>
+        <v>5.30215413657151</v>
       </c>
       <c r="I6" t="n">
-        <v>5.782270061573746</v>
+        <v>5.794390329696453</v>
       </c>
       <c r="J6" t="n">
-        <v>6.26913947290732</v>
+        <v>6.282455463394006</v>
       </c>
       <c r="K6" t="n">
-        <v>6.903844255495699</v>
+        <v>6.918013471445762</v>
       </c>
       <c r="L6" t="n">
-        <v>7.714359040911316</v>
+        <v>7.728984851206234</v>
       </c>
       <c r="M6" t="n">
-        <v>8.510157340379465</v>
+        <v>8.524364164634893</v>
       </c>
       <c r="N6" t="n">
-        <v>9.151383306203849</v>
+        <v>9.164046232559373</v>
       </c>
       <c r="O6" t="n">
-        <v>9.127746760478203</v>
+        <v>9.140189309039561</v>
       </c>
     </row>
     <row r="7">
@@ -7238,46 +7238,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.20884546848596</v>
+        <v>2.210610201829192</v>
       </c>
       <c r="C7" t="n">
-        <v>2.72120752441593</v>
+        <v>2.730278147133043</v>
       </c>
       <c r="D7" t="n">
-        <v>3.184605277289315</v>
+        <v>3.207803474120046</v>
       </c>
       <c r="E7" t="n">
-        <v>3.660867861995232</v>
+        <v>3.68239519312433</v>
       </c>
       <c r="F7" t="n">
-        <v>4.151749313790545</v>
+        <v>4.177760330195806</v>
       </c>
       <c r="G7" t="n">
-        <v>4.650577447001814</v>
+        <v>4.681657608400211</v>
       </c>
       <c r="H7" t="n">
-        <v>5.146333533368486</v>
+        <v>5.181639862733259</v>
       </c>
       <c r="I7" t="n">
-        <v>5.636253095675261</v>
+        <v>5.674149910137622</v>
       </c>
       <c r="J7" t="n">
-        <v>6.12461249697295</v>
+        <v>6.163421854459482</v>
       </c>
       <c r="K7" t="n">
-        <v>6.759517238548861</v>
+        <v>6.798482390057939</v>
       </c>
       <c r="L7" t="n">
-        <v>7.568538276033083</v>
+        <v>7.606974392669613</v>
       </c>
       <c r="M7" t="n">
-        <v>8.363901313409494</v>
+        <v>8.400298068187459</v>
       </c>
       <c r="N7" t="n">
-        <v>9.04809280500327</v>
+        <v>9.08572846851383</v>
       </c>
       <c r="O7" t="n">
-        <v>9.04748348352317</v>
+        <v>9.076764326394457</v>
       </c>
     </row>
     <row r="8">
@@ -7287,46 +7287,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6724668199426578</v>
+        <v>0.6604560285121106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8250582528378013</v>
+        <v>0.7866816394739408</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9658967856310078</v>
+        <v>0.9067887915481235</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999461016513</v>
+        <v>0.9999996862108677</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999693699482</v>
+        <v>0.9999999345816869</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999700322272</v>
+        <v>0.9999999472188464</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999629785544</v>
+        <v>0.9999999410936228</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999476460034</v>
+        <v>0.9999999217631647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999174029215</v>
+        <v>0.9999998804476563</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999998550029078</v>
+        <v>0.9999997898046363</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999996804033727</v>
+        <v>0.9999994976254986</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9999979424464936</v>
+        <v>0.9984400330582337</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7260709057249918</v>
+        <v>0.6768018140431344</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007841582250466141</v>
+        <v>0.007852430413511864</v>
       </c>
     </row>
     <row r="9">
@@ -7336,46 +7336,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03586116147186409</v>
+        <v>0.03409642812863241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06447838938167522</v>
+        <v>0.05637187206184607</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09786453830215758</v>
+        <v>0.08196412867870145</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1037080484600852</v>
+        <v>0.1039133955665216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09923535501209631</v>
+        <v>0.0994019508088753</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09476615922126572</v>
+        <v>0.09493460986795595</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09022733432038824</v>
+        <v>0.0904044341989617</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08572066371533926</v>
+        <v>0.08590033734180062</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08140657848952787</v>
+        <v>0.08157948201304702</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07905318612712779</v>
+        <v>0.07921541774570762</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07836929856495976</v>
+        <v>0.07851784032921126</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07712530419374049</v>
+        <v>0.07691753500249965</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03034476867582463</v>
+        <v>0.0249594665531249</v>
       </c>
       <c r="O9" t="n">
-        <v>8.49423161289291e-08</v>
+        <v>8.538799347459571e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7388,43 +7388,43 @@
         <v>0.001106717789115114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003251843501380815</v>
+        <v>0.001914449685098147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005526040669741375</v>
+        <v>0.00282679074831134</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007479760920316212</v>
+        <v>0.003723402939170617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00896465787006899</v>
+        <v>0.004533132617333307</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009958874261693468</v>
+        <v>0.005207690904462675</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01043246339826047</v>
+        <v>0.005678793724914242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01042779073634855</v>
+        <v>0.005926435787564475</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01006843087757483</v>
+        <v>0.005961701939585708</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009454707899551657</v>
+        <v>0.005827635896998486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008743625485352707</v>
+        <v>0.005627209658797656</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00812331899531568</v>
+        <v>0.005531035574540548</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007971006140164952</v>
+        <v>0.005822569653003209</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008793319328297581</v>
+        <v>0.006939122934180743</v>
       </c>
     </row>
     <row r="11">
@@ -7434,46 +7434,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.759134478663186</v>
+        <v>1.762874560500647</v>
       </c>
       <c r="C11" t="n">
-        <v>2.167709199455859</v>
+        <v>2.177333343727335</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53527534066663</v>
+        <v>2.551985926429329</v>
       </c>
       <c r="E11" t="n">
-        <v>2.910134954844166</v>
+        <v>2.927775090070276</v>
       </c>
       <c r="F11" t="n">
-        <v>3.293880362272432</v>
+        <v>3.314674433408692</v>
       </c>
       <c r="G11" t="n">
-        <v>3.682419677642733</v>
+        <v>3.706884518616879</v>
       </c>
       <c r="H11" t="n">
-        <v>4.064772782636815</v>
+        <v>4.092286318659077</v>
       </c>
       <c r="I11" t="n">
-        <v>4.432532153381208</v>
+        <v>4.461834063467683</v>
       </c>
       <c r="J11" t="n">
-        <v>4.77136132533679</v>
+        <v>4.801037187639247</v>
       </c>
       <c r="K11" t="n">
-        <v>5.245339845400094</v>
+        <v>5.275073320107073</v>
       </c>
       <c r="L11" t="n">
-        <v>5.936429929494558</v>
+        <v>5.966347557243915</v>
       </c>
       <c r="M11" t="n">
-        <v>6.764638621960239</v>
+        <v>6.79444636225446</v>
       </c>
       <c r="N11" t="n">
-        <v>7.946949236013226</v>
+        <v>7.979631891670685</v>
       </c>
       <c r="O11" t="n">
-        <v>9.047483386122645</v>
+        <v>9.076764228447942</v>
       </c>
     </row>
     <row r="12">
@@ -7483,46 +7483,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.138367504175105</v>
+        <v>0.1434415038020179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07846447769416268</v>
+        <v>0.09558193512544305</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01562841653637143</v>
+        <v>0.04269481076885834</v>
       </c>
       <c r="E12" t="n">
-        <v>2.485136351290142e-08</v>
+        <v>1.449679678384143e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>1.413571010828745e-08</v>
+        <v>3.024111235919942e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>1.381105796680226e-08</v>
+        <v>2.436815657774721e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69822839580241e-08</v>
+        <v>2.707426478390604e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38446002641611e-08</v>
+        <v>3.570761613672552e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>3.732403259295697e-08</v>
+        <v>5.413815540551525e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>6.645186592178601e-08</v>
+        <v>9.652980692324703e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>1.515968107576238e-07</v>
+        <v>2.387470827745675e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>1.002418413557923e-06</v>
+        <v>0.0007612682163764714</v>
       </c>
       <c r="N12" t="n">
-        <v>0.134237708742426</v>
+        <v>0.1586009590143553</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4555110051798664</v>
+        <v>0.4561269507270305</v>
       </c>
     </row>
     <row r="13">
@@ -7532,46 +7532,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.935241730091217</v>
+        <v>8.131571930624739</v>
       </c>
       <c r="C13" t="n">
-        <v>5.898045911623801</v>
+        <v>6.534932312222572</v>
       </c>
       <c r="D13" t="n">
-        <v>3.670858048438508</v>
+        <v>4.637901990555273</v>
       </c>
       <c r="E13" t="n">
-        <v>3.097868600496902</v>
+        <v>3.104008950048082</v>
       </c>
       <c r="F13" t="n">
-        <v>3.031760842776416</v>
+        <v>3.036851387230373</v>
       </c>
       <c r="G13" t="n">
-        <v>2.935907444793921</v>
+        <v>2.941126671549188</v>
       </c>
       <c r="H13" t="n">
-        <v>2.81307251808427</v>
+        <v>2.818594559334679</v>
       </c>
       <c r="I13" t="n">
-        <v>2.67142876220918</v>
+        <v>2.677028725000895</v>
       </c>
       <c r="J13" t="n">
-        <v>2.520721241410774</v>
+        <v>2.526075870323078</v>
       </c>
       <c r="K13" t="n">
-        <v>2.419246861552943</v>
+        <v>2.42421285618352</v>
       </c>
       <c r="L13" t="n">
-        <v>2.359153552114656</v>
+        <v>2.363628545303154</v>
       </c>
       <c r="M13" t="n">
-        <v>2.274328993713909</v>
+        <v>2.296416743508825</v>
       </c>
       <c r="N13" t="n">
-        <v>5.294397648067119</v>
+        <v>5.899234301365746</v>
       </c>
       <c r="O13" t="n">
-        <v>13.08872796557007</v>
+        <v>13.10642700004428</v>
       </c>
     </row>
     <row r="14">
@@ -7742,46 +7742,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.83765775651795</v>
+        <v>19.86079267391072</v>
       </c>
       <c r="C2" t="n">
-        <v>31.55360360569153</v>
+        <v>31.64314837764768</v>
       </c>
       <c r="D2" t="n">
-        <v>36.54048734085438</v>
+        <v>36.68301245965039</v>
       </c>
       <c r="E2" t="n">
-        <v>37.40319931151606</v>
+        <v>37.56505264064948</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67483536725994</v>
+        <v>35.82810511592643</v>
       </c>
       <c r="G2" t="n">
-        <v>32.74283435407188</v>
+        <v>32.87135790401922</v>
       </c>
       <c r="H2" t="n">
-        <v>29.39034674604993</v>
+        <v>29.48484879411545</v>
       </c>
       <c r="I2" t="n">
-        <v>25.97386222436846</v>
+        <v>26.03749860448678</v>
       </c>
       <c r="J2" t="n">
-        <v>22.68652146515283</v>
+        <v>22.73028424839974</v>
       </c>
       <c r="K2" t="n">
-        <v>19.97986003015536</v>
+        <v>20.01049634728692</v>
       </c>
       <c r="L2" t="n">
-        <v>17.79728985296916</v>
+        <v>17.819047973728</v>
       </c>
       <c r="M2" t="n">
-        <v>15.80786925858737</v>
+        <v>15.82387343480666</v>
       </c>
       <c r="N2" t="n">
-        <v>14.05594150313241</v>
+        <v>14.06667300845145</v>
       </c>
       <c r="O2" t="n">
-        <v>12.39656040124834</v>
+        <v>12.40336314270099</v>
       </c>
     </row>
     <row r="3">
@@ -7794,43 +7794,43 @@
         <v>2.049368038767686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.95433616498715</v>
+        <v>2.95154086331297</v>
       </c>
       <c r="D3" t="n">
-        <v>4.072669526882515</v>
+        <v>4.072549914018397</v>
       </c>
       <c r="E3" t="n">
-        <v>5.408443596558135</v>
+        <v>5.417963549597625</v>
       </c>
       <c r="F3" t="n">
-        <v>6.941409082672859</v>
+        <v>6.967358175710348</v>
       </c>
       <c r="G3" t="n">
-        <v>8.67192066259682</v>
+        <v>8.72233044892852</v>
       </c>
       <c r="H3" t="n">
-        <v>10.58001092391252</v>
+        <v>10.67177976456794</v>
       </c>
       <c r="I3" t="n">
-        <v>12.67222638145572</v>
+        <v>12.80490085062624</v>
       </c>
       <c r="J3" t="n">
-        <v>15.01114408526679</v>
+        <v>15.14914761233079</v>
       </c>
       <c r="K3" t="n">
-        <v>17.67955705094117</v>
+        <v>17.82514937025722</v>
       </c>
       <c r="L3" t="n">
-        <v>20.56725056311175</v>
+        <v>20.71577410432403</v>
       </c>
       <c r="M3" t="n">
-        <v>23.19010194671803</v>
+        <v>23.32655675301413</v>
       </c>
       <c r="N3" t="n">
-        <v>24.37289499081035</v>
+        <v>24.52446985805266</v>
       </c>
       <c r="O3" t="n">
-        <v>20.07471112749712</v>
+        <v>20.17712706508204</v>
       </c>
     </row>
     <row r="4">
@@ -7840,46 +7840,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2056749404382388</v>
+        <v>0.205405917963062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204287011264782</v>
+        <v>0.2039967699498569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2046057716407201</v>
+        <v>0.2042745875501339</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2049122278106096</v>
+        <v>0.2045397049710335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2066522314479816</v>
+        <v>0.2063256993226478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2083778299570425</v>
+        <v>0.2084051115337799</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2099548683389775</v>
+        <v>0.2102536076305215</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2125753528684919</v>
+        <v>0.212635455866142</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2171326924451282</v>
+        <v>0.2171992757717735</v>
       </c>
       <c r="K4" t="n">
-        <v>0.218295658182846</v>
+        <v>0.2183212777562093</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2107757802391713</v>
+        <v>0.2106749050177548</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1888747397377088</v>
+        <v>0.1890198565894317</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1216329301494322</v>
+        <v>0.1215970304525854</v>
       </c>
       <c r="O4" t="n">
-        <v>5.975283382874377e-09</v>
+        <v>5.993875444583881e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7889,46 +7889,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2239765714038837</v>
+        <v>0.2236970412364657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3042556201343778</v>
+        <v>0.3043411249907023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3988391538881934</v>
+        <v>0.3997953198348301</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5055601406056135</v>
+        <v>0.5078231096717989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6251600971554474</v>
+        <v>0.6292962868603854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7556299154607299</v>
+        <v>0.7630491189598811</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8983204676264944</v>
+        <v>0.9083881329225948</v>
       </c>
       <c r="I5" t="n">
-        <v>1.059261195798674</v>
+        <v>1.068435475809927</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2445494747174</v>
+        <v>1.254296821194508</v>
       </c>
       <c r="K5" t="n">
-        <v>1.440277018893063</v>
+        <v>1.450052882735325</v>
       </c>
       <c r="L5" t="n">
-        <v>1.601874510322638</v>
+        <v>1.610341295285446</v>
       </c>
       <c r="M5" t="n">
-        <v>1.628700641826873</v>
+        <v>1.639100243650757</v>
       </c>
       <c r="N5" t="n">
-        <v>1.157640812138026</v>
+        <v>1.162597317069676</v>
       </c>
       <c r="O5" t="n">
-        <v>5.787227068755125e-08</v>
+        <v>5.826452068012586e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7941,43 +7941,43 @@
         <v>1.09355370754314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.501959256647906</v>
+        <v>1.501532783144098</v>
       </c>
       <c r="D6" t="n">
-        <v>1.97528924342111</v>
+        <v>1.975271839178188</v>
       </c>
       <c r="E6" t="n">
-        <v>2.511933165217831</v>
+        <v>2.51325880175028</v>
       </c>
       <c r="F6" t="n">
-        <v>3.093145923335975</v>
+        <v>3.096610329508374</v>
       </c>
       <c r="G6" t="n">
-        <v>3.720601402025794</v>
+        <v>3.727076589896434</v>
       </c>
       <c r="H6" t="n">
-        <v>4.395007208606587</v>
+        <v>4.406409076085339</v>
       </c>
       <c r="I6" t="n">
-        <v>5.106550071959013</v>
+        <v>5.122530865655953</v>
       </c>
       <c r="J6" t="n">
-        <v>5.860641642617038</v>
+        <v>5.876753677501966</v>
       </c>
       <c r="K6" t="n">
-        <v>6.731519744637653</v>
+        <v>6.748102386695749</v>
       </c>
       <c r="L6" t="n">
-        <v>7.738348117549383</v>
+        <v>7.755070340022418</v>
       </c>
       <c r="M6" t="n">
-        <v>8.751244316517555</v>
+        <v>8.766660784425873</v>
       </c>
       <c r="N6" t="n">
-        <v>9.622650339302975</v>
+        <v>9.640564358167314</v>
       </c>
       <c r="O6" t="n">
-        <v>9.785644792176841</v>
+        <v>9.80059526774817</v>
       </c>
     </row>
     <row r="7">
@@ -7987,46 +7987,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.088983280737308</v>
+        <v>1.089048667413239</v>
       </c>
       <c r="C7" t="n">
-        <v>1.489353719801714</v>
+        <v>1.491891881746512</v>
       </c>
       <c r="D7" t="n">
-        <v>1.949305489722644</v>
+        <v>1.95714662616421</v>
       </c>
       <c r="E7" t="n">
-        <v>2.467203377793922</v>
+        <v>2.482760546387391</v>
       </c>
       <c r="F7" t="n">
-        <v>3.025179514274019</v>
+        <v>3.050014074477</v>
       </c>
       <c r="G7" t="n">
-        <v>3.626249086174401</v>
+        <v>3.661374298087694</v>
       </c>
       <c r="H7" t="n">
-        <v>4.278636045610208</v>
+        <v>4.320440172988159</v>
       </c>
       <c r="I7" t="n">
-        <v>4.982991591005274</v>
+        <v>5.024728690978645</v>
       </c>
       <c r="J7" t="n">
-        <v>5.73174615348129</v>
+        <v>5.774866498691667</v>
       </c>
       <c r="K7" t="n">
-        <v>6.597827143619487</v>
+        <v>6.641830322899362</v>
       </c>
       <c r="L7" t="n">
-        <v>7.599898377816276</v>
+        <v>7.643726219550131</v>
       </c>
       <c r="M7" t="n">
-        <v>8.623178748458672</v>
+        <v>8.671577014318824</v>
       </c>
       <c r="N7" t="n">
-        <v>9.517495062527937</v>
+        <v>9.56106668676428</v>
       </c>
       <c r="O7" t="n">
-        <v>9.685276325708273</v>
+        <v>9.720675916409675</v>
       </c>
     </row>
     <row r="8">
@@ -8036,46 +8036,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3499258016278783</v>
+        <v>0.347329422887198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4561042574813201</v>
+        <v>0.4396882627645766</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5704481936560409</v>
+        <v>0.5418440198057802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6893330879772046</v>
+        <v>0.6497728358680132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8086873490212267</v>
+        <v>0.7591986798033459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9233985770266891</v>
+        <v>0.8647734195941122</v>
       </c>
       <c r="H8" t="n">
-        <v>0.99999936926078</v>
+        <v>0.9597724387282606</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999997767784359</v>
+        <v>0.9999992321192928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999997615778654</v>
+        <v>0.9999994820146263</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999996180945623</v>
+        <v>0.9999991587392528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999988055105306</v>
+        <v>0.9999741624201397</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9082823549879548</v>
+        <v>0.8519859527584093</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6277331036376771</v>
+        <v>0.5918381337060545</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007433193086346224</v>
+        <v>0.007445373284363959</v>
       </c>
     </row>
     <row r="9">
@@ -8085,46 +8085,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00316842358420021</v>
+        <v>0.003103036908269432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007016576682511037</v>
+        <v>0.006330354519359337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01351624152862907</v>
+        <v>0.0117029332508335</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02327239484088445</v>
+        <v>0.01973335834652512</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03628748593653805</v>
+        <v>0.03044054726556701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05198337362880779</v>
+        <v>0.04333675620117678</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06387857505457091</v>
+        <v>0.05708899219149034</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06249656182888407</v>
+        <v>0.06269204731682711</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06103971731519051</v>
+        <v>0.06120747936592336</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06023988559509781</v>
+        <v>0.06038820479400087</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06001923691258521</v>
+        <v>0.0601447855571583</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04529143176879759</v>
+        <v>0.03792912320360221</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01557286455809936</v>
+        <v>0.0132304438793613</v>
       </c>
       <c r="O9" t="n">
-        <v>5.654107156849623e-08</v>
+        <v>5.688765128512541e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8137,43 +8137,43 @@
         <v>0.001282061605169162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00372111303215641</v>
+        <v>0.002204778287487213</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006311740020536595</v>
+        <v>0.003251339707154956</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008542182921162421</v>
+        <v>0.004283242541065288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01024165167456806</v>
+        <v>0.005217223365773659</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01138765958630133</v>
+        <v>0.006000825330016794</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0119436864265009</v>
+        <v>0.006554069403684692</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01195756788132898</v>
+        <v>0.006854058722393958</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01157821548533653</v>
+        <v>0.006922137914357371</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01091175814816274</v>
+        <v>0.006799520275929619</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01013530299091271</v>
+        <v>0.006602046489623589</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009458556211698331</v>
+        <v>0.00651954584634827</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009309536256455914</v>
+        <v>0.006873791311556591</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01025669867025394</v>
+        <v>0.008154534726461094</v>
       </c>
     </row>
     <row r="11">
@@ -8183,46 +8183,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8650067093334244</v>
+        <v>0.8653516261767732</v>
       </c>
       <c r="C11" t="n">
-        <v>1.185098099667336</v>
+        <v>1.187550756755809</v>
       </c>
       <c r="D11" t="n">
-        <v>1.550466335834451</v>
+        <v>1.55735130632938</v>
       </c>
       <c r="E11" t="n">
-        <v>1.961643237188308</v>
+        <v>1.974937436715593</v>
       </c>
       <c r="F11" t="n">
-        <v>2.400019417118572</v>
+        <v>2.420717787616614</v>
       </c>
       <c r="G11" t="n">
-        <v>2.870619170713671</v>
+        <v>2.898325179127813</v>
       </c>
       <c r="H11" t="n">
-        <v>3.380315577983713</v>
+        <v>3.412052040065564</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9237303952066</v>
+        <v>3.956293215168718</v>
       </c>
       <c r="J11" t="n">
-        <v>4.48719667876389</v>
+        <v>4.52056967749716</v>
       </c>
       <c r="K11" t="n">
-        <v>5.157550124726424</v>
+        <v>5.191777440164037</v>
       </c>
       <c r="L11" t="n">
-        <v>5.998023867493638</v>
+        <v>6.033384924264685</v>
       </c>
       <c r="M11" t="n">
-        <v>6.994478106631798</v>
+        <v>7.032476770668067</v>
       </c>
       <c r="N11" t="n">
-        <v>8.35985425038991</v>
+        <v>8.398469369694604</v>
       </c>
       <c r="O11" t="n">
-        <v>9.685276267836002</v>
+        <v>9.720675858145155</v>
       </c>
     </row>
     <row r="12">
@@ -8232,46 +8232,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1511145650178982</v>
+        <v>0.1517181124975584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1395673221032922</v>
+        <v>0.1437389517359962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1187863224286854</v>
+        <v>0.1266952755522899</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09109546593199688</v>
+        <v>0.1027497374065175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05850839522158893</v>
+        <v>0.07372580267597233</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02420642758630593</v>
+        <v>0.04280663612322854</v>
       </c>
       <c r="H12" t="n">
-        <v>2.048379293208918e-07</v>
+        <v>0.01309813513202082</v>
       </c>
       <c r="I12" t="n">
-        <v>7.412200554542954e-08</v>
+        <v>2.557771595996333e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>8.078368254993716e-08</v>
+        <v>1.759895548554559e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>1.333732633009813e-07</v>
+        <v>2.945181746654302e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33926103304695e-07</v>
+        <v>9.406385237837699e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03435176011867543</v>
+        <v>0.05553457173598993</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1407170333381496</v>
+        <v>0.1545725716042238</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3523344721622552</v>
+        <v>0.3528684373493843</v>
       </c>
     </row>
     <row r="13">
@@ -8281,46 +8281,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.20648394574445</v>
+        <v>8.235047241278751</v>
       </c>
       <c r="C13" t="n">
-        <v>8.352221777103535</v>
+        <v>8.556940888046519</v>
       </c>
       <c r="D13" t="n">
-        <v>7.873771765233986</v>
+        <v>8.269609316298718</v>
       </c>
       <c r="E13" t="n">
-        <v>6.885494746548374</v>
+        <v>7.470088425934637</v>
       </c>
       <c r="F13" t="n">
-        <v>5.516401390279411</v>
+        <v>6.270151763046985</v>
       </c>
       <c r="G13" t="n">
-        <v>3.991976471201676</v>
+        <v>4.891259242028091</v>
       </c>
       <c r="H13" t="n">
-        <v>2.924314186685547</v>
+        <v>3.543442342679143</v>
       </c>
       <c r="I13" t="n">
-        <v>2.95295006032902</v>
+        <v>2.962199540961897</v>
       </c>
       <c r="J13" t="n">
-        <v>2.949478968760246</v>
+        <v>2.957591915873985</v>
       </c>
       <c r="K13" t="n">
-        <v>2.952471772807201</v>
+        <v>2.959751991806105</v>
       </c>
       <c r="L13" t="n">
-        <v>2.962030193814434</v>
+        <v>2.968807917189624</v>
       </c>
       <c r="M13" t="n">
-        <v>4.330739684376272</v>
+        <v>5.221603136083999</v>
       </c>
       <c r="N13" t="n">
-        <v>8.547564600170793</v>
+        <v>9.153405243185004</v>
       </c>
       <c r="O13" t="n">
-        <v>17.57051544236666</v>
+        <v>17.59714417866983</v>
       </c>
     </row>
     <row r="14">
@@ -8491,46 +8491,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.9583727910072</v>
+        <v>272.2308574353289</v>
       </c>
       <c r="C2" t="n">
-        <v>356.501884982508</v>
+        <v>357.4786962717832</v>
       </c>
       <c r="D2" t="n">
-        <v>384.8578151128289</v>
+        <v>386.3614081761422</v>
       </c>
       <c r="E2" t="n">
-        <v>377.7237998954898</v>
+        <v>379.4001673750597</v>
       </c>
       <c r="F2" t="n">
-        <v>349.3121433568398</v>
+        <v>350.8843874030605</v>
       </c>
       <c r="G2" t="n">
-        <v>314.8028661172397</v>
+        <v>316.1333716840318</v>
       </c>
       <c r="H2" t="n">
-        <v>278.9253703384364</v>
+        <v>279.9479833497751</v>
       </c>
       <c r="I2" t="n">
-        <v>244.2442088386782</v>
+        <v>244.9238560951818</v>
       </c>
       <c r="J2" t="n">
-        <v>211.7917126048071</v>
+        <v>212.2510085322364</v>
       </c>
       <c r="K2" t="n">
-        <v>185.6167850331189</v>
+        <v>185.9458855088993</v>
       </c>
       <c r="L2" t="n">
-        <v>164.8494748486203</v>
+        <v>165.104566968383</v>
       </c>
       <c r="M2" t="n">
-        <v>146.1269041390552</v>
+        <v>146.305332884564</v>
       </c>
       <c r="N2" t="n">
-        <v>129.7538812125752</v>
+        <v>129.8716757320112</v>
       </c>
       <c r="O2" t="n">
-        <v>114.2700745200205</v>
+        <v>114.3443900473623</v>
       </c>
     </row>
     <row r="3">
@@ -8543,43 +8543,43 @@
         <v>22.26872927438124</v>
       </c>
       <c r="C3" t="n">
-        <v>33.07972577231268</v>
+        <v>33.04984475952536</v>
       </c>
       <c r="D3" t="n">
-        <v>45.7339617566105</v>
+        <v>45.74867352831985</v>
       </c>
       <c r="E3" t="n">
-        <v>59.90315497652955</v>
+        <v>60.04546351326753</v>
       </c>
       <c r="F3" t="n">
-        <v>75.31557654252734</v>
+        <v>75.65443690349494</v>
       </c>
       <c r="G3" t="n">
-        <v>92.14167092823243</v>
+        <v>92.74168774008653</v>
       </c>
       <c r="H3" t="n">
-        <v>110.2751911883889</v>
+        <v>111.2474035474575</v>
       </c>
       <c r="I3" t="n">
-        <v>129.3338094749201</v>
+        <v>130.9654245377621</v>
       </c>
       <c r="J3" t="n">
-        <v>150.4669451937192</v>
+        <v>152.1427399521059</v>
       </c>
       <c r="K3" t="n">
-        <v>173.9603794241846</v>
+        <v>175.5398678901022</v>
       </c>
       <c r="L3" t="n">
-        <v>198.6121488345485</v>
+        <v>199.9929676940835</v>
       </c>
       <c r="M3" t="n">
-        <v>219.4149298330886</v>
+        <v>221.243791930405</v>
       </c>
       <c r="N3" t="n">
-        <v>226.569978010299</v>
+        <v>228.3302465540106</v>
       </c>
       <c r="O3" t="n">
-        <v>182.7902304315656</v>
+        <v>183.9024384548335</v>
       </c>
     </row>
     <row r="4">
@@ -8589,46 +8589,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2139578997827309</v>
+        <v>0.2136601941725208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2087353338780756</v>
+        <v>0.2084059058562776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2061935271351625</v>
+        <v>0.2057997125343948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2053407584808822</v>
+        <v>0.2048739933763776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.207432249817691</v>
+        <v>0.2069522986094203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2092749000824047</v>
+        <v>0.2089933874279214</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2103949619322564</v>
+        <v>0.2108299213552413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2130978157205579</v>
+        <v>0.2131799242783018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2175011535368681</v>
+        <v>0.2174088458285946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2183175043016884</v>
+        <v>0.2179977231115358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2099292892016487</v>
+        <v>0.2101575265043268</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1878297151022758</v>
+        <v>0.1879665547784979</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196842260685786</v>
+        <v>0.1196165224774046</v>
       </c>
       <c r="O4" t="n">
-        <v>4.283667297857152e-10</v>
+        <v>4.300595797772154e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8638,46 +8638,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.531509998591223</v>
+        <v>2.52852189731249</v>
       </c>
       <c r="C5" t="n">
-        <v>3.419977457538474</v>
+        <v>3.422490521202138</v>
       </c>
       <c r="D5" t="n">
-        <v>4.395670853164154</v>
+        <v>4.40938873907688</v>
       </c>
       <c r="E5" t="n">
-        <v>5.442863790824246</v>
+        <v>5.471787835060733</v>
       </c>
       <c r="F5" t="n">
-        <v>6.588075318415183</v>
+        <v>6.636261669393204</v>
       </c>
       <c r="G5" t="n">
-        <v>7.814737710092533</v>
+        <v>7.891037653400277</v>
       </c>
       <c r="H5" t="n">
-        <v>9.088322782962337</v>
+        <v>9.21758534036594</v>
       </c>
       <c r="I5" t="n">
-        <v>10.53710342538134</v>
+        <v>10.64779200172447</v>
       </c>
       <c r="J5" t="n">
-        <v>12.14957996874264</v>
+        <v>12.24909746510619</v>
       </c>
       <c r="K5" t="n">
-        <v>13.79559150977197</v>
+        <v>13.87860003828026</v>
       </c>
       <c r="L5" t="n">
-        <v>15.01631555925491</v>
+        <v>15.15105559238623</v>
       </c>
       <c r="M5" t="n">
-        <v>15.00647225414467</v>
+        <v>15.1187306301908</v>
       </c>
       <c r="N5" t="n">
-        <v>10.37901639254432</v>
+        <v>10.42886042587327</v>
       </c>
       <c r="O5" t="n">
-        <v>3.714754705858848e-08</v>
+        <v>3.74523890573592e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8690,43 +8690,43 @@
         <v>11.9469150777149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.64780274988327</v>
+        <v>16.64328992020939</v>
       </c>
       <c r="D6" t="n">
-        <v>21.82112237376912</v>
+        <v>21.82322797246028</v>
       </c>
       <c r="E6" t="n">
-        <v>27.33600831514937</v>
+        <v>27.35547432056153</v>
       </c>
       <c r="F6" t="n">
-        <v>32.9789394293483</v>
+        <v>33.02338323222768</v>
       </c>
       <c r="G6" t="n">
-        <v>39.02046510813616</v>
+        <v>39.09652114984655</v>
       </c>
       <c r="H6" t="n">
-        <v>45.36345207986344</v>
+        <v>45.48306419714391</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94872042747198</v>
+        <v>52.14446672342257</v>
       </c>
       <c r="J6" t="n">
-        <v>58.81436305381045</v>
+        <v>59.01011171988404</v>
       </c>
       <c r="K6" t="n">
-        <v>66.74219337824499</v>
+        <v>66.92341607953789</v>
       </c>
       <c r="L6" t="n">
-        <v>75.84731021699631</v>
+        <v>76.00512163711856</v>
       </c>
       <c r="M6" t="n">
-        <v>84.83705738906694</v>
+        <v>85.04858096472411</v>
       </c>
       <c r="N6" t="n">
-        <v>92.43320004201951</v>
+        <v>92.64805651566881</v>
       </c>
       <c r="O6" t="n">
-        <v>93.05575510072504</v>
+        <v>93.22525711052668</v>
       </c>
     </row>
     <row r="7">
@@ -8736,46 +8736,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.83181364727318</v>
+        <v>11.83431432843698</v>
       </c>
       <c r="C7" t="n">
-        <v>16.38427665311383</v>
+        <v>16.42223384764528</v>
       </c>
       <c r="D7" t="n">
-        <v>21.31818061525635</v>
+        <v>21.42563118663224</v>
       </c>
       <c r="E7" t="n">
-        <v>26.50649501390145</v>
+        <v>26.70806452729417</v>
       </c>
       <c r="F7" t="n">
-        <v>31.76013047250531</v>
+        <v>32.06662459892642</v>
       </c>
       <c r="G7" t="n">
-        <v>37.34197319896165</v>
+        <v>37.75735562983673</v>
       </c>
       <c r="H7" t="n">
-        <v>43.19648483735376</v>
+        <v>43.72047990680895</v>
       </c>
       <c r="I7" t="n">
-        <v>49.44726152988349</v>
+        <v>49.94744246097024</v>
       </c>
       <c r="J7" t="n">
-        <v>55.8598415280735</v>
+        <v>56.34130211409795</v>
       </c>
       <c r="K7" t="n">
-        <v>63.19049658385674</v>
+        <v>63.66396786254251</v>
       </c>
       <c r="L7" t="n">
-        <v>71.53035013056665</v>
+        <v>72.09380432099012</v>
       </c>
       <c r="M7" t="n">
-        <v>79.89402659730088</v>
+        <v>80.43308900355647</v>
       </c>
       <c r="N7" t="n">
-        <v>86.7200025724123</v>
+        <v>87.18578512298137</v>
       </c>
       <c r="O7" t="n">
-        <v>86.71902945677189</v>
+        <v>87.08651270310206</v>
       </c>
     </row>
     <row r="8">
@@ -8785,46 +8785,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3633082219913704</v>
+        <v>0.3567601748146159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4698194015145573</v>
+        <v>0.4492411338919498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5809535183579407</v>
+        <v>0.5483440949494051</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6931939740740835</v>
+        <v>0.6501404318739273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8024357285222409</v>
+        <v>0.7502847642574065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9048079318167377</v>
+        <v>0.8446005751777587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9936877024585288</v>
+        <v>0.9264604331025783</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999668883803</v>
+        <v>0.9875175059551626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999666868009</v>
+        <v>0.9999997578840523</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9999999315839712</v>
+        <v>0.9974776936741191</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9883579522093437</v>
+        <v>0.9226115596344187</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8244847478536839</v>
+        <v>0.7721920372312252</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5609025227622471</v>
+        <v>0.5279836289886239</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00302706371920373</v>
+        <v>0.003032800914091989</v>
       </c>
     </row>
     <row r="9">
@@ -8834,46 +8834,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05036533742391616</v>
+        <v>0.04786465626012058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1097913896416091</v>
+        <v>0.09682478199630792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2026954293863573</v>
+        <v>0.1724403349445063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3296565042634766</v>
+        <v>0.2756750812436339</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4822734110324627</v>
+        <v>0.4000945489359529</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6525911081657436</v>
+        <v>0.5392035613592442</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8168725014638922</v>
+        <v>0.6731523824349132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7983367920464894</v>
+        <v>0.7736508542694033</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7662155759799459</v>
+        <v>0.7687652804161895</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7444877585172616</v>
+        <v>0.7412491518998138</v>
       </c>
       <c r="L9" t="n">
-        <v>0.707402518889906</v>
+        <v>0.5846046191698373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4148785549155393</v>
+        <v>0.3461959653091836</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1348990018844278</v>
+        <v>0.1141483501471892</v>
       </c>
       <c r="O9" t="n">
-        <v>5.359026353272196e-08</v>
+        <v>5.397327578733233e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8886,43 +8886,43 @@
         <v>0.005418645114382654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009234534396973412</v>
+        <v>0.007464346962853361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0137594356506308</v>
+        <v>0.01031728446257657</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01828565426311453</v>
+        <v>0.01358904282439424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02233351219157389</v>
+        <v>0.01685666427484786</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02629135245225082</v>
+        <v>0.0204612056296398</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02976172842112888</v>
+        <v>0.02395247389617286</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03278467865093626</v>
+        <v>0.0272967295980336</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03720699904128671</v>
+        <v>0.03219862274433996</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04206048518606319</v>
+        <v>0.0376280711986176</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04758979002964179</v>
+        <v>0.04376958585556731</v>
       </c>
       <c r="M10" t="n">
-        <v>0.053374697051137</v>
+        <v>0.05019832132919046</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0603495114871119</v>
+        <v>0.05772515089550713</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06809600957530772</v>
+        <v>0.06584851084060551</v>
       </c>
     </row>
     <row r="11">
@@ -8932,46 +8932,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.300303648681957</v>
+        <v>9.305792431124486</v>
       </c>
       <c r="C11" t="n">
-        <v>12.96429919557536</v>
+        <v>12.99974332644314</v>
       </c>
       <c r="D11" t="n">
-        <v>16.92250976209219</v>
+        <v>17.01624244755537</v>
       </c>
       <c r="E11" t="n">
-        <v>21.06363122307721</v>
+        <v>21.23627669223344</v>
       </c>
       <c r="F11" t="n">
-        <v>25.17205515409013</v>
+        <v>25.43036292953322</v>
       </c>
       <c r="G11" t="n">
-        <v>29.52723548886912</v>
+        <v>29.86631797643646</v>
       </c>
       <c r="H11" t="n">
-        <v>34.10816205439142</v>
+        <v>34.50289456644302</v>
       </c>
       <c r="I11" t="n">
-        <v>38.91015810450215</v>
+        <v>39.29965045924577</v>
       </c>
       <c r="J11" t="n">
-        <v>43.71026155933087</v>
+        <v>44.09220464899176</v>
       </c>
       <c r="K11" t="n">
-        <v>49.39490507408477</v>
+        <v>49.78536782426226</v>
       </c>
       <c r="L11" t="n">
-        <v>56.51403457131173</v>
+        <v>56.94274872860389</v>
       </c>
       <c r="M11" t="n">
-        <v>64.88755434315621</v>
+        <v>65.31435837336568</v>
       </c>
       <c r="N11" t="n">
-        <v>76.34098617986798</v>
+        <v>76.75692469710809</v>
       </c>
       <c r="O11" t="n">
-        <v>86.71902941962435</v>
+        <v>87.08651266564968</v>
       </c>
     </row>
     <row r="12">
@@ -8981,46 +8981,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.815417134011426</v>
+        <v>1.834087764683264</v>
       </c>
       <c r="C12" t="n">
-        <v>1.679426627939355</v>
+        <v>1.744138456203234</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4153498814381</v>
+        <v>1.525636995693369</v>
       </c>
       <c r="E12" t="n">
-        <v>1.075344451952019</v>
+        <v>1.227118831239737</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7034117998657312</v>
+        <v>0.8902893169208619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3426544469049668</v>
+        <v>0.5604678305597794</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02287176815113329</v>
+        <v>0.2671634020411248</v>
       </c>
       <c r="I12" t="n">
-        <v>1.203855712105065e-07</v>
+        <v>0.04555423479214413</v>
       </c>
       <c r="J12" t="n">
-        <v>1.214464540591679e-07</v>
+        <v>8.855945472580946e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>2.531028583620115e-07</v>
+        <v>0.009356526298532944</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04415000818943066</v>
+        <v>0.2940899472347596</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6768247201451769</v>
+        <v>0.880667005653274</v>
       </c>
       <c r="N12" t="n">
-        <v>1.689009227127486</v>
+        <v>1.819853661202729</v>
       </c>
       <c r="O12" t="n">
-        <v>3.557005742253513</v>
+        <v>3.563464358116766</v>
       </c>
     </row>
     <row r="13">
@@ -9030,46 +9030,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.137986780115</v>
+        <v>83.87841171465064</v>
       </c>
       <c r="C13" t="n">
-        <v>85.60896552481468</v>
+        <v>88.29276375019256</v>
       </c>
       <c r="D13" t="n">
-        <v>80.6218824991379</v>
+        <v>85.32545135557054</v>
       </c>
       <c r="E13" t="n">
-        <v>70.17239550414078</v>
+        <v>76.7159426861617</v>
       </c>
       <c r="F13" t="n">
-        <v>56.47745103889243</v>
+        <v>64.50503914044921</v>
       </c>
       <c r="G13" t="n">
-        <v>42.31052566287347</v>
+        <v>51.52519715692592</v>
       </c>
       <c r="H13" t="n">
-        <v>29.42737721897181</v>
+        <v>39.52791064892001</v>
       </c>
       <c r="I13" t="n">
-        <v>28.36427444358897</v>
+        <v>30.30588264885872</v>
       </c>
       <c r="J13" t="n">
-        <v>27.94806972969965</v>
+        <v>28.04111794779587</v>
       </c>
       <c r="K13" t="n">
-        <v>27.64019773395586</v>
+        <v>28.0755713331159</v>
       </c>
       <c r="L13" t="n">
-        <v>29.05977790207136</v>
+        <v>38.55684582145137</v>
       </c>
       <c r="M13" t="n">
-        <v>51.70623122942801</v>
+        <v>59.54581133543328</v>
       </c>
       <c r="N13" t="n">
-        <v>87.51741491097837</v>
+        <v>92.73183545659937</v>
       </c>
       <c r="O13" t="n">
-        <v>158.4628598613951</v>
+        <v>158.7505888979448</v>
       </c>
     </row>
     <row r="14">
@@ -9240,46 +9240,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-204.5031772092409</v>
+        <v>-204.0745219226718</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.528197254124708</v>
+        <v>-4.639411716332105</v>
       </c>
       <c r="D2" t="n">
-        <v>132.654661119932</v>
+        <v>135.6539847119194</v>
       </c>
       <c r="E2" t="n">
-        <v>218.9870287913708</v>
+        <v>222.3726278006141</v>
       </c>
       <c r="F2" t="n">
-        <v>259.0054300053091</v>
+        <v>262.1766470929871</v>
       </c>
       <c r="G2" t="n">
-        <v>268.0812004769055</v>
+        <v>270.757814542845</v>
       </c>
       <c r="H2" t="n">
-        <v>261.48339763213</v>
+        <v>263.6138798227574</v>
       </c>
       <c r="I2" t="n">
-        <v>246.2576146980614</v>
+        <v>247.879211051057</v>
       </c>
       <c r="J2" t="n">
-        <v>226.7048627889028</v>
+        <v>227.8986082482647</v>
       </c>
       <c r="K2" t="n">
-        <v>205.3512532888408</v>
+        <v>206.2049524520111</v>
       </c>
       <c r="L2" t="n">
-        <v>183.9173033323083</v>
+        <v>184.5118213132735</v>
       </c>
       <c r="M2" t="n">
-        <v>163.6838636123659</v>
+        <v>164.085727549995</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5772108230922</v>
+        <v>145.8408352775311</v>
       </c>
       <c r="O2" t="n">
-        <v>127.997438762693</v>
+        <v>128.1660114526723</v>
       </c>
     </row>
     <row r="3">
@@ -9292,43 +9292,43 @@
         <v>8.636725107995959</v>
       </c>
       <c r="C3" t="n">
-        <v>13.34526753641334</v>
+        <v>13.32244058483048</v>
       </c>
       <c r="D3" t="n">
-        <v>20.09419030518745</v>
+        <v>20.11573827750871</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0228159746798</v>
+        <v>29.17963082528011</v>
       </c>
       <c r="F3" t="n">
-        <v>39.97484654349878</v>
+        <v>40.35992371623534</v>
       </c>
       <c r="G3" t="n">
-        <v>53.00086645606452</v>
+        <v>53.69132627161736</v>
       </c>
       <c r="H3" t="n">
-        <v>68.42578503601999</v>
+        <v>69.47749225192831</v>
       </c>
       <c r="I3" t="n">
-        <v>86.32346222617277</v>
+        <v>87.76025647240962</v>
       </c>
       <c r="J3" t="n">
-        <v>106.7263766572677</v>
+        <v>108.5327918054639</v>
       </c>
       <c r="K3" t="n">
-        <v>129.3441188798308</v>
+        <v>131.4743288279583</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2329340573069</v>
+        <v>155.5979116906788</v>
       </c>
       <c r="M3" t="n">
-        <v>175.4803068485199</v>
+        <v>177.9223809533279</v>
       </c>
       <c r="N3" t="n">
-        <v>186.7955373789252</v>
+        <v>189.0149278285194</v>
       </c>
       <c r="O3" t="n">
-        <v>155.0891230584431</v>
+        <v>156.5669300345869</v>
       </c>
     </row>
     <row r="4">
@@ -9338,46 +9338,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2258288455680495</v>
+        <v>0.2253258835606512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2200496604237211</v>
+        <v>0.2197506887032273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2157436254258688</v>
+        <v>0.2156374844801463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2105536643273657</v>
+        <v>0.2105963988048755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2093598008893112</v>
+        <v>0.2095033789638101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2112001452442294</v>
+        <v>0.2114112627215151</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2127798468748776</v>
+        <v>0.2130312319195803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2140325365689225</v>
+        <v>0.2142977734698538</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2144243592220629</v>
+        <v>0.2146961968971544</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2129896557133528</v>
+        <v>0.2132507231167899</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2066813761403783</v>
+        <v>0.2068952521194558</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1862202067614206</v>
+        <v>0.1863101628391307</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1204509811624528</v>
+        <v>0.1203586528768988</v>
       </c>
       <c r="O4" t="n">
-        <v>2.618588330110706e-10</v>
+        <v>2.642161032803787e-10</v>
       </c>
     </row>
     <row r="5">
@@ -9387,46 +9387,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.033382769818481</v>
+        <v>1.031100074660195</v>
       </c>
       <c r="C5" t="n">
-        <v>1.544098323787367</v>
+        <v>1.547049047606508</v>
       </c>
       <c r="D5" t="n">
-        <v>2.20164050439945</v>
+        <v>2.216570658121851</v>
       </c>
       <c r="E5" t="n">
-        <v>2.985521634213807</v>
+        <v>3.018561555738279</v>
       </c>
       <c r="F5" t="n">
-        <v>3.906249932004049</v>
+        <v>3.961869102768542</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9945525596171</v>
+        <v>5.075648436064062</v>
       </c>
       <c r="H5" t="n">
-        <v>6.246486623719539</v>
+        <v>6.353495285194741</v>
       </c>
       <c r="I5" t="n">
-        <v>7.662724650421454</v>
+        <v>7.793268247588822</v>
       </c>
       <c r="J5" t="n">
-        <v>9.213093234944964</v>
+        <v>9.363128428153106</v>
       </c>
       <c r="K5" t="n">
-        <v>10.81334284501786</v>
+        <v>10.97556478017519</v>
       </c>
       <c r="L5" t="n">
-        <v>12.20512864294719</v>
+        <v>12.36687438222045</v>
       </c>
       <c r="M5" t="n">
-        <v>12.56093377187139</v>
+        <v>12.6977229578835</v>
       </c>
       <c r="N5" t="n">
-        <v>8.995754646751822</v>
+        <v>9.066149984372469</v>
       </c>
       <c r="O5" t="n">
-        <v>1.992435137667932e-08</v>
+        <v>2.024565764636985e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9439,43 +9439,43 @@
         <v>4.604494857796085</v>
       </c>
       <c r="C6" t="n">
-        <v>7.106788661562125</v>
+        <v>7.103139648124547</v>
       </c>
       <c r="D6" t="n">
-        <v>10.39739347948436</v>
+        <v>10.40073711323738</v>
       </c>
       <c r="E6" t="n">
-        <v>14.51873103306557</v>
+        <v>14.5422207612437</v>
       </c>
       <c r="F6" t="n">
-        <v>19.17821603905879</v>
+        <v>19.23345324226919</v>
       </c>
       <c r="G6" t="n">
-        <v>24.37471698960604</v>
+        <v>24.46954706798471</v>
       </c>
       <c r="H6" t="n">
-        <v>30.30561006328585</v>
+        <v>30.44460436577667</v>
       </c>
       <c r="I6" t="n">
-        <v>36.97316415721016</v>
+        <v>37.15671650954703</v>
       </c>
       <c r="J6" t="n">
-        <v>44.34484321019193</v>
+        <v>44.56869177664836</v>
       </c>
       <c r="K6" t="n">
-        <v>52.31781059792917</v>
+        <v>52.57482599847085</v>
       </c>
       <c r="L6" t="n">
-        <v>60.72628831225899</v>
+        <v>61.00595515089634</v>
       </c>
       <c r="M6" t="n">
-        <v>69.21668699610986</v>
+        <v>69.50426694502939</v>
       </c>
       <c r="N6" t="n">
-        <v>76.56831266213945</v>
+        <v>76.84010667609152</v>
       </c>
       <c r="O6" t="n">
-        <v>78.14561219744056</v>
+        <v>78.36826040340769</v>
       </c>
     </row>
     <row r="7">
@@ -9485,46 +9485,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.575955596899552</v>
+        <v>4.576039194283922</v>
       </c>
       <c r="C7" t="n">
-        <v>7.01704479258953</v>
+        <v>7.040019108635396</v>
       </c>
       <c r="D7" t="n">
-        <v>10.20489249707149</v>
+        <v>10.27915282663173</v>
       </c>
       <c r="E7" t="n">
-        <v>14.17938578153626</v>
+        <v>14.33339588363558</v>
       </c>
       <c r="F7" t="n">
-        <v>18.65807053412937</v>
+        <v>18.91076469679718</v>
       </c>
       <c r="G7" t="n">
-        <v>23.64843335614876</v>
+        <v>24.0084107664124</v>
       </c>
       <c r="H7" t="n">
-        <v>29.35657072538784</v>
+        <v>29.82424327148987</v>
       </c>
       <c r="I7" t="n">
-        <v>35.80168124557041</v>
+        <v>36.36653858508303</v>
       </c>
       <c r="J7" t="n">
-        <v>42.96663526648885</v>
+        <v>43.61105861897643</v>
       </c>
       <c r="K7" t="n">
-        <v>50.76933341575398</v>
+        <v>51.46789009556726</v>
       </c>
       <c r="L7" t="n">
-        <v>59.05287099819508</v>
+        <v>59.77360164398623</v>
       </c>
       <c r="M7" t="n">
-        <v>67.45204502948522</v>
+        <v>68.15367859909678</v>
       </c>
       <c r="N7" t="n">
-        <v>74.6839466140936</v>
+        <v>75.32611713131421</v>
       </c>
       <c r="O7" t="n">
-        <v>76.088139351927</v>
+        <v>76.62537368089835</v>
       </c>
     </row>
     <row r="8">
@@ -9534,46 +9534,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1345208761218237</v>
+        <v>0.1312165383879995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1800806736866426</v>
+        <v>0.1711742804149406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2330242327239056</v>
+        <v>0.2188223692587933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.292163188824935</v>
+        <v>0.2728001549766431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3549085993303013</v>
+        <v>0.3305261650057709</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4179726835463045</v>
+        <v>0.3887630822238176</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4773211484875814</v>
+        <v>0.4436733761915401</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5274041890637432</v>
+        <v>0.4901839218071158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5610125910688909</v>
+        <v>0.5214959859773373</v>
       </c>
       <c r="K8" t="n">
-        <v>0.569113590995261</v>
+        <v>0.529297530546369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5402554366913463</v>
+        <v>0.5029317231906717</v>
       </c>
       <c r="M8" t="n">
-        <v>0.460901072540045</v>
+        <v>0.4302357791737413</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3187976781773855</v>
+        <v>0.2989722518740922</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002481567212348745</v>
+        <v>0.002490202160132758</v>
       </c>
     </row>
     <row r="9">
@@ -9583,46 +9583,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001242751680758127</v>
+        <v>0.001159154296388378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003390128297523638</v>
+        <v>0.002939767727760386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008115185234518959</v>
+        <v>0.006807252170101213</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01724876334100306</v>
+        <v>0.01425849093295189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03220812650667294</v>
+        <v>0.02646455680760926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05375861586108652</v>
+        <v>0.04405937731060981</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08149057496056851</v>
+        <v>0.06671173292364428</v>
       </c>
       <c r="I9" t="n">
-        <v>0.111707467115038</v>
+        <v>0.09146107016330365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1366629774978214</v>
+        <v>0.111948184146908</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1452752967702092</v>
+        <v>0.1191578350154782</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1271712117434582</v>
+        <v>0.104551912019238</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08164328078168039</v>
+        <v>0.06760794923554017</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02845810286818177</v>
+        <v>0.02385991429320879</v>
       </c>
       <c r="O9" t="n">
-        <v>3.219049672466108e-08</v>
+        <v>3.25977371255501e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9632,46 +9632,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005928231013127825</v>
+        <v>0.005928231013127826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01215088062800081</v>
+        <v>0.008472418499794031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01773384815551868</v>
+        <v>0.01103547115804605</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02218489256772863</v>
+        <v>0.01337941363080517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02544227145157868</v>
+        <v>0.01540149784508744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02759109030406242</v>
+        <v>0.01704473413843399</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02862667212855234</v>
+        <v>0.01818546743821458</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02866336892397243</v>
+        <v>0.01880459093098738</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02799750492566664</v>
+        <v>0.01897486643231727</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02682073025166939</v>
+        <v>0.01878804254942916</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02546254917424794</v>
+        <v>0.01848674595949346</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02431492691838228</v>
+        <v>0.01845901630344178</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02423859009884327</v>
+        <v>0.01939260231334061</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02632870554682867</v>
+        <v>0.02223970113589271</v>
       </c>
     </row>
     <row r="11">
@@ -9681,46 +9681,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.542572827081071</v>
+        <v>3.544939119623727</v>
       </c>
       <c r="C11" t="n">
-        <v>5.472946468802163</v>
+        <v>5.492970061028887</v>
       </c>
       <c r="D11" t="n">
-        <v>8.003251992672039</v>
+        <v>8.062582168509875</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19386414732245</v>
+        <v>11.3148343278973</v>
       </c>
       <c r="F11" t="n">
-        <v>14.75182060212532</v>
+        <v>14.94889559402864</v>
       </c>
       <c r="G11" t="n">
-        <v>18.65388079653167</v>
+        <v>18.93276233034834</v>
       </c>
       <c r="H11" t="n">
-        <v>23.1100841016683</v>
+        <v>23.47074798629513</v>
       </c>
       <c r="I11" t="n">
-        <v>28.13895659514895</v>
+        <v>28.57327033749421</v>
       </c>
       <c r="J11" t="n">
-        <v>33.75354203154389</v>
+        <v>34.24793019082332</v>
       </c>
       <c r="K11" t="n">
-        <v>39.95599057073612</v>
+        <v>40.49232531539208</v>
       </c>
       <c r="L11" t="n">
-        <v>46.84774235524789</v>
+        <v>47.40672726176578</v>
       </c>
       <c r="M11" t="n">
-        <v>54.89111125761384</v>
+        <v>55.45595564121327</v>
       </c>
       <c r="N11" t="n">
-        <v>65.68819196734178</v>
+        <v>66.25996714694173</v>
       </c>
       <c r="O11" t="n">
-        <v>76.08813933200264</v>
+        <v>76.62537366065268</v>
       </c>
     </row>
     <row r="12">
@@ -9730,46 +9730,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6257793982992098</v>
+        <v>0.6281685795305076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7481010903004573</v>
+        <v>0.7558390678413571</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8519535794682892</v>
+        <v>0.8680079995624077</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9282405126144211</v>
+        <v>0.9551756129575022</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9583462603349008</v>
+        <v>0.9974333095162859</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9546739178888081</v>
+        <v>1.006485715201901</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9367755209831703</v>
+        <v>1.001654054735316</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9176630502426694</v>
+        <v>0.9948500249703722</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9164367053967986</v>
+        <v>1.003974678351572</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9593661369364509</v>
+        <v>1.053164832546593</v>
       </c>
       <c r="L12" t="n">
-        <v>1.082250754300555</v>
+        <v>1.175500548279847</v>
       </c>
       <c r="M12" t="n">
-        <v>1.326613384358009</v>
+        <v>1.407899774565496</v>
       </c>
       <c r="N12" t="n">
-        <v>1.711165616905822</v>
+        <v>1.767217553691641</v>
       </c>
       <c r="O12" t="n">
-        <v>2.373002608714882</v>
+        <v>2.37974303775732</v>
       </c>
     </row>
     <row r="13">
@@ -9779,46 +9779,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.43514799678788</v>
+        <v>23.52068872716283</v>
       </c>
       <c r="C13" t="n">
-        <v>29.60764076396589</v>
+        <v>29.89479762125402</v>
       </c>
       <c r="D13" t="n">
-        <v>35.12790484957291</v>
+        <v>35.73880029381417</v>
       </c>
       <c r="E13" t="n">
-        <v>39.40967346009464</v>
+        <v>40.44376508580942</v>
       </c>
       <c r="F13" t="n">
-        <v>41.50697246909552</v>
+        <v>42.99880683141216</v>
       </c>
       <c r="G13" t="n">
-        <v>41.87274167915159</v>
+        <v>43.81402903767386</v>
       </c>
       <c r="H13" t="n">
-        <v>41.35194550338083</v>
+        <v>43.71431427986892</v>
       </c>
       <c r="I13" t="n">
-        <v>40.47668113009475</v>
+        <v>43.18853844788882</v>
       </c>
       <c r="J13" t="n">
-        <v>39.92172976133748</v>
+        <v>42.87792049297731</v>
       </c>
       <c r="K13" t="n">
-        <v>40.47420052570575</v>
+        <v>43.51935537958304</v>
       </c>
       <c r="L13" t="n">
-        <v>43.0748260028889</v>
+        <v>45.99864264219286</v>
       </c>
       <c r="M13" t="n">
-        <v>48.68901702654556</v>
+        <v>51.1745955938294</v>
       </c>
       <c r="N13" t="n">
-        <v>57.51178782020292</v>
+        <v>59.20663244816667</v>
       </c>
       <c r="O13" t="n">
-        <v>73.64463676991768</v>
+        <v>73.85382222631509</v>
       </c>
     </row>
     <row r="14">
@@ -9989,46 +9989,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.1283135514809</v>
+        <v>136.2569508198538</v>
       </c>
       <c r="C2" t="n">
-        <v>174.1175920688546</v>
+        <v>174.6087955465682</v>
       </c>
       <c r="D2" t="n">
-        <v>196.536751309675</v>
+        <v>197.3703419636415</v>
       </c>
       <c r="E2" t="n">
-        <v>206.4172963997553</v>
+        <v>207.4443908044176</v>
       </c>
       <c r="F2" t="n">
-        <v>202.6986472447218</v>
+        <v>203.7481810500248</v>
       </c>
       <c r="G2" t="n">
-        <v>192.1243227532184</v>
+        <v>193.0881023015084</v>
       </c>
       <c r="H2" t="n">
-        <v>179.9575044784044</v>
+        <v>180.7873790550239</v>
       </c>
       <c r="I2" t="n">
-        <v>167.2141683940002</v>
+        <v>167.8920554331628</v>
       </c>
       <c r="J2" t="n">
-        <v>154.5087756861756</v>
+        <v>155.0387029162561</v>
       </c>
       <c r="K2" t="n">
-        <v>138.9029766654016</v>
+        <v>139.292760389435</v>
       </c>
       <c r="L2" t="n">
-        <v>121.6101357231298</v>
+        <v>121.8810128566034</v>
       </c>
       <c r="M2" t="n">
-        <v>106.2913668875157</v>
+        <v>106.4730021083727</v>
       </c>
       <c r="N2" t="n">
-        <v>93.09181697892987</v>
+        <v>93.20965848175619</v>
       </c>
       <c r="O2" t="n">
-        <v>80.89374654791531</v>
+        <v>80.9675161214022</v>
       </c>
     </row>
     <row r="3">
@@ -10041,43 +10041,43 @@
         <v>10.83233191914928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.30181605151137</v>
+        <v>18.27575109180452</v>
       </c>
       <c r="D3" t="n">
-        <v>27.65716694306032</v>
+        <v>27.68027199952164</v>
       </c>
       <c r="E3" t="n">
-        <v>38.83618776954879</v>
+        <v>39.00612593875953</v>
       </c>
       <c r="F3" t="n">
-        <v>51.45893769457025</v>
+        <v>51.86334390773911</v>
       </c>
       <c r="G3" t="n">
-        <v>65.58624513960184</v>
+        <v>66.28942137251605</v>
       </c>
       <c r="H3" t="n">
-        <v>81.6246052831283</v>
+        <v>82.67251821393882</v>
       </c>
       <c r="I3" t="n">
-        <v>99.548833017988</v>
+        <v>100.9639905469236</v>
       </c>
       <c r="J3" t="n">
-        <v>119.0576162047434</v>
+        <v>120.8304349886925</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3937842931694</v>
+        <v>140.4739653589305</v>
       </c>
       <c r="L3" t="n">
-        <v>155.9018913525223</v>
+        <v>158.178874557742</v>
       </c>
       <c r="M3" t="n">
-        <v>170.0698879678945</v>
+        <v>172.3564886535328</v>
       </c>
       <c r="N3" t="n">
-        <v>172.9913873370303</v>
+        <v>174.961015826959</v>
       </c>
       <c r="O3" t="n">
-        <v>137.4760055577951</v>
+        <v>138.6796467632849</v>
       </c>
     </row>
     <row r="4">
@@ -10087,46 +10087,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.253645555547402</v>
+        <v>0.2531402321992115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2457827158210354</v>
+        <v>0.2453576363520076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239260606990523</v>
+        <v>0.2389047966951146</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2323429607704506</v>
+        <v>0.2320239563394118</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2305557097558888</v>
+        <v>0.2302568252736661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2317412016328318</v>
+        <v>0.2314815271288524</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2318784728681343</v>
+        <v>0.2316970108156435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2301449685511187</v>
+        <v>0.2300760161599788</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2236800680170178</v>
+        <v>0.2237603015613818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2166687436316326</v>
+        <v>0.2168767278577192</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2090357739457343</v>
+        <v>0.2092757909768228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1870445215612326</v>
+        <v>0.1871537074080521</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1188456591135649</v>
+        <v>0.11872303535283</v>
       </c>
       <c r="O4" t="n">
-        <v>6.53861871836752e-10</v>
+        <v>6.574679425532033e-10</v>
       </c>
     </row>
     <row r="5">
@@ -10136,46 +10136,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.452481545529695</v>
+        <v>1.44987504955901</v>
       </c>
       <c r="C5" t="n">
-        <v>2.127571827122219</v>
+        <v>2.130791161717537</v>
       </c>
       <c r="D5" t="n">
-        <v>2.919272994225723</v>
+        <v>2.935461187642261</v>
       </c>
       <c r="E5" t="n">
-        <v>3.791759632365328</v>
+        <v>3.826274876106828</v>
       </c>
       <c r="F5" t="n">
-        <v>4.764362301505599</v>
+        <v>4.820579152039573</v>
       </c>
       <c r="G5" t="n">
-        <v>5.875609563583571</v>
+        <v>5.95588261746383</v>
       </c>
       <c r="H5" t="n">
-        <v>7.10880929740886</v>
+        <v>7.213786585694855</v>
       </c>
       <c r="I5" t="n">
-        <v>8.434708439425592</v>
+        <v>8.562646825852001</v>
       </c>
       <c r="J5" t="n">
-        <v>9.688096039287499</v>
+        <v>9.834299777046878</v>
       </c>
       <c r="K5" t="n">
-        <v>10.76469625256441</v>
+        <v>10.91986314417287</v>
       </c>
       <c r="L5" t="n">
-        <v>11.57102596824574</v>
+        <v>11.72029254159657</v>
       </c>
       <c r="M5" t="n">
-        <v>11.36916840924031</v>
+        <v>11.48640242221318</v>
       </c>
       <c r="N5" t="n">
-        <v>7.715763847038449</v>
+        <v>7.767451268642939</v>
       </c>
       <c r="O5" t="n">
-        <v>4.180021230248497e-08</v>
+        <v>4.228875109948478e-08</v>
       </c>
     </row>
     <row r="6">
@@ -10188,43 +10188,43 @@
         <v>5.773373341602125</v>
       </c>
       <c r="C6" t="n">
-        <v>8.788139467748408</v>
+        <v>8.784382844284913</v>
       </c>
       <c r="D6" t="n">
-        <v>12.47189117074081</v>
+        <v>12.47501599765812</v>
       </c>
       <c r="E6" t="n">
-        <v>16.78243296966766</v>
+        <v>16.80443012521245</v>
       </c>
       <c r="F6" t="n">
-        <v>21.35370339651808</v>
+        <v>21.40390996742311</v>
       </c>
       <c r="G6" t="n">
-        <v>26.2922898786586</v>
+        <v>26.37654148659575</v>
       </c>
       <c r="H6" t="n">
-        <v>31.85457973397962</v>
+        <v>31.97671906436952</v>
       </c>
       <c r="I6" t="n">
-        <v>38.09231017913381</v>
+        <v>38.25396113675356</v>
       </c>
       <c r="J6" t="n">
-        <v>44.96912758001037</v>
+        <v>45.16897225313276</v>
       </c>
       <c r="K6" t="n">
-        <v>51.44991839272998</v>
+        <v>51.68070951224822</v>
       </c>
       <c r="L6" t="n">
-        <v>57.11335682466908</v>
+        <v>57.36233423104459</v>
       </c>
       <c r="M6" t="n">
-        <v>62.47864224810061</v>
+        <v>62.72947412631468</v>
       </c>
       <c r="N6" t="n">
-        <v>66.59479887694181</v>
+        <v>66.82136679200597</v>
       </c>
       <c r="O6" t="n">
-        <v>65.65283319585734</v>
+        <v>65.82475009936658</v>
       </c>
     </row>
     <row r="7">
@@ -10234,46 +10234,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.726422220941504</v>
+        <v>5.727556765524396</v>
       </c>
       <c r="C7" t="n">
-        <v>8.656311815967536</v>
+        <v>8.684429771162904</v>
       </c>
       <c r="D7" t="n">
-        <v>12.20122706761065</v>
+        <v>12.28715885260536</v>
       </c>
       <c r="E7" t="n">
-        <v>16.31966649556256</v>
+        <v>16.49086127343521</v>
       </c>
       <c r="F7" t="n">
-        <v>20.66469013736455</v>
+        <v>20.93566236879272</v>
       </c>
       <c r="G7" t="n">
-        <v>25.35418614464951</v>
+        <v>25.72940783369091</v>
       </c>
       <c r="H7" t="n">
-        <v>30.65747850362776</v>
+        <v>31.13456906629976</v>
       </c>
       <c r="I7" t="n">
-        <v>36.64954525196198</v>
+        <v>37.2165989691778</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31229029557706</v>
+        <v>43.95015428752959</v>
       </c>
       <c r="K7" t="n">
-        <v>49.68273721504524</v>
+        <v>50.35055283265238</v>
       </c>
       <c r="L7" t="n">
-        <v>55.35428577526437</v>
+        <v>56.00405324901909</v>
       </c>
       <c r="M7" t="n">
-        <v>60.78322056344426</v>
+        <v>61.37416448379154</v>
       </c>
       <c r="N7" t="n">
-        <v>64.92255505660096</v>
+        <v>65.42497204151699</v>
       </c>
       <c r="O7" t="n">
-        <v>63.92819967474892</v>
+        <v>64.32062821992679</v>
       </c>
     </row>
     <row r="8">
@@ -10283,46 +10283,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3618000167462478</v>
+        <v>0.3544286505347796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4532690924154886</v>
+        <v>0.4314683815369055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5425828903463313</v>
+        <v>0.5093044382718259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6291711904130367</v>
+        <v>0.5865043953693666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7099267692308396</v>
+        <v>0.6595097815742165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7818961159127472</v>
+        <v>0.7250252071541552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8413659116424186</v>
+        <v>0.7793408099446307</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8830980773626057</v>
+        <v>0.8176876760090851</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9002026197826221</v>
+        <v>0.8334622110835995</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8799886829858747</v>
+        <v>0.8150362374544045</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8073167742155172</v>
+        <v>0.7483769929607026</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6677717971702335</v>
+        <v>0.6207616364632037</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4493610877798889</v>
+        <v>0.4197667893297212</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003149566163218022</v>
+        <v>0.003158142873627502</v>
       </c>
     </row>
     <row r="9">
@@ -10332,46 +10332,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02025710928757309</v>
+        <v>0.01912256470468058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04713704505513489</v>
+        <v>0.04104277364921696</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0912749928436144</v>
+        <v>0.0764702361322717</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1552373070899556</v>
+        <v>0.1276943873055251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2339025841876409</v>
+        <v>0.190755231747034</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3219682989336811</v>
+        <v>0.2614411179786963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4123852684624854</v>
+        <v>0.334075157341547</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4903006250751665</v>
+        <v>0.3969368176552479</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5342824818567108</v>
+        <v>0.4325382086621123</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5052384316784878</v>
+        <v>0.4094488762032031</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3904813611507659</v>
+        <v>0.3171783253768589</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2237876519014868</v>
+        <v>0.1831501222455026</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07048221609899345</v>
+        <v>0.05843996014975902</v>
       </c>
       <c r="O9" t="n">
-        <v>5.80726972989822e-08</v>
+        <v>5.866980129073722e-08</v>
       </c>
     </row>
     <row r="10">
@@ -10384,43 +10384,43 @@
         <v>0.00462364198426167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009636921106742007</v>
+        <v>0.006706253645481662</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01438347302992803</v>
+        <v>0.00892879888421743</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01832446866142558</v>
+        <v>0.01106103944535701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02131296227707742</v>
+        <v>0.01296456429249114</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02343407279924774</v>
+        <v>0.01462255903118096</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02463432160909377</v>
+        <v>0.01588889841091739</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02500410969084248</v>
+        <v>0.01674141267700508</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02496278809455016</v>
+        <v>0.01740751931513182</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02452759470624491</v>
+        <v>0.01781530888569607</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02396269041680303</v>
+        <v>0.0181495866687587</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02355419355803287</v>
+        <v>0.01868594526900276</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0240523529052426</v>
+        <v>0.02002285877365936</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02626898762907545</v>
+        <v>0.02285039925710941</v>
       </c>
     </row>
     <row r="11">
@@ -10430,46 +10430,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.273940675411808</v>
+        <v>4.277681715965385</v>
       </c>
       <c r="C11" t="n">
-        <v>6.528739988845317</v>
+        <v>6.553638609445367</v>
       </c>
       <c r="D11" t="n">
-        <v>9.281954073384927</v>
+        <v>9.351697664963099</v>
       </c>
       <c r="E11" t="n">
-        <v>12.52790686319723</v>
+        <v>12.66458639732838</v>
       </c>
       <c r="F11" t="n">
-        <v>15.90032783585895</v>
+        <v>16.11508321675315</v>
       </c>
       <c r="G11" t="n">
-        <v>19.47857658106593</v>
+        <v>19.77352521622709</v>
       </c>
       <c r="H11" t="n">
-        <v>23.5486692062189</v>
+        <v>23.9207824806049</v>
       </c>
       <c r="I11" t="n">
-        <v>28.21483681253639</v>
+        <v>28.6539521433258</v>
       </c>
       <c r="J11" t="n">
-        <v>33.62419425628956</v>
+        <v>34.11585451048271</v>
       </c>
       <c r="K11" t="n">
-        <v>38.91804096248082</v>
+        <v>39.43068968847952</v>
       </c>
       <c r="L11" t="n">
-        <v>43.78325980701863</v>
+        <v>44.28376070742251</v>
       </c>
       <c r="M11" t="n">
-        <v>49.41405215420396</v>
+        <v>49.88776206157836</v>
       </c>
       <c r="N11" t="n">
-        <v>57.20679120956251</v>
+        <v>57.65752077287405</v>
       </c>
       <c r="O11" t="n">
-        <v>63.9281996329487</v>
+        <v>64.32062817763804</v>
       </c>
     </row>
     <row r="12">
@@ -10479,46 +10479,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5183299965854452</v>
+        <v>0.5243168350741282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5754564951031406</v>
+        <v>0.598146832836382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5896723004502858</v>
+        <v>0.6327312009293595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5619922589994002</v>
+        <v>0.6274752957417996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4940824289085918</v>
+        <v>0.5813213945935884</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4080652116361781</v>
+        <v>0.5161173916209074</v>
       </c>
       <c r="H12" t="n">
-        <v>0.323666468372716</v>
+        <v>0.4519446330773388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2588003973742563</v>
+        <v>0.4053203531745956</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2383706793133042</v>
+        <v>0.3995510115917523</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3016909756506422</v>
+        <v>0.4670577105490193</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4975238022373695</v>
+        <v>0.6525434454957261</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8728985422187514</v>
+        <v>1.000413627080411</v>
       </c>
       <c r="N12" t="n">
-        <v>1.441199956689857</v>
+        <v>1.523824555112222</v>
       </c>
       <c r="O12" t="n">
-        <v>2.414204062542849</v>
+        <v>2.420505012522027</v>
       </c>
     </row>
     <row r="13">
@@ -10528,46 +10528,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.72889448867528</v>
+        <v>22.95644017527725</v>
       </c>
       <c r="C13" t="n">
-        <v>26.16240066034156</v>
+        <v>27.01038698152768</v>
       </c>
       <c r="D13" t="n">
-        <v>27.79937963781813</v>
+        <v>29.37181441882906</v>
       </c>
       <c r="E13" t="n">
-        <v>27.67773886557247</v>
+        <v>29.99102519848153</v>
       </c>
       <c r="F13" t="n">
-        <v>25.82760617495757</v>
+        <v>28.7833168781235</v>
       </c>
       <c r="G13" t="n">
-        <v>23.2439461974662</v>
+        <v>26.73149556509521</v>
       </c>
       <c r="H13" t="n">
-        <v>20.76721116354544</v>
+        <v>24.69393454018932</v>
       </c>
       <c r="I13" t="n">
-        <v>18.94634776207341</v>
+        <v>23.19218599667797</v>
       </c>
       <c r="J13" t="n">
-        <v>18.36586711507293</v>
+        <v>22.7925521848029</v>
       </c>
       <c r="K13" t="n">
-        <v>19.60962868153596</v>
+        <v>23.93985657389334</v>
       </c>
       <c r="L13" t="n">
-        <v>23.58042410421673</v>
+        <v>27.49453323488938</v>
       </c>
       <c r="M13" t="n">
-        <v>31.24135795694816</v>
+        <v>34.39628975071936</v>
       </c>
       <c r="N13" t="n">
-        <v>42.57388798388155</v>
+        <v>44.61746927324672</v>
       </c>
       <c r="O13" t="n">
-        <v>63.11027866463035</v>
+        <v>63.27499382611526</v>
       </c>
     </row>
     <row r="14">

--- a/RICE13_pyomo/Results/coop.xlsx
+++ b/RICE13_pyomo/Results/coop.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="US" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="EU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="JAP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RUS" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="EUR" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CHI" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="IND" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MEST" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="AFR" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="LAM" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="OHI" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="OTH" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="global" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="US" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JAP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IND" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEST" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AFR" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAM" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OHI" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTH" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="global" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/RICE13_pyomo/Results/coop.xlsx
+++ b/RICE13_pyomo/Results/coop.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="US" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JAP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUS" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHI" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IND" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEST" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AFR" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAM" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OHI" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTH" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="global" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="US" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="JAP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="EUR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CHI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="IND" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MEST" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="AFR" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="LAM" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="OHI" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="OTH" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="global" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
